--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>33574300</v>
+        <v>34313000</v>
       </c>
       <c r="E8" s="3">
-        <v>35883600</v>
+        <v>36673200</v>
       </c>
       <c r="F8" s="3">
-        <v>36757600</v>
+        <v>37566300</v>
       </c>
       <c r="G8" s="3">
-        <v>46857500</v>
+        <v>47888400</v>
       </c>
       <c r="H8" s="3">
-        <v>55582500</v>
+        <v>56805400</v>
       </c>
       <c r="I8" s="3">
-        <v>58991400</v>
+        <v>60289300</v>
       </c>
       <c r="J8" s="3">
-        <v>52058300</v>
+        <v>53203700</v>
       </c>
       <c r="K8" s="3">
         <v>55146400</v>
@@ -747,25 +747,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25302600</v>
+        <v>25859300</v>
       </c>
       <c r="E9" s="3">
-        <v>27150400</v>
+        <v>27747700</v>
       </c>
       <c r="F9" s="3">
-        <v>27408100</v>
+        <v>28011200</v>
       </c>
       <c r="G9" s="3">
-        <v>40026200</v>
+        <v>40906900</v>
       </c>
       <c r="H9" s="3">
-        <v>42752200</v>
+        <v>43692800</v>
       </c>
       <c r="I9" s="3">
-        <v>44230000</v>
+        <v>45203200</v>
       </c>
       <c r="J9" s="3">
-        <v>39213900</v>
+        <v>40076700</v>
       </c>
       <c r="K9" s="3">
         <v>83743400</v>
@@ -777,25 +777,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8271700</v>
+        <v>8453700</v>
       </c>
       <c r="E10" s="3">
-        <v>8733300</v>
+        <v>8925400</v>
       </c>
       <c r="F10" s="3">
-        <v>9349400</v>
+        <v>9555100</v>
       </c>
       <c r="G10" s="3">
-        <v>6831300</v>
+        <v>6981600</v>
       </c>
       <c r="H10" s="3">
-        <v>12830300</v>
+        <v>13112600</v>
       </c>
       <c r="I10" s="3">
-        <v>14761400</v>
+        <v>15086200</v>
       </c>
       <c r="J10" s="3">
-        <v>12844400</v>
+        <v>13127000</v>
       </c>
       <c r="K10" s="3">
         <v>-28597000</v>
@@ -881,16 +881,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>89400</v>
+        <v>91400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>153700</v>
+        <v>157100</v>
       </c>
       <c r="G14" s="3">
-        <v>430600</v>
+        <v>440100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33252100</v>
+        <v>33983700</v>
       </c>
       <c r="E17" s="3">
-        <v>35301300</v>
+        <v>36078000</v>
       </c>
       <c r="F17" s="3">
-        <v>36012000</v>
+        <v>36804400</v>
       </c>
       <c r="G17" s="3">
-        <v>51248000</v>
+        <v>52375600</v>
       </c>
       <c r="H17" s="3">
-        <v>53869800</v>
+        <v>55055100</v>
       </c>
       <c r="I17" s="3">
-        <v>56654100</v>
+        <v>57900600</v>
       </c>
       <c r="J17" s="3">
-        <v>50260800</v>
+        <v>51366700</v>
       </c>
       <c r="K17" s="3">
         <v>53314300</v>
@@ -982,25 +982,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>322200</v>
+        <v>329300</v>
       </c>
       <c r="E18" s="3">
-        <v>582400</v>
+        <v>595200</v>
       </c>
       <c r="F18" s="3">
-        <v>745500</v>
+        <v>761900</v>
       </c>
       <c r="G18" s="3">
-        <v>-4390600</v>
+        <v>-4487200</v>
       </c>
       <c r="H18" s="3">
-        <v>1712600</v>
+        <v>1750300</v>
       </c>
       <c r="I18" s="3">
-        <v>2337300</v>
+        <v>2388700</v>
       </c>
       <c r="J18" s="3">
-        <v>1797500</v>
+        <v>1837000</v>
       </c>
       <c r="K18" s="3">
         <v>1832100</v>
@@ -1026,25 +1026,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-127000</v>
+        <v>-129800</v>
       </c>
       <c r="E20" s="3">
-        <v>433300</v>
+        <v>442900</v>
       </c>
       <c r="F20" s="3">
-        <v>-168400</v>
+        <v>-172200</v>
       </c>
       <c r="G20" s="3">
-        <v>922800</v>
+        <v>943100</v>
       </c>
       <c r="H20" s="3">
-        <v>-78000</v>
+        <v>-79700</v>
       </c>
       <c r="I20" s="3">
-        <v>-373500</v>
+        <v>-381800</v>
       </c>
       <c r="J20" s="3">
-        <v>-49400</v>
+        <v>-50500</v>
       </c>
       <c r="K20" s="3">
         <v>-228400</v>
@@ -1056,25 +1056,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>910500</v>
+        <v>928100</v>
       </c>
       <c r="E21" s="3">
-        <v>2091400</v>
+        <v>2133800</v>
       </c>
       <c r="F21" s="3">
-        <v>2061800</v>
+        <v>2102200</v>
       </c>
       <c r="G21" s="3">
-        <v>-1519400</v>
+        <v>-1559300</v>
       </c>
       <c r="H21" s="3">
-        <v>3365000</v>
+        <v>3433200</v>
       </c>
       <c r="I21" s="3">
-        <v>3528800</v>
+        <v>3601200</v>
       </c>
       <c r="J21" s="3">
-        <v>3740000</v>
+        <v>3815700</v>
       </c>
       <c r="K21" s="3">
         <v>3862900</v>
@@ -1086,25 +1086,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>96000</v>
+        <v>98100</v>
       </c>
       <c r="E22" s="3">
-        <v>266900</v>
+        <v>272800</v>
       </c>
       <c r="F22" s="3">
-        <v>168500</v>
+        <v>172200</v>
       </c>
       <c r="G22" s="3">
-        <v>162500</v>
+        <v>166000</v>
       </c>
       <c r="H22" s="3">
-        <v>211000</v>
+        <v>215700</v>
       </c>
       <c r="I22" s="3">
-        <v>306300</v>
+        <v>313000</v>
       </c>
       <c r="J22" s="3">
-        <v>297000</v>
+        <v>303600</v>
       </c>
       <c r="K22" s="3">
         <v>287600</v>
@@ -1116,25 +1116,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>99200</v>
+        <v>101300</v>
       </c>
       <c r="E23" s="3">
-        <v>748800</v>
+        <v>765300</v>
       </c>
       <c r="F23" s="3">
-        <v>408600</v>
+        <v>417500</v>
       </c>
       <c r="G23" s="3">
-        <v>-3630200</v>
+        <v>-3710100</v>
       </c>
       <c r="H23" s="3">
-        <v>1423600</v>
+        <v>1455000</v>
       </c>
       <c r="I23" s="3">
-        <v>1657400</v>
+        <v>1693900</v>
       </c>
       <c r="J23" s="3">
-        <v>1451000</v>
+        <v>1483000</v>
       </c>
       <c r="K23" s="3">
         <v>1316000</v>
@@ -1146,25 +1146,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>141400</v>
+        <v>144500</v>
       </c>
       <c r="E24" s="3">
-        <v>-563000</v>
+        <v>-575400</v>
       </c>
       <c r="F24" s="3">
-        <v>526900</v>
+        <v>538500</v>
       </c>
       <c r="G24" s="3">
-        <v>2239900</v>
+        <v>2289200</v>
       </c>
       <c r="H24" s="3">
-        <v>1300000</v>
+        <v>1328600</v>
       </c>
       <c r="I24" s="3">
-        <v>836700</v>
+        <v>855100</v>
       </c>
       <c r="J24" s="3">
-        <v>539200</v>
+        <v>551000</v>
       </c>
       <c r="K24" s="3">
         <v>580600</v>
@@ -1206,25 +1206,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-42200</v>
+        <v>-43100</v>
       </c>
       <c r="E26" s="3">
-        <v>1311800</v>
+        <v>1340700</v>
       </c>
       <c r="F26" s="3">
-        <v>-118400</v>
+        <v>-121000</v>
       </c>
       <c r="G26" s="3">
-        <v>-5870100</v>
+        <v>-5999200</v>
       </c>
       <c r="H26" s="3">
-        <v>123600</v>
+        <v>126300</v>
       </c>
       <c r="I26" s="3">
-        <v>820700</v>
+        <v>838800</v>
       </c>
       <c r="J26" s="3">
-        <v>911900</v>
+        <v>931900</v>
       </c>
       <c r="K26" s="3">
         <v>735500</v>
@@ -1236,25 +1236,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-245300</v>
+        <v>-250700</v>
       </c>
       <c r="E27" s="3">
-        <v>981200</v>
+        <v>1002800</v>
       </c>
       <c r="F27" s="3">
-        <v>1650000</v>
+        <v>1686300</v>
       </c>
       <c r="G27" s="3">
-        <v>-5360800</v>
+        <v>-5478800</v>
       </c>
       <c r="H27" s="3">
-        <v>-47400</v>
+        <v>-48400</v>
       </c>
       <c r="I27" s="3">
-        <v>684100</v>
+        <v>699200</v>
       </c>
       <c r="J27" s="3">
-        <v>748600</v>
+        <v>765000</v>
       </c>
       <c r="K27" s="3">
         <v>645000</v>
@@ -1296,25 +1296,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>9455800</v>
+        <v>9663800</v>
       </c>
       <c r="E29" s="3">
-        <v>6327300</v>
+        <v>6466500</v>
       </c>
       <c r="F29" s="3">
-        <v>-10427900</v>
+        <v>-10657300</v>
       </c>
       <c r="G29" s="3">
-        <v>1179300</v>
+        <v>1205300</v>
       </c>
       <c r="H29" s="3">
-        <v>-296500</v>
+        <v>-303000</v>
       </c>
       <c r="I29" s="3">
-        <v>-136500</v>
+        <v>-139500</v>
       </c>
       <c r="J29" s="3">
-        <v>-45300</v>
+        <v>-46300</v>
       </c>
       <c r="K29" s="3">
         <v>-11700</v>
@@ -1386,25 +1386,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>127000</v>
+        <v>129800</v>
       </c>
       <c r="E32" s="3">
-        <v>-433300</v>
+        <v>-442900</v>
       </c>
       <c r="F32" s="3">
-        <v>168400</v>
+        <v>172200</v>
       </c>
       <c r="G32" s="3">
-        <v>-922800</v>
+        <v>-943100</v>
       </c>
       <c r="H32" s="3">
-        <v>78000</v>
+        <v>79700</v>
       </c>
       <c r="I32" s="3">
-        <v>373500</v>
+        <v>381800</v>
       </c>
       <c r="J32" s="3">
-        <v>49400</v>
+        <v>50500</v>
       </c>
       <c r="K32" s="3">
         <v>228400</v>
@@ -1416,25 +1416,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9210500</v>
+        <v>9413100</v>
       </c>
       <c r="E33" s="3">
-        <v>7308500</v>
+        <v>7469300</v>
       </c>
       <c r="F33" s="3">
-        <v>-8777900</v>
+        <v>-8971000</v>
       </c>
       <c r="G33" s="3">
-        <v>-4181500</v>
+        <v>-4273500</v>
       </c>
       <c r="H33" s="3">
-        <v>-343800</v>
+        <v>-351400</v>
       </c>
       <c r="I33" s="3">
-        <v>547600</v>
+        <v>559600</v>
       </c>
       <c r="J33" s="3">
-        <v>703300</v>
+        <v>718700</v>
       </c>
       <c r="K33" s="3">
         <v>633300</v>
@@ -1476,25 +1476,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9210500</v>
+        <v>9413100</v>
       </c>
       <c r="E35" s="3">
-        <v>7308500</v>
+        <v>7469300</v>
       </c>
       <c r="F35" s="3">
-        <v>-8777900</v>
+        <v>-8971000</v>
       </c>
       <c r="G35" s="3">
-        <v>-4181500</v>
+        <v>-4273500</v>
       </c>
       <c r="H35" s="3">
-        <v>-343800</v>
+        <v>-351400</v>
       </c>
       <c r="I35" s="3">
-        <v>547600</v>
+        <v>559600</v>
       </c>
       <c r="J35" s="3">
-        <v>703300</v>
+        <v>718700</v>
       </c>
       <c r="K35" s="3">
         <v>633300</v>
@@ -1569,25 +1569,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12139900</v>
+        <v>12393600</v>
       </c>
       <c r="E41" s="3">
-        <v>4552500</v>
+        <v>4647600</v>
       </c>
       <c r="F41" s="3">
-        <v>4736800</v>
+        <v>4835800</v>
       </c>
       <c r="G41" s="3">
-        <v>8814700</v>
+        <v>8999000</v>
       </c>
       <c r="H41" s="3">
-        <v>1728800</v>
+        <v>1764900</v>
       </c>
       <c r="I41" s="3">
-        <v>1557500</v>
+        <v>1590000</v>
       </c>
       <c r="J41" s="3">
-        <v>1901300</v>
+        <v>1941100</v>
       </c>
       <c r="K41" s="3">
         <v>1937300</v>
@@ -1629,25 +1629,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9982600</v>
+        <v>10191300</v>
       </c>
       <c r="E43" s="3">
-        <v>10288500</v>
+        <v>10503600</v>
       </c>
       <c r="F43" s="3">
-        <v>9612600</v>
+        <v>9813500</v>
       </c>
       <c r="G43" s="3">
-        <v>11520100</v>
+        <v>11760900</v>
       </c>
       <c r="H43" s="3">
-        <v>13763400</v>
+        <v>14051100</v>
       </c>
       <c r="I43" s="3">
-        <v>14905600</v>
+        <v>15217100</v>
       </c>
       <c r="J43" s="3">
-        <v>13892000</v>
+        <v>14182300</v>
       </c>
       <c r="K43" s="3">
         <v>15472100</v>
@@ -1659,25 +1659,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4262100</v>
+        <v>4351200</v>
       </c>
       <c r="E44" s="3">
-        <v>4270200</v>
+        <v>4359400</v>
       </c>
       <c r="F44" s="3">
-        <v>4551200</v>
+        <v>4646400</v>
       </c>
       <c r="G44" s="3">
-        <v>6627700</v>
+        <v>6766300</v>
       </c>
       <c r="H44" s="3">
-        <v>12201600</v>
+        <v>12456600</v>
       </c>
       <c r="I44" s="3">
-        <v>8042900</v>
+        <v>8211000</v>
       </c>
       <c r="J44" s="3">
-        <v>9118300</v>
+        <v>9308800</v>
       </c>
       <c r="K44" s="3">
         <v>14849700</v>
@@ -1689,25 +1689,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1193200</v>
+        <v>1218100</v>
       </c>
       <c r="E45" s="3">
-        <v>13422800</v>
+        <v>13703400</v>
       </c>
       <c r="F45" s="3">
-        <v>10090800</v>
+        <v>10301700</v>
       </c>
       <c r="G45" s="3">
-        <v>4476000</v>
+        <v>4569500</v>
       </c>
       <c r="H45" s="3">
-        <v>6572900</v>
+        <v>6710300</v>
       </c>
       <c r="I45" s="3">
-        <v>4206400</v>
+        <v>4294300</v>
       </c>
       <c r="J45" s="3">
-        <v>3816800</v>
+        <v>3896600</v>
       </c>
       <c r="K45" s="3">
         <v>7495100</v>
@@ -1719,25 +1719,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27577800</v>
+        <v>28154200</v>
       </c>
       <c r="E46" s="3">
-        <v>32534000</v>
+        <v>33214000</v>
       </c>
       <c r="F46" s="3">
-        <v>28991400</v>
+        <v>29597400</v>
       </c>
       <c r="G46" s="3">
-        <v>31438500</v>
+        <v>32095700</v>
       </c>
       <c r="H46" s="3">
-        <v>30346100</v>
+        <v>30980400</v>
       </c>
       <c r="I46" s="3">
-        <v>28712300</v>
+        <v>29312500</v>
       </c>
       <c r="J46" s="3">
-        <v>28728400</v>
+        <v>29328900</v>
       </c>
       <c r="K46" s="3">
         <v>27206000</v>
@@ -1749,25 +1749,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5414200</v>
+        <v>5527400</v>
       </c>
       <c r="E47" s="3">
-        <v>2234700</v>
+        <v>2281400</v>
       </c>
       <c r="F47" s="3">
-        <v>2052800</v>
+        <v>2095700</v>
       </c>
       <c r="G47" s="3">
-        <v>3304600</v>
+        <v>3373700</v>
       </c>
       <c r="H47" s="3">
-        <v>5739800</v>
+        <v>5859800</v>
       </c>
       <c r="I47" s="3">
-        <v>6022600</v>
+        <v>6148500</v>
       </c>
       <c r="J47" s="3">
-        <v>6419200</v>
+        <v>6553400</v>
       </c>
       <c r="K47" s="3">
         <v>10077200</v>
@@ -1779,25 +1779,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3506200</v>
+        <v>3579500</v>
       </c>
       <c r="E48" s="3">
-        <v>3323600</v>
+        <v>3393100</v>
       </c>
       <c r="F48" s="3">
-        <v>3669900</v>
+        <v>3746600</v>
       </c>
       <c r="G48" s="3">
-        <v>7220200</v>
+        <v>7371100</v>
       </c>
       <c r="H48" s="3">
-        <v>7758700</v>
+        <v>7920900</v>
       </c>
       <c r="I48" s="3">
-        <v>8273000</v>
+        <v>8445900</v>
       </c>
       <c r="J48" s="3">
-        <v>8041700</v>
+        <v>8209800</v>
       </c>
       <c r="K48" s="3">
         <v>36286100</v>
@@ -1809,25 +1809,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1059800</v>
+        <v>1082000</v>
       </c>
       <c r="E49" s="3">
-        <v>1150000</v>
+        <v>1174000</v>
       </c>
       <c r="F49" s="3">
-        <v>6430200</v>
+        <v>6564600</v>
       </c>
       <c r="G49" s="3">
-        <v>5816600</v>
+        <v>5938200</v>
       </c>
       <c r="H49" s="3">
-        <v>9953300</v>
+        <v>10161300</v>
       </c>
       <c r="I49" s="3">
-        <v>9043500</v>
+        <v>9232600</v>
       </c>
       <c r="J49" s="3">
-        <v>8291200</v>
+        <v>8464500</v>
       </c>
       <c r="K49" s="3">
         <v>12956000</v>
@@ -1899,25 +1899,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1504900</v>
+        <v>1536300</v>
       </c>
       <c r="E52" s="3">
-        <v>1282900</v>
+        <v>1309700</v>
       </c>
       <c r="F52" s="3">
-        <v>952200</v>
+        <v>972100</v>
       </c>
       <c r="G52" s="3">
-        <v>1609100</v>
+        <v>1642700</v>
       </c>
       <c r="H52" s="3">
-        <v>3785300</v>
+        <v>3864400</v>
       </c>
       <c r="I52" s="3">
-        <v>4056700</v>
+        <v>4141500</v>
       </c>
       <c r="J52" s="3">
-        <v>3968400</v>
+        <v>4051300</v>
       </c>
       <c r="K52" s="3">
         <v>8620500</v>
@@ -1959,25 +1959,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39062900</v>
+        <v>39879400</v>
       </c>
       <c r="E54" s="3">
-        <v>40525100</v>
+        <v>41372200</v>
       </c>
       <c r="F54" s="3">
-        <v>38809900</v>
+        <v>39621100</v>
       </c>
       <c r="G54" s="3">
-        <v>49389100</v>
+        <v>50421400</v>
       </c>
       <c r="H54" s="3">
-        <v>57583100</v>
+        <v>58786700</v>
       </c>
       <c r="I54" s="3">
-        <v>56108200</v>
+        <v>57281000</v>
       </c>
       <c r="J54" s="3">
-        <v>55449000</v>
+        <v>56608000</v>
       </c>
       <c r="K54" s="3">
         <v>52004700</v>
@@ -2017,25 +2017,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6006600</v>
+        <v>6132100</v>
       </c>
       <c r="E57" s="3">
-        <v>6223800</v>
+        <v>6353900</v>
       </c>
       <c r="F57" s="3">
-        <v>6123700</v>
+        <v>6251700</v>
       </c>
       <c r="G57" s="3">
-        <v>7972500</v>
+        <v>8139100</v>
       </c>
       <c r="H57" s="3">
-        <v>10562100</v>
+        <v>10782900</v>
       </c>
       <c r="I57" s="3">
-        <v>10952400</v>
+        <v>11181300</v>
       </c>
       <c r="J57" s="3">
-        <v>10818900</v>
+        <v>11045100</v>
       </c>
       <c r="K57" s="3">
         <v>11689000</v>
@@ -2047,25 +2047,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3251900</v>
+        <v>3319900</v>
       </c>
       <c r="E58" s="3">
-        <v>2741200</v>
+        <v>2798500</v>
       </c>
       <c r="F58" s="3">
-        <v>9216100</v>
+        <v>9408800</v>
       </c>
       <c r="G58" s="3">
-        <v>5632300</v>
+        <v>5750000</v>
       </c>
       <c r="H58" s="3">
-        <v>2435900</v>
+        <v>2486800</v>
       </c>
       <c r="I58" s="3">
-        <v>3700000</v>
+        <v>3777400</v>
       </c>
       <c r="J58" s="3">
-        <v>3937100</v>
+        <v>4019400</v>
       </c>
       <c r="K58" s="3">
         <v>4816200</v>
@@ -2077,25 +2077,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7816300</v>
+        <v>7979700</v>
       </c>
       <c r="E59" s="3">
-        <v>13132300</v>
+        <v>13406800</v>
       </c>
       <c r="F59" s="3">
-        <v>12955500</v>
+        <v>13226300</v>
       </c>
       <c r="G59" s="3">
-        <v>14319800</v>
+        <v>14619100</v>
       </c>
       <c r="H59" s="3">
-        <v>13461800</v>
+        <v>13743200</v>
       </c>
       <c r="I59" s="3">
-        <v>12045200</v>
+        <v>12297000</v>
       </c>
       <c r="J59" s="3">
-        <v>10127300</v>
+        <v>10338900</v>
       </c>
       <c r="K59" s="3">
         <v>13509200</v>
@@ -2107,25 +2107,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17074800</v>
+        <v>17431700</v>
       </c>
       <c r="E60" s="3">
-        <v>22097200</v>
+        <v>22559100</v>
       </c>
       <c r="F60" s="3">
-        <v>25313200</v>
+        <v>25842300</v>
       </c>
       <c r="G60" s="3">
-        <v>27924600</v>
+        <v>28508200</v>
       </c>
       <c r="H60" s="3">
-        <v>26459800</v>
+        <v>27012900</v>
       </c>
       <c r="I60" s="3">
-        <v>24847600</v>
+        <v>25367000</v>
       </c>
       <c r="J60" s="3">
-        <v>24883300</v>
+        <v>25403400</v>
       </c>
       <c r="K60" s="3">
         <v>24132800</v>
@@ -2137,25 +2137,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>699300</v>
+        <v>714000</v>
       </c>
       <c r="E61" s="3">
-        <v>3552900</v>
+        <v>3627200</v>
       </c>
       <c r="F61" s="3">
-        <v>4710200</v>
+        <v>4808600</v>
       </c>
       <c r="G61" s="3">
-        <v>7556500</v>
+        <v>7714500</v>
       </c>
       <c r="H61" s="3">
-        <v>9481100</v>
+        <v>9679200</v>
       </c>
       <c r="I61" s="3">
-        <v>10770400</v>
+        <v>10995500</v>
       </c>
       <c r="J61" s="3">
-        <v>9439500</v>
+        <v>9636800</v>
       </c>
       <c r="K61" s="3">
         <v>8223000</v>
@@ -2167,25 +2167,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5844400</v>
+        <v>5966500</v>
       </c>
       <c r="E62" s="3">
-        <v>5687400</v>
+        <v>5806300</v>
       </c>
       <c r="F62" s="3">
-        <v>11292700</v>
+        <v>11528700</v>
       </c>
       <c r="G62" s="3">
-        <v>7797200</v>
+        <v>7960100</v>
       </c>
       <c r="H62" s="3">
-        <v>7413200</v>
+        <v>7568100</v>
       </c>
       <c r="I62" s="3">
-        <v>7346100</v>
+        <v>7499600</v>
       </c>
       <c r="J62" s="3">
-        <v>8254100</v>
+        <v>8426600</v>
       </c>
       <c r="K62" s="3">
         <v>17035800</v>
@@ -2287,25 +2287,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25821800</v>
+        <v>26361600</v>
       </c>
       <c r="E66" s="3">
-        <v>33406400</v>
+        <v>34104700</v>
       </c>
       <c r="F66" s="3">
-        <v>43836200</v>
+        <v>44752400</v>
       </c>
       <c r="G66" s="3">
-        <v>46399600</v>
+        <v>47369500</v>
       </c>
       <c r="H66" s="3">
-        <v>47729600</v>
+        <v>48727300</v>
       </c>
       <c r="I66" s="3">
-        <v>46771000</v>
+        <v>47748700</v>
       </c>
       <c r="J66" s="3">
-        <v>46047500</v>
+        <v>47010000</v>
       </c>
       <c r="K66" s="3">
         <v>44198900</v>
@@ -2451,25 +2451,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13893700</v>
+        <v>14184100</v>
       </c>
       <c r="E72" s="3">
-        <v>2032700</v>
+        <v>2075100</v>
       </c>
       <c r="F72" s="3">
-        <v>-5275800</v>
+        <v>-5386100</v>
       </c>
       <c r="G72" s="3">
-        <v>-697900</v>
+        <v>-712500</v>
       </c>
       <c r="H72" s="3">
-        <v>3483600</v>
+        <v>3556400</v>
       </c>
       <c r="I72" s="3">
-        <v>4135300</v>
+        <v>4221800</v>
       </c>
       <c r="J72" s="3">
-        <v>5776000</v>
+        <v>5896700</v>
       </c>
       <c r="K72" s="3">
         <v>5351100</v>
@@ -2571,25 +2571,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13241000</v>
+        <v>13517800</v>
       </c>
       <c r="E76" s="3">
-        <v>7118700</v>
+        <v>7267500</v>
       </c>
       <c r="F76" s="3">
-        <v>-5026300</v>
+        <v>-5131300</v>
       </c>
       <c r="G76" s="3">
-        <v>2989500</v>
+        <v>3052000</v>
       </c>
       <c r="H76" s="3">
-        <v>9853500</v>
+        <v>10059500</v>
       </c>
       <c r="I76" s="3">
-        <v>9337100</v>
+        <v>9532300</v>
       </c>
       <c r="J76" s="3">
-        <v>9401500</v>
+        <v>9598000</v>
       </c>
       <c r="K76" s="3">
         <v>7805900</v>
@@ -2666,25 +2666,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9210500</v>
+        <v>9413100</v>
       </c>
       <c r="E81" s="3">
-        <v>7308500</v>
+        <v>7469300</v>
       </c>
       <c r="F81" s="3">
-        <v>-8777900</v>
+        <v>-8971000</v>
       </c>
       <c r="G81" s="3">
-        <v>-4181500</v>
+        <v>-4273500</v>
       </c>
       <c r="H81" s="3">
-        <v>-343800</v>
+        <v>-351400</v>
       </c>
       <c r="I81" s="3">
-        <v>547600</v>
+        <v>559600</v>
       </c>
       <c r="J81" s="3">
-        <v>703300</v>
+        <v>718700</v>
       </c>
       <c r="K81" s="3">
         <v>633300</v>
@@ -2710,25 +2710,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>713700</v>
+        <v>729400</v>
       </c>
       <c r="E83" s="3">
-        <v>1073300</v>
+        <v>1096900</v>
       </c>
       <c r="F83" s="3">
-        <v>1481400</v>
+        <v>1514000</v>
       </c>
       <c r="G83" s="3">
-        <v>1944100</v>
+        <v>1986800</v>
       </c>
       <c r="H83" s="3">
-        <v>1726500</v>
+        <v>1764500</v>
       </c>
       <c r="I83" s="3">
-        <v>1561600</v>
+        <v>1596000</v>
       </c>
       <c r="J83" s="3">
-        <v>1987600</v>
+        <v>2031300</v>
       </c>
       <c r="K83" s="3">
         <v>2256800</v>
@@ -2890,25 +2890,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1134900</v>
+        <v>1159900</v>
       </c>
       <c r="E89" s="3">
-        <v>339700</v>
+        <v>347100</v>
       </c>
       <c r="F89" s="3">
-        <v>1219500</v>
+        <v>1246400</v>
       </c>
       <c r="G89" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="H89" s="3">
-        <v>3003700</v>
+        <v>3069800</v>
       </c>
       <c r="I89" s="3">
-        <v>2582800</v>
+        <v>2639600</v>
       </c>
       <c r="J89" s="3">
-        <v>1202800</v>
+        <v>1229200</v>
       </c>
       <c r="K89" s="3">
         <v>3028400</v>
@@ -2934,25 +2934,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1114000</v>
+        <v>-1138500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1627400</v>
+        <v>-1663200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1443100</v>
+        <v>-1474800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2200000</v>
+        <v>-2248400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2149900</v>
+        <v>-2197200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1826400</v>
+        <v>-1866600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2423200</v>
+        <v>-2476500</v>
       </c>
       <c r="K91" s="3">
         <v>-2637300</v>
@@ -3024,25 +3024,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>11866400</v>
+        <v>12127500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1333600</v>
+        <v>-1363000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1626500</v>
+        <v>-1662300</v>
       </c>
       <c r="G94" s="3">
-        <v>5939800</v>
+        <v>6070500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1728300</v>
+        <v>-1766300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2218900</v>
+        <v>-2267700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1784800</v>
+        <v>-1824100</v>
       </c>
       <c r="K94" s="3">
         <v>-3410100</v>
@@ -3068,25 +3068,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-202200</v>
+        <v>-206700</v>
       </c>
       <c r="E96" s="3">
-        <v>-99400</v>
+        <v>-101600</v>
       </c>
       <c r="F96" s="3">
-        <v>-115900</v>
+        <v>-118500</v>
       </c>
       <c r="G96" s="3">
-        <v>-289500</v>
+        <v>-295900</v>
       </c>
       <c r="H96" s="3">
-        <v>-382400</v>
+        <v>-390800</v>
       </c>
       <c r="I96" s="3">
-        <v>-354100</v>
+        <v>-361900</v>
       </c>
       <c r="J96" s="3">
-        <v>-386800</v>
+        <v>-395300</v>
       </c>
       <c r="K96" s="3">
         <v>-334500</v>
@@ -3188,25 +3188,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5863200</v>
+        <v>-5992200</v>
       </c>
       <c r="E100" s="3">
-        <v>-578200</v>
+        <v>-591000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1997600</v>
+        <v>-2041600</v>
       </c>
       <c r="G100" s="3">
-        <v>1233900</v>
+        <v>1261100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1143500</v>
+        <v>-1168600</v>
       </c>
       <c r="I100" s="3">
-        <v>-811800</v>
+        <v>-829700</v>
       </c>
       <c r="J100" s="3">
-        <v>379700</v>
+        <v>388100</v>
       </c>
       <c r="K100" s="3">
         <v>-2200</v>
@@ -3218,25 +3218,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="E101" s="3">
-        <v>-14700</v>
+        <v>-15000</v>
       </c>
       <c r="F101" s="3">
-        <v>-30100</v>
+        <v>-30800</v>
       </c>
       <c r="G101" s="3">
-        <v>-107200</v>
+        <v>-109600</v>
       </c>
       <c r="H101" s="3">
-        <v>122800</v>
+        <v>125500</v>
       </c>
       <c r="I101" s="3">
-        <v>104100</v>
+        <v>106400</v>
       </c>
       <c r="J101" s="3">
-        <v>155600</v>
+        <v>159100</v>
       </c>
       <c r="K101" s="3">
         <v>-18700</v>
@@ -3248,25 +3248,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7152600</v>
+        <v>7310000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1586900</v>
+        <v>-1621800</v>
       </c>
       <c r="F102" s="3">
-        <v>-2434600</v>
+        <v>-2488200</v>
       </c>
       <c r="G102" s="3">
-        <v>7055300</v>
+        <v>7210600</v>
       </c>
       <c r="H102" s="3">
-        <v>254800</v>
+        <v>260400</v>
       </c>
       <c r="I102" s="3">
-        <v>-343900</v>
+        <v>-351400</v>
       </c>
       <c r="J102" s="3">
-        <v>-46700</v>
+        <v>-47700</v>
       </c>
       <c r="K102" s="3">
         <v>-402600</v>

--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>TOSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,156 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34313000</v>
+        <v>32000400</v>
       </c>
       <c r="E8" s="3">
-        <v>36673200</v>
+        <v>34867000</v>
       </c>
       <c r="F8" s="3">
-        <v>37566300</v>
+        <v>37265300</v>
       </c>
       <c r="G8" s="3">
-        <v>47888400</v>
+        <v>38172900</v>
       </c>
       <c r="H8" s="3">
-        <v>56805400</v>
+        <v>48661700</v>
       </c>
       <c r="I8" s="3">
-        <v>60289300</v>
+        <v>57722600</v>
       </c>
       <c r="J8" s="3">
+        <v>61262800</v>
+      </c>
+      <c r="K8" s="3">
         <v>53203700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55146400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25859300</v>
+        <v>23335700</v>
       </c>
       <c r="E9" s="3">
-        <v>27747700</v>
+        <v>26276800</v>
       </c>
       <c r="F9" s="3">
-        <v>28011200</v>
+        <v>28195800</v>
       </c>
       <c r="G9" s="3">
-        <v>40906900</v>
+        <v>28463500</v>
       </c>
       <c r="H9" s="3">
-        <v>43692800</v>
+        <v>41567400</v>
       </c>
       <c r="I9" s="3">
-        <v>45203200</v>
+        <v>44398300</v>
       </c>
       <c r="J9" s="3">
+        <v>45933000</v>
+      </c>
+      <c r="K9" s="3">
         <v>40076700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>83743400</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8453700</v>
+        <v>8664700</v>
       </c>
       <c r="E10" s="3">
-        <v>8925400</v>
+        <v>8590200</v>
       </c>
       <c r="F10" s="3">
-        <v>9555100</v>
+        <v>9069500</v>
       </c>
       <c r="G10" s="3">
-        <v>6981600</v>
+        <v>9709400</v>
       </c>
       <c r="H10" s="3">
-        <v>13112600</v>
+        <v>7094300</v>
       </c>
       <c r="I10" s="3">
-        <v>15086200</v>
+        <v>13324300</v>
       </c>
       <c r="J10" s="3">
+        <v>15329800</v>
+      </c>
+      <c r="K10" s="3">
         <v>13127000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-28597000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,8 +827,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,12 +854,15 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
         <v>2891600</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,26 +890,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>91400</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>157100</v>
+      <c r="E14" s="3">
+        <v>92900</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>440100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>159700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>447200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -904,9 +923,12 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -934,9 +956,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -946,68 +971,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33983700</v>
+        <v>30768800</v>
       </c>
       <c r="E17" s="3">
-        <v>36078000</v>
+        <v>34532400</v>
       </c>
       <c r="F17" s="3">
-        <v>36804400</v>
+        <v>36660500</v>
       </c>
       <c r="G17" s="3">
-        <v>52375600</v>
+        <v>37398600</v>
       </c>
       <c r="H17" s="3">
-        <v>55055100</v>
+        <v>53221300</v>
       </c>
       <c r="I17" s="3">
-        <v>57900600</v>
+        <v>55944000</v>
       </c>
       <c r="J17" s="3">
+        <v>58835500</v>
+      </c>
+      <c r="K17" s="3">
         <v>51366700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>53314300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>329300</v>
+        <v>1231500</v>
       </c>
       <c r="E18" s="3">
-        <v>595200</v>
+        <v>334600</v>
       </c>
       <c r="F18" s="3">
-        <v>761900</v>
+        <v>604800</v>
       </c>
       <c r="G18" s="3">
-        <v>-4487200</v>
+        <v>774200</v>
       </c>
       <c r="H18" s="3">
-        <v>1750300</v>
+        <v>-4559600</v>
       </c>
       <c r="I18" s="3">
-        <v>2388700</v>
+        <v>1778600</v>
       </c>
       <c r="J18" s="3">
+        <v>2427300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1837000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1832100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,158 +1052,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-129800</v>
+        <v>-1629200</v>
       </c>
       <c r="E20" s="3">
-        <v>442900</v>
+        <v>-131900</v>
       </c>
       <c r="F20" s="3">
-        <v>-172200</v>
+        <v>450000</v>
       </c>
       <c r="G20" s="3">
-        <v>943100</v>
+        <v>-174900</v>
       </c>
       <c r="H20" s="3">
-        <v>-79700</v>
+        <v>958400</v>
       </c>
       <c r="I20" s="3">
-        <v>-381800</v>
+        <v>-81000</v>
       </c>
       <c r="J20" s="3">
+        <v>-387900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-50500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-228400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>928100</v>
+        <v>350700</v>
       </c>
       <c r="E21" s="3">
-        <v>2133800</v>
+        <v>940800</v>
       </c>
       <c r="F21" s="3">
-        <v>2102200</v>
+        <v>2164700</v>
       </c>
       <c r="G21" s="3">
-        <v>-1559300</v>
+        <v>2131300</v>
       </c>
       <c r="H21" s="3">
-        <v>3433200</v>
+        <v>-1590900</v>
       </c>
       <c r="I21" s="3">
-        <v>3601200</v>
+        <v>3483000</v>
       </c>
       <c r="J21" s="3">
+        <v>3654200</v>
+      </c>
+      <c r="K21" s="3">
         <v>3815700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3862900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>98100</v>
+        <v>51100</v>
       </c>
       <c r="E22" s="3">
-        <v>272800</v>
+        <v>99700</v>
       </c>
       <c r="F22" s="3">
-        <v>172200</v>
+        <v>277200</v>
       </c>
       <c r="G22" s="3">
-        <v>166000</v>
+        <v>175000</v>
       </c>
       <c r="H22" s="3">
-        <v>215700</v>
+        <v>168700</v>
       </c>
       <c r="I22" s="3">
-        <v>313000</v>
+        <v>219100</v>
       </c>
       <c r="J22" s="3">
+        <v>318100</v>
+      </c>
+      <c r="K22" s="3">
         <v>303600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>287600</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>101300</v>
+        <v>-448800</v>
       </c>
       <c r="E23" s="3">
-        <v>765300</v>
+        <v>103000</v>
       </c>
       <c r="F23" s="3">
-        <v>417500</v>
+        <v>777600</v>
       </c>
       <c r="G23" s="3">
-        <v>-3710100</v>
+        <v>424300</v>
       </c>
       <c r="H23" s="3">
-        <v>1455000</v>
+        <v>-3770000</v>
       </c>
       <c r="I23" s="3">
-        <v>1693900</v>
+        <v>1478400</v>
       </c>
       <c r="J23" s="3">
+        <v>1721300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1483000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1316000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>144500</v>
+        <v>331500</v>
       </c>
       <c r="E24" s="3">
-        <v>-575400</v>
+        <v>146800</v>
       </c>
       <c r="F24" s="3">
-        <v>538500</v>
+        <v>-584700</v>
       </c>
       <c r="G24" s="3">
-        <v>2289200</v>
+        <v>547200</v>
       </c>
       <c r="H24" s="3">
-        <v>1328600</v>
+        <v>2326100</v>
       </c>
       <c r="I24" s="3">
-        <v>855100</v>
+        <v>1350100</v>
       </c>
       <c r="J24" s="3">
+        <v>868900</v>
+      </c>
+      <c r="K24" s="3">
         <v>551000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>580600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,69 +1247,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-43100</v>
+        <v>-780300</v>
       </c>
       <c r="E26" s="3">
-        <v>1340700</v>
+        <v>-43800</v>
       </c>
       <c r="F26" s="3">
-        <v>-121000</v>
+        <v>1362300</v>
       </c>
       <c r="G26" s="3">
-        <v>-5999200</v>
+        <v>-122900</v>
       </c>
       <c r="H26" s="3">
-        <v>126300</v>
+        <v>-6096100</v>
       </c>
       <c r="I26" s="3">
-        <v>838800</v>
+        <v>128400</v>
       </c>
       <c r="J26" s="3">
+        <v>852300</v>
+      </c>
+      <c r="K26" s="3">
         <v>931900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>735500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-250700</v>
+        <v>-951900</v>
       </c>
       <c r="E27" s="3">
-        <v>1002800</v>
+        <v>-254700</v>
       </c>
       <c r="F27" s="3">
-        <v>1686300</v>
+        <v>1019000</v>
       </c>
       <c r="G27" s="3">
-        <v>-5478800</v>
+        <v>1713500</v>
       </c>
       <c r="H27" s="3">
-        <v>-48400</v>
+        <v>-5567200</v>
       </c>
       <c r="I27" s="3">
-        <v>699200</v>
+        <v>-49200</v>
       </c>
       <c r="J27" s="3">
+        <v>710500</v>
+      </c>
+      <c r="K27" s="3">
         <v>765000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>645000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1289,39 +1346,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>9663800</v>
+        <v>-130200</v>
       </c>
       <c r="E29" s="3">
-        <v>6466500</v>
+        <v>9819900</v>
       </c>
       <c r="F29" s="3">
-        <v>-10657300</v>
+        <v>6570900</v>
       </c>
       <c r="G29" s="3">
-        <v>1205300</v>
+        <v>-10829400</v>
       </c>
       <c r="H29" s="3">
-        <v>-303000</v>
+        <v>1224700</v>
       </c>
       <c r="I29" s="3">
-        <v>-139500</v>
+        <v>-307900</v>
       </c>
       <c r="J29" s="3">
+        <v>-141800</v>
+      </c>
+      <c r="K29" s="3">
         <v>-46300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-11700</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,9 +1412,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1379,69 +1445,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>129800</v>
+        <v>1629200</v>
       </c>
       <c r="E32" s="3">
-        <v>-442900</v>
+        <v>131900</v>
       </c>
       <c r="F32" s="3">
-        <v>172200</v>
+        <v>-450000</v>
       </c>
       <c r="G32" s="3">
-        <v>-943100</v>
+        <v>174900</v>
       </c>
       <c r="H32" s="3">
-        <v>79700</v>
+        <v>-958400</v>
       </c>
       <c r="I32" s="3">
-        <v>381800</v>
+        <v>81000</v>
       </c>
       <c r="J32" s="3">
+        <v>387900</v>
+      </c>
+      <c r="K32" s="3">
         <v>50500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>228400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9413100</v>
+        <v>-1082100</v>
       </c>
       <c r="E33" s="3">
-        <v>7469300</v>
+        <v>9565100</v>
       </c>
       <c r="F33" s="3">
-        <v>-8971000</v>
+        <v>7589900</v>
       </c>
       <c r="G33" s="3">
-        <v>-4273500</v>
+        <v>-9115900</v>
       </c>
       <c r="H33" s="3">
-        <v>-351400</v>
+        <v>-4342500</v>
       </c>
       <c r="I33" s="3">
-        <v>559600</v>
+        <v>-357100</v>
       </c>
       <c r="J33" s="3">
+        <v>568700</v>
+      </c>
+      <c r="K33" s="3">
         <v>718700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>633300</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1469,74 +1544,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9413100</v>
+        <v>-1082100</v>
       </c>
       <c r="E35" s="3">
-        <v>7469300</v>
+        <v>9565100</v>
       </c>
       <c r="F35" s="3">
-        <v>-8971000</v>
+        <v>7589900</v>
       </c>
       <c r="G35" s="3">
-        <v>-4273500</v>
+        <v>-9115900</v>
       </c>
       <c r="H35" s="3">
-        <v>-351400</v>
+        <v>-4342500</v>
       </c>
       <c r="I35" s="3">
-        <v>559600</v>
+        <v>-357100</v>
       </c>
       <c r="J35" s="3">
+        <v>568700</v>
+      </c>
+      <c r="K35" s="3">
         <v>718700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>633300</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1549,8 +1633,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,38 +1648,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12393600</v>
+        <v>3558600</v>
       </c>
       <c r="E41" s="3">
-        <v>4647600</v>
+        <v>12607300</v>
       </c>
       <c r="F41" s="3">
-        <v>4835800</v>
+        <v>4727700</v>
       </c>
       <c r="G41" s="3">
-        <v>8999000</v>
+        <v>4919200</v>
       </c>
       <c r="H41" s="3">
-        <v>1764900</v>
+        <v>9154100</v>
       </c>
       <c r="I41" s="3">
-        <v>1590000</v>
+        <v>1795300</v>
       </c>
       <c r="J41" s="3">
+        <v>1617400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1941100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1937300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1622,219 +1711,243 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10191300</v>
+        <v>9831400</v>
       </c>
       <c r="E43" s="3">
-        <v>10503600</v>
+        <v>10367000</v>
       </c>
       <c r="F43" s="3">
-        <v>9813500</v>
+        <v>10684700</v>
       </c>
       <c r="G43" s="3">
-        <v>11760900</v>
+        <v>9982700</v>
       </c>
       <c r="H43" s="3">
-        <v>14051100</v>
+        <v>11963700</v>
       </c>
       <c r="I43" s="3">
-        <v>15217100</v>
+        <v>14293300</v>
       </c>
       <c r="J43" s="3">
+        <v>15479500</v>
+      </c>
+      <c r="K43" s="3">
         <v>14182300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15472100</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4351200</v>
+        <v>4553200</v>
       </c>
       <c r="E44" s="3">
-        <v>4359400</v>
+        <v>4426200</v>
       </c>
       <c r="F44" s="3">
-        <v>4646400</v>
+        <v>4434600</v>
       </c>
       <c r="G44" s="3">
-        <v>6766300</v>
+        <v>4726500</v>
       </c>
       <c r="H44" s="3">
-        <v>12456600</v>
+        <v>6882900</v>
       </c>
       <c r="I44" s="3">
-        <v>8211000</v>
+        <v>12671400</v>
       </c>
       <c r="J44" s="3">
+        <v>8352600</v>
+      </c>
+      <c r="K44" s="3">
         <v>9308800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>14849700</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1218100</v>
+        <v>1296500</v>
       </c>
       <c r="E45" s="3">
-        <v>13703400</v>
+        <v>1239100</v>
       </c>
       <c r="F45" s="3">
-        <v>10301700</v>
+        <v>13939600</v>
       </c>
       <c r="G45" s="3">
-        <v>4569500</v>
+        <v>10479300</v>
       </c>
       <c r="H45" s="3">
-        <v>6710300</v>
+        <v>4648300</v>
       </c>
       <c r="I45" s="3">
-        <v>4294300</v>
+        <v>6826000</v>
       </c>
       <c r="J45" s="3">
+        <v>4368400</v>
+      </c>
+      <c r="K45" s="3">
         <v>3896600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7495100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28154200</v>
+        <v>19239700</v>
       </c>
       <c r="E46" s="3">
-        <v>33214000</v>
+        <v>28639600</v>
       </c>
       <c r="F46" s="3">
-        <v>29597400</v>
+        <v>33786700</v>
       </c>
       <c r="G46" s="3">
-        <v>32095700</v>
+        <v>30107700</v>
       </c>
       <c r="H46" s="3">
-        <v>30980400</v>
+        <v>32649000</v>
       </c>
       <c r="I46" s="3">
-        <v>29312500</v>
+        <v>31514600</v>
       </c>
       <c r="J46" s="3">
+        <v>29817900</v>
+      </c>
+      <c r="K46" s="3">
         <v>29328900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27206000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5527400</v>
+        <v>4839900</v>
       </c>
       <c r="E47" s="3">
-        <v>2281400</v>
+        <v>5622700</v>
       </c>
       <c r="F47" s="3">
-        <v>2095700</v>
+        <v>2320700</v>
       </c>
       <c r="G47" s="3">
-        <v>3373700</v>
+        <v>2131900</v>
       </c>
       <c r="H47" s="3">
-        <v>5859800</v>
+        <v>3431900</v>
       </c>
       <c r="I47" s="3">
-        <v>6148500</v>
+        <v>5960800</v>
       </c>
       <c r="J47" s="3">
+        <v>6254500</v>
+      </c>
+      <c r="K47" s="3">
         <v>6553400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10077200</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3579500</v>
+        <v>5435600</v>
       </c>
       <c r="E48" s="3">
-        <v>3393100</v>
+        <v>3641200</v>
       </c>
       <c r="F48" s="3">
-        <v>3746600</v>
+        <v>3451600</v>
       </c>
       <c r="G48" s="3">
-        <v>7371100</v>
+        <v>3811200</v>
       </c>
       <c r="H48" s="3">
-        <v>7920900</v>
+        <v>7498200</v>
       </c>
       <c r="I48" s="3">
-        <v>8445900</v>
+        <v>8057400</v>
       </c>
       <c r="J48" s="3">
+        <v>8591500</v>
+      </c>
+      <c r="K48" s="3">
         <v>8209800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36286100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1082000</v>
+        <v>1129800</v>
       </c>
       <c r="E49" s="3">
-        <v>1174000</v>
+        <v>1100700</v>
       </c>
       <c r="F49" s="3">
-        <v>6564600</v>
+        <v>1194300</v>
       </c>
       <c r="G49" s="3">
-        <v>5938200</v>
+        <v>6677800</v>
       </c>
       <c r="H49" s="3">
-        <v>10161300</v>
+        <v>6040600</v>
       </c>
       <c r="I49" s="3">
-        <v>9232600</v>
+        <v>10336500</v>
       </c>
       <c r="J49" s="3">
+        <v>9391700</v>
+      </c>
+      <c r="K49" s="3">
         <v>8464500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12956000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,9 +1975,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,39 +2008,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1536300</v>
+        <v>1294600</v>
       </c>
       <c r="E52" s="3">
-        <v>1309700</v>
+        <v>1562800</v>
       </c>
       <c r="F52" s="3">
-        <v>972100</v>
+        <v>1332300</v>
       </c>
       <c r="G52" s="3">
-        <v>1642700</v>
+        <v>988800</v>
       </c>
       <c r="H52" s="3">
-        <v>3864400</v>
+        <v>1671000</v>
       </c>
       <c r="I52" s="3">
-        <v>4141500</v>
+        <v>3931000</v>
       </c>
       <c r="J52" s="3">
+        <v>4212900</v>
+      </c>
+      <c r="K52" s="3">
         <v>4051300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8620500</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1952,39 +2074,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39879400</v>
+        <v>31939600</v>
       </c>
       <c r="E54" s="3">
-        <v>41372200</v>
+        <v>40566900</v>
       </c>
       <c r="F54" s="3">
-        <v>39621100</v>
+        <v>42085500</v>
       </c>
       <c r="G54" s="3">
-        <v>50421400</v>
+        <v>40304200</v>
       </c>
       <c r="H54" s="3">
-        <v>58786700</v>
+        <v>51290700</v>
       </c>
       <c r="I54" s="3">
-        <v>57281000</v>
+        <v>59800300</v>
       </c>
       <c r="J54" s="3">
+        <v>58268600</v>
+      </c>
+      <c r="K54" s="3">
         <v>56608000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>52004700</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,8 +2125,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2011,188 +2140,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6132100</v>
+        <v>4739500</v>
       </c>
       <c r="E57" s="3">
-        <v>6353900</v>
+        <v>6237900</v>
       </c>
       <c r="F57" s="3">
-        <v>6251700</v>
+        <v>6463400</v>
       </c>
       <c r="G57" s="3">
-        <v>8139100</v>
+        <v>6359500</v>
       </c>
       <c r="H57" s="3">
-        <v>10782900</v>
+        <v>8279500</v>
       </c>
       <c r="I57" s="3">
-        <v>11181300</v>
+        <v>10968800</v>
       </c>
       <c r="J57" s="3">
+        <v>11374100</v>
+      </c>
+      <c r="K57" s="3">
         <v>11045100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11689000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3319900</v>
+        <v>591400</v>
       </c>
       <c r="E58" s="3">
-        <v>2798500</v>
+        <v>3377100</v>
       </c>
       <c r="F58" s="3">
-        <v>9408800</v>
+        <v>2846700</v>
       </c>
       <c r="G58" s="3">
-        <v>5750000</v>
+        <v>9571000</v>
       </c>
       <c r="H58" s="3">
-        <v>2486800</v>
+        <v>5849100</v>
       </c>
       <c r="I58" s="3">
-        <v>3777400</v>
+        <v>2529700</v>
       </c>
       <c r="J58" s="3">
+        <v>3842500</v>
+      </c>
+      <c r="K58" s="3">
         <v>4019400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4816200</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7979700</v>
+        <v>7865400</v>
       </c>
       <c r="E59" s="3">
-        <v>13406800</v>
+        <v>8117300</v>
       </c>
       <c r="F59" s="3">
-        <v>13226300</v>
+        <v>13637900</v>
       </c>
       <c r="G59" s="3">
-        <v>14619100</v>
+        <v>13454300</v>
       </c>
       <c r="H59" s="3">
-        <v>13743200</v>
+        <v>14871200</v>
       </c>
       <c r="I59" s="3">
-        <v>12297000</v>
+        <v>13980100</v>
       </c>
       <c r="J59" s="3">
+        <v>12509000</v>
+      </c>
+      <c r="K59" s="3">
         <v>10338900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13509200</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17431700</v>
+        <v>13196300</v>
       </c>
       <c r="E60" s="3">
-        <v>22559100</v>
+        <v>17732300</v>
       </c>
       <c r="F60" s="3">
-        <v>25842300</v>
+        <v>22948100</v>
       </c>
       <c r="G60" s="3">
-        <v>28508200</v>
+        <v>26287800</v>
       </c>
       <c r="H60" s="3">
-        <v>27012900</v>
+        <v>28999800</v>
       </c>
       <c r="I60" s="3">
-        <v>25367000</v>
+        <v>27478600</v>
       </c>
       <c r="J60" s="3">
+        <v>25804300</v>
+      </c>
+      <c r="K60" s="3">
         <v>25403400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24132800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>714000</v>
+        <v>1640200</v>
       </c>
       <c r="E61" s="3">
-        <v>3627200</v>
+        <v>726300</v>
       </c>
       <c r="F61" s="3">
-        <v>4808600</v>
+        <v>3689700</v>
       </c>
       <c r="G61" s="3">
-        <v>7714500</v>
+        <v>4891500</v>
       </c>
       <c r="H61" s="3">
-        <v>9679200</v>
+        <v>7847500</v>
       </c>
       <c r="I61" s="3">
-        <v>10995500</v>
+        <v>9846100</v>
       </c>
       <c r="J61" s="3">
+        <v>11185100</v>
+      </c>
+      <c r="K61" s="3">
         <v>9636800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8223000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5966500</v>
+        <v>6941600</v>
       </c>
       <c r="E62" s="3">
-        <v>5806300</v>
+        <v>6069400</v>
       </c>
       <c r="F62" s="3">
-        <v>11528700</v>
+        <v>5906400</v>
       </c>
       <c r="G62" s="3">
-        <v>7960100</v>
+        <v>11727500</v>
       </c>
       <c r="H62" s="3">
-        <v>7568100</v>
+        <v>8097400</v>
       </c>
       <c r="I62" s="3">
-        <v>7499600</v>
+        <v>7698600</v>
       </c>
       <c r="J62" s="3">
+        <v>7628900</v>
+      </c>
+      <c r="K62" s="3">
         <v>8426600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17035800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,9 +2368,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2250,9 +2401,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2280,39 +2434,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26361600</v>
+        <v>23067800</v>
       </c>
       <c r="E66" s="3">
-        <v>34104700</v>
+        <v>26816100</v>
       </c>
       <c r="F66" s="3">
-        <v>44752400</v>
+        <v>34692700</v>
       </c>
       <c r="G66" s="3">
-        <v>47369500</v>
+        <v>45524000</v>
       </c>
       <c r="H66" s="3">
-        <v>48727300</v>
+        <v>48186200</v>
       </c>
       <c r="I66" s="3">
-        <v>47748700</v>
+        <v>49567400</v>
       </c>
       <c r="J66" s="3">
+        <v>48571900</v>
+      </c>
+      <c r="K66" s="3">
         <v>47010000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44198900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2325,8 +2485,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2354,9 +2515,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,9 +2548,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2414,9 +2581,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,39 +2614,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14184100</v>
+        <v>9734800</v>
       </c>
       <c r="E72" s="3">
-        <v>2075100</v>
+        <v>14428700</v>
       </c>
       <c r="F72" s="3">
-        <v>-5386100</v>
+        <v>2110900</v>
       </c>
       <c r="G72" s="3">
-        <v>-712500</v>
+        <v>-5478900</v>
       </c>
       <c r="H72" s="3">
-        <v>3556400</v>
+        <v>-724800</v>
       </c>
       <c r="I72" s="3">
-        <v>4221800</v>
+        <v>3617700</v>
       </c>
       <c r="J72" s="3">
+        <v>4294500</v>
+      </c>
+      <c r="K72" s="3">
         <v>5896700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5351100</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,9 +2680,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2534,9 +2713,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2564,39 +2746,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13517800</v>
+        <v>8871800</v>
       </c>
       <c r="E76" s="3">
-        <v>7267500</v>
+        <v>13750900</v>
       </c>
       <c r="F76" s="3">
-        <v>-5131300</v>
+        <v>7392800</v>
       </c>
       <c r="G76" s="3">
-        <v>3052000</v>
+        <v>-5219800</v>
       </c>
       <c r="H76" s="3">
-        <v>10059500</v>
+        <v>3104600</v>
       </c>
       <c r="I76" s="3">
-        <v>9532300</v>
+        <v>10232900</v>
       </c>
       <c r="J76" s="3">
+        <v>9696700</v>
+      </c>
+      <c r="K76" s="3">
         <v>9598000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7805900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,74 +2812,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9413100</v>
+        <v>-1082100</v>
       </c>
       <c r="E81" s="3">
-        <v>7469300</v>
+        <v>9565100</v>
       </c>
       <c r="F81" s="3">
-        <v>-8971000</v>
+        <v>7589900</v>
       </c>
       <c r="G81" s="3">
-        <v>-4273500</v>
+        <v>-9115900</v>
       </c>
       <c r="H81" s="3">
-        <v>-351400</v>
+        <v>-4342500</v>
       </c>
       <c r="I81" s="3">
-        <v>559600</v>
+        <v>-357100</v>
       </c>
       <c r="J81" s="3">
+        <v>568700</v>
+      </c>
+      <c r="K81" s="3">
         <v>718700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>633300</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2704,38 +2901,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>729400</v>
+        <v>751600</v>
       </c>
       <c r="E83" s="3">
-        <v>1096900</v>
+        <v>741200</v>
       </c>
       <c r="F83" s="3">
-        <v>1514000</v>
+        <v>1114600</v>
       </c>
       <c r="G83" s="3">
-        <v>1986800</v>
+        <v>1538500</v>
       </c>
       <c r="H83" s="3">
-        <v>1764500</v>
+        <v>2018900</v>
       </c>
       <c r="I83" s="3">
-        <v>1596000</v>
+        <v>1793000</v>
       </c>
       <c r="J83" s="3">
+        <v>1621800</v>
+      </c>
+      <c r="K83" s="3">
         <v>2031300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2256800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,9 +2964,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2793,9 +2997,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2823,9 +3030,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2853,9 +3063,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,39 +3096,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1159900</v>
+        <v>-1341900</v>
       </c>
       <c r="E89" s="3">
-        <v>347100</v>
+        <v>1178600</v>
       </c>
       <c r="F89" s="3">
-        <v>1246400</v>
+        <v>352700</v>
       </c>
       <c r="G89" s="3">
-        <v>-11400</v>
+        <v>1266500</v>
       </c>
       <c r="H89" s="3">
-        <v>3069800</v>
+        <v>-11600</v>
       </c>
       <c r="I89" s="3">
-        <v>2639600</v>
+        <v>3119400</v>
       </c>
       <c r="J89" s="3">
+        <v>2682200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1229200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3028400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,38 +3147,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1138500</v>
+        <v>-1125900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1663200</v>
+        <v>-1156900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1474800</v>
+        <v>-1690000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2248400</v>
+        <v>-1498700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2197200</v>
+        <v>-2284700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1866600</v>
+        <v>-2232700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1896700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2476500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2637300</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,9 +3210,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3017,39 +3243,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>12127500</v>
+        <v>-1156500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1363000</v>
+        <v>12323300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1662300</v>
+        <v>-1385000</v>
       </c>
       <c r="G94" s="3">
-        <v>6070500</v>
+        <v>-1689100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1766300</v>
+        <v>6168500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2267700</v>
+        <v>-1794800</v>
       </c>
       <c r="J94" s="3">
+        <v>-2304300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1824100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3410100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3062,38 +3294,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-206700</v>
+        <v>-220100</v>
       </c>
       <c r="E96" s="3">
-        <v>-101600</v>
+        <v>-210000</v>
       </c>
       <c r="F96" s="3">
-        <v>-118500</v>
+        <v>-103300</v>
       </c>
       <c r="G96" s="3">
-        <v>-295900</v>
+        <v>-120400</v>
       </c>
       <c r="H96" s="3">
-        <v>-390800</v>
+        <v>-300600</v>
       </c>
       <c r="I96" s="3">
-        <v>-361900</v>
+        <v>-397100</v>
       </c>
       <c r="J96" s="3">
+        <v>-367700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-395300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-334500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,9 +3357,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3151,9 +3390,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3181,97 +3423,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5992200</v>
+        <v>-6487600</v>
       </c>
       <c r="E100" s="3">
-        <v>-591000</v>
+        <v>-6089000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2041600</v>
+        <v>-600500</v>
       </c>
       <c r="G100" s="3">
-        <v>1261100</v>
+        <v>-2074500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1168600</v>
+        <v>1281500</v>
       </c>
       <c r="I100" s="3">
-        <v>-829700</v>
+        <v>-1187500</v>
       </c>
       <c r="J100" s="3">
+        <v>-843100</v>
+      </c>
+      <c r="K100" s="3">
         <v>388100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14800</v>
+        <v>-62700</v>
       </c>
       <c r="E101" s="3">
-        <v>-15000</v>
+        <v>15000</v>
       </c>
       <c r="F101" s="3">
-        <v>-30800</v>
+        <v>-15200</v>
       </c>
       <c r="G101" s="3">
-        <v>-109600</v>
+        <v>-31300</v>
       </c>
       <c r="H101" s="3">
-        <v>125500</v>
+        <v>-111400</v>
       </c>
       <c r="I101" s="3">
-        <v>106400</v>
+        <v>127500</v>
       </c>
       <c r="J101" s="3">
+        <v>108100</v>
+      </c>
+      <c r="K101" s="3">
         <v>159100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-18700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7310000</v>
+        <v>-9048700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1621800</v>
+        <v>7428000</v>
       </c>
       <c r="F102" s="3">
-        <v>-2488200</v>
+        <v>-1648000</v>
       </c>
       <c r="G102" s="3">
-        <v>7210600</v>
+        <v>-2528400</v>
       </c>
       <c r="H102" s="3">
-        <v>260400</v>
+        <v>7327000</v>
       </c>
       <c r="I102" s="3">
-        <v>-351400</v>
+        <v>264600</v>
       </c>
       <c r="J102" s="3">
+        <v>-357100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-47700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-402600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>32000400</v>
+        <v>32576700</v>
       </c>
       <c r="E8" s="3">
-        <v>34867000</v>
+        <v>35494900</v>
       </c>
       <c r="F8" s="3">
-        <v>37265300</v>
+        <v>37936400</v>
       </c>
       <c r="G8" s="3">
-        <v>38172900</v>
+        <v>38860300</v>
       </c>
       <c r="H8" s="3">
-        <v>48661700</v>
+        <v>49538000</v>
       </c>
       <c r="I8" s="3">
-        <v>57722600</v>
+        <v>58762100</v>
       </c>
       <c r="J8" s="3">
-        <v>61262800</v>
+        <v>62366000</v>
       </c>
       <c r="K8" s="3">
         <v>53203700</v>
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>23335700</v>
+        <v>23755900</v>
       </c>
       <c r="E9" s="3">
-        <v>26276800</v>
+        <v>26750100</v>
       </c>
       <c r="F9" s="3">
-        <v>28195800</v>
+        <v>28703500</v>
       </c>
       <c r="G9" s="3">
-        <v>28463500</v>
+        <v>28976000</v>
       </c>
       <c r="H9" s="3">
-        <v>41567400</v>
+        <v>42315900</v>
       </c>
       <c r="I9" s="3">
-        <v>44398300</v>
+        <v>45197800</v>
       </c>
       <c r="J9" s="3">
-        <v>45933000</v>
+        <v>46760200</v>
       </c>
       <c r="K9" s="3">
         <v>40076700</v>
@@ -786,25 +786,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8664700</v>
+        <v>8820700</v>
       </c>
       <c r="E10" s="3">
-        <v>8590200</v>
+        <v>8744900</v>
       </c>
       <c r="F10" s="3">
-        <v>9069500</v>
+        <v>9232900</v>
       </c>
       <c r="G10" s="3">
-        <v>9709400</v>
+        <v>9884300</v>
       </c>
       <c r="H10" s="3">
-        <v>7094300</v>
+        <v>7222100</v>
       </c>
       <c r="I10" s="3">
-        <v>13324300</v>
+        <v>13564300</v>
       </c>
       <c r="J10" s="3">
-        <v>15329800</v>
+        <v>15605800</v>
       </c>
       <c r="K10" s="3">
         <v>13127000</v>
@@ -903,16 +903,16 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>92900</v>
+        <v>94500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>159700</v>
+        <v>162500</v>
       </c>
       <c r="H14" s="3">
-        <v>447200</v>
+        <v>455200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -978,25 +978,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30768800</v>
+        <v>31322900</v>
       </c>
       <c r="E17" s="3">
-        <v>34532400</v>
+        <v>35154300</v>
       </c>
       <c r="F17" s="3">
-        <v>36660500</v>
+        <v>37320700</v>
       </c>
       <c r="G17" s="3">
-        <v>37398600</v>
+        <v>38072100</v>
       </c>
       <c r="H17" s="3">
-        <v>53221300</v>
+        <v>54179700</v>
       </c>
       <c r="I17" s="3">
-        <v>55944000</v>
+        <v>56951500</v>
       </c>
       <c r="J17" s="3">
-        <v>58835500</v>
+        <v>59895100</v>
       </c>
       <c r="K17" s="3">
         <v>51366700</v>
@@ -1011,25 +1011,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1231500</v>
+        <v>1253700</v>
       </c>
       <c r="E18" s="3">
-        <v>334600</v>
+        <v>340600</v>
       </c>
       <c r="F18" s="3">
-        <v>604800</v>
+        <v>615700</v>
       </c>
       <c r="G18" s="3">
-        <v>774200</v>
+        <v>788200</v>
       </c>
       <c r="H18" s="3">
-        <v>-4559600</v>
+        <v>-4641700</v>
       </c>
       <c r="I18" s="3">
-        <v>1778600</v>
+        <v>1810600</v>
       </c>
       <c r="J18" s="3">
-        <v>2427300</v>
+        <v>2471000</v>
       </c>
       <c r="K18" s="3">
         <v>1837000</v>
@@ -1059,25 +1059,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1629200</v>
+        <v>-1658600</v>
       </c>
       <c r="E20" s="3">
-        <v>-131900</v>
+        <v>-134300</v>
       </c>
       <c r="F20" s="3">
-        <v>450000</v>
+        <v>458100</v>
       </c>
       <c r="G20" s="3">
-        <v>-174900</v>
+        <v>-178100</v>
       </c>
       <c r="H20" s="3">
-        <v>958400</v>
+        <v>975600</v>
       </c>
       <c r="I20" s="3">
-        <v>-81000</v>
+        <v>-82500</v>
       </c>
       <c r="J20" s="3">
-        <v>-387900</v>
+        <v>-394900</v>
       </c>
       <c r="K20" s="3">
         <v>-50500</v>
@@ -1092,25 +1092,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>350700</v>
+        <v>358600</v>
       </c>
       <c r="E21" s="3">
-        <v>940800</v>
+        <v>959300</v>
       </c>
       <c r="F21" s="3">
-        <v>2164700</v>
+        <v>2206100</v>
       </c>
       <c r="G21" s="3">
-        <v>2131300</v>
+        <v>2173000</v>
       </c>
       <c r="H21" s="3">
-        <v>-1590900</v>
+        <v>-1615100</v>
       </c>
       <c r="I21" s="3">
-        <v>3483000</v>
+        <v>3549700</v>
       </c>
       <c r="J21" s="3">
-        <v>3654200</v>
+        <v>3723600</v>
       </c>
       <c r="K21" s="3">
         <v>3815700</v>
@@ -1125,25 +1125,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>51100</v>
+        <v>52000</v>
       </c>
       <c r="E22" s="3">
-        <v>99700</v>
+        <v>101500</v>
       </c>
       <c r="F22" s="3">
-        <v>277200</v>
+        <v>282200</v>
       </c>
       <c r="G22" s="3">
-        <v>175000</v>
+        <v>178200</v>
       </c>
       <c r="H22" s="3">
-        <v>168700</v>
+        <v>171800</v>
       </c>
       <c r="I22" s="3">
-        <v>219100</v>
+        <v>223100</v>
       </c>
       <c r="J22" s="3">
-        <v>318100</v>
+        <v>323800</v>
       </c>
       <c r="K22" s="3">
         <v>303600</v>
@@ -1158,25 +1158,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-448800</v>
+        <v>-456800</v>
       </c>
       <c r="E23" s="3">
-        <v>103000</v>
+        <v>104800</v>
       </c>
       <c r="F23" s="3">
-        <v>777600</v>
+        <v>791700</v>
       </c>
       <c r="G23" s="3">
-        <v>424300</v>
+        <v>431900</v>
       </c>
       <c r="H23" s="3">
-        <v>-3770000</v>
+        <v>-3837900</v>
       </c>
       <c r="I23" s="3">
-        <v>1478400</v>
+        <v>1505100</v>
       </c>
       <c r="J23" s="3">
-        <v>1721300</v>
+        <v>1752200</v>
       </c>
       <c r="K23" s="3">
         <v>1483000</v>
@@ -1191,25 +1191,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>331500</v>
+        <v>337500</v>
       </c>
       <c r="E24" s="3">
-        <v>146800</v>
+        <v>149500</v>
       </c>
       <c r="F24" s="3">
-        <v>-584700</v>
+        <v>-595200</v>
       </c>
       <c r="G24" s="3">
-        <v>547200</v>
+        <v>557100</v>
       </c>
       <c r="H24" s="3">
-        <v>2326100</v>
+        <v>2368000</v>
       </c>
       <c r="I24" s="3">
-        <v>1350100</v>
+        <v>1374400</v>
       </c>
       <c r="J24" s="3">
-        <v>868900</v>
+        <v>884600</v>
       </c>
       <c r="K24" s="3">
         <v>551000</v>
@@ -1257,25 +1257,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-780300</v>
+        <v>-794400</v>
       </c>
       <c r="E26" s="3">
-        <v>-43800</v>
+        <v>-44600</v>
       </c>
       <c r="F26" s="3">
-        <v>1362300</v>
+        <v>1386900</v>
       </c>
       <c r="G26" s="3">
-        <v>-122900</v>
+        <v>-125100</v>
       </c>
       <c r="H26" s="3">
-        <v>-6096100</v>
+        <v>-6205900</v>
       </c>
       <c r="I26" s="3">
-        <v>128400</v>
+        <v>130700</v>
       </c>
       <c r="J26" s="3">
-        <v>852300</v>
+        <v>867700</v>
       </c>
       <c r="K26" s="3">
         <v>931900</v>
@@ -1290,25 +1290,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-951900</v>
+        <v>-969100</v>
       </c>
       <c r="E27" s="3">
-        <v>-254700</v>
+        <v>-259300</v>
       </c>
       <c r="F27" s="3">
-        <v>1019000</v>
+        <v>1037300</v>
       </c>
       <c r="G27" s="3">
-        <v>1713500</v>
+        <v>1744400</v>
       </c>
       <c r="H27" s="3">
-        <v>-5567200</v>
+        <v>-5667500</v>
       </c>
       <c r="I27" s="3">
-        <v>-49200</v>
+        <v>-50100</v>
       </c>
       <c r="J27" s="3">
-        <v>710500</v>
+        <v>723300</v>
       </c>
       <c r="K27" s="3">
         <v>765000</v>
@@ -1356,25 +1356,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-130200</v>
+        <v>-132600</v>
       </c>
       <c r="E29" s="3">
-        <v>9819900</v>
+        <v>9996700</v>
       </c>
       <c r="F29" s="3">
-        <v>6570900</v>
+        <v>6689200</v>
       </c>
       <c r="G29" s="3">
-        <v>-10829400</v>
+        <v>-11024400</v>
       </c>
       <c r="H29" s="3">
-        <v>1224700</v>
+        <v>1246800</v>
       </c>
       <c r="I29" s="3">
-        <v>-307900</v>
+        <v>-313400</v>
       </c>
       <c r="J29" s="3">
-        <v>-141800</v>
+        <v>-144400</v>
       </c>
       <c r="K29" s="3">
         <v>-46300</v>
@@ -1455,25 +1455,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1629200</v>
+        <v>1658600</v>
       </c>
       <c r="E32" s="3">
-        <v>131900</v>
+        <v>134300</v>
       </c>
       <c r="F32" s="3">
-        <v>-450000</v>
+        <v>-458100</v>
       </c>
       <c r="G32" s="3">
-        <v>174900</v>
+        <v>178100</v>
       </c>
       <c r="H32" s="3">
-        <v>-958400</v>
+        <v>-975600</v>
       </c>
       <c r="I32" s="3">
-        <v>81000</v>
+        <v>82500</v>
       </c>
       <c r="J32" s="3">
-        <v>387900</v>
+        <v>394900</v>
       </c>
       <c r="K32" s="3">
         <v>50500</v>
@@ -1488,25 +1488,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1082100</v>
+        <v>-1101600</v>
       </c>
       <c r="E33" s="3">
-        <v>9565100</v>
+        <v>9737400</v>
       </c>
       <c r="F33" s="3">
-        <v>7589900</v>
+        <v>7726500</v>
       </c>
       <c r="G33" s="3">
-        <v>-9115900</v>
+        <v>-9280000</v>
       </c>
       <c r="H33" s="3">
-        <v>-4342500</v>
+        <v>-4420700</v>
       </c>
       <c r="I33" s="3">
-        <v>-357100</v>
+        <v>-363500</v>
       </c>
       <c r="J33" s="3">
-        <v>568700</v>
+        <v>578900</v>
       </c>
       <c r="K33" s="3">
         <v>718700</v>
@@ -1554,25 +1554,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1082100</v>
+        <v>-1101600</v>
       </c>
       <c r="E35" s="3">
-        <v>9565100</v>
+        <v>9737400</v>
       </c>
       <c r="F35" s="3">
-        <v>7589900</v>
+        <v>7726500</v>
       </c>
       <c r="G35" s="3">
-        <v>-9115900</v>
+        <v>-9280000</v>
       </c>
       <c r="H35" s="3">
-        <v>-4342500</v>
+        <v>-4420700</v>
       </c>
       <c r="I35" s="3">
-        <v>-357100</v>
+        <v>-363500</v>
       </c>
       <c r="J35" s="3">
-        <v>568700</v>
+        <v>578900</v>
       </c>
       <c r="K35" s="3">
         <v>718700</v>
@@ -1655,25 +1655,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3558600</v>
+        <v>3622700</v>
       </c>
       <c r="E41" s="3">
-        <v>12607300</v>
+        <v>12834300</v>
       </c>
       <c r="F41" s="3">
-        <v>4727700</v>
+        <v>4812900</v>
       </c>
       <c r="G41" s="3">
-        <v>4919200</v>
+        <v>5007700</v>
       </c>
       <c r="H41" s="3">
-        <v>9154100</v>
+        <v>9319000</v>
       </c>
       <c r="I41" s="3">
-        <v>1795300</v>
+        <v>1827600</v>
       </c>
       <c r="J41" s="3">
-        <v>1617400</v>
+        <v>1646600</v>
       </c>
       <c r="K41" s="3">
         <v>1941100</v>
@@ -1721,25 +1721,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9831400</v>
+        <v>10008400</v>
       </c>
       <c r="E43" s="3">
-        <v>10367000</v>
+        <v>10553700</v>
       </c>
       <c r="F43" s="3">
-        <v>10684700</v>
+        <v>10877100</v>
       </c>
       <c r="G43" s="3">
-        <v>9982700</v>
+        <v>10162500</v>
       </c>
       <c r="H43" s="3">
-        <v>11963700</v>
+        <v>12179100</v>
       </c>
       <c r="I43" s="3">
-        <v>14293300</v>
+        <v>14550700</v>
       </c>
       <c r="J43" s="3">
-        <v>15479500</v>
+        <v>15758200</v>
       </c>
       <c r="K43" s="3">
         <v>14182300</v>
@@ -1754,25 +1754,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4553200</v>
+        <v>4635200</v>
       </c>
       <c r="E44" s="3">
-        <v>4426200</v>
+        <v>4505900</v>
       </c>
       <c r="F44" s="3">
-        <v>4434600</v>
+        <v>4514500</v>
       </c>
       <c r="G44" s="3">
-        <v>4726500</v>
+        <v>4811600</v>
       </c>
       <c r="H44" s="3">
-        <v>6882900</v>
+        <v>7006900</v>
       </c>
       <c r="I44" s="3">
-        <v>12671400</v>
+        <v>12899600</v>
       </c>
       <c r="J44" s="3">
-        <v>8352600</v>
+        <v>8503000</v>
       </c>
       <c r="K44" s="3">
         <v>9308800</v>
@@ -1787,25 +1787,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1296500</v>
+        <v>1319800</v>
       </c>
       <c r="E45" s="3">
-        <v>1239100</v>
+        <v>1261400</v>
       </c>
       <c r="F45" s="3">
-        <v>13939600</v>
+        <v>14190700</v>
       </c>
       <c r="G45" s="3">
-        <v>10479300</v>
+        <v>10668100</v>
       </c>
       <c r="H45" s="3">
-        <v>4648300</v>
+        <v>4732000</v>
       </c>
       <c r="I45" s="3">
-        <v>6826000</v>
+        <v>6948900</v>
       </c>
       <c r="J45" s="3">
-        <v>4368400</v>
+        <v>4447000</v>
       </c>
       <c r="K45" s="3">
         <v>3896600</v>
@@ -1820,25 +1820,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19239700</v>
+        <v>19586100</v>
       </c>
       <c r="E46" s="3">
-        <v>28639600</v>
+        <v>29155400</v>
       </c>
       <c r="F46" s="3">
-        <v>33786700</v>
+        <v>34395100</v>
       </c>
       <c r="G46" s="3">
-        <v>30107700</v>
+        <v>30649900</v>
       </c>
       <c r="H46" s="3">
-        <v>32649000</v>
+        <v>33237000</v>
       </c>
       <c r="I46" s="3">
-        <v>31514600</v>
+        <v>32082100</v>
       </c>
       <c r="J46" s="3">
-        <v>29817900</v>
+        <v>30354800</v>
       </c>
       <c r="K46" s="3">
         <v>29328900</v>
@@ -1853,25 +1853,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4839900</v>
+        <v>4927100</v>
       </c>
       <c r="E47" s="3">
-        <v>5622700</v>
+        <v>5723900</v>
       </c>
       <c r="F47" s="3">
-        <v>2320700</v>
+        <v>2362500</v>
       </c>
       <c r="G47" s="3">
-        <v>2131900</v>
+        <v>2170300</v>
       </c>
       <c r="H47" s="3">
-        <v>3431900</v>
+        <v>3493700</v>
       </c>
       <c r="I47" s="3">
-        <v>5960800</v>
+        <v>6068200</v>
       </c>
       <c r="J47" s="3">
-        <v>6254500</v>
+        <v>6367100</v>
       </c>
       <c r="K47" s="3">
         <v>6553400</v>
@@ -1886,25 +1886,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5435600</v>
+        <v>5533500</v>
       </c>
       <c r="E48" s="3">
-        <v>3641200</v>
+        <v>3706800</v>
       </c>
       <c r="F48" s="3">
-        <v>3451600</v>
+        <v>3513800</v>
       </c>
       <c r="G48" s="3">
-        <v>3811200</v>
+        <v>3879900</v>
       </c>
       <c r="H48" s="3">
-        <v>7498200</v>
+        <v>7633300</v>
       </c>
       <c r="I48" s="3">
-        <v>8057400</v>
+        <v>8202500</v>
       </c>
       <c r="J48" s="3">
-        <v>8591500</v>
+        <v>8746200</v>
       </c>
       <c r="K48" s="3">
         <v>8209800</v>
@@ -1919,25 +1919,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1129800</v>
+        <v>1150100</v>
       </c>
       <c r="E49" s="3">
-        <v>1100700</v>
+        <v>1120500</v>
       </c>
       <c r="F49" s="3">
-        <v>1194300</v>
+        <v>1215800</v>
       </c>
       <c r="G49" s="3">
-        <v>6677800</v>
+        <v>6798000</v>
       </c>
       <c r="H49" s="3">
-        <v>6040600</v>
+        <v>6149300</v>
       </c>
       <c r="I49" s="3">
-        <v>10336500</v>
+        <v>10522600</v>
       </c>
       <c r="J49" s="3">
-        <v>9391700</v>
+        <v>9560900</v>
       </c>
       <c r="K49" s="3">
         <v>8464500</v>
@@ -2018,25 +2018,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1294600</v>
+        <v>1318000</v>
       </c>
       <c r="E52" s="3">
-        <v>1562800</v>
+        <v>1590900</v>
       </c>
       <c r="F52" s="3">
-        <v>1332300</v>
+        <v>1356300</v>
       </c>
       <c r="G52" s="3">
-        <v>988800</v>
+        <v>1006600</v>
       </c>
       <c r="H52" s="3">
-        <v>1671000</v>
+        <v>1701100</v>
       </c>
       <c r="I52" s="3">
-        <v>3931000</v>
+        <v>4001800</v>
       </c>
       <c r="J52" s="3">
-        <v>4212900</v>
+        <v>4288800</v>
       </c>
       <c r="K52" s="3">
         <v>4051300</v>
@@ -2084,25 +2084,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31939600</v>
+        <v>32514800</v>
       </c>
       <c r="E54" s="3">
-        <v>40566900</v>
+        <v>41297500</v>
       </c>
       <c r="F54" s="3">
-        <v>42085500</v>
+        <v>42843400</v>
       </c>
       <c r="G54" s="3">
-        <v>40304200</v>
+        <v>41030000</v>
       </c>
       <c r="H54" s="3">
-        <v>51290700</v>
+        <v>52214400</v>
       </c>
       <c r="I54" s="3">
-        <v>59800300</v>
+        <v>60877200</v>
       </c>
       <c r="J54" s="3">
-        <v>58268600</v>
+        <v>59317900</v>
       </c>
       <c r="K54" s="3">
         <v>56608000</v>
@@ -2147,25 +2147,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4739500</v>
+        <v>4824900</v>
       </c>
       <c r="E57" s="3">
-        <v>6237900</v>
+        <v>6350200</v>
       </c>
       <c r="F57" s="3">
-        <v>6463400</v>
+        <v>6579800</v>
       </c>
       <c r="G57" s="3">
-        <v>6359500</v>
+        <v>6474100</v>
       </c>
       <c r="H57" s="3">
-        <v>8279500</v>
+        <v>8428600</v>
       </c>
       <c r="I57" s="3">
-        <v>10968800</v>
+        <v>11166300</v>
       </c>
       <c r="J57" s="3">
-        <v>11374100</v>
+        <v>11578900</v>
       </c>
       <c r="K57" s="3">
         <v>11045100</v>
@@ -2180,25 +2180,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>591400</v>
+        <v>602100</v>
       </c>
       <c r="E58" s="3">
-        <v>3377100</v>
+        <v>3437900</v>
       </c>
       <c r="F58" s="3">
-        <v>2846700</v>
+        <v>2898000</v>
       </c>
       <c r="G58" s="3">
-        <v>9571000</v>
+        <v>9743300</v>
       </c>
       <c r="H58" s="3">
-        <v>5849100</v>
+        <v>5954500</v>
       </c>
       <c r="I58" s="3">
-        <v>2529700</v>
+        <v>2575200</v>
       </c>
       <c r="J58" s="3">
-        <v>3842500</v>
+        <v>3911700</v>
       </c>
       <c r="K58" s="3">
         <v>4019400</v>
@@ -2213,25 +2213,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7865400</v>
+        <v>8007100</v>
       </c>
       <c r="E59" s="3">
-        <v>8117300</v>
+        <v>8263500</v>
       </c>
       <c r="F59" s="3">
-        <v>13637900</v>
+        <v>13883500</v>
       </c>
       <c r="G59" s="3">
-        <v>13454300</v>
+        <v>13696600</v>
       </c>
       <c r="H59" s="3">
-        <v>14871200</v>
+        <v>15139000</v>
       </c>
       <c r="I59" s="3">
-        <v>13980100</v>
+        <v>14231900</v>
       </c>
       <c r="J59" s="3">
-        <v>12509000</v>
+        <v>12734200</v>
       </c>
       <c r="K59" s="3">
         <v>10338900</v>
@@ -2246,25 +2246,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13196300</v>
+        <v>13434000</v>
       </c>
       <c r="E60" s="3">
-        <v>17732300</v>
+        <v>18051600</v>
       </c>
       <c r="F60" s="3">
-        <v>22948100</v>
+        <v>23361300</v>
       </c>
       <c r="G60" s="3">
-        <v>26287800</v>
+        <v>26761200</v>
       </c>
       <c r="H60" s="3">
-        <v>28999800</v>
+        <v>29522000</v>
       </c>
       <c r="I60" s="3">
-        <v>27478600</v>
+        <v>27973400</v>
       </c>
       <c r="J60" s="3">
-        <v>25804300</v>
+        <v>26269000</v>
       </c>
       <c r="K60" s="3">
         <v>25403400</v>
@@ -2279,25 +2279,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1640200</v>
+        <v>1669800</v>
       </c>
       <c r="E61" s="3">
-        <v>726300</v>
+        <v>739300</v>
       </c>
       <c r="F61" s="3">
-        <v>3689700</v>
+        <v>3756200</v>
       </c>
       <c r="G61" s="3">
-        <v>4891500</v>
+        <v>4979600</v>
       </c>
       <c r="H61" s="3">
-        <v>7847500</v>
+        <v>7988800</v>
       </c>
       <c r="I61" s="3">
-        <v>9846100</v>
+        <v>10023400</v>
       </c>
       <c r="J61" s="3">
-        <v>11185100</v>
+        <v>11386500</v>
       </c>
       <c r="K61" s="3">
         <v>9636800</v>
@@ -2312,25 +2312,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6941600</v>
+        <v>7066600</v>
       </c>
       <c r="E62" s="3">
-        <v>6069400</v>
+        <v>6178700</v>
       </c>
       <c r="F62" s="3">
-        <v>5906400</v>
+        <v>6012800</v>
       </c>
       <c r="G62" s="3">
-        <v>11727500</v>
+        <v>11938700</v>
       </c>
       <c r="H62" s="3">
-        <v>8097400</v>
+        <v>8243200</v>
       </c>
       <c r="I62" s="3">
-        <v>7698600</v>
+        <v>7837300</v>
       </c>
       <c r="J62" s="3">
-        <v>7628900</v>
+        <v>7766300</v>
       </c>
       <c r="K62" s="3">
         <v>8426600</v>
@@ -2444,25 +2444,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23067800</v>
+        <v>23483300</v>
       </c>
       <c r="E66" s="3">
-        <v>26816100</v>
+        <v>27299000</v>
       </c>
       <c r="F66" s="3">
-        <v>34692700</v>
+        <v>35317500</v>
       </c>
       <c r="G66" s="3">
-        <v>45524000</v>
+        <v>46343800</v>
       </c>
       <c r="H66" s="3">
-        <v>48186200</v>
+        <v>49053900</v>
       </c>
       <c r="I66" s="3">
-        <v>49567400</v>
+        <v>50460000</v>
       </c>
       <c r="J66" s="3">
-        <v>48571900</v>
+        <v>49446600</v>
       </c>
       <c r="K66" s="3">
         <v>47010000</v>
@@ -2624,25 +2624,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9734800</v>
+        <v>9910100</v>
       </c>
       <c r="E72" s="3">
-        <v>14428700</v>
+        <v>14688500</v>
       </c>
       <c r="F72" s="3">
-        <v>2110900</v>
+        <v>2148900</v>
       </c>
       <c r="G72" s="3">
-        <v>-5478900</v>
+        <v>-5577600</v>
       </c>
       <c r="H72" s="3">
-        <v>-724800</v>
+        <v>-737900</v>
       </c>
       <c r="I72" s="3">
-        <v>3617700</v>
+        <v>3682800</v>
       </c>
       <c r="J72" s="3">
-        <v>4294500</v>
+        <v>4371900</v>
       </c>
       <c r="K72" s="3">
         <v>5896700</v>
@@ -2756,25 +2756,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8871800</v>
+        <v>9031500</v>
       </c>
       <c r="E76" s="3">
-        <v>13750900</v>
+        <v>13998500</v>
       </c>
       <c r="F76" s="3">
-        <v>7392800</v>
+        <v>7525900</v>
       </c>
       <c r="G76" s="3">
-        <v>-5219800</v>
+        <v>-5313800</v>
       </c>
       <c r="H76" s="3">
-        <v>3104600</v>
+        <v>3160500</v>
       </c>
       <c r="I76" s="3">
-        <v>10232900</v>
+        <v>10417200</v>
       </c>
       <c r="J76" s="3">
-        <v>9696700</v>
+        <v>9871300</v>
       </c>
       <c r="K76" s="3">
         <v>9598000</v>
@@ -2860,25 +2860,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1082100</v>
+        <v>-1101600</v>
       </c>
       <c r="E81" s="3">
-        <v>9565100</v>
+        <v>9737400</v>
       </c>
       <c r="F81" s="3">
-        <v>7589900</v>
+        <v>7726500</v>
       </c>
       <c r="G81" s="3">
-        <v>-9115900</v>
+        <v>-9280000</v>
       </c>
       <c r="H81" s="3">
-        <v>-4342500</v>
+        <v>-4420700</v>
       </c>
       <c r="I81" s="3">
-        <v>-357100</v>
+        <v>-363500</v>
       </c>
       <c r="J81" s="3">
-        <v>568700</v>
+        <v>578900</v>
       </c>
       <c r="K81" s="3">
         <v>718700</v>
@@ -2908,25 +2908,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>751600</v>
+        <v>765100</v>
       </c>
       <c r="E83" s="3">
-        <v>741200</v>
+        <v>754600</v>
       </c>
       <c r="F83" s="3">
-        <v>1114600</v>
+        <v>1134700</v>
       </c>
       <c r="G83" s="3">
-        <v>1538500</v>
+        <v>1566200</v>
       </c>
       <c r="H83" s="3">
-        <v>2018900</v>
+        <v>2055300</v>
       </c>
       <c r="I83" s="3">
-        <v>1793000</v>
+        <v>1825300</v>
       </c>
       <c r="J83" s="3">
-        <v>1621800</v>
+        <v>1651000</v>
       </c>
       <c r="K83" s="3">
         <v>2031300</v>
@@ -3106,25 +3106,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1341900</v>
+        <v>-1366000</v>
       </c>
       <c r="E89" s="3">
-        <v>1178600</v>
+        <v>1199900</v>
       </c>
       <c r="F89" s="3">
-        <v>352700</v>
+        <v>359100</v>
       </c>
       <c r="G89" s="3">
-        <v>1266500</v>
+        <v>1289300</v>
       </c>
       <c r="H89" s="3">
-        <v>-11600</v>
+        <v>-11800</v>
       </c>
       <c r="I89" s="3">
-        <v>3119400</v>
+        <v>3175500</v>
       </c>
       <c r="J89" s="3">
-        <v>2682200</v>
+        <v>2730500</v>
       </c>
       <c r="K89" s="3">
         <v>1229200</v>
@@ -3154,25 +3154,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1125900</v>
+        <v>-1146200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1156900</v>
+        <v>-1177800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1690000</v>
+        <v>-1720400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1498700</v>
+        <v>-1525600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2284700</v>
+        <v>-2325800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2232700</v>
+        <v>-2272900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1896700</v>
+        <v>-1930900</v>
       </c>
       <c r="K91" s="3">
         <v>-2476500</v>
@@ -3253,25 +3253,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1156500</v>
+        <v>-1177400</v>
       </c>
       <c r="E94" s="3">
-        <v>12323300</v>
+        <v>12545200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1385000</v>
+        <v>-1409900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1689100</v>
+        <v>-1719500</v>
       </c>
       <c r="H94" s="3">
-        <v>6168500</v>
+        <v>6279600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1794800</v>
+        <v>-1827100</v>
       </c>
       <c r="J94" s="3">
-        <v>-2304300</v>
+        <v>-2345800</v>
       </c>
       <c r="K94" s="3">
         <v>-1824100</v>
@@ -3301,25 +3301,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-220100</v>
+        <v>-224100</v>
       </c>
       <c r="E96" s="3">
-        <v>-210000</v>
+        <v>-213800</v>
       </c>
       <c r="F96" s="3">
-        <v>-103300</v>
+        <v>-105100</v>
       </c>
       <c r="G96" s="3">
-        <v>-120400</v>
+        <v>-122600</v>
       </c>
       <c r="H96" s="3">
-        <v>-300600</v>
+        <v>-306100</v>
       </c>
       <c r="I96" s="3">
-        <v>-397100</v>
+        <v>-404300</v>
       </c>
       <c r="J96" s="3">
-        <v>-367700</v>
+        <v>-374300</v>
       </c>
       <c r="K96" s="3">
         <v>-395300</v>
@@ -3433,25 +3433,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6487600</v>
+        <v>-6604400</v>
       </c>
       <c r="E100" s="3">
-        <v>-6089000</v>
+        <v>-6198600</v>
       </c>
       <c r="F100" s="3">
-        <v>-600500</v>
+        <v>-611300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2074500</v>
+        <v>-2111900</v>
       </c>
       <c r="H100" s="3">
-        <v>1281500</v>
+        <v>1304500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1187500</v>
+        <v>-1208900</v>
       </c>
       <c r="J100" s="3">
-        <v>-843100</v>
+        <v>-858300</v>
       </c>
       <c r="K100" s="3">
         <v>388100</v>
@@ -3466,25 +3466,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-62700</v>
+        <v>-63800</v>
       </c>
       <c r="E101" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="F101" s="3">
-        <v>-15200</v>
+        <v>-15500</v>
       </c>
       <c r="G101" s="3">
-        <v>-31300</v>
+        <v>-31800</v>
       </c>
       <c r="H101" s="3">
-        <v>-111400</v>
+        <v>-113400</v>
       </c>
       <c r="I101" s="3">
-        <v>127500</v>
+        <v>129800</v>
       </c>
       <c r="J101" s="3">
-        <v>108100</v>
+        <v>110000</v>
       </c>
       <c r="K101" s="3">
         <v>159100</v>
@@ -3499,25 +3499,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9048700</v>
+        <v>-9211600</v>
       </c>
       <c r="E102" s="3">
-        <v>7428000</v>
+        <v>7561800</v>
       </c>
       <c r="F102" s="3">
-        <v>-1648000</v>
+        <v>-1677700</v>
       </c>
       <c r="G102" s="3">
-        <v>-2528400</v>
+        <v>-2573900</v>
       </c>
       <c r="H102" s="3">
-        <v>7327000</v>
+        <v>7458900</v>
       </c>
       <c r="I102" s="3">
-        <v>264600</v>
+        <v>269300</v>
       </c>
       <c r="J102" s="3">
-        <v>-357100</v>
+        <v>-363500</v>
       </c>
       <c r="K102" s="3">
         <v>-47700</v>

--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>32576700</v>
+        <v>31051200</v>
       </c>
       <c r="E8" s="3">
-        <v>35494900</v>
+        <v>33832800</v>
       </c>
       <c r="F8" s="3">
-        <v>37936400</v>
+        <v>36160000</v>
       </c>
       <c r="G8" s="3">
-        <v>38860300</v>
+        <v>37040600</v>
       </c>
       <c r="H8" s="3">
-        <v>49538000</v>
+        <v>47218300</v>
       </c>
       <c r="I8" s="3">
-        <v>58762100</v>
+        <v>56010500</v>
       </c>
       <c r="J8" s="3">
-        <v>62366000</v>
+        <v>59445700</v>
       </c>
       <c r="K8" s="3">
         <v>53203700</v>
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>23755900</v>
+        <v>22643500</v>
       </c>
       <c r="E9" s="3">
-        <v>26750100</v>
+        <v>25497400</v>
       </c>
       <c r="F9" s="3">
-        <v>28703500</v>
+        <v>27359500</v>
       </c>
       <c r="G9" s="3">
-        <v>28976000</v>
+        <v>27619200</v>
       </c>
       <c r="H9" s="3">
-        <v>42315900</v>
+        <v>40334400</v>
       </c>
       <c r="I9" s="3">
-        <v>45197800</v>
+        <v>43081400</v>
       </c>
       <c r="J9" s="3">
-        <v>46760200</v>
+        <v>44570600</v>
       </c>
       <c r="K9" s="3">
         <v>40076700</v>
@@ -786,25 +786,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8820700</v>
+        <v>8407700</v>
       </c>
       <c r="E10" s="3">
-        <v>8744900</v>
+        <v>8335400</v>
       </c>
       <c r="F10" s="3">
-        <v>9232900</v>
+        <v>8800500</v>
       </c>
       <c r="G10" s="3">
-        <v>9884300</v>
+        <v>9421400</v>
       </c>
       <c r="H10" s="3">
-        <v>7222100</v>
+        <v>6883900</v>
       </c>
       <c r="I10" s="3">
-        <v>13564300</v>
+        <v>12929100</v>
       </c>
       <c r="J10" s="3">
-        <v>15605800</v>
+        <v>14875100</v>
       </c>
       <c r="K10" s="3">
         <v>13127000</v>
@@ -903,16 +903,16 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>94500</v>
+        <v>90100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>162500</v>
+        <v>154900</v>
       </c>
       <c r="H14" s="3">
-        <v>455200</v>
+        <v>433900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -978,25 +978,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31322900</v>
+        <v>29856200</v>
       </c>
       <c r="E17" s="3">
-        <v>35154300</v>
+        <v>33508100</v>
       </c>
       <c r="F17" s="3">
-        <v>37320700</v>
+        <v>35573100</v>
       </c>
       <c r="G17" s="3">
-        <v>38072100</v>
+        <v>36289400</v>
       </c>
       <c r="H17" s="3">
-        <v>54179700</v>
+        <v>51642700</v>
       </c>
       <c r="I17" s="3">
-        <v>56951500</v>
+        <v>54284700</v>
       </c>
       <c r="J17" s="3">
-        <v>59895100</v>
+        <v>57090400</v>
       </c>
       <c r="K17" s="3">
         <v>51366700</v>
@@ -1011,25 +1011,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1253700</v>
+        <v>1195000</v>
       </c>
       <c r="E18" s="3">
-        <v>340600</v>
+        <v>324700</v>
       </c>
       <c r="F18" s="3">
-        <v>615700</v>
+        <v>586900</v>
       </c>
       <c r="G18" s="3">
-        <v>788200</v>
+        <v>751300</v>
       </c>
       <c r="H18" s="3">
-        <v>-4641700</v>
+        <v>-4424400</v>
       </c>
       <c r="I18" s="3">
-        <v>1810600</v>
+        <v>1725800</v>
       </c>
       <c r="J18" s="3">
-        <v>2471000</v>
+        <v>2355300</v>
       </c>
       <c r="K18" s="3">
         <v>1837000</v>
@@ -1059,25 +1059,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1658600</v>
+        <v>-1580900</v>
       </c>
       <c r="E20" s="3">
-        <v>-134300</v>
+        <v>-128000</v>
       </c>
       <c r="F20" s="3">
-        <v>458100</v>
+        <v>436700</v>
       </c>
       <c r="G20" s="3">
-        <v>-178100</v>
+        <v>-169700</v>
       </c>
       <c r="H20" s="3">
-        <v>975600</v>
+        <v>930000</v>
       </c>
       <c r="I20" s="3">
-        <v>-82500</v>
+        <v>-78600</v>
       </c>
       <c r="J20" s="3">
-        <v>-394900</v>
+        <v>-376400</v>
       </c>
       <c r="K20" s="3">
         <v>-50500</v>
@@ -1092,25 +1092,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>358600</v>
+        <v>346500</v>
       </c>
       <c r="E21" s="3">
-        <v>959300</v>
+        <v>919000</v>
       </c>
       <c r="F21" s="3">
-        <v>2206100</v>
+        <v>2109800</v>
       </c>
       <c r="G21" s="3">
-        <v>2173000</v>
+        <v>2080900</v>
       </c>
       <c r="H21" s="3">
-        <v>-1615100</v>
+        <v>-1526800</v>
       </c>
       <c r="I21" s="3">
-        <v>3549700</v>
+        <v>3394700</v>
       </c>
       <c r="J21" s="3">
-        <v>3723600</v>
+        <v>3559400</v>
       </c>
       <c r="K21" s="3">
         <v>3815700</v>
@@ -1125,25 +1125,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>52000</v>
+        <v>49500</v>
       </c>
       <c r="E22" s="3">
-        <v>101500</v>
+        <v>96800</v>
       </c>
       <c r="F22" s="3">
-        <v>282200</v>
+        <v>269000</v>
       </c>
       <c r="G22" s="3">
-        <v>178200</v>
+        <v>169800</v>
       </c>
       <c r="H22" s="3">
-        <v>171800</v>
+        <v>163700</v>
       </c>
       <c r="I22" s="3">
-        <v>223100</v>
+        <v>212600</v>
       </c>
       <c r="J22" s="3">
-        <v>323800</v>
+        <v>308700</v>
       </c>
       <c r="K22" s="3">
         <v>303600</v>
@@ -1158,25 +1158,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-456800</v>
+        <v>-435500</v>
       </c>
       <c r="E23" s="3">
-        <v>104800</v>
+        <v>99900</v>
       </c>
       <c r="F23" s="3">
-        <v>791700</v>
+        <v>754600</v>
       </c>
       <c r="G23" s="3">
-        <v>431900</v>
+        <v>411700</v>
       </c>
       <c r="H23" s="3">
-        <v>-3837900</v>
+        <v>-3658100</v>
       </c>
       <c r="I23" s="3">
-        <v>1505100</v>
+        <v>1434600</v>
       </c>
       <c r="J23" s="3">
-        <v>1752200</v>
+        <v>1670200</v>
       </c>
       <c r="K23" s="3">
         <v>1483000</v>
@@ -1191,25 +1191,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>337500</v>
+        <v>321700</v>
       </c>
       <c r="E24" s="3">
-        <v>149500</v>
+        <v>142500</v>
       </c>
       <c r="F24" s="3">
-        <v>-595200</v>
+        <v>-567400</v>
       </c>
       <c r="G24" s="3">
-        <v>557100</v>
+        <v>531000</v>
       </c>
       <c r="H24" s="3">
-        <v>2368000</v>
+        <v>2257100</v>
       </c>
       <c r="I24" s="3">
-        <v>1374400</v>
+        <v>1310000</v>
       </c>
       <c r="J24" s="3">
-        <v>884600</v>
+        <v>843100</v>
       </c>
       <c r="K24" s="3">
         <v>551000</v>
@@ -1257,25 +1257,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-794400</v>
+        <v>-757200</v>
       </c>
       <c r="E26" s="3">
-        <v>-44600</v>
+        <v>-42500</v>
       </c>
       <c r="F26" s="3">
-        <v>1386900</v>
+        <v>1321900</v>
       </c>
       <c r="G26" s="3">
-        <v>-125100</v>
+        <v>-119300</v>
       </c>
       <c r="H26" s="3">
-        <v>-6205900</v>
+        <v>-5915300</v>
       </c>
       <c r="I26" s="3">
-        <v>130700</v>
+        <v>124600</v>
       </c>
       <c r="J26" s="3">
-        <v>867700</v>
+        <v>827100</v>
       </c>
       <c r="K26" s="3">
         <v>931900</v>
@@ -1290,25 +1290,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-969100</v>
+        <v>-923700</v>
       </c>
       <c r="E27" s="3">
-        <v>-259300</v>
+        <v>-247200</v>
       </c>
       <c r="F27" s="3">
-        <v>1037300</v>
+        <v>988800</v>
       </c>
       <c r="G27" s="3">
-        <v>1744400</v>
+        <v>1662700</v>
       </c>
       <c r="H27" s="3">
-        <v>-5667500</v>
+        <v>-5402100</v>
       </c>
       <c r="I27" s="3">
-        <v>-50100</v>
+        <v>-47700</v>
       </c>
       <c r="J27" s="3">
-        <v>723300</v>
+        <v>689400</v>
       </c>
       <c r="K27" s="3">
         <v>765000</v>
@@ -1356,25 +1356,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-132600</v>
+        <v>-126400</v>
       </c>
       <c r="E29" s="3">
-        <v>9996700</v>
+        <v>9528600</v>
       </c>
       <c r="F29" s="3">
-        <v>6689200</v>
+        <v>6376000</v>
       </c>
       <c r="G29" s="3">
-        <v>-11024400</v>
+        <v>-10508200</v>
       </c>
       <c r="H29" s="3">
-        <v>1246800</v>
+        <v>1188400</v>
       </c>
       <c r="I29" s="3">
-        <v>-313400</v>
+        <v>-298700</v>
       </c>
       <c r="J29" s="3">
-        <v>-144400</v>
+        <v>-137600</v>
       </c>
       <c r="K29" s="3">
         <v>-46300</v>
@@ -1455,25 +1455,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1658600</v>
+        <v>1580900</v>
       </c>
       <c r="E32" s="3">
-        <v>134300</v>
+        <v>128000</v>
       </c>
       <c r="F32" s="3">
-        <v>-458100</v>
+        <v>-436700</v>
       </c>
       <c r="G32" s="3">
-        <v>178100</v>
+        <v>169700</v>
       </c>
       <c r="H32" s="3">
-        <v>-975600</v>
+        <v>-930000</v>
       </c>
       <c r="I32" s="3">
-        <v>82500</v>
+        <v>78600</v>
       </c>
       <c r="J32" s="3">
-        <v>394900</v>
+        <v>376400</v>
       </c>
       <c r="K32" s="3">
         <v>50500</v>
@@ -1488,25 +1488,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1101600</v>
+        <v>-1050000</v>
       </c>
       <c r="E33" s="3">
-        <v>9737400</v>
+        <v>9281400</v>
       </c>
       <c r="F33" s="3">
-        <v>7726500</v>
+        <v>7364700</v>
       </c>
       <c r="G33" s="3">
-        <v>-9280000</v>
+        <v>-8845500</v>
       </c>
       <c r="H33" s="3">
-        <v>-4420700</v>
+        <v>-4213700</v>
       </c>
       <c r="I33" s="3">
-        <v>-363500</v>
+        <v>-346500</v>
       </c>
       <c r="J33" s="3">
-        <v>578900</v>
+        <v>551800</v>
       </c>
       <c r="K33" s="3">
         <v>718700</v>
@@ -1554,25 +1554,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1101600</v>
+        <v>-1050000</v>
       </c>
       <c r="E35" s="3">
-        <v>9737400</v>
+        <v>9281400</v>
       </c>
       <c r="F35" s="3">
-        <v>7726500</v>
+        <v>7364700</v>
       </c>
       <c r="G35" s="3">
-        <v>-9280000</v>
+        <v>-8845500</v>
       </c>
       <c r="H35" s="3">
-        <v>-4420700</v>
+        <v>-4213700</v>
       </c>
       <c r="I35" s="3">
-        <v>-363500</v>
+        <v>-346500</v>
       </c>
       <c r="J35" s="3">
-        <v>578900</v>
+        <v>551800</v>
       </c>
       <c r="K35" s="3">
         <v>718700</v>
@@ -1655,25 +1655,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3622700</v>
+        <v>3453100</v>
       </c>
       <c r="E41" s="3">
-        <v>12834300</v>
+        <v>12233400</v>
       </c>
       <c r="F41" s="3">
-        <v>4812900</v>
+        <v>4587500</v>
       </c>
       <c r="G41" s="3">
-        <v>5007700</v>
+        <v>4773200</v>
       </c>
       <c r="H41" s="3">
-        <v>9319000</v>
+        <v>8882600</v>
       </c>
       <c r="I41" s="3">
-        <v>1827600</v>
+        <v>1742100</v>
       </c>
       <c r="J41" s="3">
-        <v>1646600</v>
+        <v>1569500</v>
       </c>
       <c r="K41" s="3">
         <v>1941100</v>
@@ -1721,25 +1721,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10008400</v>
+        <v>9539800</v>
       </c>
       <c r="E43" s="3">
-        <v>10553700</v>
+        <v>10059500</v>
       </c>
       <c r="F43" s="3">
-        <v>10877100</v>
+        <v>10367800</v>
       </c>
       <c r="G43" s="3">
-        <v>10162500</v>
+        <v>9686600</v>
       </c>
       <c r="H43" s="3">
-        <v>12179100</v>
+        <v>11608800</v>
       </c>
       <c r="I43" s="3">
-        <v>14550700</v>
+        <v>13869400</v>
       </c>
       <c r="J43" s="3">
-        <v>15758200</v>
+        <v>15020300</v>
       </c>
       <c r="K43" s="3">
         <v>14182300</v>
@@ -1754,25 +1754,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4635200</v>
+        <v>4418100</v>
       </c>
       <c r="E44" s="3">
-        <v>4505900</v>
+        <v>4294900</v>
       </c>
       <c r="F44" s="3">
-        <v>4514500</v>
+        <v>4303100</v>
       </c>
       <c r="G44" s="3">
-        <v>4811600</v>
+        <v>4586300</v>
       </c>
       <c r="H44" s="3">
-        <v>7006900</v>
+        <v>6678800</v>
       </c>
       <c r="I44" s="3">
-        <v>12899600</v>
+        <v>12295500</v>
       </c>
       <c r="J44" s="3">
-        <v>8503000</v>
+        <v>8104900</v>
       </c>
       <c r="K44" s="3">
         <v>9308800</v>
@@ -1787,25 +1787,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1319800</v>
+        <v>1258000</v>
       </c>
       <c r="E45" s="3">
-        <v>1261400</v>
+        <v>1202400</v>
       </c>
       <c r="F45" s="3">
-        <v>14190700</v>
+        <v>13526200</v>
       </c>
       <c r="G45" s="3">
-        <v>10668100</v>
+        <v>10168500</v>
       </c>
       <c r="H45" s="3">
-        <v>4732000</v>
+        <v>4510500</v>
       </c>
       <c r="I45" s="3">
-        <v>6948900</v>
+        <v>6623500</v>
       </c>
       <c r="J45" s="3">
-        <v>4447000</v>
+        <v>4238800</v>
       </c>
       <c r="K45" s="3">
         <v>3896600</v>
@@ -1820,25 +1820,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19586100</v>
+        <v>18669000</v>
       </c>
       <c r="E46" s="3">
-        <v>29155400</v>
+        <v>27790100</v>
       </c>
       <c r="F46" s="3">
-        <v>34395100</v>
+        <v>32784500</v>
       </c>
       <c r="G46" s="3">
-        <v>30649900</v>
+        <v>29214700</v>
       </c>
       <c r="H46" s="3">
-        <v>33237000</v>
+        <v>31680600</v>
       </c>
       <c r="I46" s="3">
-        <v>32082100</v>
+        <v>30579800</v>
       </c>
       <c r="J46" s="3">
-        <v>30354800</v>
+        <v>28933400</v>
       </c>
       <c r="K46" s="3">
         <v>29328900</v>
@@ -1853,25 +1853,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4927100</v>
+        <v>4696400</v>
       </c>
       <c r="E47" s="3">
-        <v>5723900</v>
+        <v>5455900</v>
       </c>
       <c r="F47" s="3">
-        <v>2362500</v>
+        <v>2251900</v>
       </c>
       <c r="G47" s="3">
-        <v>2170300</v>
+        <v>2068600</v>
       </c>
       <c r="H47" s="3">
-        <v>3493700</v>
+        <v>3330100</v>
       </c>
       <c r="I47" s="3">
-        <v>6068200</v>
+        <v>5784000</v>
       </c>
       <c r="J47" s="3">
-        <v>6367100</v>
+        <v>6069000</v>
       </c>
       <c r="K47" s="3">
         <v>6553400</v>
@@ -1886,25 +1886,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5533500</v>
+        <v>5274400</v>
       </c>
       <c r="E48" s="3">
-        <v>3706800</v>
+        <v>3533200</v>
       </c>
       <c r="F48" s="3">
-        <v>3513800</v>
+        <v>3349200</v>
       </c>
       <c r="G48" s="3">
-        <v>3879900</v>
+        <v>3698200</v>
       </c>
       <c r="H48" s="3">
-        <v>7633300</v>
+        <v>7275800</v>
       </c>
       <c r="I48" s="3">
-        <v>8202500</v>
+        <v>7818400</v>
       </c>
       <c r="J48" s="3">
-        <v>8746200</v>
+        <v>8336700</v>
       </c>
       <c r="K48" s="3">
         <v>8209800</v>
@@ -1919,25 +1919,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1150100</v>
+        <v>1096200</v>
       </c>
       <c r="E49" s="3">
-        <v>1120500</v>
+        <v>1068000</v>
       </c>
       <c r="F49" s="3">
-        <v>1215800</v>
+        <v>1158800</v>
       </c>
       <c r="G49" s="3">
-        <v>6798000</v>
+        <v>6479700</v>
       </c>
       <c r="H49" s="3">
-        <v>6149300</v>
+        <v>5861400</v>
       </c>
       <c r="I49" s="3">
-        <v>10522600</v>
+        <v>10029900</v>
       </c>
       <c r="J49" s="3">
-        <v>9560900</v>
+        <v>9113200</v>
       </c>
       <c r="K49" s="3">
         <v>8464500</v>
@@ -2018,25 +2018,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1318000</v>
+        <v>1256200</v>
       </c>
       <c r="E52" s="3">
-        <v>1590900</v>
+        <v>1516400</v>
       </c>
       <c r="F52" s="3">
-        <v>1356300</v>
+        <v>1292800</v>
       </c>
       <c r="G52" s="3">
-        <v>1006600</v>
+        <v>959500</v>
       </c>
       <c r="H52" s="3">
-        <v>1701100</v>
+        <v>1621500</v>
       </c>
       <c r="I52" s="3">
-        <v>4001800</v>
+        <v>3814400</v>
       </c>
       <c r="J52" s="3">
-        <v>4288800</v>
+        <v>4088000</v>
       </c>
       <c r="K52" s="3">
         <v>4051300</v>
@@ -2084,25 +2084,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32514800</v>
+        <v>30992200</v>
       </c>
       <c r="E54" s="3">
-        <v>41297500</v>
+        <v>39363700</v>
       </c>
       <c r="F54" s="3">
-        <v>42843400</v>
+        <v>40837200</v>
       </c>
       <c r="G54" s="3">
-        <v>41030000</v>
+        <v>39108700</v>
       </c>
       <c r="H54" s="3">
-        <v>52214400</v>
+        <v>49769400</v>
       </c>
       <c r="I54" s="3">
-        <v>60877200</v>
+        <v>58026600</v>
       </c>
       <c r="J54" s="3">
-        <v>59317900</v>
+        <v>56540300</v>
       </c>
       <c r="K54" s="3">
         <v>56608000</v>
@@ -2147,25 +2147,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4824900</v>
+        <v>4598900</v>
       </c>
       <c r="E57" s="3">
-        <v>6350200</v>
+        <v>6052900</v>
       </c>
       <c r="F57" s="3">
-        <v>6579800</v>
+        <v>6271700</v>
       </c>
       <c r="G57" s="3">
-        <v>6474100</v>
+        <v>6170900</v>
       </c>
       <c r="H57" s="3">
-        <v>8428600</v>
+        <v>8033900</v>
       </c>
       <c r="I57" s="3">
-        <v>11166300</v>
+        <v>10643400</v>
       </c>
       <c r="J57" s="3">
-        <v>11578900</v>
+        <v>11036700</v>
       </c>
       <c r="K57" s="3">
         <v>11045100</v>
@@ -2180,25 +2180,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>602100</v>
+        <v>573900</v>
       </c>
       <c r="E58" s="3">
-        <v>3437900</v>
+        <v>3276900</v>
       </c>
       <c r="F58" s="3">
-        <v>2898000</v>
+        <v>2762300</v>
       </c>
       <c r="G58" s="3">
-        <v>9743300</v>
+        <v>9287100</v>
       </c>
       <c r="H58" s="3">
-        <v>5954500</v>
+        <v>5675600</v>
       </c>
       <c r="I58" s="3">
-        <v>2575200</v>
+        <v>2454700</v>
       </c>
       <c r="J58" s="3">
-        <v>3911700</v>
+        <v>3728500</v>
       </c>
       <c r="K58" s="3">
         <v>4019400</v>
@@ -2213,25 +2213,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8007100</v>
+        <v>7632100</v>
       </c>
       <c r="E59" s="3">
-        <v>8263500</v>
+        <v>7876500</v>
       </c>
       <c r="F59" s="3">
-        <v>13883500</v>
+        <v>13233400</v>
       </c>
       <c r="G59" s="3">
-        <v>13696600</v>
+        <v>13055300</v>
       </c>
       <c r="H59" s="3">
-        <v>15139000</v>
+        <v>14430100</v>
       </c>
       <c r="I59" s="3">
-        <v>14231900</v>
+        <v>13565500</v>
       </c>
       <c r="J59" s="3">
-        <v>12734200</v>
+        <v>12138000</v>
       </c>
       <c r="K59" s="3">
         <v>10338900</v>
@@ -2246,25 +2246,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13434000</v>
+        <v>12804900</v>
       </c>
       <c r="E60" s="3">
-        <v>18051600</v>
+        <v>17206300</v>
       </c>
       <c r="F60" s="3">
-        <v>23361300</v>
+        <v>22267400</v>
       </c>
       <c r="G60" s="3">
-        <v>26761200</v>
+        <v>25508100</v>
       </c>
       <c r="H60" s="3">
-        <v>29522000</v>
+        <v>28139600</v>
       </c>
       <c r="I60" s="3">
-        <v>27973400</v>
+        <v>26663600</v>
       </c>
       <c r="J60" s="3">
-        <v>26269000</v>
+        <v>25039000</v>
       </c>
       <c r="K60" s="3">
         <v>25403400</v>
@@ -2279,25 +2279,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1669800</v>
+        <v>1591600</v>
       </c>
       <c r="E61" s="3">
-        <v>739300</v>
+        <v>704700</v>
       </c>
       <c r="F61" s="3">
-        <v>3756200</v>
+        <v>3580300</v>
       </c>
       <c r="G61" s="3">
-        <v>4979600</v>
+        <v>4746400</v>
       </c>
       <c r="H61" s="3">
-        <v>7988800</v>
+        <v>7614700</v>
       </c>
       <c r="I61" s="3">
-        <v>10023400</v>
+        <v>9554100</v>
       </c>
       <c r="J61" s="3">
-        <v>11386500</v>
+        <v>10853400</v>
       </c>
       <c r="K61" s="3">
         <v>9636800</v>
@@ -2312,25 +2312,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7066600</v>
+        <v>6735700</v>
       </c>
       <c r="E62" s="3">
-        <v>6178700</v>
+        <v>5889400</v>
       </c>
       <c r="F62" s="3">
-        <v>6012800</v>
+        <v>5731200</v>
       </c>
       <c r="G62" s="3">
-        <v>11938700</v>
+        <v>11379700</v>
       </c>
       <c r="H62" s="3">
-        <v>8243200</v>
+        <v>7857200</v>
       </c>
       <c r="I62" s="3">
-        <v>7837300</v>
+        <v>7470300</v>
       </c>
       <c r="J62" s="3">
-        <v>7766300</v>
+        <v>7402700</v>
       </c>
       <c r="K62" s="3">
         <v>8426600</v>
@@ -2444,25 +2444,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23483300</v>
+        <v>22383600</v>
       </c>
       <c r="E66" s="3">
-        <v>27299000</v>
+        <v>26020700</v>
       </c>
       <c r="F66" s="3">
-        <v>35317500</v>
+        <v>33663700</v>
       </c>
       <c r="G66" s="3">
-        <v>46343800</v>
+        <v>44173700</v>
       </c>
       <c r="H66" s="3">
-        <v>49053900</v>
+        <v>46756900</v>
       </c>
       <c r="I66" s="3">
-        <v>50460000</v>
+        <v>48097200</v>
       </c>
       <c r="J66" s="3">
-        <v>49446600</v>
+        <v>47131200</v>
       </c>
       <c r="K66" s="3">
         <v>47010000</v>
@@ -2624,25 +2624,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9910100</v>
+        <v>9446100</v>
       </c>
       <c r="E72" s="3">
-        <v>14688500</v>
+        <v>14000700</v>
       </c>
       <c r="F72" s="3">
-        <v>2148900</v>
+        <v>2048300</v>
       </c>
       <c r="G72" s="3">
-        <v>-5577600</v>
+        <v>-5316400</v>
       </c>
       <c r="H72" s="3">
-        <v>-737900</v>
+        <v>-703300</v>
       </c>
       <c r="I72" s="3">
-        <v>3682800</v>
+        <v>3510400</v>
       </c>
       <c r="J72" s="3">
-        <v>4371900</v>
+        <v>4167200</v>
       </c>
       <c r="K72" s="3">
         <v>5896700</v>
@@ -2756,25 +2756,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9031500</v>
+        <v>8608600</v>
       </c>
       <c r="E76" s="3">
-        <v>13998500</v>
+        <v>13343000</v>
       </c>
       <c r="F76" s="3">
-        <v>7525900</v>
+        <v>7173500</v>
       </c>
       <c r="G76" s="3">
-        <v>-5313800</v>
+        <v>-5065000</v>
       </c>
       <c r="H76" s="3">
-        <v>3160500</v>
+        <v>3012500</v>
       </c>
       <c r="I76" s="3">
-        <v>10417200</v>
+        <v>9929400</v>
       </c>
       <c r="J76" s="3">
-        <v>9871300</v>
+        <v>9409100</v>
       </c>
       <c r="K76" s="3">
         <v>9598000</v>
@@ -2860,25 +2860,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1101600</v>
+        <v>-1050000</v>
       </c>
       <c r="E81" s="3">
-        <v>9737400</v>
+        <v>9281400</v>
       </c>
       <c r="F81" s="3">
-        <v>7726500</v>
+        <v>7364700</v>
       </c>
       <c r="G81" s="3">
-        <v>-9280000</v>
+        <v>-8845500</v>
       </c>
       <c r="H81" s="3">
-        <v>-4420700</v>
+        <v>-4213700</v>
       </c>
       <c r="I81" s="3">
-        <v>-363500</v>
+        <v>-346500</v>
       </c>
       <c r="J81" s="3">
-        <v>578900</v>
+        <v>551800</v>
       </c>
       <c r="K81" s="3">
         <v>718700</v>
@@ -2908,25 +2908,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>765100</v>
+        <v>729300</v>
       </c>
       <c r="E83" s="3">
-        <v>754600</v>
+        <v>719200</v>
       </c>
       <c r="F83" s="3">
-        <v>1134700</v>
+        <v>1081500</v>
       </c>
       <c r="G83" s="3">
-        <v>1566200</v>
+        <v>1492900</v>
       </c>
       <c r="H83" s="3">
-        <v>2055300</v>
+        <v>1959000</v>
       </c>
       <c r="I83" s="3">
-        <v>1825300</v>
+        <v>1739800</v>
       </c>
       <c r="J83" s="3">
-        <v>1651000</v>
+        <v>1573700</v>
       </c>
       <c r="K83" s="3">
         <v>2031300</v>
@@ -3106,25 +3106,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1366000</v>
+        <v>-1302100</v>
       </c>
       <c r="E89" s="3">
-        <v>1199900</v>
+        <v>1143700</v>
       </c>
       <c r="F89" s="3">
-        <v>359100</v>
+        <v>342300</v>
       </c>
       <c r="G89" s="3">
-        <v>1289300</v>
+        <v>1228900</v>
       </c>
       <c r="H89" s="3">
-        <v>-11800</v>
+        <v>-11300</v>
       </c>
       <c r="I89" s="3">
-        <v>3175500</v>
+        <v>3026800</v>
       </c>
       <c r="J89" s="3">
-        <v>2730500</v>
+        <v>2602600</v>
       </c>
       <c r="K89" s="3">
         <v>1229200</v>
@@ -3154,25 +3154,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1146200</v>
+        <v>-1092500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1177800</v>
+        <v>-1122600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1720400</v>
+        <v>-1639900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1525600</v>
+        <v>-1454200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2325800</v>
+        <v>-2216900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2272900</v>
+        <v>-2166400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1930900</v>
+        <v>-1840500</v>
       </c>
       <c r="K91" s="3">
         <v>-2476500</v>
@@ -3253,25 +3253,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1177400</v>
+        <v>-1122200</v>
       </c>
       <c r="E94" s="3">
-        <v>12545200</v>
+        <v>11957800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1409900</v>
+        <v>-1343900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1719500</v>
+        <v>-1639000</v>
       </c>
       <c r="H94" s="3">
-        <v>6279600</v>
+        <v>5985500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1827100</v>
+        <v>-1741600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2345800</v>
+        <v>-2236000</v>
       </c>
       <c r="K94" s="3">
         <v>-1824100</v>
@@ -3301,25 +3301,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-224100</v>
+        <v>-213600</v>
       </c>
       <c r="E96" s="3">
-        <v>-213800</v>
+        <v>-203800</v>
       </c>
       <c r="F96" s="3">
-        <v>-105100</v>
+        <v>-100200</v>
       </c>
       <c r="G96" s="3">
-        <v>-122600</v>
+        <v>-116800</v>
       </c>
       <c r="H96" s="3">
-        <v>-306100</v>
+        <v>-291700</v>
       </c>
       <c r="I96" s="3">
-        <v>-404300</v>
+        <v>-385300</v>
       </c>
       <c r="J96" s="3">
-        <v>-374300</v>
+        <v>-356800</v>
       </c>
       <c r="K96" s="3">
         <v>-395300</v>
@@ -3433,25 +3433,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6604400</v>
+        <v>-6295200</v>
       </c>
       <c r="E100" s="3">
-        <v>-6198600</v>
+        <v>-5908400</v>
       </c>
       <c r="F100" s="3">
-        <v>-611300</v>
+        <v>-582700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2111900</v>
+        <v>-2013000</v>
       </c>
       <c r="H100" s="3">
-        <v>1304500</v>
+        <v>1243400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1208900</v>
+        <v>-1152300</v>
       </c>
       <c r="J100" s="3">
-        <v>-858300</v>
+        <v>-818100</v>
       </c>
       <c r="K100" s="3">
         <v>388100</v>
@@ -3466,25 +3466,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-63800</v>
+        <v>-60800</v>
       </c>
       <c r="E101" s="3">
-        <v>15300</v>
+        <v>14600</v>
       </c>
       <c r="F101" s="3">
-        <v>-15500</v>
+        <v>-14800</v>
       </c>
       <c r="G101" s="3">
-        <v>-31800</v>
+        <v>-30300</v>
       </c>
       <c r="H101" s="3">
-        <v>-113400</v>
+        <v>-108100</v>
       </c>
       <c r="I101" s="3">
-        <v>129800</v>
+        <v>123700</v>
       </c>
       <c r="J101" s="3">
-        <v>110000</v>
+        <v>104900</v>
       </c>
       <c r="K101" s="3">
         <v>159100</v>
@@ -3499,25 +3499,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9211600</v>
+        <v>-8780300</v>
       </c>
       <c r="E102" s="3">
-        <v>7561800</v>
+        <v>7207700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1677700</v>
+        <v>-1599100</v>
       </c>
       <c r="G102" s="3">
-        <v>-2573900</v>
+        <v>-2453400</v>
       </c>
       <c r="H102" s="3">
-        <v>7458900</v>
+        <v>7109700</v>
       </c>
       <c r="I102" s="3">
-        <v>269300</v>
+        <v>256700</v>
       </c>
       <c r="J102" s="3">
-        <v>-363500</v>
+        <v>-346500</v>
       </c>
       <c r="K102" s="3">
         <v>-47700</v>

--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>TOSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,168 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31051200</v>
+        <v>28069700</v>
       </c>
       <c r="E8" s="3">
-        <v>33832800</v>
+        <v>31152900</v>
       </c>
       <c r="F8" s="3">
-        <v>36160000</v>
+        <v>33943600</v>
       </c>
       <c r="G8" s="3">
-        <v>37040600</v>
+        <v>36278400</v>
       </c>
       <c r="H8" s="3">
-        <v>47218300</v>
+        <v>37161900</v>
       </c>
       <c r="I8" s="3">
-        <v>56010500</v>
+        <v>47373000</v>
       </c>
       <c r="J8" s="3">
+        <v>56193900</v>
+      </c>
+      <c r="K8" s="3">
         <v>59445700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>53203700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>55146400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22643500</v>
+        <v>20501200</v>
       </c>
       <c r="E9" s="3">
-        <v>25497400</v>
+        <v>22717700</v>
       </c>
       <c r="F9" s="3">
-        <v>27359500</v>
+        <v>25581000</v>
       </c>
       <c r="G9" s="3">
-        <v>27619200</v>
+        <v>27449100</v>
       </c>
       <c r="H9" s="3">
-        <v>40334400</v>
+        <v>27709700</v>
       </c>
       <c r="I9" s="3">
-        <v>43081400</v>
+        <v>40466500</v>
       </c>
       <c r="J9" s="3">
+        <v>43222500</v>
+      </c>
+      <c r="K9" s="3">
         <v>44570600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40076700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>83743400</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8407700</v>
+        <v>7568500</v>
       </c>
       <c r="E10" s="3">
-        <v>8335400</v>
+        <v>8435200</v>
       </c>
       <c r="F10" s="3">
-        <v>8800500</v>
+        <v>8362700</v>
       </c>
       <c r="G10" s="3">
-        <v>9421400</v>
+        <v>8829300</v>
       </c>
       <c r="H10" s="3">
-        <v>6883900</v>
+        <v>9452300</v>
       </c>
       <c r="I10" s="3">
-        <v>12929100</v>
+        <v>6906400</v>
       </c>
       <c r="J10" s="3">
+        <v>12971500</v>
+      </c>
+      <c r="K10" s="3">
         <v>14875100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13127000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-28597000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,8 +840,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,12 +870,15 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3">
         <v>2891600</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,29 +909,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>90100</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>154900</v>
+      <c r="F14" s="3">
+        <v>90400</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>433900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>155400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>435300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -926,9 +945,12 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -959,9 +981,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +997,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29856200</v>
+        <v>27110300</v>
       </c>
       <c r="E17" s="3">
-        <v>33508100</v>
+        <v>29954000</v>
       </c>
       <c r="F17" s="3">
-        <v>35573100</v>
+        <v>33617900</v>
       </c>
       <c r="G17" s="3">
-        <v>36289400</v>
+        <v>35689600</v>
       </c>
       <c r="H17" s="3">
-        <v>51642700</v>
+        <v>36408200</v>
       </c>
       <c r="I17" s="3">
-        <v>54284700</v>
+        <v>51811800</v>
       </c>
       <c r="J17" s="3">
+        <v>54462400</v>
+      </c>
+      <c r="K17" s="3">
         <v>57090400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>51366700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>53314300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1195000</v>
+        <v>959500</v>
       </c>
       <c r="E18" s="3">
-        <v>324700</v>
+        <v>1198900</v>
       </c>
       <c r="F18" s="3">
-        <v>586900</v>
+        <v>325800</v>
       </c>
       <c r="G18" s="3">
-        <v>751300</v>
+        <v>588800</v>
       </c>
       <c r="H18" s="3">
-        <v>-4424400</v>
+        <v>753700</v>
       </c>
       <c r="I18" s="3">
-        <v>1725800</v>
+        <v>-4438900</v>
       </c>
       <c r="J18" s="3">
+        <v>1731500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2355300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1837000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1832100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,173 +1085,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1580900</v>
+        <v>492900</v>
       </c>
       <c r="E20" s="3">
-        <v>-128000</v>
+        <v>-1586100</v>
       </c>
       <c r="F20" s="3">
-        <v>436700</v>
+        <v>-128400</v>
       </c>
       <c r="G20" s="3">
-        <v>-169700</v>
+        <v>438100</v>
       </c>
       <c r="H20" s="3">
-        <v>930000</v>
+        <v>-170300</v>
       </c>
       <c r="I20" s="3">
-        <v>-78600</v>
+        <v>933000</v>
       </c>
       <c r="J20" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-376400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-50500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-228400</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>346500</v>
+        <v>2236300</v>
       </c>
       <c r="E21" s="3">
-        <v>919000</v>
+        <v>345300</v>
       </c>
       <c r="F21" s="3">
-        <v>2109800</v>
+        <v>919700</v>
       </c>
       <c r="G21" s="3">
-        <v>2080900</v>
+        <v>2113200</v>
       </c>
       <c r="H21" s="3">
-        <v>-1526800</v>
+        <v>2082800</v>
       </c>
       <c r="I21" s="3">
-        <v>3394700</v>
+        <v>-1538300</v>
       </c>
       <c r="J21" s="3">
+        <v>3400100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3559400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3815700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3862900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>49500</v>
+        <v>41800</v>
       </c>
       <c r="E22" s="3">
-        <v>96800</v>
+        <v>49700</v>
       </c>
       <c r="F22" s="3">
-        <v>269000</v>
+        <v>97100</v>
       </c>
       <c r="G22" s="3">
-        <v>169800</v>
+        <v>269900</v>
       </c>
       <c r="H22" s="3">
-        <v>163700</v>
+        <v>170400</v>
       </c>
       <c r="I22" s="3">
-        <v>212600</v>
+        <v>164300</v>
       </c>
       <c r="J22" s="3">
+        <v>213300</v>
+      </c>
+      <c r="K22" s="3">
         <v>308700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>303600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>287600</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-435500</v>
+        <v>1410600</v>
       </c>
       <c r="E23" s="3">
-        <v>99900</v>
+        <v>-436900</v>
       </c>
       <c r="F23" s="3">
-        <v>754600</v>
+        <v>100300</v>
       </c>
       <c r="G23" s="3">
-        <v>411700</v>
+        <v>757100</v>
       </c>
       <c r="H23" s="3">
-        <v>-3658100</v>
+        <v>413000</v>
       </c>
       <c r="I23" s="3">
-        <v>1434600</v>
+        <v>-3670100</v>
       </c>
       <c r="J23" s="3">
+        <v>1439300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1670200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1483000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1316000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>321700</v>
+        <v>126400</v>
       </c>
       <c r="E24" s="3">
-        <v>142500</v>
+        <v>322800</v>
       </c>
       <c r="F24" s="3">
-        <v>-567400</v>
+        <v>142900</v>
       </c>
       <c r="G24" s="3">
-        <v>531000</v>
+        <v>-569200</v>
       </c>
       <c r="H24" s="3">
-        <v>2257100</v>
+        <v>532700</v>
       </c>
       <c r="I24" s="3">
-        <v>1310000</v>
+        <v>2264500</v>
       </c>
       <c r="J24" s="3">
+        <v>1314300</v>
+      </c>
+      <c r="K24" s="3">
         <v>843100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>551000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>580600</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,75 +1298,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-757200</v>
+        <v>1284100</v>
       </c>
       <c r="E26" s="3">
-        <v>-42500</v>
+        <v>-759600</v>
       </c>
       <c r="F26" s="3">
-        <v>1321900</v>
+        <v>-42700</v>
       </c>
       <c r="G26" s="3">
-        <v>-119300</v>
+        <v>1326300</v>
       </c>
       <c r="H26" s="3">
-        <v>-5915300</v>
+        <v>-119700</v>
       </c>
       <c r="I26" s="3">
-        <v>124600</v>
+        <v>-5934600</v>
       </c>
       <c r="J26" s="3">
+        <v>125000</v>
+      </c>
+      <c r="K26" s="3">
         <v>827100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>931900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>735500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-923700</v>
+        <v>1118500</v>
       </c>
       <c r="E27" s="3">
-        <v>-247200</v>
+        <v>-926700</v>
       </c>
       <c r="F27" s="3">
-        <v>988800</v>
+        <v>-248000</v>
       </c>
       <c r="G27" s="3">
-        <v>1662700</v>
+        <v>992000</v>
       </c>
       <c r="H27" s="3">
-        <v>-5402100</v>
+        <v>1668100</v>
       </c>
       <c r="I27" s="3">
-        <v>-47700</v>
+        <v>-5419800</v>
       </c>
       <c r="J27" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="K27" s="3">
         <v>689400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>765000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>645000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,42 +1406,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-126400</v>
+        <v>-71000</v>
       </c>
       <c r="E29" s="3">
-        <v>9528600</v>
+        <v>-126800</v>
       </c>
       <c r="F29" s="3">
-        <v>6376000</v>
+        <v>9559800</v>
       </c>
       <c r="G29" s="3">
-        <v>-10508200</v>
+        <v>6396900</v>
       </c>
       <c r="H29" s="3">
-        <v>1188400</v>
+        <v>-10542600</v>
       </c>
       <c r="I29" s="3">
-        <v>-298700</v>
+        <v>1192300</v>
       </c>
       <c r="J29" s="3">
+        <v>-299700</v>
+      </c>
+      <c r="K29" s="3">
         <v>-137600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-46300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-11700</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,75 +1514,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1580900</v>
+        <v>-492900</v>
       </c>
       <c r="E32" s="3">
-        <v>128000</v>
+        <v>1586100</v>
       </c>
       <c r="F32" s="3">
-        <v>-436700</v>
+        <v>128400</v>
       </c>
       <c r="G32" s="3">
-        <v>169700</v>
+        <v>-438100</v>
       </c>
       <c r="H32" s="3">
-        <v>-930000</v>
+        <v>170300</v>
       </c>
       <c r="I32" s="3">
-        <v>78600</v>
+        <v>-933000</v>
       </c>
       <c r="J32" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K32" s="3">
         <v>376400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>50500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>228400</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1050000</v>
+        <v>1047500</v>
       </c>
       <c r="E33" s="3">
-        <v>9281400</v>
+        <v>-1053500</v>
       </c>
       <c r="F33" s="3">
-        <v>7364700</v>
+        <v>9311800</v>
       </c>
       <c r="G33" s="3">
-        <v>-8845500</v>
+        <v>7388900</v>
       </c>
       <c r="H33" s="3">
-        <v>-4213700</v>
+        <v>-8874400</v>
       </c>
       <c r="I33" s="3">
-        <v>-346500</v>
+        <v>-4227500</v>
       </c>
       <c r="J33" s="3">
+        <v>-347600</v>
+      </c>
+      <c r="K33" s="3">
         <v>551800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>718700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>633300</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,80 +1622,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1050000</v>
+        <v>1047500</v>
       </c>
       <c r="E35" s="3">
-        <v>9281400</v>
+        <v>-1053500</v>
       </c>
       <c r="F35" s="3">
-        <v>7364700</v>
+        <v>9311800</v>
       </c>
       <c r="G35" s="3">
-        <v>-8845500</v>
+        <v>7388900</v>
       </c>
       <c r="H35" s="3">
-        <v>-4213700</v>
+        <v>-8874400</v>
       </c>
       <c r="I35" s="3">
-        <v>-346500</v>
+        <v>-4227500</v>
       </c>
       <c r="J35" s="3">
+        <v>-347600</v>
+      </c>
+      <c r="K35" s="3">
         <v>551800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>718700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>633300</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,41 +1734,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3453100</v>
+        <v>4828900</v>
       </c>
       <c r="E41" s="3">
-        <v>12233400</v>
+        <v>3464400</v>
       </c>
       <c r="F41" s="3">
-        <v>4587500</v>
+        <v>12273400</v>
       </c>
       <c r="G41" s="3">
-        <v>4773200</v>
+        <v>4602500</v>
       </c>
       <c r="H41" s="3">
-        <v>8882600</v>
+        <v>4788900</v>
       </c>
       <c r="I41" s="3">
-        <v>1742100</v>
+        <v>8911700</v>
       </c>
       <c r="J41" s="3">
+        <v>1747800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1569500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1941100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1937300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1714,240 +1803,264 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9539800</v>
+        <v>8258200</v>
       </c>
       <c r="E43" s="3">
-        <v>10059500</v>
+        <v>9571000</v>
       </c>
       <c r="F43" s="3">
-        <v>10367800</v>
+        <v>10092400</v>
       </c>
       <c r="G43" s="3">
-        <v>9686600</v>
+        <v>10401700</v>
       </c>
       <c r="H43" s="3">
-        <v>11608800</v>
+        <v>9718300</v>
       </c>
       <c r="I43" s="3">
-        <v>13869400</v>
+        <v>11646800</v>
       </c>
       <c r="J43" s="3">
+        <v>13914800</v>
+      </c>
+      <c r="K43" s="3">
         <v>15020300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14182300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15472100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4418100</v>
+        <v>4372300</v>
       </c>
       <c r="E44" s="3">
-        <v>4294900</v>
+        <v>4432600</v>
       </c>
       <c r="F44" s="3">
-        <v>4303100</v>
+        <v>4309000</v>
       </c>
       <c r="G44" s="3">
-        <v>4586300</v>
+        <v>4317200</v>
       </c>
       <c r="H44" s="3">
-        <v>6678800</v>
+        <v>4601300</v>
       </c>
       <c r="I44" s="3">
-        <v>12295500</v>
+        <v>6700600</v>
       </c>
       <c r="J44" s="3">
+        <v>12335800</v>
+      </c>
+      <c r="K44" s="3">
         <v>8104900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9308800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>14849700</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1258000</v>
+        <v>2123600</v>
       </c>
       <c r="E45" s="3">
-        <v>1202400</v>
+        <v>1262200</v>
       </c>
       <c r="F45" s="3">
-        <v>13526200</v>
+        <v>1206300</v>
       </c>
       <c r="G45" s="3">
-        <v>10168500</v>
+        <v>13570500</v>
       </c>
       <c r="H45" s="3">
-        <v>4510500</v>
+        <v>10201800</v>
       </c>
       <c r="I45" s="3">
-        <v>6623500</v>
+        <v>4525200</v>
       </c>
       <c r="J45" s="3">
+        <v>6645200</v>
+      </c>
+      <c r="K45" s="3">
         <v>4238800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3896600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7495100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18669000</v>
+        <v>19583000</v>
       </c>
       <c r="E46" s="3">
-        <v>27790100</v>
+        <v>18730100</v>
       </c>
       <c r="F46" s="3">
-        <v>32784500</v>
+        <v>27881200</v>
       </c>
       <c r="G46" s="3">
-        <v>29214700</v>
+        <v>32891900</v>
       </c>
       <c r="H46" s="3">
-        <v>31680600</v>
+        <v>29310300</v>
       </c>
       <c r="I46" s="3">
-        <v>30579800</v>
+        <v>31784400</v>
       </c>
       <c r="J46" s="3">
+        <v>30680000</v>
+      </c>
+      <c r="K46" s="3">
         <v>28933400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29328900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27206000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4696400</v>
+        <v>38900</v>
       </c>
       <c r="E47" s="3">
-        <v>5455900</v>
+        <v>4711700</v>
       </c>
       <c r="F47" s="3">
-        <v>2251900</v>
+        <v>5473700</v>
       </c>
       <c r="G47" s="3">
-        <v>2068600</v>
+        <v>2259300</v>
       </c>
       <c r="H47" s="3">
-        <v>3330100</v>
+        <v>2075400</v>
       </c>
       <c r="I47" s="3">
-        <v>5784000</v>
+        <v>3341000</v>
       </c>
       <c r="J47" s="3">
+        <v>5803000</v>
+      </c>
+      <c r="K47" s="3">
         <v>6069000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6553400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10077200</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5274400</v>
+        <v>5288300</v>
       </c>
       <c r="E48" s="3">
-        <v>3533200</v>
+        <v>5291700</v>
       </c>
       <c r="F48" s="3">
-        <v>3349200</v>
+        <v>3544800</v>
       </c>
       <c r="G48" s="3">
-        <v>3698200</v>
+        <v>3360200</v>
       </c>
       <c r="H48" s="3">
-        <v>7275800</v>
+        <v>3710300</v>
       </c>
       <c r="I48" s="3">
-        <v>7818400</v>
+        <v>7299700</v>
       </c>
       <c r="J48" s="3">
+        <v>7844100</v>
+      </c>
+      <c r="K48" s="3">
         <v>8336700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8209800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36286100</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>1096200</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>1068000</v>
+        <v>1099800</v>
       </c>
       <c r="F49" s="3">
-        <v>1158800</v>
+        <v>1071500</v>
       </c>
       <c r="G49" s="3">
-        <v>6479700</v>
+        <v>1162600</v>
       </c>
       <c r="H49" s="3">
-        <v>5861400</v>
+        <v>6500900</v>
       </c>
       <c r="I49" s="3">
-        <v>10029900</v>
+        <v>5880600</v>
       </c>
       <c r="J49" s="3">
+        <v>10062700</v>
+      </c>
+      <c r="K49" s="3">
         <v>9113200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8464500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12956000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,42 +2127,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1256200</v>
+        <v>7260600</v>
       </c>
       <c r="E52" s="3">
-        <v>1516400</v>
+        <v>1260400</v>
       </c>
       <c r="F52" s="3">
-        <v>1292800</v>
+        <v>1521400</v>
       </c>
       <c r="G52" s="3">
-        <v>959500</v>
+        <v>1297000</v>
       </c>
       <c r="H52" s="3">
-        <v>1621500</v>
+        <v>962600</v>
       </c>
       <c r="I52" s="3">
-        <v>3814400</v>
+        <v>1626800</v>
       </c>
       <c r="J52" s="3">
+        <v>3826900</v>
+      </c>
+      <c r="K52" s="3">
         <v>4088000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4051300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8620500</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2199,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30992200</v>
+        <v>32170800</v>
       </c>
       <c r="E54" s="3">
-        <v>39363700</v>
+        <v>31093700</v>
       </c>
       <c r="F54" s="3">
-        <v>40837200</v>
+        <v>39492600</v>
       </c>
       <c r="G54" s="3">
-        <v>39108700</v>
+        <v>40971000</v>
       </c>
       <c r="H54" s="3">
-        <v>49769400</v>
+        <v>39236800</v>
       </c>
       <c r="I54" s="3">
-        <v>58026600</v>
+        <v>49932400</v>
       </c>
       <c r="J54" s="3">
+        <v>58216600</v>
+      </c>
+      <c r="K54" s="3">
         <v>56540300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>56608000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>52004700</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,206 +2270,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4598900</v>
+        <v>4428400</v>
       </c>
       <c r="E57" s="3">
-        <v>6052900</v>
+        <v>4614000</v>
       </c>
       <c r="F57" s="3">
-        <v>6271700</v>
+        <v>6072700</v>
       </c>
       <c r="G57" s="3">
-        <v>6170900</v>
+        <v>6292300</v>
       </c>
       <c r="H57" s="3">
-        <v>8033900</v>
+        <v>6191100</v>
       </c>
       <c r="I57" s="3">
-        <v>10643400</v>
+        <v>8060200</v>
       </c>
       <c r="J57" s="3">
+        <v>10678300</v>
+      </c>
+      <c r="K57" s="3">
         <v>11036700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11045100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11689000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>573900</v>
+        <v>146900</v>
       </c>
       <c r="E58" s="3">
-        <v>3276900</v>
+        <v>575700</v>
       </c>
       <c r="F58" s="3">
-        <v>2762300</v>
+        <v>3287700</v>
       </c>
       <c r="G58" s="3">
-        <v>9287100</v>
+        <v>2771300</v>
       </c>
       <c r="H58" s="3">
-        <v>5675600</v>
+        <v>9317500</v>
       </c>
       <c r="I58" s="3">
-        <v>2454700</v>
+        <v>5694200</v>
       </c>
       <c r="J58" s="3">
+        <v>2462700</v>
+      </c>
+      <c r="K58" s="3">
         <v>3728500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4019400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4816200</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7632100</v>
+        <v>6957000</v>
       </c>
       <c r="E59" s="3">
-        <v>7876500</v>
+        <v>7657100</v>
       </c>
       <c r="F59" s="3">
-        <v>13233400</v>
+        <v>7902300</v>
       </c>
       <c r="G59" s="3">
-        <v>13055300</v>
+        <v>13276700</v>
       </c>
       <c r="H59" s="3">
-        <v>14430100</v>
+        <v>13098000</v>
       </c>
       <c r="I59" s="3">
-        <v>13565500</v>
+        <v>14477300</v>
       </c>
       <c r="J59" s="3">
+        <v>13609900</v>
+      </c>
+      <c r="K59" s="3">
         <v>12138000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10338900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13509200</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12804900</v>
+        <v>11532400</v>
       </c>
       <c r="E60" s="3">
-        <v>17206300</v>
+        <v>12846900</v>
       </c>
       <c r="F60" s="3">
-        <v>22267400</v>
+        <v>17262700</v>
       </c>
       <c r="G60" s="3">
-        <v>25508100</v>
+        <v>22340300</v>
       </c>
       <c r="H60" s="3">
-        <v>28139600</v>
+        <v>25591600</v>
       </c>
       <c r="I60" s="3">
-        <v>26663600</v>
+        <v>28231800</v>
       </c>
       <c r="J60" s="3">
+        <v>26750900</v>
+      </c>
+      <c r="K60" s="3">
         <v>25039000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25403400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24132800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1591600</v>
+        <v>5158000</v>
       </c>
       <c r="E61" s="3">
-        <v>704700</v>
+        <v>1596800</v>
       </c>
       <c r="F61" s="3">
-        <v>3580300</v>
+        <v>707000</v>
       </c>
       <c r="G61" s="3">
-        <v>4746400</v>
+        <v>3592000</v>
       </c>
       <c r="H61" s="3">
-        <v>7614700</v>
+        <v>4762000</v>
       </c>
       <c r="I61" s="3">
-        <v>9554100</v>
+        <v>7639600</v>
       </c>
       <c r="J61" s="3">
+        <v>9585400</v>
+      </c>
+      <c r="K61" s="3">
         <v>10853400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9636800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8223000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6735700</v>
+        <v>3491800</v>
       </c>
       <c r="E62" s="3">
-        <v>5889400</v>
+        <v>6757700</v>
       </c>
       <c r="F62" s="3">
-        <v>5731200</v>
+        <v>5908700</v>
       </c>
       <c r="G62" s="3">
-        <v>11379700</v>
+        <v>5750000</v>
       </c>
       <c r="H62" s="3">
-        <v>7857200</v>
+        <v>11416900</v>
       </c>
       <c r="I62" s="3">
-        <v>7470300</v>
+        <v>7882900</v>
       </c>
       <c r="J62" s="3">
+        <v>7494700</v>
+      </c>
+      <c r="K62" s="3">
         <v>7402700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8426600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17035800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,42 +2591,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22383600</v>
+        <v>21468800</v>
       </c>
       <c r="E66" s="3">
-        <v>26020700</v>
+        <v>22456900</v>
       </c>
       <c r="F66" s="3">
-        <v>33663700</v>
+        <v>26105900</v>
       </c>
       <c r="G66" s="3">
-        <v>44173700</v>
+        <v>33773900</v>
       </c>
       <c r="H66" s="3">
-        <v>46756900</v>
+        <v>44318400</v>
       </c>
       <c r="I66" s="3">
-        <v>48097200</v>
+        <v>46910100</v>
       </c>
       <c r="J66" s="3">
+        <v>48254700</v>
+      </c>
+      <c r="K66" s="3">
         <v>47131200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>47010000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>44198900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +2751,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,42 +2787,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9446100</v>
+        <v>10358300</v>
       </c>
       <c r="E72" s="3">
-        <v>14000700</v>
+        <v>9477000</v>
       </c>
       <c r="F72" s="3">
-        <v>2048300</v>
+        <v>14046600</v>
       </c>
       <c r="G72" s="3">
-        <v>-5316400</v>
+        <v>2055000</v>
       </c>
       <c r="H72" s="3">
-        <v>-703300</v>
+        <v>-5333800</v>
       </c>
       <c r="I72" s="3">
-        <v>3510400</v>
+        <v>-705600</v>
       </c>
       <c r="J72" s="3">
+        <v>3521900</v>
+      </c>
+      <c r="K72" s="3">
         <v>4167200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5896700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5351100</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2931,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8608600</v>
+        <v>10702100</v>
       </c>
       <c r="E76" s="3">
-        <v>13343000</v>
+        <v>8636800</v>
       </c>
       <c r="F76" s="3">
-        <v>7173500</v>
+        <v>13386700</v>
       </c>
       <c r="G76" s="3">
-        <v>-5065000</v>
+        <v>7197000</v>
       </c>
       <c r="H76" s="3">
-        <v>3012500</v>
+        <v>-5081600</v>
       </c>
       <c r="I76" s="3">
-        <v>9929400</v>
+        <v>3022400</v>
       </c>
       <c r="J76" s="3">
+        <v>9961900</v>
+      </c>
+      <c r="K76" s="3">
         <v>9409100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9598000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7805900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,80 +3003,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1050000</v>
+        <v>1047500</v>
       </c>
       <c r="E81" s="3">
-        <v>9281400</v>
+        <v>-1053500</v>
       </c>
       <c r="F81" s="3">
-        <v>7364700</v>
+        <v>9311800</v>
       </c>
       <c r="G81" s="3">
-        <v>-8845500</v>
+        <v>7388900</v>
       </c>
       <c r="H81" s="3">
-        <v>-4213700</v>
+        <v>-8874400</v>
       </c>
       <c r="I81" s="3">
-        <v>-346500</v>
+        <v>-4227500</v>
       </c>
       <c r="J81" s="3">
+        <v>-347600</v>
+      </c>
+      <c r="K81" s="3">
         <v>551800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>718700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>633300</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,41 +3099,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>729300</v>
+        <v>783100</v>
       </c>
       <c r="E83" s="3">
-        <v>719200</v>
+        <v>731700</v>
       </c>
       <c r="F83" s="3">
-        <v>1081500</v>
+        <v>721600</v>
       </c>
       <c r="G83" s="3">
-        <v>1492900</v>
+        <v>1085100</v>
       </c>
       <c r="H83" s="3">
-        <v>1959000</v>
+        <v>1497700</v>
       </c>
       <c r="I83" s="3">
-        <v>1739800</v>
+        <v>1965500</v>
       </c>
       <c r="J83" s="3">
+        <v>1745500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1573700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2031300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2256800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,42 +3312,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1302100</v>
+        <v>1333900</v>
       </c>
       <c r="E89" s="3">
-        <v>1143700</v>
+        <v>-1306300</v>
       </c>
       <c r="F89" s="3">
-        <v>342300</v>
+        <v>1147400</v>
       </c>
       <c r="G89" s="3">
-        <v>1228900</v>
+        <v>343400</v>
       </c>
       <c r="H89" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-11300</v>
       </c>
-      <c r="I89" s="3">
-        <v>3026800</v>
-      </c>
       <c r="J89" s="3">
+        <v>3036800</v>
+      </c>
+      <c r="K89" s="3">
         <v>2602600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1229200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3028400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,41 +3367,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1092500</v>
+        <v>-1079500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1122600</v>
+        <v>-1096100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1639900</v>
+        <v>-1126300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1454200</v>
+        <v>-1645300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2216900</v>
+        <v>-1459000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2166400</v>
+        <v>-2224200</v>
       </c>
       <c r="J91" s="3">
+        <v>-2173500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1840500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2476500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2637300</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,42 +3472,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1122200</v>
+        <v>-980300</v>
       </c>
       <c r="E94" s="3">
-        <v>11957800</v>
+        <v>-1125900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1343900</v>
+        <v>11996900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1639000</v>
+        <v>-1348300</v>
       </c>
       <c r="H94" s="3">
-        <v>5985500</v>
+        <v>-1644400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1741600</v>
+        <v>6005100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1747300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2236000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1824100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3410100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,41 +3527,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-213600</v>
+        <v>-195700</v>
       </c>
       <c r="E96" s="3">
-        <v>-203800</v>
+        <v>-214300</v>
       </c>
       <c r="F96" s="3">
-        <v>-100200</v>
+        <v>-204500</v>
       </c>
       <c r="G96" s="3">
-        <v>-116800</v>
+        <v>-100500</v>
       </c>
       <c r="H96" s="3">
-        <v>-291700</v>
+        <v>-117200</v>
       </c>
       <c r="I96" s="3">
-        <v>-385300</v>
+        <v>-292700</v>
       </c>
       <c r="J96" s="3">
+        <v>-386600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-356800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-395300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-334500</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,106 +3668,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6295200</v>
+        <v>898900</v>
       </c>
       <c r="E100" s="3">
-        <v>-5908400</v>
+        <v>-6315800</v>
       </c>
       <c r="F100" s="3">
-        <v>-582700</v>
+        <v>-5927700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2013000</v>
+        <v>-584600</v>
       </c>
       <c r="H100" s="3">
-        <v>1243400</v>
+        <v>-2019600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1152300</v>
+        <v>1247500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1156100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-818100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>388100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-60800</v>
+        <v>112100</v>
       </c>
       <c r="E101" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="F101" s="3">
         <v>14600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-14800</v>
       </c>
-      <c r="G101" s="3">
-        <v>-30300</v>
-      </c>
       <c r="H101" s="3">
-        <v>-108100</v>
+        <v>-30400</v>
       </c>
       <c r="I101" s="3">
-        <v>123700</v>
+        <v>-108400</v>
       </c>
       <c r="J101" s="3">
+        <v>124100</v>
+      </c>
+      <c r="K101" s="3">
         <v>104900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>159100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-18700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8780300</v>
+        <v>1364600</v>
       </c>
       <c r="E102" s="3">
-        <v>7207700</v>
+        <v>-8809000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1599100</v>
+        <v>7231300</v>
       </c>
       <c r="G102" s="3">
-        <v>-2453400</v>
+        <v>-1604300</v>
       </c>
       <c r="H102" s="3">
-        <v>7109700</v>
+        <v>-2461400</v>
       </c>
       <c r="I102" s="3">
-        <v>256700</v>
+        <v>7132900</v>
       </c>
       <c r="J102" s="3">
+        <v>257600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-346500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-47700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-402600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>TOSYY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28069700</v>
+        <v>27825400</v>
       </c>
       <c r="E8" s="3">
-        <v>31152900</v>
+        <v>30881700</v>
       </c>
       <c r="F8" s="3">
-        <v>33943600</v>
+        <v>33648100</v>
       </c>
       <c r="G8" s="3">
-        <v>36278400</v>
+        <v>35962600</v>
       </c>
       <c r="H8" s="3">
-        <v>37161900</v>
+        <v>36838400</v>
       </c>
       <c r="I8" s="3">
-        <v>47373000</v>
+        <v>46960600</v>
       </c>
       <c r="J8" s="3">
-        <v>56193900</v>
+        <v>55704800</v>
       </c>
       <c r="K8" s="3">
         <v>59445700</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20501200</v>
+        <v>20322700</v>
       </c>
       <c r="E9" s="3">
-        <v>22717700</v>
+        <v>22519900</v>
       </c>
       <c r="F9" s="3">
-        <v>25581000</v>
+        <v>25358300</v>
       </c>
       <c r="G9" s="3">
-        <v>27449100</v>
+        <v>27210100</v>
       </c>
       <c r="H9" s="3">
-        <v>27709700</v>
+        <v>27468400</v>
       </c>
       <c r="I9" s="3">
-        <v>40466500</v>
+        <v>40114300</v>
       </c>
       <c r="J9" s="3">
-        <v>43222500</v>
+        <v>42846200</v>
       </c>
       <c r="K9" s="3">
         <v>44570600</v>
@@ -795,25 +795,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7568500</v>
+        <v>7502600</v>
       </c>
       <c r="E10" s="3">
-        <v>8435200</v>
+        <v>8361800</v>
       </c>
       <c r="F10" s="3">
-        <v>8362700</v>
+        <v>8289900</v>
       </c>
       <c r="G10" s="3">
-        <v>8829300</v>
+        <v>8752500</v>
       </c>
       <c r="H10" s="3">
-        <v>9452300</v>
+        <v>9370000</v>
       </c>
       <c r="I10" s="3">
-        <v>6906400</v>
+        <v>6846300</v>
       </c>
       <c r="J10" s="3">
-        <v>12971500</v>
+        <v>12858500</v>
       </c>
       <c r="K10" s="3">
         <v>14875100</v>
@@ -925,16 +925,16 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>90400</v>
+        <v>89600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>155400</v>
+        <v>154100</v>
       </c>
       <c r="I14" s="3">
-        <v>435300</v>
+        <v>431600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27110300</v>
+        <v>26874300</v>
       </c>
       <c r="E17" s="3">
-        <v>29954000</v>
+        <v>29693200</v>
       </c>
       <c r="F17" s="3">
-        <v>33617900</v>
+        <v>33325200</v>
       </c>
       <c r="G17" s="3">
-        <v>35689600</v>
+        <v>35378900</v>
       </c>
       <c r="H17" s="3">
-        <v>36408200</v>
+        <v>36091300</v>
       </c>
       <c r="I17" s="3">
-        <v>51811800</v>
+        <v>51360800</v>
       </c>
       <c r="J17" s="3">
-        <v>54462400</v>
+        <v>53988300</v>
       </c>
       <c r="K17" s="3">
         <v>57090400</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>959500</v>
+        <v>951100</v>
       </c>
       <c r="E18" s="3">
-        <v>1198900</v>
+        <v>1188500</v>
       </c>
       <c r="F18" s="3">
-        <v>325800</v>
+        <v>322900</v>
       </c>
       <c r="G18" s="3">
-        <v>588800</v>
+        <v>583700</v>
       </c>
       <c r="H18" s="3">
-        <v>753700</v>
+        <v>747200</v>
       </c>
       <c r="I18" s="3">
-        <v>-4438900</v>
+        <v>-4400200</v>
       </c>
       <c r="J18" s="3">
-        <v>1731500</v>
+        <v>1716400</v>
       </c>
       <c r="K18" s="3">
         <v>2355300</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>492900</v>
+        <v>488600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1586100</v>
+        <v>-1572300</v>
       </c>
       <c r="F20" s="3">
-        <v>-128400</v>
+        <v>-127300</v>
       </c>
       <c r="G20" s="3">
-        <v>438100</v>
+        <v>434300</v>
       </c>
       <c r="H20" s="3">
-        <v>-170300</v>
+        <v>-168800</v>
       </c>
       <c r="I20" s="3">
-        <v>933000</v>
+        <v>924900</v>
       </c>
       <c r="J20" s="3">
-        <v>-78900</v>
+        <v>-78200</v>
       </c>
       <c r="K20" s="3">
         <v>-376400</v>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2236300</v>
+        <v>2216000</v>
       </c>
       <c r="E21" s="3">
-        <v>345300</v>
+        <v>341500</v>
       </c>
       <c r="F21" s="3">
-        <v>919700</v>
+        <v>910900</v>
       </c>
       <c r="G21" s="3">
-        <v>2113200</v>
+        <v>2093600</v>
       </c>
       <c r="H21" s="3">
-        <v>2082800</v>
+        <v>2063000</v>
       </c>
       <c r="I21" s="3">
-        <v>-1538300</v>
+        <v>-1527000</v>
       </c>
       <c r="J21" s="3">
-        <v>3400100</v>
+        <v>3368600</v>
       </c>
       <c r="K21" s="3">
         <v>3559400</v>
@@ -1164,25 +1164,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41800</v>
+        <v>41400</v>
       </c>
       <c r="E22" s="3">
-        <v>49700</v>
+        <v>49300</v>
       </c>
       <c r="F22" s="3">
-        <v>97100</v>
+        <v>96200</v>
       </c>
       <c r="G22" s="3">
-        <v>269900</v>
+        <v>267500</v>
       </c>
       <c r="H22" s="3">
-        <v>170400</v>
+        <v>168900</v>
       </c>
       <c r="I22" s="3">
-        <v>164300</v>
+        <v>162800</v>
       </c>
       <c r="J22" s="3">
-        <v>213300</v>
+        <v>211500</v>
       </c>
       <c r="K22" s="3">
         <v>308700</v>
@@ -1200,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1410600</v>
+        <v>1398300</v>
       </c>
       <c r="E23" s="3">
-        <v>-436900</v>
+        <v>-433100</v>
       </c>
       <c r="F23" s="3">
-        <v>100300</v>
+        <v>99400</v>
       </c>
       <c r="G23" s="3">
-        <v>757100</v>
+        <v>750500</v>
       </c>
       <c r="H23" s="3">
-        <v>413000</v>
+        <v>409400</v>
       </c>
       <c r="I23" s="3">
-        <v>-3670100</v>
+        <v>-3638200</v>
       </c>
       <c r="J23" s="3">
-        <v>1439300</v>
+        <v>1426800</v>
       </c>
       <c r="K23" s="3">
         <v>1670200</v>
@@ -1236,25 +1236,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>126400</v>
+        <v>125300</v>
       </c>
       <c r="E24" s="3">
-        <v>322800</v>
+        <v>319900</v>
       </c>
       <c r="F24" s="3">
-        <v>142900</v>
+        <v>141700</v>
       </c>
       <c r="G24" s="3">
-        <v>-569200</v>
+        <v>-564300</v>
       </c>
       <c r="H24" s="3">
-        <v>532700</v>
+        <v>528100</v>
       </c>
       <c r="I24" s="3">
-        <v>2264500</v>
+        <v>2244800</v>
       </c>
       <c r="J24" s="3">
-        <v>1314300</v>
+        <v>1302900</v>
       </c>
       <c r="K24" s="3">
         <v>843100</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1284100</v>
+        <v>1272900</v>
       </c>
       <c r="E26" s="3">
-        <v>-759600</v>
+        <v>-753000</v>
       </c>
       <c r="F26" s="3">
-        <v>-42700</v>
+        <v>-42300</v>
       </c>
       <c r="G26" s="3">
-        <v>1326300</v>
+        <v>1314700</v>
       </c>
       <c r="H26" s="3">
-        <v>-119700</v>
+        <v>-118600</v>
       </c>
       <c r="I26" s="3">
-        <v>-5934600</v>
+        <v>-5883000</v>
       </c>
       <c r="J26" s="3">
-        <v>125000</v>
+        <v>123900</v>
       </c>
       <c r="K26" s="3">
         <v>827100</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1118500</v>
+        <v>1108800</v>
       </c>
       <c r="E27" s="3">
-        <v>-926700</v>
+        <v>-918600</v>
       </c>
       <c r="F27" s="3">
-        <v>-248000</v>
+        <v>-245800</v>
       </c>
       <c r="G27" s="3">
-        <v>992000</v>
+        <v>983400</v>
       </c>
       <c r="H27" s="3">
-        <v>1668100</v>
+        <v>1653600</v>
       </c>
       <c r="I27" s="3">
-        <v>-5419800</v>
+        <v>-5372600</v>
       </c>
       <c r="J27" s="3">
-        <v>-47900</v>
+        <v>-47500</v>
       </c>
       <c r="K27" s="3">
         <v>689400</v>
@@ -1416,25 +1416,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-71000</v>
+        <v>-70400</v>
       </c>
       <c r="E29" s="3">
-        <v>-126800</v>
+        <v>-125700</v>
       </c>
       <c r="F29" s="3">
-        <v>9559800</v>
+        <v>9476600</v>
       </c>
       <c r="G29" s="3">
-        <v>6396900</v>
+        <v>6341200</v>
       </c>
       <c r="H29" s="3">
-        <v>-10542600</v>
+        <v>-10450800</v>
       </c>
       <c r="I29" s="3">
-        <v>1192300</v>
+        <v>1181900</v>
       </c>
       <c r="J29" s="3">
-        <v>-299700</v>
+        <v>-297100</v>
       </c>
       <c r="K29" s="3">
         <v>-137600</v>
@@ -1524,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-492900</v>
+        <v>-488600</v>
       </c>
       <c r="E32" s="3">
-        <v>1586100</v>
+        <v>1572300</v>
       </c>
       <c r="F32" s="3">
-        <v>128400</v>
+        <v>127300</v>
       </c>
       <c r="G32" s="3">
-        <v>-438100</v>
+        <v>-434300</v>
       </c>
       <c r="H32" s="3">
-        <v>170300</v>
+        <v>168800</v>
       </c>
       <c r="I32" s="3">
-        <v>-933000</v>
+        <v>-924900</v>
       </c>
       <c r="J32" s="3">
-        <v>78900</v>
+        <v>78200</v>
       </c>
       <c r="K32" s="3">
         <v>376400</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1047500</v>
+        <v>1038400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1053500</v>
+        <v>-1044300</v>
       </c>
       <c r="F33" s="3">
-        <v>9311800</v>
+        <v>9230800</v>
       </c>
       <c r="G33" s="3">
-        <v>7388900</v>
+        <v>7324500</v>
       </c>
       <c r="H33" s="3">
-        <v>-8874400</v>
+        <v>-8797200</v>
       </c>
       <c r="I33" s="3">
-        <v>-4227500</v>
+        <v>-4190700</v>
       </c>
       <c r="J33" s="3">
-        <v>-347600</v>
+        <v>-344600</v>
       </c>
       <c r="K33" s="3">
         <v>551800</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1047500</v>
+        <v>1038400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1053500</v>
+        <v>-1044300</v>
       </c>
       <c r="F35" s="3">
-        <v>9311800</v>
+        <v>9230800</v>
       </c>
       <c r="G35" s="3">
-        <v>7388900</v>
+        <v>7324500</v>
       </c>
       <c r="H35" s="3">
-        <v>-8874400</v>
+        <v>-8797200</v>
       </c>
       <c r="I35" s="3">
-        <v>-4227500</v>
+        <v>-4190700</v>
       </c>
       <c r="J35" s="3">
-        <v>-347600</v>
+        <v>-344600</v>
       </c>
       <c r="K35" s="3">
         <v>551800</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4828900</v>
+        <v>4786900</v>
       </c>
       <c r="E41" s="3">
-        <v>3464400</v>
+        <v>3434200</v>
       </c>
       <c r="F41" s="3">
-        <v>12273400</v>
+        <v>12166600</v>
       </c>
       <c r="G41" s="3">
-        <v>4602500</v>
+        <v>4562500</v>
       </c>
       <c r="H41" s="3">
-        <v>4788900</v>
+        <v>4747200</v>
       </c>
       <c r="I41" s="3">
-        <v>8911700</v>
+        <v>8834100</v>
       </c>
       <c r="J41" s="3">
-        <v>1747800</v>
+        <v>1732600</v>
       </c>
       <c r="K41" s="3">
         <v>1569500</v>
@@ -1813,25 +1813,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8258200</v>
+        <v>8977900</v>
       </c>
       <c r="E43" s="3">
-        <v>9571000</v>
+        <v>9487700</v>
       </c>
       <c r="F43" s="3">
-        <v>10092400</v>
+        <v>10004600</v>
       </c>
       <c r="G43" s="3">
-        <v>10401700</v>
+        <v>10311200</v>
       </c>
       <c r="H43" s="3">
-        <v>9718300</v>
+        <v>9633700</v>
       </c>
       <c r="I43" s="3">
-        <v>11646800</v>
+        <v>11545500</v>
       </c>
       <c r="J43" s="3">
-        <v>13914800</v>
+        <v>13793700</v>
       </c>
       <c r="K43" s="3">
         <v>15020300</v>
@@ -1849,25 +1849,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4372300</v>
+        <v>4334200</v>
       </c>
       <c r="E44" s="3">
-        <v>4432600</v>
+        <v>4394000</v>
       </c>
       <c r="F44" s="3">
-        <v>4309000</v>
+        <v>4271500</v>
       </c>
       <c r="G44" s="3">
-        <v>4317200</v>
+        <v>4279600</v>
       </c>
       <c r="H44" s="3">
-        <v>4601300</v>
+        <v>4561200</v>
       </c>
       <c r="I44" s="3">
-        <v>6700600</v>
+        <v>6642300</v>
       </c>
       <c r="J44" s="3">
-        <v>12335800</v>
+        <v>12228400</v>
       </c>
       <c r="K44" s="3">
         <v>8104900</v>
@@ -1885,25 +1885,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2123600</v>
+        <v>1313600</v>
       </c>
       <c r="E45" s="3">
-        <v>1262200</v>
+        <v>1251200</v>
       </c>
       <c r="F45" s="3">
-        <v>1206300</v>
+        <v>1195800</v>
       </c>
       <c r="G45" s="3">
-        <v>13570500</v>
+        <v>13452300</v>
       </c>
       <c r="H45" s="3">
-        <v>10201800</v>
+        <v>10113000</v>
       </c>
       <c r="I45" s="3">
-        <v>4525200</v>
+        <v>4485800</v>
       </c>
       <c r="J45" s="3">
-        <v>6645200</v>
+        <v>6587400</v>
       </c>
       <c r="K45" s="3">
         <v>4238800</v>
@@ -1921,25 +1921,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19583000</v>
+        <v>19412600</v>
       </c>
       <c r="E46" s="3">
-        <v>18730100</v>
+        <v>18567100</v>
       </c>
       <c r="F46" s="3">
-        <v>27881200</v>
+        <v>27638400</v>
       </c>
       <c r="G46" s="3">
-        <v>32891900</v>
+        <v>32605600</v>
       </c>
       <c r="H46" s="3">
-        <v>29310300</v>
+        <v>29055200</v>
       </c>
       <c r="I46" s="3">
-        <v>31784400</v>
+        <v>31507700</v>
       </c>
       <c r="J46" s="3">
-        <v>30680000</v>
+        <v>30412900</v>
       </c>
       <c r="K46" s="3">
         <v>28933400</v>
@@ -1957,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>38900</v>
+        <v>4865000</v>
       </c>
       <c r="E47" s="3">
-        <v>4711700</v>
+        <v>4670700</v>
       </c>
       <c r="F47" s="3">
-        <v>5473700</v>
+        <v>5426100</v>
       </c>
       <c r="G47" s="3">
-        <v>2259300</v>
+        <v>2239600</v>
       </c>
       <c r="H47" s="3">
-        <v>2075400</v>
+        <v>2057300</v>
       </c>
       <c r="I47" s="3">
-        <v>3341000</v>
+        <v>3311900</v>
       </c>
       <c r="J47" s="3">
-        <v>5803000</v>
+        <v>5752400</v>
       </c>
       <c r="K47" s="3">
         <v>6069000</v>
@@ -1993,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5288300</v>
+        <v>5242300</v>
       </c>
       <c r="E48" s="3">
-        <v>5291700</v>
+        <v>5245600</v>
       </c>
       <c r="F48" s="3">
-        <v>3544800</v>
+        <v>3513900</v>
       </c>
       <c r="G48" s="3">
-        <v>3360200</v>
+        <v>3330900</v>
       </c>
       <c r="H48" s="3">
-        <v>3710300</v>
+        <v>3678000</v>
       </c>
       <c r="I48" s="3">
-        <v>7299700</v>
+        <v>7236100</v>
       </c>
       <c r="J48" s="3">
-        <v>7844100</v>
+        <v>7775800</v>
       </c>
       <c r="K48" s="3">
         <v>8336700</v>
@@ -2028,26 +2028,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>1173000</v>
       </c>
       <c r="E49" s="3">
-        <v>1099800</v>
+        <v>1090300</v>
       </c>
       <c r="F49" s="3">
-        <v>1071500</v>
+        <v>1062200</v>
       </c>
       <c r="G49" s="3">
-        <v>1162600</v>
+        <v>1152500</v>
       </c>
       <c r="H49" s="3">
-        <v>6500900</v>
+        <v>6444300</v>
       </c>
       <c r="I49" s="3">
-        <v>5880600</v>
+        <v>5829400</v>
       </c>
       <c r="J49" s="3">
-        <v>10062700</v>
+        <v>9975100</v>
       </c>
       <c r="K49" s="3">
         <v>9113200</v>
@@ -2137,25 +2137,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7260600</v>
+        <v>1198000</v>
       </c>
       <c r="E52" s="3">
-        <v>1260400</v>
+        <v>1249400</v>
       </c>
       <c r="F52" s="3">
-        <v>1521400</v>
+        <v>1508200</v>
       </c>
       <c r="G52" s="3">
-        <v>1297000</v>
+        <v>1285700</v>
       </c>
       <c r="H52" s="3">
-        <v>962600</v>
+        <v>954300</v>
       </c>
       <c r="I52" s="3">
-        <v>1626800</v>
+        <v>1612600</v>
       </c>
       <c r="J52" s="3">
-        <v>3826900</v>
+        <v>3793600</v>
       </c>
       <c r="K52" s="3">
         <v>4088000</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32170800</v>
+        <v>31890800</v>
       </c>
       <c r="E54" s="3">
-        <v>31093700</v>
+        <v>30823100</v>
       </c>
       <c r="F54" s="3">
-        <v>39492600</v>
+        <v>39148800</v>
       </c>
       <c r="G54" s="3">
-        <v>40971000</v>
+        <v>40614300</v>
       </c>
       <c r="H54" s="3">
-        <v>39236800</v>
+        <v>38895300</v>
       </c>
       <c r="I54" s="3">
-        <v>49932400</v>
+        <v>49497700</v>
       </c>
       <c r="J54" s="3">
-        <v>58216600</v>
+        <v>57709800</v>
       </c>
       <c r="K54" s="3">
         <v>56540300</v>
@@ -2277,25 +2277,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4428400</v>
+        <v>6666900</v>
       </c>
       <c r="E57" s="3">
-        <v>4614000</v>
+        <v>7179300</v>
       </c>
       <c r="F57" s="3">
-        <v>6072700</v>
+        <v>8728500</v>
       </c>
       <c r="G57" s="3">
-        <v>6292300</v>
+        <v>9003000</v>
       </c>
       <c r="H57" s="3">
-        <v>6191100</v>
+        <v>8571700</v>
       </c>
       <c r="I57" s="3">
-        <v>8060200</v>
+        <v>12727500</v>
       </c>
       <c r="J57" s="3">
-        <v>10678300</v>
+        <v>15039100</v>
       </c>
       <c r="K57" s="3">
         <v>11036700</v>
@@ -2313,25 +2313,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>146900</v>
+        <v>145700</v>
       </c>
       <c r="E58" s="3">
-        <v>575700</v>
+        <v>570700</v>
       </c>
       <c r="F58" s="3">
-        <v>3287700</v>
+        <v>3259000</v>
       </c>
       <c r="G58" s="3">
-        <v>2771300</v>
+        <v>2747200</v>
       </c>
       <c r="H58" s="3">
-        <v>9317500</v>
+        <v>9236400</v>
       </c>
       <c r="I58" s="3">
-        <v>5694200</v>
+        <v>5644700</v>
       </c>
       <c r="J58" s="3">
-        <v>2462700</v>
+        <v>2441300</v>
       </c>
       <c r="K58" s="3">
         <v>3728500</v>
@@ -2349,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6957000</v>
+        <v>4619400</v>
       </c>
       <c r="E59" s="3">
-        <v>7657100</v>
+        <v>4985000</v>
       </c>
       <c r="F59" s="3">
-        <v>7902300</v>
+        <v>5124800</v>
       </c>
       <c r="G59" s="3">
-        <v>13276700</v>
+        <v>10395700</v>
       </c>
       <c r="H59" s="3">
-        <v>13098000</v>
+        <v>10549500</v>
       </c>
       <c r="I59" s="3">
-        <v>14477300</v>
+        <v>9613800</v>
       </c>
       <c r="J59" s="3">
-        <v>13609900</v>
+        <v>9037600</v>
       </c>
       <c r="K59" s="3">
         <v>12138000</v>
@@ -2385,25 +2385,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11532400</v>
+        <v>11432000</v>
       </c>
       <c r="E60" s="3">
-        <v>12846900</v>
+        <v>12735000</v>
       </c>
       <c r="F60" s="3">
-        <v>17262700</v>
+        <v>17112400</v>
       </c>
       <c r="G60" s="3">
-        <v>22340300</v>
+        <v>22145900</v>
       </c>
       <c r="H60" s="3">
-        <v>25591600</v>
+        <v>25368900</v>
       </c>
       <c r="I60" s="3">
-        <v>28231800</v>
+        <v>27986000</v>
       </c>
       <c r="J60" s="3">
-        <v>26750900</v>
+        <v>26518000</v>
       </c>
       <c r="K60" s="3">
         <v>25039000</v>
@@ -2421,25 +2421,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5158000</v>
+        <v>3447600</v>
       </c>
       <c r="E61" s="3">
-        <v>1596800</v>
+        <v>1582900</v>
       </c>
       <c r="F61" s="3">
-        <v>707000</v>
+        <v>700900</v>
       </c>
       <c r="G61" s="3">
-        <v>3592000</v>
+        <v>3560700</v>
       </c>
       <c r="H61" s="3">
-        <v>4762000</v>
+        <v>4720500</v>
       </c>
       <c r="I61" s="3">
-        <v>7639600</v>
+        <v>7573100</v>
       </c>
       <c r="J61" s="3">
-        <v>9585400</v>
+        <v>9501900</v>
       </c>
       <c r="K61" s="3">
         <v>10853400</v>
@@ -2457,25 +2457,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3491800</v>
+        <v>5127000</v>
       </c>
       <c r="E62" s="3">
-        <v>6757700</v>
+        <v>6698900</v>
       </c>
       <c r="F62" s="3">
-        <v>5908700</v>
+        <v>5857200</v>
       </c>
       <c r="G62" s="3">
-        <v>5750000</v>
+        <v>5699900</v>
       </c>
       <c r="H62" s="3">
-        <v>11416900</v>
+        <v>11317500</v>
       </c>
       <c r="I62" s="3">
-        <v>7882900</v>
+        <v>7814300</v>
       </c>
       <c r="J62" s="3">
-        <v>7494700</v>
+        <v>7429500</v>
       </c>
       <c r="K62" s="3">
         <v>7402700</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21468800</v>
+        <v>21281900</v>
       </c>
       <c r="E66" s="3">
-        <v>22456900</v>
+        <v>22261400</v>
       </c>
       <c r="F66" s="3">
-        <v>26105900</v>
+        <v>25878600</v>
       </c>
       <c r="G66" s="3">
-        <v>33773900</v>
+        <v>33479900</v>
       </c>
       <c r="H66" s="3">
-        <v>44318400</v>
+        <v>43932600</v>
       </c>
       <c r="I66" s="3">
-        <v>46910100</v>
+        <v>46501700</v>
       </c>
       <c r="J66" s="3">
-        <v>48254700</v>
+        <v>47834600</v>
       </c>
       <c r="K66" s="3">
         <v>47131200</v>
@@ -2797,25 +2797,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10358300</v>
+        <v>10268200</v>
       </c>
       <c r="E72" s="3">
-        <v>9477000</v>
+        <v>9394500</v>
       </c>
       <c r="F72" s="3">
-        <v>14046600</v>
+        <v>13924300</v>
       </c>
       <c r="G72" s="3">
-        <v>2055000</v>
+        <v>2037100</v>
       </c>
       <c r="H72" s="3">
-        <v>-5333800</v>
+        <v>-5287400</v>
       </c>
       <c r="I72" s="3">
-        <v>-705600</v>
+        <v>-699500</v>
       </c>
       <c r="J72" s="3">
-        <v>3521900</v>
+        <v>3491200</v>
       </c>
       <c r="K72" s="3">
         <v>4167200</v>
@@ -2941,25 +2941,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10702100</v>
+        <v>10608900</v>
       </c>
       <c r="E76" s="3">
-        <v>8636800</v>
+        <v>8561600</v>
       </c>
       <c r="F76" s="3">
-        <v>13386700</v>
+        <v>13270200</v>
       </c>
       <c r="G76" s="3">
-        <v>7197000</v>
+        <v>7134400</v>
       </c>
       <c r="H76" s="3">
-        <v>-5081600</v>
+        <v>-5037300</v>
       </c>
       <c r="I76" s="3">
-        <v>3022400</v>
+        <v>2996000</v>
       </c>
       <c r="J76" s="3">
-        <v>9961900</v>
+        <v>9875200</v>
       </c>
       <c r="K76" s="3">
         <v>9409100</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1047500</v>
+        <v>1038400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1053500</v>
+        <v>-1044300</v>
       </c>
       <c r="F81" s="3">
-        <v>9311800</v>
+        <v>9230800</v>
       </c>
       <c r="G81" s="3">
-        <v>7388900</v>
+        <v>7324500</v>
       </c>
       <c r="H81" s="3">
-        <v>-8874400</v>
+        <v>-8797200</v>
       </c>
       <c r="I81" s="3">
-        <v>-4227500</v>
+        <v>-4190700</v>
       </c>
       <c r="J81" s="3">
-        <v>-347600</v>
+        <v>-344600</v>
       </c>
       <c r="K81" s="3">
         <v>551800</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>783100</v>
+        <v>776300</v>
       </c>
       <c r="E83" s="3">
-        <v>731700</v>
+        <v>725300</v>
       </c>
       <c r="F83" s="3">
-        <v>721600</v>
+        <v>715300</v>
       </c>
       <c r="G83" s="3">
-        <v>1085100</v>
+        <v>1075600</v>
       </c>
       <c r="H83" s="3">
-        <v>1497700</v>
+        <v>1484700</v>
       </c>
       <c r="I83" s="3">
-        <v>1965500</v>
+        <v>1948300</v>
       </c>
       <c r="J83" s="3">
-        <v>1745500</v>
+        <v>1730300</v>
       </c>
       <c r="K83" s="3">
         <v>1573700</v>
@@ -3322,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1333900</v>
+        <v>1322300</v>
       </c>
       <c r="E89" s="3">
-        <v>-1306300</v>
+        <v>-1295000</v>
       </c>
       <c r="F89" s="3">
-        <v>1147400</v>
+        <v>1137400</v>
       </c>
       <c r="G89" s="3">
-        <v>343400</v>
+        <v>340400</v>
       </c>
       <c r="H89" s="3">
-        <v>1233000</v>
+        <v>1222200</v>
       </c>
       <c r="I89" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="J89" s="3">
-        <v>3036800</v>
+        <v>3010300</v>
       </c>
       <c r="K89" s="3">
         <v>2602600</v>
@@ -3374,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1079500</v>
+        <v>-1070100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1096100</v>
+        <v>-1086500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1126300</v>
+        <v>-1116500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1645300</v>
+        <v>-1630900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1459000</v>
+        <v>-1446300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2224200</v>
+        <v>-2204800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2173500</v>
+        <v>-2154600</v>
       </c>
       <c r="K91" s="3">
         <v>-1840500</v>
@@ -3482,25 +3482,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-980300</v>
+        <v>-971800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1125900</v>
+        <v>-1116100</v>
       </c>
       <c r="F94" s="3">
-        <v>11996900</v>
+        <v>11892500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1348300</v>
+        <v>-1336600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1644400</v>
+        <v>-1630000</v>
       </c>
       <c r="I94" s="3">
-        <v>6005100</v>
+        <v>5952900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1747300</v>
+        <v>-1732100</v>
       </c>
       <c r="K94" s="3">
         <v>-2236000</v>
@@ -3534,25 +3534,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-195700</v>
+        <v>-194000</v>
       </c>
       <c r="E96" s="3">
-        <v>-214300</v>
+        <v>-212400</v>
       </c>
       <c r="F96" s="3">
-        <v>-204500</v>
+        <v>-202700</v>
       </c>
       <c r="G96" s="3">
-        <v>-100500</v>
+        <v>-99700</v>
       </c>
       <c r="H96" s="3">
-        <v>-117200</v>
+        <v>-116200</v>
       </c>
       <c r="I96" s="3">
-        <v>-292700</v>
+        <v>-290100</v>
       </c>
       <c r="J96" s="3">
-        <v>-386600</v>
+        <v>-383200</v>
       </c>
       <c r="K96" s="3">
         <v>-356800</v>
@@ -3678,25 +3678,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>898900</v>
+        <v>891100</v>
       </c>
       <c r="E100" s="3">
-        <v>-6315800</v>
+        <v>-6260800</v>
       </c>
       <c r="F100" s="3">
-        <v>-5927700</v>
+        <v>-5876100</v>
       </c>
       <c r="G100" s="3">
-        <v>-584600</v>
+        <v>-579500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2019600</v>
+        <v>-2002000</v>
       </c>
       <c r="I100" s="3">
-        <v>1247500</v>
+        <v>1236700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1156100</v>
+        <v>-1146000</v>
       </c>
       <c r="K100" s="3">
         <v>-818100</v>
@@ -3714,25 +3714,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>112100</v>
+        <v>111100</v>
       </c>
       <c r="E101" s="3">
-        <v>-61000</v>
+        <v>-60500</v>
       </c>
       <c r="F101" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="G101" s="3">
-        <v>-14800</v>
+        <v>-14700</v>
       </c>
       <c r="H101" s="3">
-        <v>-30400</v>
+        <v>-30200</v>
       </c>
       <c r="I101" s="3">
-        <v>-108400</v>
+        <v>-107500</v>
       </c>
       <c r="J101" s="3">
-        <v>124100</v>
+        <v>123100</v>
       </c>
       <c r="K101" s="3">
         <v>104900</v>
@@ -3750,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1364600</v>
+        <v>1352700</v>
       </c>
       <c r="E102" s="3">
-        <v>-8809000</v>
+        <v>-8732400</v>
       </c>
       <c r="F102" s="3">
-        <v>7231300</v>
+        <v>7168300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1604300</v>
+        <v>-1590400</v>
       </c>
       <c r="H102" s="3">
-        <v>-2461400</v>
+        <v>-2440000</v>
       </c>
       <c r="I102" s="3">
-        <v>7132900</v>
+        <v>7070800</v>
       </c>
       <c r="J102" s="3">
-        <v>257600</v>
+        <v>255300</v>
       </c>
       <c r="K102" s="3">
         <v>-346500</v>

--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27825400</v>
+        <v>26909000</v>
       </c>
       <c r="E8" s="3">
-        <v>30881700</v>
+        <v>29864800</v>
       </c>
       <c r="F8" s="3">
-        <v>33648100</v>
+        <v>32540100</v>
       </c>
       <c r="G8" s="3">
-        <v>35962600</v>
+        <v>34778300</v>
       </c>
       <c r="H8" s="3">
-        <v>36838400</v>
+        <v>35625300</v>
       </c>
       <c r="I8" s="3">
-        <v>46960600</v>
+        <v>45414100</v>
       </c>
       <c r="J8" s="3">
-        <v>55704800</v>
+        <v>53870300</v>
       </c>
       <c r="K8" s="3">
         <v>59445700</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20322700</v>
+        <v>19653500</v>
       </c>
       <c r="E9" s="3">
-        <v>22519900</v>
+        <v>21778300</v>
       </c>
       <c r="F9" s="3">
-        <v>25358300</v>
+        <v>24523200</v>
       </c>
       <c r="G9" s="3">
-        <v>27210100</v>
+        <v>26314100</v>
       </c>
       <c r="H9" s="3">
-        <v>27468400</v>
+        <v>26563900</v>
       </c>
       <c r="I9" s="3">
-        <v>40114300</v>
+        <v>38793300</v>
       </c>
       <c r="J9" s="3">
-        <v>42846200</v>
+        <v>41435300</v>
       </c>
       <c r="K9" s="3">
         <v>44570600</v>
@@ -795,25 +795,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7502600</v>
+        <v>7255600</v>
       </c>
       <c r="E10" s="3">
-        <v>8361800</v>
+        <v>8086400</v>
       </c>
       <c r="F10" s="3">
-        <v>8289900</v>
+        <v>8016900</v>
       </c>
       <c r="G10" s="3">
-        <v>8752500</v>
+        <v>8464300</v>
       </c>
       <c r="H10" s="3">
-        <v>9370000</v>
+        <v>9061400</v>
       </c>
       <c r="I10" s="3">
-        <v>6846300</v>
+        <v>6620800</v>
       </c>
       <c r="J10" s="3">
-        <v>12858500</v>
+        <v>12435100</v>
       </c>
       <c r="K10" s="3">
         <v>14875100</v>
@@ -925,16 +925,16 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>89600</v>
+        <v>86700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>154100</v>
+        <v>149000</v>
       </c>
       <c r="I14" s="3">
-        <v>431600</v>
+        <v>417300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26874300</v>
+        <v>25989300</v>
       </c>
       <c r="E17" s="3">
-        <v>29693200</v>
+        <v>28715400</v>
       </c>
       <c r="F17" s="3">
-        <v>33325200</v>
+        <v>32227800</v>
       </c>
       <c r="G17" s="3">
-        <v>35378900</v>
+        <v>34213900</v>
       </c>
       <c r="H17" s="3">
-        <v>36091300</v>
+        <v>34902800</v>
       </c>
       <c r="I17" s="3">
-        <v>51360800</v>
+        <v>49669400</v>
       </c>
       <c r="J17" s="3">
-        <v>53988300</v>
+        <v>52210500</v>
       </c>
       <c r="K17" s="3">
         <v>57090400</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>951100</v>
+        <v>919800</v>
       </c>
       <c r="E18" s="3">
-        <v>1188500</v>
+        <v>1149400</v>
       </c>
       <c r="F18" s="3">
-        <v>322900</v>
+        <v>312300</v>
       </c>
       <c r="G18" s="3">
-        <v>583700</v>
+        <v>564500</v>
       </c>
       <c r="H18" s="3">
-        <v>747200</v>
+        <v>722600</v>
       </c>
       <c r="I18" s="3">
-        <v>-4400200</v>
+        <v>-4255300</v>
       </c>
       <c r="J18" s="3">
-        <v>1716400</v>
+        <v>1659900</v>
       </c>
       <c r="K18" s="3">
         <v>2355300</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>488600</v>
+        <v>472500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1572300</v>
+        <v>-1520500</v>
       </c>
       <c r="F20" s="3">
-        <v>-127300</v>
+        <v>-123100</v>
       </c>
       <c r="G20" s="3">
-        <v>434300</v>
+        <v>420000</v>
       </c>
       <c r="H20" s="3">
-        <v>-168800</v>
+        <v>-163300</v>
       </c>
       <c r="I20" s="3">
-        <v>924900</v>
+        <v>894400</v>
       </c>
       <c r="J20" s="3">
-        <v>-78200</v>
+        <v>-75600</v>
       </c>
       <c r="K20" s="3">
         <v>-376400</v>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2216000</v>
+        <v>2144700</v>
       </c>
       <c r="E21" s="3">
-        <v>341500</v>
+        <v>331800</v>
       </c>
       <c r="F21" s="3">
-        <v>910900</v>
+        <v>882500</v>
       </c>
       <c r="G21" s="3">
-        <v>2093600</v>
+        <v>2027000</v>
       </c>
       <c r="H21" s="3">
-        <v>2063000</v>
+        <v>1998400</v>
       </c>
       <c r="I21" s="3">
-        <v>-1527000</v>
+        <v>-1472400</v>
       </c>
       <c r="J21" s="3">
-        <v>3368600</v>
+        <v>3261400</v>
       </c>
       <c r="K21" s="3">
         <v>3559400</v>
@@ -1164,25 +1164,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41400</v>
+        <v>40100</v>
       </c>
       <c r="E22" s="3">
-        <v>49300</v>
+        <v>47700</v>
       </c>
       <c r="F22" s="3">
-        <v>96200</v>
+        <v>93100</v>
       </c>
       <c r="G22" s="3">
-        <v>267500</v>
+        <v>258700</v>
       </c>
       <c r="H22" s="3">
-        <v>168900</v>
+        <v>163300</v>
       </c>
       <c r="I22" s="3">
-        <v>162800</v>
+        <v>157500</v>
       </c>
       <c r="J22" s="3">
-        <v>211500</v>
+        <v>204500</v>
       </c>
       <c r="K22" s="3">
         <v>308700</v>
@@ -1200,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1398300</v>
+        <v>1352200</v>
       </c>
       <c r="E23" s="3">
-        <v>-433100</v>
+        <v>-418800</v>
       </c>
       <c r="F23" s="3">
-        <v>99400</v>
+        <v>96100</v>
       </c>
       <c r="G23" s="3">
-        <v>750500</v>
+        <v>725800</v>
       </c>
       <c r="H23" s="3">
-        <v>409400</v>
+        <v>396000</v>
       </c>
       <c r="I23" s="3">
-        <v>-3638200</v>
+        <v>-3518400</v>
       </c>
       <c r="J23" s="3">
-        <v>1426800</v>
+        <v>1379800</v>
       </c>
       <c r="K23" s="3">
         <v>1670200</v>
@@ -1236,25 +1236,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>125300</v>
+        <v>121200</v>
       </c>
       <c r="E24" s="3">
-        <v>319900</v>
+        <v>309400</v>
       </c>
       <c r="F24" s="3">
-        <v>141700</v>
+        <v>137000</v>
       </c>
       <c r="G24" s="3">
-        <v>-564300</v>
+        <v>-545700</v>
       </c>
       <c r="H24" s="3">
-        <v>528100</v>
+        <v>510700</v>
       </c>
       <c r="I24" s="3">
-        <v>2244800</v>
+        <v>2170900</v>
       </c>
       <c r="J24" s="3">
-        <v>1302900</v>
+        <v>1260000</v>
       </c>
       <c r="K24" s="3">
         <v>843100</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1272900</v>
+        <v>1231000</v>
       </c>
       <c r="E26" s="3">
-        <v>-753000</v>
+        <v>-728200</v>
       </c>
       <c r="F26" s="3">
-        <v>-42300</v>
+        <v>-40900</v>
       </c>
       <c r="G26" s="3">
-        <v>1314700</v>
+        <v>1271400</v>
       </c>
       <c r="H26" s="3">
-        <v>-118600</v>
+        <v>-114700</v>
       </c>
       <c r="I26" s="3">
-        <v>-5883000</v>
+        <v>-5689300</v>
       </c>
       <c r="J26" s="3">
-        <v>123900</v>
+        <v>119800</v>
       </c>
       <c r="K26" s="3">
         <v>827100</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1108800</v>
+        <v>1072300</v>
       </c>
       <c r="E27" s="3">
-        <v>-918600</v>
+        <v>-888400</v>
       </c>
       <c r="F27" s="3">
-        <v>-245800</v>
+        <v>-237700</v>
       </c>
       <c r="G27" s="3">
-        <v>983400</v>
+        <v>951000</v>
       </c>
       <c r="H27" s="3">
-        <v>1653600</v>
+        <v>1599200</v>
       </c>
       <c r="I27" s="3">
-        <v>-5372600</v>
+        <v>-5195700</v>
       </c>
       <c r="J27" s="3">
-        <v>-47500</v>
+        <v>-45900</v>
       </c>
       <c r="K27" s="3">
         <v>689400</v>
@@ -1416,25 +1416,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-70400</v>
+        <v>-68100</v>
       </c>
       <c r="E29" s="3">
-        <v>-125700</v>
+        <v>-121500</v>
       </c>
       <c r="F29" s="3">
-        <v>9476600</v>
+        <v>9164500</v>
       </c>
       <c r="G29" s="3">
-        <v>6341200</v>
+        <v>6132400</v>
       </c>
       <c r="H29" s="3">
-        <v>-10450800</v>
+        <v>-10106700</v>
       </c>
       <c r="I29" s="3">
-        <v>1181900</v>
+        <v>1143000</v>
       </c>
       <c r="J29" s="3">
-        <v>-297100</v>
+        <v>-287300</v>
       </c>
       <c r="K29" s="3">
         <v>-137600</v>
@@ -1524,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-488600</v>
+        <v>-472500</v>
       </c>
       <c r="E32" s="3">
-        <v>1572300</v>
+        <v>1520500</v>
       </c>
       <c r="F32" s="3">
-        <v>127300</v>
+        <v>123100</v>
       </c>
       <c r="G32" s="3">
-        <v>-434300</v>
+        <v>-420000</v>
       </c>
       <c r="H32" s="3">
-        <v>168800</v>
+        <v>163300</v>
       </c>
       <c r="I32" s="3">
-        <v>-924900</v>
+        <v>-894400</v>
       </c>
       <c r="J32" s="3">
-        <v>78200</v>
+        <v>75600</v>
       </c>
       <c r="K32" s="3">
         <v>376400</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1038400</v>
+        <v>1004200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1044300</v>
+        <v>-1009900</v>
       </c>
       <c r="F33" s="3">
-        <v>9230800</v>
+        <v>8926800</v>
       </c>
       <c r="G33" s="3">
-        <v>7324500</v>
+        <v>7083300</v>
       </c>
       <c r="H33" s="3">
-        <v>-8797200</v>
+        <v>-8507500</v>
       </c>
       <c r="I33" s="3">
-        <v>-4190700</v>
+        <v>-4052700</v>
       </c>
       <c r="J33" s="3">
-        <v>-344600</v>
+        <v>-333200</v>
       </c>
       <c r="K33" s="3">
         <v>551800</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1038400</v>
+        <v>1004200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1044300</v>
+        <v>-1009900</v>
       </c>
       <c r="F35" s="3">
-        <v>9230800</v>
+        <v>8926800</v>
       </c>
       <c r="G35" s="3">
-        <v>7324500</v>
+        <v>7083300</v>
       </c>
       <c r="H35" s="3">
-        <v>-8797200</v>
+        <v>-8507500</v>
       </c>
       <c r="I35" s="3">
-        <v>-4190700</v>
+        <v>-4052700</v>
       </c>
       <c r="J35" s="3">
-        <v>-344600</v>
+        <v>-333200</v>
       </c>
       <c r="K35" s="3">
         <v>551800</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4786900</v>
+        <v>4629300</v>
       </c>
       <c r="E41" s="3">
-        <v>3434200</v>
+        <v>3321100</v>
       </c>
       <c r="F41" s="3">
-        <v>12166600</v>
+        <v>11765900</v>
       </c>
       <c r="G41" s="3">
-        <v>4562500</v>
+        <v>4412200</v>
       </c>
       <c r="H41" s="3">
-        <v>4747200</v>
+        <v>4590900</v>
       </c>
       <c r="I41" s="3">
-        <v>8834100</v>
+        <v>8543200</v>
       </c>
       <c r="J41" s="3">
-        <v>1732600</v>
+        <v>1675500</v>
       </c>
       <c r="K41" s="3">
         <v>1569500</v>
@@ -1813,25 +1813,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8977900</v>
+        <v>8682200</v>
       </c>
       <c r="E43" s="3">
-        <v>9487700</v>
+        <v>9175200</v>
       </c>
       <c r="F43" s="3">
-        <v>10004600</v>
+        <v>9675100</v>
       </c>
       <c r="G43" s="3">
-        <v>10311200</v>
+        <v>9971600</v>
       </c>
       <c r="H43" s="3">
-        <v>9633700</v>
+        <v>9316500</v>
       </c>
       <c r="I43" s="3">
-        <v>11545500</v>
+        <v>11165300</v>
       </c>
       <c r="J43" s="3">
-        <v>13793700</v>
+        <v>13339400</v>
       </c>
       <c r="K43" s="3">
         <v>15020300</v>
@@ -1849,25 +1849,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4334200</v>
+        <v>4191500</v>
       </c>
       <c r="E44" s="3">
-        <v>4394000</v>
+        <v>4249300</v>
       </c>
       <c r="F44" s="3">
-        <v>4271500</v>
+        <v>4130800</v>
       </c>
       <c r="G44" s="3">
-        <v>4279600</v>
+        <v>4138600</v>
       </c>
       <c r="H44" s="3">
-        <v>4561200</v>
+        <v>4411000</v>
       </c>
       <c r="I44" s="3">
-        <v>6642300</v>
+        <v>6423600</v>
       </c>
       <c r="J44" s="3">
-        <v>12228400</v>
+        <v>11825700</v>
       </c>
       <c r="K44" s="3">
         <v>8104900</v>
@@ -1885,25 +1885,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1313600</v>
+        <v>1270300</v>
       </c>
       <c r="E45" s="3">
-        <v>1251200</v>
+        <v>1210000</v>
       </c>
       <c r="F45" s="3">
-        <v>1195800</v>
+        <v>1156400</v>
       </c>
       <c r="G45" s="3">
-        <v>13452300</v>
+        <v>13009300</v>
       </c>
       <c r="H45" s="3">
-        <v>10113000</v>
+        <v>9780000</v>
       </c>
       <c r="I45" s="3">
-        <v>4485800</v>
+        <v>4338100</v>
       </c>
       <c r="J45" s="3">
-        <v>6587400</v>
+        <v>6370400</v>
       </c>
       <c r="K45" s="3">
         <v>4238800</v>
@@ -1921,25 +1921,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19412600</v>
+        <v>18773300</v>
       </c>
       <c r="E46" s="3">
-        <v>18567100</v>
+        <v>17955700</v>
       </c>
       <c r="F46" s="3">
-        <v>27638400</v>
+        <v>26728300</v>
       </c>
       <c r="G46" s="3">
-        <v>32605600</v>
+        <v>31531800</v>
       </c>
       <c r="H46" s="3">
-        <v>29055200</v>
+        <v>28098400</v>
       </c>
       <c r="I46" s="3">
-        <v>31507700</v>
+        <v>30470100</v>
       </c>
       <c r="J46" s="3">
-        <v>30412900</v>
+        <v>29411400</v>
       </c>
       <c r="K46" s="3">
         <v>28933400</v>
@@ -1957,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4865000</v>
+        <v>4704800</v>
       </c>
       <c r="E47" s="3">
-        <v>4670700</v>
+        <v>4516900</v>
       </c>
       <c r="F47" s="3">
-        <v>5426100</v>
+        <v>5247400</v>
       </c>
       <c r="G47" s="3">
-        <v>2239600</v>
+        <v>2165900</v>
       </c>
       <c r="H47" s="3">
-        <v>2057300</v>
+        <v>1989600</v>
       </c>
       <c r="I47" s="3">
-        <v>3311900</v>
+        <v>3202800</v>
       </c>
       <c r="J47" s="3">
-        <v>5752400</v>
+        <v>5563000</v>
       </c>
       <c r="K47" s="3">
         <v>6069000</v>
@@ -1993,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5242300</v>
+        <v>5069600</v>
       </c>
       <c r="E48" s="3">
-        <v>5245600</v>
+        <v>5072900</v>
       </c>
       <c r="F48" s="3">
-        <v>3513900</v>
+        <v>3398200</v>
       </c>
       <c r="G48" s="3">
-        <v>3330900</v>
+        <v>3221200</v>
       </c>
       <c r="H48" s="3">
-        <v>3678000</v>
+        <v>3556900</v>
       </c>
       <c r="I48" s="3">
-        <v>7236100</v>
+        <v>6997800</v>
       </c>
       <c r="J48" s="3">
-        <v>7775800</v>
+        <v>7519700</v>
       </c>
       <c r="K48" s="3">
         <v>8336700</v>
@@ -2029,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1173000</v>
+        <v>1134300</v>
       </c>
       <c r="E49" s="3">
-        <v>1090300</v>
+        <v>1054400</v>
       </c>
       <c r="F49" s="3">
-        <v>1062200</v>
+        <v>1027200</v>
       </c>
       <c r="G49" s="3">
-        <v>1152500</v>
+        <v>1114600</v>
       </c>
       <c r="H49" s="3">
-        <v>6444300</v>
+        <v>6232100</v>
       </c>
       <c r="I49" s="3">
-        <v>5829400</v>
+        <v>5637400</v>
       </c>
       <c r="J49" s="3">
-        <v>9975100</v>
+        <v>9646700</v>
       </c>
       <c r="K49" s="3">
         <v>9113200</v>
@@ -2137,25 +2137,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1198000</v>
+        <v>1158500</v>
       </c>
       <c r="E52" s="3">
-        <v>1249400</v>
+        <v>1208200</v>
       </c>
       <c r="F52" s="3">
-        <v>1508200</v>
+        <v>1458500</v>
       </c>
       <c r="G52" s="3">
-        <v>1285700</v>
+        <v>1243400</v>
       </c>
       <c r="H52" s="3">
-        <v>954300</v>
+        <v>922800</v>
       </c>
       <c r="I52" s="3">
-        <v>1612600</v>
+        <v>1559500</v>
       </c>
       <c r="J52" s="3">
-        <v>3793600</v>
+        <v>3668700</v>
       </c>
       <c r="K52" s="3">
         <v>4088000</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31890800</v>
+        <v>30840600</v>
       </c>
       <c r="E54" s="3">
-        <v>30823100</v>
+        <v>29808000</v>
       </c>
       <c r="F54" s="3">
-        <v>39148800</v>
+        <v>37859600</v>
       </c>
       <c r="G54" s="3">
-        <v>40614300</v>
+        <v>39276800</v>
       </c>
       <c r="H54" s="3">
-        <v>38895300</v>
+        <v>37614400</v>
       </c>
       <c r="I54" s="3">
-        <v>49497700</v>
+        <v>47867700</v>
       </c>
       <c r="J54" s="3">
-        <v>57709800</v>
+        <v>55809400</v>
       </c>
       <c r="K54" s="3">
         <v>56540300</v>
@@ -2277,25 +2277,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6666900</v>
+        <v>6447400</v>
       </c>
       <c r="E57" s="3">
-        <v>7179300</v>
+        <v>6942900</v>
       </c>
       <c r="F57" s="3">
-        <v>8728500</v>
+        <v>8441100</v>
       </c>
       <c r="G57" s="3">
-        <v>9003000</v>
+        <v>8706500</v>
       </c>
       <c r="H57" s="3">
-        <v>8571700</v>
+        <v>8289500</v>
       </c>
       <c r="I57" s="3">
-        <v>12727500</v>
+        <v>12308400</v>
       </c>
       <c r="J57" s="3">
-        <v>15039100</v>
+        <v>14543900</v>
       </c>
       <c r="K57" s="3">
         <v>11036700</v>
@@ -2313,25 +2313,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>145700</v>
+        <v>140900</v>
       </c>
       <c r="E58" s="3">
-        <v>570700</v>
+        <v>551900</v>
       </c>
       <c r="F58" s="3">
-        <v>3259000</v>
+        <v>3151700</v>
       </c>
       <c r="G58" s="3">
-        <v>2747200</v>
+        <v>2656700</v>
       </c>
       <c r="H58" s="3">
-        <v>9236400</v>
+        <v>8932200</v>
       </c>
       <c r="I58" s="3">
-        <v>5644700</v>
+        <v>5458800</v>
       </c>
       <c r="J58" s="3">
-        <v>2441300</v>
+        <v>2360900</v>
       </c>
       <c r="K58" s="3">
         <v>3728500</v>
@@ -2349,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4619400</v>
+        <v>4467300</v>
       </c>
       <c r="E59" s="3">
-        <v>4985000</v>
+        <v>4820800</v>
       </c>
       <c r="F59" s="3">
-        <v>5124800</v>
+        <v>4956100</v>
       </c>
       <c r="G59" s="3">
-        <v>10395700</v>
+        <v>10053300</v>
       </c>
       <c r="H59" s="3">
-        <v>10549500</v>
+        <v>10202100</v>
       </c>
       <c r="I59" s="3">
-        <v>9613800</v>
+        <v>9297200</v>
       </c>
       <c r="J59" s="3">
-        <v>9037600</v>
+        <v>8740000</v>
       </c>
       <c r="K59" s="3">
         <v>12138000</v>
@@ -2385,25 +2385,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11432000</v>
+        <v>11055500</v>
       </c>
       <c r="E60" s="3">
-        <v>12735000</v>
+        <v>12315600</v>
       </c>
       <c r="F60" s="3">
-        <v>17112400</v>
+        <v>16548900</v>
       </c>
       <c r="G60" s="3">
-        <v>22145900</v>
+        <v>21416600</v>
       </c>
       <c r="H60" s="3">
-        <v>25368900</v>
+        <v>24533400</v>
       </c>
       <c r="I60" s="3">
-        <v>27986000</v>
+        <v>27064400</v>
       </c>
       <c r="J60" s="3">
-        <v>26518000</v>
+        <v>25644700</v>
       </c>
       <c r="K60" s="3">
         <v>25039000</v>
@@ -2421,25 +2421,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3447600</v>
+        <v>3334100</v>
       </c>
       <c r="E61" s="3">
-        <v>1582900</v>
+        <v>1530800</v>
       </c>
       <c r="F61" s="3">
-        <v>700900</v>
+        <v>677800</v>
       </c>
       <c r="G61" s="3">
-        <v>3560700</v>
+        <v>3443500</v>
       </c>
       <c r="H61" s="3">
-        <v>4720500</v>
+        <v>4565100</v>
       </c>
       <c r="I61" s="3">
-        <v>7573100</v>
+        <v>7323800</v>
       </c>
       <c r="J61" s="3">
-        <v>9501900</v>
+        <v>9189000</v>
       </c>
       <c r="K61" s="3">
         <v>10853400</v>
@@ -2457,25 +2457,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5127000</v>
+        <v>4958100</v>
       </c>
       <c r="E62" s="3">
-        <v>6698900</v>
+        <v>6478300</v>
       </c>
       <c r="F62" s="3">
-        <v>5857200</v>
+        <v>5664300</v>
       </c>
       <c r="G62" s="3">
-        <v>5699900</v>
+        <v>5512200</v>
       </c>
       <c r="H62" s="3">
-        <v>11317500</v>
+        <v>10944800</v>
       </c>
       <c r="I62" s="3">
-        <v>7814300</v>
+        <v>7557000</v>
       </c>
       <c r="J62" s="3">
-        <v>7429500</v>
+        <v>7184800</v>
       </c>
       <c r="K62" s="3">
         <v>7402700</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21281900</v>
+        <v>20581100</v>
       </c>
       <c r="E66" s="3">
-        <v>22261400</v>
+        <v>21528400</v>
       </c>
       <c r="F66" s="3">
-        <v>25878600</v>
+        <v>25026400</v>
       </c>
       <c r="G66" s="3">
-        <v>33479900</v>
+        <v>32377400</v>
       </c>
       <c r="H66" s="3">
-        <v>43932600</v>
+        <v>42485900</v>
       </c>
       <c r="I66" s="3">
-        <v>46501700</v>
+        <v>44970400</v>
       </c>
       <c r="J66" s="3">
-        <v>47834600</v>
+        <v>46259400</v>
       </c>
       <c r="K66" s="3">
         <v>47131200</v>
@@ -2797,25 +2797,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10268200</v>
+        <v>9930000</v>
       </c>
       <c r="E72" s="3">
-        <v>9394500</v>
+        <v>9085100</v>
       </c>
       <c r="F72" s="3">
-        <v>13924300</v>
+        <v>13465800</v>
       </c>
       <c r="G72" s="3">
-        <v>2037100</v>
+        <v>1970000</v>
       </c>
       <c r="H72" s="3">
-        <v>-5287400</v>
+        <v>-5113300</v>
       </c>
       <c r="I72" s="3">
-        <v>-699500</v>
+        <v>-676400</v>
       </c>
       <c r="J72" s="3">
-        <v>3491200</v>
+        <v>3376300</v>
       </c>
       <c r="K72" s="3">
         <v>4167200</v>
@@ -2941,25 +2941,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10608900</v>
+        <v>10259500</v>
       </c>
       <c r="E76" s="3">
-        <v>8561600</v>
+        <v>8279700</v>
       </c>
       <c r="F76" s="3">
-        <v>13270200</v>
+        <v>12833200</v>
       </c>
       <c r="G76" s="3">
-        <v>7134400</v>
+        <v>6899400</v>
       </c>
       <c r="H76" s="3">
-        <v>-5037300</v>
+        <v>-4871500</v>
       </c>
       <c r="I76" s="3">
-        <v>2996000</v>
+        <v>2897400</v>
       </c>
       <c r="J76" s="3">
-        <v>9875200</v>
+        <v>9550000</v>
       </c>
       <c r="K76" s="3">
         <v>9409100</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1038400</v>
+        <v>1004200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1044300</v>
+        <v>-1009900</v>
       </c>
       <c r="F81" s="3">
-        <v>9230800</v>
+        <v>8926800</v>
       </c>
       <c r="G81" s="3">
-        <v>7324500</v>
+        <v>7083300</v>
       </c>
       <c r="H81" s="3">
-        <v>-8797200</v>
+        <v>-8507500</v>
       </c>
       <c r="I81" s="3">
-        <v>-4190700</v>
+        <v>-4052700</v>
       </c>
       <c r="J81" s="3">
-        <v>-344600</v>
+        <v>-333200</v>
       </c>
       <c r="K81" s="3">
         <v>551800</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>776300</v>
+        <v>750700</v>
       </c>
       <c r="E83" s="3">
-        <v>725300</v>
+        <v>701400</v>
       </c>
       <c r="F83" s="3">
-        <v>715300</v>
+        <v>691700</v>
       </c>
       <c r="G83" s="3">
-        <v>1075600</v>
+        <v>1040200</v>
       </c>
       <c r="H83" s="3">
-        <v>1484700</v>
+        <v>1435800</v>
       </c>
       <c r="I83" s="3">
-        <v>1948300</v>
+        <v>1884200</v>
       </c>
       <c r="J83" s="3">
-        <v>1730300</v>
+        <v>1673400</v>
       </c>
       <c r="K83" s="3">
         <v>1573700</v>
@@ -3322,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1322300</v>
+        <v>1278700</v>
       </c>
       <c r="E89" s="3">
-        <v>-1295000</v>
+        <v>-1252300</v>
       </c>
       <c r="F89" s="3">
-        <v>1137400</v>
+        <v>1100000</v>
       </c>
       <c r="G89" s="3">
-        <v>340400</v>
+        <v>329200</v>
       </c>
       <c r="H89" s="3">
-        <v>1222200</v>
+        <v>1182000</v>
       </c>
       <c r="I89" s="3">
-        <v>-11200</v>
+        <v>-10800</v>
       </c>
       <c r="J89" s="3">
-        <v>3010300</v>
+        <v>2911200</v>
       </c>
       <c r="K89" s="3">
         <v>2602600</v>
@@ -3374,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1070100</v>
+        <v>-1034800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1086500</v>
+        <v>-1050700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1116500</v>
+        <v>-1079700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1630900</v>
+        <v>-1577200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1446300</v>
+        <v>-1398600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2204800</v>
+        <v>-2132200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2154600</v>
+        <v>-2083700</v>
       </c>
       <c r="K91" s="3">
         <v>-1840500</v>
@@ -3482,25 +3482,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-971800</v>
+        <v>-939800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1116100</v>
+        <v>-1079300</v>
       </c>
       <c r="F94" s="3">
-        <v>11892500</v>
+        <v>11500900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1336600</v>
+        <v>-1292500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1630000</v>
+        <v>-1576400</v>
       </c>
       <c r="I94" s="3">
-        <v>5952900</v>
+        <v>5756800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1732100</v>
+        <v>-1675000</v>
       </c>
       <c r="K94" s="3">
         <v>-2236000</v>
@@ -3534,25 +3534,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-194000</v>
+        <v>-187600</v>
       </c>
       <c r="E96" s="3">
-        <v>-212400</v>
+        <v>-205400</v>
       </c>
       <c r="F96" s="3">
-        <v>-202700</v>
+        <v>-196000</v>
       </c>
       <c r="G96" s="3">
-        <v>-99700</v>
+        <v>-96400</v>
       </c>
       <c r="H96" s="3">
-        <v>-116200</v>
+        <v>-112400</v>
       </c>
       <c r="I96" s="3">
-        <v>-290100</v>
+        <v>-280600</v>
       </c>
       <c r="J96" s="3">
-        <v>-383200</v>
+        <v>-370600</v>
       </c>
       <c r="K96" s="3">
         <v>-356800</v>
@@ -3678,25 +3678,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>891100</v>
+        <v>861700</v>
       </c>
       <c r="E100" s="3">
-        <v>-6260800</v>
+        <v>-6054600</v>
       </c>
       <c r="F100" s="3">
-        <v>-5876100</v>
+        <v>-5682600</v>
       </c>
       <c r="G100" s="3">
-        <v>-579500</v>
+        <v>-560400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2002000</v>
+        <v>-1936100</v>
       </c>
       <c r="I100" s="3">
-        <v>1236700</v>
+        <v>1195900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1146000</v>
+        <v>-1108300</v>
       </c>
       <c r="K100" s="3">
         <v>-818100</v>
@@ -3714,25 +3714,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>111100</v>
+        <v>107500</v>
       </c>
       <c r="E101" s="3">
-        <v>-60500</v>
+        <v>-58500</v>
       </c>
       <c r="F101" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="G101" s="3">
-        <v>-14700</v>
+        <v>-14200</v>
       </c>
       <c r="H101" s="3">
-        <v>-30200</v>
+        <v>-29200</v>
       </c>
       <c r="I101" s="3">
-        <v>-107500</v>
+        <v>-103900</v>
       </c>
       <c r="J101" s="3">
-        <v>123100</v>
+        <v>119000</v>
       </c>
       <c r="K101" s="3">
         <v>104900</v>
@@ -3750,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1352700</v>
+        <v>1308100</v>
       </c>
       <c r="E102" s="3">
-        <v>-8732400</v>
+        <v>-8444800</v>
       </c>
       <c r="F102" s="3">
-        <v>7168300</v>
+        <v>6932300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1590400</v>
+        <v>-1538000</v>
       </c>
       <c r="H102" s="3">
-        <v>-2440000</v>
+        <v>-2359600</v>
       </c>
       <c r="I102" s="3">
-        <v>7070800</v>
+        <v>6838000</v>
       </c>
       <c r="J102" s="3">
-        <v>255300</v>
+        <v>246900</v>
       </c>
       <c r="K102" s="3">
         <v>-346500</v>

--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -665,9 +665,7 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -723,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26909000</v>
+        <v>26053800</v>
       </c>
       <c r="E8" s="3">
-        <v>29864800</v>
+        <v>28915600</v>
       </c>
       <c r="F8" s="3">
-        <v>32540100</v>
+        <v>31505900</v>
       </c>
       <c r="G8" s="3">
-        <v>34778300</v>
+        <v>33673000</v>
       </c>
       <c r="H8" s="3">
-        <v>35625300</v>
+        <v>34493100</v>
       </c>
       <c r="I8" s="3">
-        <v>45414100</v>
+        <v>43970800</v>
       </c>
       <c r="J8" s="3">
-        <v>53870300</v>
+        <v>52158200</v>
       </c>
       <c r="K8" s="3">
         <v>59445700</v>
@@ -759,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19653500</v>
+        <v>19028900</v>
       </c>
       <c r="E9" s="3">
-        <v>21778300</v>
+        <v>21086200</v>
       </c>
       <c r="F9" s="3">
-        <v>24523200</v>
+        <v>23743800</v>
       </c>
       <c r="G9" s="3">
-        <v>26314100</v>
+        <v>25477700</v>
       </c>
       <c r="H9" s="3">
-        <v>26563900</v>
+        <v>25719600</v>
       </c>
       <c r="I9" s="3">
-        <v>38793300</v>
+        <v>37560300</v>
       </c>
       <c r="J9" s="3">
-        <v>41435300</v>
+        <v>40118400</v>
       </c>
       <c r="K9" s="3">
         <v>44570600</v>
@@ -795,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7255600</v>
+        <v>7025000</v>
       </c>
       <c r="E10" s="3">
-        <v>8086400</v>
+        <v>7829400</v>
       </c>
       <c r="F10" s="3">
-        <v>8016900</v>
+        <v>7762100</v>
       </c>
       <c r="G10" s="3">
-        <v>8464300</v>
+        <v>8195200</v>
       </c>
       <c r="H10" s="3">
-        <v>9061400</v>
+        <v>8773400</v>
       </c>
       <c r="I10" s="3">
-        <v>6620800</v>
+        <v>6410400</v>
       </c>
       <c r="J10" s="3">
-        <v>12435100</v>
+        <v>12039900</v>
       </c>
       <c r="K10" s="3">
         <v>14875100</v>
@@ -925,16 +923,16 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>86700</v>
+        <v>83900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>149000</v>
+        <v>144300</v>
       </c>
       <c r="I14" s="3">
-        <v>417300</v>
+        <v>404100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1004,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25989300</v>
+        <v>25163300</v>
       </c>
       <c r="E17" s="3">
-        <v>28715400</v>
+        <v>27802800</v>
       </c>
       <c r="F17" s="3">
-        <v>32227800</v>
+        <v>31203500</v>
       </c>
       <c r="G17" s="3">
-        <v>34213900</v>
+        <v>33126500</v>
       </c>
       <c r="H17" s="3">
-        <v>34902800</v>
+        <v>33793500</v>
       </c>
       <c r="I17" s="3">
-        <v>49669400</v>
+        <v>48090800</v>
       </c>
       <c r="J17" s="3">
-        <v>52210500</v>
+        <v>50551100</v>
       </c>
       <c r="K17" s="3">
         <v>57090400</v>
@@ -1040,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>919800</v>
+        <v>890500</v>
       </c>
       <c r="E18" s="3">
-        <v>1149400</v>
+        <v>1112800</v>
       </c>
       <c r="F18" s="3">
-        <v>312300</v>
+        <v>302400</v>
       </c>
       <c r="G18" s="3">
-        <v>564500</v>
+        <v>546500</v>
       </c>
       <c r="H18" s="3">
-        <v>722600</v>
+        <v>699600</v>
       </c>
       <c r="I18" s="3">
-        <v>-4255300</v>
+        <v>-4120100</v>
       </c>
       <c r="J18" s="3">
-        <v>1659900</v>
+        <v>1607100</v>
       </c>
       <c r="K18" s="3">
         <v>2355300</v>
@@ -1092,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>472500</v>
+        <v>457500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1520500</v>
+        <v>-1472200</v>
       </c>
       <c r="F20" s="3">
-        <v>-123100</v>
+        <v>-119200</v>
       </c>
       <c r="G20" s="3">
-        <v>420000</v>
+        <v>406600</v>
       </c>
       <c r="H20" s="3">
-        <v>-163300</v>
+        <v>-158100</v>
       </c>
       <c r="I20" s="3">
-        <v>894400</v>
+        <v>866000</v>
       </c>
       <c r="J20" s="3">
-        <v>-75600</v>
+        <v>-73200</v>
       </c>
       <c r="K20" s="3">
         <v>-376400</v>
@@ -1128,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2144700</v>
+        <v>2083400</v>
       </c>
       <c r="E21" s="3">
-        <v>331800</v>
+        <v>327700</v>
       </c>
       <c r="F21" s="3">
-        <v>882500</v>
+        <v>860800</v>
       </c>
       <c r="G21" s="3">
-        <v>2027000</v>
+        <v>1972100</v>
       </c>
       <c r="H21" s="3">
-        <v>1998400</v>
+        <v>1948000</v>
       </c>
       <c r="I21" s="3">
-        <v>-1472400</v>
+        <v>-1408400</v>
       </c>
       <c r="J21" s="3">
-        <v>3261400</v>
+        <v>3173100</v>
       </c>
       <c r="K21" s="3">
         <v>3559400</v>
@@ -1164,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40100</v>
+        <v>38800</v>
       </c>
       <c r="E22" s="3">
-        <v>47700</v>
+        <v>46100</v>
       </c>
       <c r="F22" s="3">
-        <v>93100</v>
+        <v>90100</v>
       </c>
       <c r="G22" s="3">
-        <v>258700</v>
+        <v>250500</v>
       </c>
       <c r="H22" s="3">
-        <v>163300</v>
+        <v>158100</v>
       </c>
       <c r="I22" s="3">
-        <v>157500</v>
+        <v>152500</v>
       </c>
       <c r="J22" s="3">
-        <v>204500</v>
+        <v>198000</v>
       </c>
       <c r="K22" s="3">
         <v>308700</v>
@@ -1200,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1352200</v>
+        <v>1309300</v>
       </c>
       <c r="E23" s="3">
-        <v>-418800</v>
+        <v>-405500</v>
       </c>
       <c r="F23" s="3">
-        <v>96100</v>
+        <v>93100</v>
       </c>
       <c r="G23" s="3">
-        <v>725800</v>
+        <v>702700</v>
       </c>
       <c r="H23" s="3">
-        <v>396000</v>
+        <v>383400</v>
       </c>
       <c r="I23" s="3">
-        <v>-3518400</v>
+        <v>-3406500</v>
       </c>
       <c r="J23" s="3">
-        <v>1379800</v>
+        <v>1335900</v>
       </c>
       <c r="K23" s="3">
         <v>1670200</v>
@@ -1236,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>121200</v>
+        <v>117400</v>
       </c>
       <c r="E24" s="3">
-        <v>309400</v>
+        <v>299600</v>
       </c>
       <c r="F24" s="3">
-        <v>137000</v>
+        <v>132700</v>
       </c>
       <c r="G24" s="3">
-        <v>-545700</v>
+        <v>-528300</v>
       </c>
       <c r="H24" s="3">
-        <v>510700</v>
+        <v>494400</v>
       </c>
       <c r="I24" s="3">
-        <v>2170900</v>
+        <v>2101900</v>
       </c>
       <c r="J24" s="3">
-        <v>1260000</v>
+        <v>1219900</v>
       </c>
       <c r="K24" s="3">
         <v>843100</v>
@@ -1308,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1191900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-705100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="G26" s="3">
         <v>1231000</v>
       </c>
-      <c r="E26" s="3">
-        <v>-728200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-40900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1271400</v>
-      </c>
       <c r="H26" s="3">
-        <v>-114700</v>
+        <v>-111100</v>
       </c>
       <c r="I26" s="3">
-        <v>-5689300</v>
+        <v>-5508400</v>
       </c>
       <c r="J26" s="3">
-        <v>119800</v>
+        <v>116000</v>
       </c>
       <c r="K26" s="3">
         <v>827100</v>
@@ -1344,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1072300</v>
+        <v>1038200</v>
       </c>
       <c r="E27" s="3">
-        <v>-888400</v>
+        <v>-860200</v>
       </c>
       <c r="F27" s="3">
-        <v>-237700</v>
+        <v>-230200</v>
       </c>
       <c r="G27" s="3">
-        <v>951000</v>
+        <v>920800</v>
       </c>
       <c r="H27" s="3">
-        <v>1599200</v>
+        <v>1548300</v>
       </c>
       <c r="I27" s="3">
-        <v>-5195700</v>
+        <v>-5030600</v>
       </c>
       <c r="J27" s="3">
-        <v>-45900</v>
+        <v>-44400</v>
       </c>
       <c r="K27" s="3">
         <v>689400</v>
@@ -1416,25 +1414,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-68100</v>
+        <v>-65900</v>
       </c>
       <c r="E29" s="3">
-        <v>-121500</v>
+        <v>-117700</v>
       </c>
       <c r="F29" s="3">
-        <v>9164500</v>
+        <v>8873200</v>
       </c>
       <c r="G29" s="3">
-        <v>6132400</v>
+        <v>5937500</v>
       </c>
       <c r="H29" s="3">
-        <v>-10106700</v>
+        <v>-9785400</v>
       </c>
       <c r="I29" s="3">
-        <v>1143000</v>
+        <v>1106700</v>
       </c>
       <c r="J29" s="3">
-        <v>-287300</v>
+        <v>-278200</v>
       </c>
       <c r="K29" s="3">
         <v>-137600</v>
@@ -1524,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-472500</v>
+        <v>-457500</v>
       </c>
       <c r="E32" s="3">
-        <v>1520500</v>
+        <v>1472200</v>
       </c>
       <c r="F32" s="3">
-        <v>123100</v>
+        <v>119200</v>
       </c>
       <c r="G32" s="3">
-        <v>-420000</v>
+        <v>-406600</v>
       </c>
       <c r="H32" s="3">
-        <v>163300</v>
+        <v>158100</v>
       </c>
       <c r="I32" s="3">
-        <v>-894400</v>
+        <v>-866000</v>
       </c>
       <c r="J32" s="3">
-        <v>75600</v>
+        <v>73200</v>
       </c>
       <c r="K32" s="3">
         <v>376400</v>
@@ -1560,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1004200</v>
+        <v>972300</v>
       </c>
       <c r="E33" s="3">
-        <v>-1009900</v>
+        <v>-977800</v>
       </c>
       <c r="F33" s="3">
-        <v>8926800</v>
+        <v>8643100</v>
       </c>
       <c r="G33" s="3">
-        <v>7083300</v>
+        <v>6858200</v>
       </c>
       <c r="H33" s="3">
-        <v>-8507500</v>
+        <v>-8237100</v>
       </c>
       <c r="I33" s="3">
-        <v>-4052700</v>
+        <v>-3923900</v>
       </c>
       <c r="J33" s="3">
-        <v>-333200</v>
+        <v>-322600</v>
       </c>
       <c r="K33" s="3">
         <v>551800</v>
@@ -1632,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1004200</v>
+        <v>972300</v>
       </c>
       <c r="E35" s="3">
-        <v>-1009900</v>
+        <v>-977800</v>
       </c>
       <c r="F35" s="3">
-        <v>8926800</v>
+        <v>8643100</v>
       </c>
       <c r="G35" s="3">
-        <v>7083300</v>
+        <v>6858200</v>
       </c>
       <c r="H35" s="3">
-        <v>-8507500</v>
+        <v>-8237100</v>
       </c>
       <c r="I35" s="3">
-        <v>-4052700</v>
+        <v>-3923900</v>
       </c>
       <c r="J35" s="3">
-        <v>-333200</v>
+        <v>-322600</v>
       </c>
       <c r="K35" s="3">
         <v>551800</v>
@@ -1741,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4629300</v>
+        <v>4482100</v>
       </c>
       <c r="E41" s="3">
-        <v>3321100</v>
+        <v>3215600</v>
       </c>
       <c r="F41" s="3">
-        <v>11765900</v>
+        <v>11392000</v>
       </c>
       <c r="G41" s="3">
-        <v>4412200</v>
+        <v>4272000</v>
       </c>
       <c r="H41" s="3">
-        <v>4590900</v>
+        <v>4445000</v>
       </c>
       <c r="I41" s="3">
-        <v>8543200</v>
+        <v>8271700</v>
       </c>
       <c r="J41" s="3">
-        <v>1675500</v>
+        <v>1622300</v>
       </c>
       <c r="K41" s="3">
         <v>1569500</v>
@@ -1813,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8682200</v>
+        <v>8406300</v>
       </c>
       <c r="E43" s="3">
-        <v>9175200</v>
+        <v>8883600</v>
       </c>
       <c r="F43" s="3">
-        <v>9675100</v>
+        <v>9367600</v>
       </c>
       <c r="G43" s="3">
-        <v>9971600</v>
+        <v>9654700</v>
       </c>
       <c r="H43" s="3">
-        <v>9316500</v>
+        <v>9020400</v>
       </c>
       <c r="I43" s="3">
-        <v>11165300</v>
+        <v>10810400</v>
       </c>
       <c r="J43" s="3">
-        <v>13339400</v>
+        <v>12915500</v>
       </c>
       <c r="K43" s="3">
         <v>15020300</v>
@@ -1849,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4191500</v>
+        <v>4058300</v>
       </c>
       <c r="E44" s="3">
-        <v>4249300</v>
+        <v>4114200</v>
       </c>
       <c r="F44" s="3">
-        <v>4130800</v>
+        <v>3999500</v>
       </c>
       <c r="G44" s="3">
-        <v>4138600</v>
+        <v>4007100</v>
       </c>
       <c r="H44" s="3">
-        <v>4411000</v>
+        <v>4270900</v>
       </c>
       <c r="I44" s="3">
-        <v>6423600</v>
+        <v>6219400</v>
       </c>
       <c r="J44" s="3">
-        <v>11825700</v>
+        <v>11449900</v>
       </c>
       <c r="K44" s="3">
         <v>8104900</v>
@@ -1885,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1270300</v>
+        <v>1229900</v>
       </c>
       <c r="E45" s="3">
-        <v>1210000</v>
+        <v>1171500</v>
       </c>
       <c r="F45" s="3">
-        <v>1156400</v>
+        <v>1119700</v>
       </c>
       <c r="G45" s="3">
-        <v>13009300</v>
+        <v>12595900</v>
       </c>
       <c r="H45" s="3">
-        <v>9780000</v>
+        <v>9469200</v>
       </c>
       <c r="I45" s="3">
-        <v>4338100</v>
+        <v>4200200</v>
       </c>
       <c r="J45" s="3">
-        <v>6370400</v>
+        <v>6168000</v>
       </c>
       <c r="K45" s="3">
         <v>4238800</v>
@@ -1921,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18773300</v>
+        <v>18176600</v>
       </c>
       <c r="E46" s="3">
-        <v>17955700</v>
+        <v>17385000</v>
       </c>
       <c r="F46" s="3">
-        <v>26728300</v>
+        <v>25878800</v>
       </c>
       <c r="G46" s="3">
-        <v>31531800</v>
+        <v>30529700</v>
       </c>
       <c r="H46" s="3">
-        <v>28098400</v>
+        <v>27205400</v>
       </c>
       <c r="I46" s="3">
-        <v>30470100</v>
+        <v>29501700</v>
       </c>
       <c r="J46" s="3">
-        <v>29411400</v>
+        <v>28476600</v>
       </c>
       <c r="K46" s="3">
         <v>28933400</v>
@@ -1957,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4704800</v>
+        <v>4555300</v>
       </c>
       <c r="E47" s="3">
-        <v>4516900</v>
+        <v>4373300</v>
       </c>
       <c r="F47" s="3">
-        <v>5247400</v>
+        <v>5080600</v>
       </c>
       <c r="G47" s="3">
-        <v>2165900</v>
+        <v>2097000</v>
       </c>
       <c r="H47" s="3">
-        <v>1989600</v>
+        <v>1926400</v>
       </c>
       <c r="I47" s="3">
-        <v>3202800</v>
+        <v>3101000</v>
       </c>
       <c r="J47" s="3">
-        <v>5563000</v>
+        <v>5386200</v>
       </c>
       <c r="K47" s="3">
         <v>6069000</v>
@@ -1993,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5069600</v>
+        <v>4908500</v>
       </c>
       <c r="E48" s="3">
-        <v>5072900</v>
+        <v>4911700</v>
       </c>
       <c r="F48" s="3">
-        <v>3398200</v>
+        <v>3290200</v>
       </c>
       <c r="G48" s="3">
-        <v>3221200</v>
+        <v>3118900</v>
       </c>
       <c r="H48" s="3">
-        <v>3556900</v>
+        <v>3443800</v>
       </c>
       <c r="I48" s="3">
-        <v>6997800</v>
+        <v>6775400</v>
       </c>
       <c r="J48" s="3">
-        <v>7519700</v>
+        <v>7280700</v>
       </c>
       <c r="K48" s="3">
         <v>8336700</v>
@@ -2029,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1134300</v>
+        <v>1098300</v>
       </c>
       <c r="E49" s="3">
-        <v>1054400</v>
+        <v>1020800</v>
       </c>
       <c r="F49" s="3">
-        <v>1027200</v>
+        <v>994600</v>
       </c>
       <c r="G49" s="3">
-        <v>1114600</v>
+        <v>1079100</v>
       </c>
       <c r="H49" s="3">
-        <v>6232100</v>
+        <v>6034100</v>
       </c>
       <c r="I49" s="3">
-        <v>5637400</v>
+        <v>5458300</v>
       </c>
       <c r="J49" s="3">
-        <v>9646700</v>
+        <v>9340100</v>
       </c>
       <c r="K49" s="3">
         <v>9113200</v>
@@ -2137,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1158500</v>
+        <v>1121700</v>
       </c>
       <c r="E52" s="3">
-        <v>1208200</v>
+        <v>1169800</v>
       </c>
       <c r="F52" s="3">
-        <v>1458500</v>
+        <v>1412200</v>
       </c>
       <c r="G52" s="3">
-        <v>1243400</v>
+        <v>1203800</v>
       </c>
       <c r="H52" s="3">
-        <v>922800</v>
+        <v>893500</v>
       </c>
       <c r="I52" s="3">
-        <v>1559500</v>
+        <v>1510000</v>
       </c>
       <c r="J52" s="3">
-        <v>3668700</v>
+        <v>3552100</v>
       </c>
       <c r="K52" s="3">
         <v>4088000</v>
@@ -2209,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30840600</v>
+        <v>29860400</v>
       </c>
       <c r="E54" s="3">
-        <v>29808000</v>
+        <v>28860700</v>
       </c>
       <c r="F54" s="3">
-        <v>37859600</v>
+        <v>36656300</v>
       </c>
       <c r="G54" s="3">
-        <v>39276800</v>
+        <v>38028500</v>
       </c>
       <c r="H54" s="3">
-        <v>37614400</v>
+        <v>36418900</v>
       </c>
       <c r="I54" s="3">
-        <v>47867700</v>
+        <v>46346400</v>
       </c>
       <c r="J54" s="3">
-        <v>55809400</v>
+        <v>54035700</v>
       </c>
       <c r="K54" s="3">
         <v>56540300</v>
@@ -2277,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6447400</v>
+        <v>6242400</v>
       </c>
       <c r="E57" s="3">
-        <v>6942900</v>
+        <v>6722200</v>
       </c>
       <c r="F57" s="3">
-        <v>8441100</v>
+        <v>8172800</v>
       </c>
       <c r="G57" s="3">
-        <v>8706500</v>
+        <v>8429800</v>
       </c>
       <c r="H57" s="3">
-        <v>8289500</v>
+        <v>8026000</v>
       </c>
       <c r="I57" s="3">
-        <v>12308400</v>
+        <v>11917200</v>
       </c>
       <c r="J57" s="3">
-        <v>14543900</v>
+        <v>14081600</v>
       </c>
       <c r="K57" s="3">
         <v>11036700</v>
@@ -2313,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>140900</v>
+        <v>136400</v>
       </c>
       <c r="E58" s="3">
-        <v>551900</v>
+        <v>534400</v>
       </c>
       <c r="F58" s="3">
-        <v>3151700</v>
+        <v>3051600</v>
       </c>
       <c r="G58" s="3">
-        <v>2656700</v>
+        <v>2572300</v>
       </c>
       <c r="H58" s="3">
-        <v>8932200</v>
+        <v>8648400</v>
       </c>
       <c r="I58" s="3">
-        <v>5458800</v>
+        <v>5285300</v>
       </c>
       <c r="J58" s="3">
-        <v>2360900</v>
+        <v>2285800</v>
       </c>
       <c r="K58" s="3">
         <v>3728500</v>
@@ -2349,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4467300</v>
+        <v>4325300</v>
       </c>
       <c r="E59" s="3">
-        <v>4820800</v>
+        <v>4667600</v>
       </c>
       <c r="F59" s="3">
-        <v>4956100</v>
+        <v>4798500</v>
       </c>
       <c r="G59" s="3">
-        <v>10053300</v>
+        <v>9733800</v>
       </c>
       <c r="H59" s="3">
-        <v>10202100</v>
+        <v>9877800</v>
       </c>
       <c r="I59" s="3">
-        <v>9297200</v>
+        <v>9001800</v>
       </c>
       <c r="J59" s="3">
-        <v>8740000</v>
+        <v>8462200</v>
       </c>
       <c r="K59" s="3">
         <v>12138000</v>
@@ -2385,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11055500</v>
+        <v>10704100</v>
       </c>
       <c r="E60" s="3">
-        <v>12315600</v>
+        <v>11924200</v>
       </c>
       <c r="F60" s="3">
-        <v>16548900</v>
+        <v>16022900</v>
       </c>
       <c r="G60" s="3">
-        <v>21416600</v>
+        <v>20735900</v>
       </c>
       <c r="H60" s="3">
-        <v>24533400</v>
+        <v>23753700</v>
       </c>
       <c r="I60" s="3">
-        <v>27064400</v>
+        <v>26204200</v>
       </c>
       <c r="J60" s="3">
-        <v>25644700</v>
+        <v>24829700</v>
       </c>
       <c r="K60" s="3">
         <v>25039000</v>
@@ -2421,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3334100</v>
+        <v>3228100</v>
       </c>
       <c r="E61" s="3">
-        <v>1530800</v>
+        <v>1482100</v>
       </c>
       <c r="F61" s="3">
-        <v>677800</v>
+        <v>656300</v>
       </c>
       <c r="G61" s="3">
-        <v>3443500</v>
+        <v>3334000</v>
       </c>
       <c r="H61" s="3">
-        <v>4565100</v>
+        <v>4420000</v>
       </c>
       <c r="I61" s="3">
-        <v>7323800</v>
+        <v>7091000</v>
       </c>
       <c r="J61" s="3">
-        <v>9189000</v>
+        <v>8897000</v>
       </c>
       <c r="K61" s="3">
         <v>10853400</v>
@@ -2457,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4958100</v>
+        <v>4800600</v>
       </c>
       <c r="E62" s="3">
-        <v>6478300</v>
+        <v>6272400</v>
       </c>
       <c r="F62" s="3">
-        <v>5664300</v>
+        <v>5484300</v>
       </c>
       <c r="G62" s="3">
-        <v>5512200</v>
+        <v>5337000</v>
       </c>
       <c r="H62" s="3">
-        <v>10944800</v>
+        <v>10597000</v>
       </c>
       <c r="I62" s="3">
-        <v>7557000</v>
+        <v>7316800</v>
       </c>
       <c r="J62" s="3">
-        <v>7184800</v>
+        <v>6956500</v>
       </c>
       <c r="K62" s="3">
         <v>7402700</v>
@@ -2601,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20581100</v>
+        <v>19927000</v>
       </c>
       <c r="E66" s="3">
-        <v>21528400</v>
+        <v>20844100</v>
       </c>
       <c r="F66" s="3">
-        <v>25026400</v>
+        <v>24231000</v>
       </c>
       <c r="G66" s="3">
-        <v>32377400</v>
+        <v>31348400</v>
       </c>
       <c r="H66" s="3">
-        <v>42485900</v>
+        <v>41135600</v>
       </c>
       <c r="I66" s="3">
-        <v>44970400</v>
+        <v>43541100</v>
       </c>
       <c r="J66" s="3">
-        <v>46259400</v>
+        <v>44789200</v>
       </c>
       <c r="K66" s="3">
         <v>47131200</v>
@@ -2797,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9930000</v>
+        <v>9614400</v>
       </c>
       <c r="E72" s="3">
-        <v>9085100</v>
+        <v>8796400</v>
       </c>
       <c r="F72" s="3">
-        <v>13465800</v>
+        <v>13037800</v>
       </c>
       <c r="G72" s="3">
-        <v>1970000</v>
+        <v>1907400</v>
       </c>
       <c r="H72" s="3">
-        <v>-5113300</v>
+        <v>-4950800</v>
       </c>
       <c r="I72" s="3">
-        <v>-676400</v>
+        <v>-655000</v>
       </c>
       <c r="J72" s="3">
-        <v>3376300</v>
+        <v>3269000</v>
       </c>
       <c r="K72" s="3">
         <v>4167200</v>
@@ -2941,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10259500</v>
+        <v>9933500</v>
       </c>
       <c r="E76" s="3">
-        <v>8279700</v>
+        <v>8016500</v>
       </c>
       <c r="F76" s="3">
-        <v>12833200</v>
+        <v>12425300</v>
       </c>
       <c r="G76" s="3">
-        <v>6899400</v>
+        <v>6680100</v>
       </c>
       <c r="H76" s="3">
-        <v>-4871500</v>
+        <v>-4716600</v>
       </c>
       <c r="I76" s="3">
-        <v>2897400</v>
+        <v>2805300</v>
       </c>
       <c r="J76" s="3">
-        <v>9550000</v>
+        <v>9246500</v>
       </c>
       <c r="K76" s="3">
         <v>9409100</v>
@@ -3054,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1004200</v>
+        <v>972300</v>
       </c>
       <c r="E81" s="3">
-        <v>-1009900</v>
+        <v>-977800</v>
       </c>
       <c r="F81" s="3">
-        <v>8926800</v>
+        <v>8643100</v>
       </c>
       <c r="G81" s="3">
-        <v>7083300</v>
+        <v>6858200</v>
       </c>
       <c r="H81" s="3">
-        <v>-8507500</v>
+        <v>-8237100</v>
       </c>
       <c r="I81" s="3">
-        <v>-4052700</v>
+        <v>-3923900</v>
       </c>
       <c r="J81" s="3">
-        <v>-333200</v>
+        <v>-322600</v>
       </c>
       <c r="K81" s="3">
         <v>551800</v>
@@ -3106,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>750700</v>
+        <v>726800</v>
       </c>
       <c r="E83" s="3">
-        <v>701400</v>
+        <v>679100</v>
       </c>
       <c r="F83" s="3">
-        <v>691700</v>
+        <v>669800</v>
       </c>
       <c r="G83" s="3">
-        <v>1040200</v>
+        <v>1007100</v>
       </c>
       <c r="H83" s="3">
-        <v>1435800</v>
+        <v>1390200</v>
       </c>
       <c r="I83" s="3">
-        <v>1884200</v>
+        <v>1824300</v>
       </c>
       <c r="J83" s="3">
-        <v>1673400</v>
+        <v>1620200</v>
       </c>
       <c r="K83" s="3">
         <v>1573700</v>
@@ -3322,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1278700</v>
+        <v>1238100</v>
       </c>
       <c r="E89" s="3">
-        <v>-1252300</v>
+        <v>-1212500</v>
       </c>
       <c r="F89" s="3">
-        <v>1100000</v>
+        <v>1065000</v>
       </c>
       <c r="G89" s="3">
-        <v>329200</v>
+        <v>318700</v>
       </c>
       <c r="H89" s="3">
-        <v>1182000</v>
+        <v>1144400</v>
       </c>
       <c r="I89" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="J89" s="3">
-        <v>2911200</v>
+        <v>2818700</v>
       </c>
       <c r="K89" s="3">
         <v>2602600</v>
@@ -3374,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1034800</v>
+        <v>-1001900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1050700</v>
+        <v>-1017300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1079700</v>
+        <v>-1045400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1577200</v>
+        <v>-1527100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1398600</v>
+        <v>-1354200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2132200</v>
+        <v>-2064400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2083700</v>
+        <v>-2017400</v>
       </c>
       <c r="K91" s="3">
         <v>-1840500</v>
@@ -3482,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-939800</v>
+        <v>-909900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1079300</v>
+        <v>-1045000</v>
       </c>
       <c r="F94" s="3">
-        <v>11500900</v>
+        <v>11135400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1292500</v>
+        <v>-1251500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1576400</v>
+        <v>-1526300</v>
       </c>
       <c r="I94" s="3">
-        <v>5756800</v>
+        <v>5573900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1675000</v>
+        <v>-1621800</v>
       </c>
       <c r="K94" s="3">
         <v>-2236000</v>
@@ -3534,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-187600</v>
+        <v>-181600</v>
       </c>
       <c r="E96" s="3">
-        <v>-205400</v>
+        <v>-198900</v>
       </c>
       <c r="F96" s="3">
-        <v>-196000</v>
+        <v>-189800</v>
       </c>
       <c r="G96" s="3">
-        <v>-96400</v>
+        <v>-93300</v>
       </c>
       <c r="H96" s="3">
-        <v>-112400</v>
+        <v>-108800</v>
       </c>
       <c r="I96" s="3">
-        <v>-280600</v>
+        <v>-271700</v>
       </c>
       <c r="J96" s="3">
-        <v>-370600</v>
+        <v>-358800</v>
       </c>
       <c r="K96" s="3">
         <v>-356800</v>
@@ -3678,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>861700</v>
+        <v>834300</v>
       </c>
       <c r="E100" s="3">
-        <v>-6054600</v>
+        <v>-5862200</v>
       </c>
       <c r="F100" s="3">
-        <v>-5682600</v>
+        <v>-5502000</v>
       </c>
       <c r="G100" s="3">
-        <v>-560400</v>
+        <v>-542600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1936100</v>
+        <v>-1874500</v>
       </c>
       <c r="I100" s="3">
-        <v>1195900</v>
+        <v>1157900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1108300</v>
+        <v>-1073000</v>
       </c>
       <c r="K100" s="3">
         <v>-818100</v>
@@ -3714,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>107500</v>
+        <v>104000</v>
       </c>
       <c r="E101" s="3">
-        <v>-58500</v>
+        <v>-56600</v>
       </c>
       <c r="F101" s="3">
-        <v>14000</v>
+        <v>13600</v>
       </c>
       <c r="G101" s="3">
-        <v>-14200</v>
+        <v>-13800</v>
       </c>
       <c r="H101" s="3">
-        <v>-29200</v>
+        <v>-28300</v>
       </c>
       <c r="I101" s="3">
-        <v>-103900</v>
+        <v>-100600</v>
       </c>
       <c r="J101" s="3">
-        <v>119000</v>
+        <v>115200</v>
       </c>
       <c r="K101" s="3">
         <v>104900</v>
@@ -3750,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1308100</v>
+        <v>1266600</v>
       </c>
       <c r="E102" s="3">
-        <v>-8444800</v>
+        <v>-8176400</v>
       </c>
       <c r="F102" s="3">
-        <v>6932300</v>
+        <v>6711900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1538000</v>
+        <v>-1489100</v>
       </c>
       <c r="H102" s="3">
-        <v>-2359600</v>
+        <v>-2284600</v>
       </c>
       <c r="I102" s="3">
-        <v>6838000</v>
+        <v>6620700</v>
       </c>
       <c r="J102" s="3">
-        <v>246900</v>
+        <v>239100</v>
       </c>
       <c r="K102" s="3">
         <v>-346500</v>

--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TOSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26053800</v>
+        <v>25995000</v>
       </c>
       <c r="E8" s="3">
-        <v>28915600</v>
+        <v>23793600</v>
       </c>
       <c r="F8" s="3">
-        <v>31505900</v>
+        <v>26407100</v>
       </c>
       <c r="G8" s="3">
-        <v>33673000</v>
+        <v>28772700</v>
       </c>
       <c r="H8" s="3">
-        <v>34493100</v>
+        <v>30751800</v>
       </c>
       <c r="I8" s="3">
-        <v>43970800</v>
+        <v>31500700</v>
       </c>
       <c r="J8" s="3">
+        <v>40156200</v>
+      </c>
+      <c r="K8" s="3">
         <v>52158200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>59445700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>53203700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>55146400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19028900</v>
+        <v>19083600</v>
       </c>
       <c r="E9" s="3">
-        <v>21086200</v>
+        <v>17378100</v>
       </c>
       <c r="F9" s="3">
-        <v>23743800</v>
+        <v>19256900</v>
       </c>
       <c r="G9" s="3">
-        <v>25477700</v>
+        <v>21684000</v>
       </c>
       <c r="H9" s="3">
-        <v>25719600</v>
+        <v>23267500</v>
       </c>
       <c r="I9" s="3">
-        <v>37560300</v>
+        <v>23488400</v>
       </c>
       <c r="J9" s="3">
+        <v>34301900</v>
+      </c>
+      <c r="K9" s="3">
         <v>40118400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44570600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40076700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>83743400</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7025000</v>
+        <v>6911400</v>
       </c>
       <c r="E10" s="3">
-        <v>7829400</v>
+        <v>6415500</v>
       </c>
       <c r="F10" s="3">
-        <v>7762100</v>
+        <v>7150200</v>
       </c>
       <c r="G10" s="3">
-        <v>8195200</v>
+        <v>7088700</v>
       </c>
       <c r="H10" s="3">
-        <v>8773400</v>
+        <v>7484300</v>
       </c>
       <c r="I10" s="3">
-        <v>6410400</v>
+        <v>8012300</v>
       </c>
       <c r="J10" s="3">
+        <v>5854300</v>
+      </c>
+      <c r="K10" s="3">
         <v>12039900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14875100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13127000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-28597000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -871,12 +884,15 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3">
         <v>2891600</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,20 +941,20 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>83900</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>144300</v>
+      <c r="G14" s="3">
+        <v>76600</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>404100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>131800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>369000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -946,9 +965,12 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25163300</v>
+        <v>24756800</v>
       </c>
       <c r="E17" s="3">
-        <v>27802800</v>
+        <v>22980300</v>
       </c>
       <c r="F17" s="3">
-        <v>31203500</v>
+        <v>25390800</v>
       </c>
       <c r="G17" s="3">
-        <v>33126500</v>
+        <v>28496500</v>
       </c>
       <c r="H17" s="3">
-        <v>33793500</v>
+        <v>30252700</v>
       </c>
       <c r="I17" s="3">
-        <v>48090800</v>
+        <v>30861800</v>
       </c>
       <c r="J17" s="3">
+        <v>43918800</v>
+      </c>
+      <c r="K17" s="3">
         <v>50551100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57090400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>51366700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>53314300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>890500</v>
+        <v>1238200</v>
       </c>
       <c r="E18" s="3">
-        <v>1112800</v>
+        <v>813300</v>
       </c>
       <c r="F18" s="3">
-        <v>302400</v>
+        <v>1016300</v>
       </c>
       <c r="G18" s="3">
-        <v>546500</v>
+        <v>276100</v>
       </c>
       <c r="H18" s="3">
-        <v>699600</v>
+        <v>499100</v>
       </c>
       <c r="I18" s="3">
-        <v>-4120100</v>
+        <v>638900</v>
       </c>
       <c r="J18" s="3">
+        <v>-3762600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1607100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2355300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1837000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1832100</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,188 +1116,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>457500</v>
+        <v>658500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1472200</v>
+        <v>417800</v>
       </c>
       <c r="F20" s="3">
-        <v>-119200</v>
+        <v>-1344500</v>
       </c>
       <c r="G20" s="3">
-        <v>406600</v>
+        <v>-108900</v>
       </c>
       <c r="H20" s="3">
-        <v>-158100</v>
+        <v>371400</v>
       </c>
       <c r="I20" s="3">
-        <v>866000</v>
+        <v>-144400</v>
       </c>
       <c r="J20" s="3">
+        <v>790900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-73200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-376400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-50500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-228400</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2083400</v>
+        <v>2551900</v>
       </c>
       <c r="E21" s="3">
-        <v>327700</v>
+        <v>1843300</v>
       </c>
       <c r="F21" s="3">
-        <v>860800</v>
+        <v>275600</v>
       </c>
       <c r="G21" s="3">
-        <v>1972100</v>
+        <v>1075200</v>
       </c>
       <c r="H21" s="3">
-        <v>1948000</v>
+        <v>2123700</v>
       </c>
       <c r="I21" s="3">
-        <v>-1408400</v>
+        <v>2139200</v>
       </c>
       <c r="J21" s="3">
+        <v>-1511200</v>
+      </c>
+      <c r="K21" s="3">
         <v>3173100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3559400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3815700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3862900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>38800</v>
+        <v>34000</v>
       </c>
       <c r="E22" s="3">
-        <v>46100</v>
+        <v>35400</v>
       </c>
       <c r="F22" s="3">
-        <v>90100</v>
+        <v>42100</v>
       </c>
       <c r="G22" s="3">
-        <v>250500</v>
+        <v>82300</v>
       </c>
       <c r="H22" s="3">
-        <v>158100</v>
+        <v>228700</v>
       </c>
       <c r="I22" s="3">
-        <v>152500</v>
+        <v>144400</v>
       </c>
       <c r="J22" s="3">
+        <v>139200</v>
+      </c>
+      <c r="K22" s="3">
         <v>198000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>308700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>303600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>287600</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1309300</v>
+        <v>1862600</v>
       </c>
       <c r="E23" s="3">
-        <v>-405500</v>
+        <v>1195700</v>
       </c>
       <c r="F23" s="3">
-        <v>93100</v>
+        <v>-370300</v>
       </c>
       <c r="G23" s="3">
-        <v>702700</v>
+        <v>85000</v>
       </c>
       <c r="H23" s="3">
-        <v>383400</v>
+        <v>641700</v>
       </c>
       <c r="I23" s="3">
-        <v>-3406500</v>
+        <v>350100</v>
       </c>
       <c r="J23" s="3">
+        <v>-3111000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1335900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1670200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1483000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1316000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>117400</v>
+        <v>193500</v>
       </c>
       <c r="E24" s="3">
-        <v>299600</v>
+        <v>107200</v>
       </c>
       <c r="F24" s="3">
-        <v>132700</v>
+        <v>273600</v>
       </c>
       <c r="G24" s="3">
-        <v>-528300</v>
+        <v>121200</v>
       </c>
       <c r="H24" s="3">
-        <v>494400</v>
+        <v>-482500</v>
       </c>
       <c r="I24" s="3">
-        <v>2101900</v>
+        <v>451600</v>
       </c>
       <c r="J24" s="3">
+        <v>1919500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1219900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>843100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>551000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>580600</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1191900</v>
+        <v>1669100</v>
       </c>
       <c r="E26" s="3">
-        <v>-705100</v>
+        <v>1088500</v>
       </c>
       <c r="F26" s="3">
-        <v>-39600</v>
+        <v>-643900</v>
       </c>
       <c r="G26" s="3">
-        <v>1231000</v>
+        <v>-36200</v>
       </c>
       <c r="H26" s="3">
-        <v>-111100</v>
+        <v>1124200</v>
       </c>
       <c r="I26" s="3">
-        <v>-5508400</v>
+        <v>-101400</v>
       </c>
       <c r="J26" s="3">
+        <v>-5030600</v>
+      </c>
+      <c r="K26" s="3">
         <v>116000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>827100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>931900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>735500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1038200</v>
+        <v>1516300</v>
       </c>
       <c r="E27" s="3">
-        <v>-860200</v>
+        <v>948100</v>
       </c>
       <c r="F27" s="3">
-        <v>-230200</v>
+        <v>-785500</v>
       </c>
       <c r="G27" s="3">
-        <v>920800</v>
+        <v>-210200</v>
       </c>
       <c r="H27" s="3">
-        <v>1548300</v>
+        <v>840900</v>
       </c>
       <c r="I27" s="3">
-        <v>-5030600</v>
+        <v>1414000</v>
       </c>
       <c r="J27" s="3">
+        <v>-4594200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-44400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>689400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>765000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>645000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,45 +1464,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>-65900</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>-117700</v>
+        <v>-60200</v>
       </c>
       <c r="F29" s="3">
-        <v>8873200</v>
+        <v>-107500</v>
       </c>
       <c r="G29" s="3">
-        <v>5937500</v>
+        <v>8103500</v>
       </c>
       <c r="H29" s="3">
-        <v>-9785400</v>
+        <v>5422400</v>
       </c>
       <c r="I29" s="3">
-        <v>1106700</v>
+        <v>-8936500</v>
       </c>
       <c r="J29" s="3">
+        <v>1010700</v>
+      </c>
+      <c r="K29" s="3">
         <v>-278200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-137600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-46300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-11700</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-457500</v>
+        <v>-658500</v>
       </c>
       <c r="E32" s="3">
-        <v>1472200</v>
+        <v>-417800</v>
       </c>
       <c r="F32" s="3">
-        <v>119200</v>
+        <v>1344500</v>
       </c>
       <c r="G32" s="3">
-        <v>-406600</v>
+        <v>108900</v>
       </c>
       <c r="H32" s="3">
-        <v>158100</v>
+        <v>-371400</v>
       </c>
       <c r="I32" s="3">
-        <v>-866000</v>
+        <v>144400</v>
       </c>
       <c r="J32" s="3">
+        <v>-790900</v>
+      </c>
+      <c r="K32" s="3">
         <v>73200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>376400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>50500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>228400</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>972300</v>
+        <v>1516300</v>
       </c>
       <c r="E33" s="3">
-        <v>-977800</v>
+        <v>887900</v>
       </c>
       <c r="F33" s="3">
-        <v>8643100</v>
+        <v>-893000</v>
       </c>
       <c r="G33" s="3">
-        <v>6858200</v>
+        <v>7893300</v>
       </c>
       <c r="H33" s="3">
-        <v>-8237100</v>
+        <v>6263200</v>
       </c>
       <c r="I33" s="3">
-        <v>-3923900</v>
+        <v>-7522500</v>
       </c>
       <c r="J33" s="3">
+        <v>-3583500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-322600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>551800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>718700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>633300</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>972300</v>
+        <v>1516300</v>
       </c>
       <c r="E35" s="3">
-        <v>-977800</v>
+        <v>887900</v>
       </c>
       <c r="F35" s="3">
-        <v>8643100</v>
+        <v>-893000</v>
       </c>
       <c r="G35" s="3">
-        <v>6858200</v>
+        <v>7893300</v>
       </c>
       <c r="H35" s="3">
-        <v>-8237100</v>
+        <v>6263200</v>
       </c>
       <c r="I35" s="3">
-        <v>-3923900</v>
+        <v>-7522500</v>
       </c>
       <c r="J35" s="3">
+        <v>-3583500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-322600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>551800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>718700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>633300</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,44 +1818,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4482100</v>
+        <v>3281300</v>
       </c>
       <c r="E41" s="3">
-        <v>3215600</v>
+        <v>4093300</v>
       </c>
       <c r="F41" s="3">
-        <v>11392000</v>
+        <v>2936600</v>
       </c>
       <c r="G41" s="3">
-        <v>4272000</v>
+        <v>10403700</v>
       </c>
       <c r="H41" s="3">
-        <v>4445000</v>
+        <v>3901400</v>
       </c>
       <c r="I41" s="3">
-        <v>8271700</v>
+        <v>4059300</v>
       </c>
       <c r="J41" s="3">
+        <v>7554100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1622300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1569500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1941100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1937300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,261 +1893,285 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8406300</v>
+        <v>6693100</v>
       </c>
       <c r="E43" s="3">
-        <v>8883600</v>
+        <v>7677000</v>
       </c>
       <c r="F43" s="3">
-        <v>9367600</v>
+        <v>8113000</v>
       </c>
       <c r="G43" s="3">
-        <v>9654700</v>
+        <v>8555000</v>
       </c>
       <c r="H43" s="3">
-        <v>9020400</v>
+        <v>8817100</v>
       </c>
       <c r="I43" s="3">
-        <v>10810400</v>
+        <v>8237900</v>
       </c>
       <c r="J43" s="3">
+        <v>9872600</v>
+      </c>
+      <c r="K43" s="3">
         <v>12915500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15020300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14182300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15472100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4058300</v>
+        <v>4142600</v>
       </c>
       <c r="E44" s="3">
-        <v>4114200</v>
+        <v>3706200</v>
       </c>
       <c r="F44" s="3">
-        <v>3999500</v>
+        <v>3757300</v>
       </c>
       <c r="G44" s="3">
-        <v>4007100</v>
+        <v>3652600</v>
       </c>
       <c r="H44" s="3">
-        <v>4270900</v>
+        <v>3659500</v>
       </c>
       <c r="I44" s="3">
-        <v>6219400</v>
+        <v>3900300</v>
       </c>
       <c r="J44" s="3">
+        <v>5679900</v>
+      </c>
+      <c r="K44" s="3">
         <v>11449900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8104900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9308800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>14849700</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1229900</v>
+        <v>3535500</v>
       </c>
       <c r="E45" s="3">
-        <v>1171500</v>
+        <v>1123200</v>
       </c>
       <c r="F45" s="3">
-        <v>1119700</v>
+        <v>1069900</v>
       </c>
       <c r="G45" s="3">
-        <v>12595900</v>
+        <v>1022500</v>
       </c>
       <c r="H45" s="3">
-        <v>9469200</v>
+        <v>11503200</v>
       </c>
       <c r="I45" s="3">
-        <v>4200200</v>
+        <v>8647700</v>
       </c>
       <c r="J45" s="3">
+        <v>3835900</v>
+      </c>
+      <c r="K45" s="3">
         <v>6168000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4238800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3896600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7495100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18176600</v>
+        <v>17652500</v>
       </c>
       <c r="E46" s="3">
-        <v>17385000</v>
+        <v>16599800</v>
       </c>
       <c r="F46" s="3">
-        <v>25878800</v>
+        <v>15876800</v>
       </c>
       <c r="G46" s="3">
-        <v>30529700</v>
+        <v>23633800</v>
       </c>
       <c r="H46" s="3">
-        <v>27205400</v>
+        <v>27881200</v>
       </c>
       <c r="I46" s="3">
-        <v>29501700</v>
+        <v>24845200</v>
       </c>
       <c r="J46" s="3">
+        <v>26942400</v>
+      </c>
+      <c r="K46" s="3">
         <v>28476600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28933400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29328900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27206000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4555300</v>
+        <v>40200</v>
       </c>
       <c r="E47" s="3">
-        <v>4373300</v>
+        <v>4160100</v>
       </c>
       <c r="F47" s="3">
-        <v>5080600</v>
+        <v>3993900</v>
       </c>
       <c r="G47" s="3">
-        <v>2097000</v>
+        <v>4639900</v>
       </c>
       <c r="H47" s="3">
-        <v>1926400</v>
+        <v>1915100</v>
       </c>
       <c r="I47" s="3">
-        <v>3101000</v>
+        <v>1759200</v>
       </c>
       <c r="J47" s="3">
+        <v>2832000</v>
+      </c>
+      <c r="K47" s="3">
         <v>5386200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6069000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6553400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10077200</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4908500</v>
+        <v>4404100</v>
       </c>
       <c r="E48" s="3">
-        <v>4911700</v>
+        <v>4482700</v>
       </c>
       <c r="F48" s="3">
-        <v>3290200</v>
+        <v>4485600</v>
       </c>
       <c r="G48" s="3">
-        <v>3118900</v>
+        <v>3004800</v>
       </c>
       <c r="H48" s="3">
-        <v>3443800</v>
+        <v>2848300</v>
       </c>
       <c r="I48" s="3">
-        <v>6775400</v>
+        <v>3145100</v>
       </c>
       <c r="J48" s="3">
+        <v>6187600</v>
+      </c>
+      <c r="K48" s="3">
         <v>7280700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8336700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8209800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36286100</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>1098300</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>1020800</v>
+        <v>1003000</v>
       </c>
       <c r="F49" s="3">
-        <v>994600</v>
+        <v>932300</v>
       </c>
       <c r="G49" s="3">
-        <v>1079100</v>
+        <v>908300</v>
       </c>
       <c r="H49" s="3">
-        <v>6034100</v>
+        <v>985500</v>
       </c>
       <c r="I49" s="3">
-        <v>5458300</v>
+        <v>5510600</v>
       </c>
       <c r="J49" s="3">
+        <v>4984700</v>
+      </c>
+      <c r="K49" s="3">
         <v>9340100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9113200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8464500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12956000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1121700</v>
+        <v>6995100</v>
       </c>
       <c r="E52" s="3">
-        <v>1169800</v>
+        <v>1024400</v>
       </c>
       <c r="F52" s="3">
-        <v>1412200</v>
+        <v>1068400</v>
       </c>
       <c r="G52" s="3">
-        <v>1203800</v>
+        <v>1289600</v>
       </c>
       <c r="H52" s="3">
-        <v>893500</v>
+        <v>1099400</v>
       </c>
       <c r="I52" s="3">
-        <v>1510000</v>
+        <v>816000</v>
       </c>
       <c r="J52" s="3">
+        <v>1379000</v>
+      </c>
+      <c r="K52" s="3">
         <v>3552100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4088000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4051300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8620500</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29860400</v>
+        <v>29091900</v>
       </c>
       <c r="E54" s="3">
-        <v>28860700</v>
+        <v>27270000</v>
       </c>
       <c r="F54" s="3">
-        <v>36656300</v>
+        <v>26356900</v>
       </c>
       <c r="G54" s="3">
-        <v>38028500</v>
+        <v>33476300</v>
       </c>
       <c r="H54" s="3">
-        <v>36418900</v>
+        <v>34729500</v>
       </c>
       <c r="I54" s="3">
-        <v>46346400</v>
+        <v>33259500</v>
       </c>
       <c r="J54" s="3">
+        <v>42325700</v>
+      </c>
+      <c r="K54" s="3">
         <v>54035700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>56540300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>56608000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>52004700</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2398,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6242400</v>
+        <v>3756900</v>
       </c>
       <c r="E57" s="3">
-        <v>6722200</v>
+        <v>5700900</v>
       </c>
       <c r="F57" s="3">
-        <v>8172800</v>
+        <v>6139000</v>
       </c>
       <c r="G57" s="3">
-        <v>8429800</v>
+        <v>7463800</v>
       </c>
       <c r="H57" s="3">
-        <v>8026000</v>
+        <v>7698500</v>
       </c>
       <c r="I57" s="3">
-        <v>11917200</v>
+        <v>7329700</v>
       </c>
       <c r="J57" s="3">
+        <v>10883300</v>
+      </c>
+      <c r="K57" s="3">
         <v>14081600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11036700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11045100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11689000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>136400</v>
+        <v>589500</v>
       </c>
       <c r="E58" s="3">
-        <v>534400</v>
+        <v>124500</v>
       </c>
       <c r="F58" s="3">
-        <v>3051600</v>
+        <v>488000</v>
       </c>
       <c r="G58" s="3">
-        <v>2572300</v>
+        <v>2786800</v>
       </c>
       <c r="H58" s="3">
-        <v>8648400</v>
+        <v>2349100</v>
       </c>
       <c r="I58" s="3">
-        <v>5285300</v>
+        <v>7898100</v>
       </c>
       <c r="J58" s="3">
+        <v>4826800</v>
+      </c>
+      <c r="K58" s="3">
         <v>2285800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3728500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4019400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4816200</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4325300</v>
+        <v>7415500</v>
       </c>
       <c r="E59" s="3">
-        <v>4667600</v>
+        <v>3950100</v>
       </c>
       <c r="F59" s="3">
-        <v>4798500</v>
+        <v>4262700</v>
       </c>
       <c r="G59" s="3">
-        <v>9733800</v>
+        <v>4382300</v>
       </c>
       <c r="H59" s="3">
-        <v>9877800</v>
+        <v>8889400</v>
       </c>
       <c r="I59" s="3">
-        <v>9001800</v>
+        <v>9020900</v>
       </c>
       <c r="J59" s="3">
+        <v>8220800</v>
+      </c>
+      <c r="K59" s="3">
         <v>8462200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12138000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10338900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13509200</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10704100</v>
+        <v>11761900</v>
       </c>
       <c r="E60" s="3">
-        <v>11924200</v>
+        <v>9775500</v>
       </c>
       <c r="F60" s="3">
-        <v>16022900</v>
+        <v>10889800</v>
       </c>
       <c r="G60" s="3">
-        <v>20735900</v>
+        <v>14632900</v>
       </c>
       <c r="H60" s="3">
-        <v>23753700</v>
+        <v>18937000</v>
       </c>
       <c r="I60" s="3">
-        <v>26204200</v>
+        <v>21693000</v>
       </c>
       <c r="J60" s="3">
+        <v>23931000</v>
+      </c>
+      <c r="K60" s="3">
         <v>24829700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25039000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25403400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24132800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3228100</v>
+        <v>3960100</v>
       </c>
       <c r="E61" s="3">
-        <v>1482100</v>
+        <v>2948000</v>
       </c>
       <c r="F61" s="3">
-        <v>656300</v>
+        <v>1353500</v>
       </c>
       <c r="G61" s="3">
-        <v>3334000</v>
+        <v>599300</v>
       </c>
       <c r="H61" s="3">
-        <v>4420000</v>
+        <v>3044800</v>
       </c>
       <c r="I61" s="3">
-        <v>7091000</v>
+        <v>4036600</v>
       </c>
       <c r="J61" s="3">
+        <v>6475800</v>
+      </c>
+      <c r="K61" s="3">
         <v>8897000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10853400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9636800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8223000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4800600</v>
+        <v>2723600</v>
       </c>
       <c r="E62" s="3">
-        <v>6272400</v>
+        <v>4384100</v>
       </c>
       <c r="F62" s="3">
-        <v>5484300</v>
+        <v>5728300</v>
       </c>
       <c r="G62" s="3">
-        <v>5337000</v>
+        <v>5008500</v>
       </c>
       <c r="H62" s="3">
-        <v>10597000</v>
+        <v>4874000</v>
       </c>
       <c r="I62" s="3">
-        <v>7316800</v>
+        <v>9677700</v>
       </c>
       <c r="J62" s="3">
+        <v>6682100</v>
+      </c>
+      <c r="K62" s="3">
         <v>6956500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7402700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8426600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17035800</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19927000</v>
+        <v>19692200</v>
       </c>
       <c r="E66" s="3">
-        <v>20844100</v>
+        <v>18198200</v>
       </c>
       <c r="F66" s="3">
-        <v>24231000</v>
+        <v>19035900</v>
       </c>
       <c r="G66" s="3">
-        <v>31348400</v>
+        <v>22128900</v>
       </c>
       <c r="H66" s="3">
-        <v>41135600</v>
+        <v>28628800</v>
       </c>
       <c r="I66" s="3">
-        <v>43541100</v>
+        <v>37567000</v>
       </c>
       <c r="J66" s="3">
+        <v>39763800</v>
+      </c>
+      <c r="K66" s="3">
         <v>44789200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>47131200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47010000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44198900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9614400</v>
+        <v>8709500</v>
       </c>
       <c r="E72" s="3">
-        <v>8796400</v>
+        <v>8780300</v>
       </c>
       <c r="F72" s="3">
-        <v>13037800</v>
+        <v>8033300</v>
       </c>
       <c r="G72" s="3">
-        <v>1907400</v>
+        <v>11906700</v>
       </c>
       <c r="H72" s="3">
-        <v>-4950800</v>
+        <v>1742000</v>
       </c>
       <c r="I72" s="3">
-        <v>-655000</v>
+        <v>-4521300</v>
       </c>
       <c r="J72" s="3">
+        <v>-598100</v>
+      </c>
+      <c r="K72" s="3">
         <v>3269000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4167200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5896700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5351100</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9933500</v>
+        <v>9399700</v>
       </c>
       <c r="E76" s="3">
-        <v>8016500</v>
+        <v>9071700</v>
       </c>
       <c r="F76" s="3">
-        <v>12425300</v>
+        <v>7321100</v>
       </c>
       <c r="G76" s="3">
-        <v>6680100</v>
+        <v>11347400</v>
       </c>
       <c r="H76" s="3">
-        <v>-4716600</v>
+        <v>6100600</v>
       </c>
       <c r="I76" s="3">
-        <v>2805300</v>
+        <v>-4307500</v>
       </c>
       <c r="J76" s="3">
+        <v>2561900</v>
+      </c>
+      <c r="K76" s="3">
         <v>9246500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9409100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9598000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7805900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>972300</v>
+        <v>1516300</v>
       </c>
       <c r="E81" s="3">
-        <v>-977800</v>
+        <v>887900</v>
       </c>
       <c r="F81" s="3">
-        <v>8643100</v>
+        <v>-893000</v>
       </c>
       <c r="G81" s="3">
-        <v>6858200</v>
+        <v>7893300</v>
       </c>
       <c r="H81" s="3">
-        <v>-8237100</v>
+        <v>6263200</v>
       </c>
       <c r="I81" s="3">
-        <v>-3923900</v>
+        <v>-7522500</v>
       </c>
       <c r="J81" s="3">
+        <v>-3583500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-322600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>551800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>718700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>633300</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>726800</v>
+        <v>663400</v>
       </c>
       <c r="E83" s="3">
-        <v>679100</v>
+        <v>663800</v>
       </c>
       <c r="F83" s="3">
-        <v>669800</v>
+        <v>620200</v>
       </c>
       <c r="G83" s="3">
-        <v>1007100</v>
+        <v>611700</v>
       </c>
       <c r="H83" s="3">
-        <v>1390200</v>
+        <v>919800</v>
       </c>
       <c r="I83" s="3">
-        <v>1824300</v>
+        <v>1269600</v>
       </c>
       <c r="J83" s="3">
+        <v>1666000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1620200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1573700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2031300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2256800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1238100</v>
+        <v>1941600</v>
       </c>
       <c r="E89" s="3">
-        <v>-1212500</v>
+        <v>1130700</v>
       </c>
       <c r="F89" s="3">
-        <v>1065000</v>
+        <v>-1107300</v>
       </c>
       <c r="G89" s="3">
-        <v>318700</v>
+        <v>972600</v>
       </c>
       <c r="H89" s="3">
-        <v>1144400</v>
+        <v>291100</v>
       </c>
       <c r="I89" s="3">
-        <v>-10500</v>
+        <v>1045100</v>
       </c>
       <c r="J89" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K89" s="3">
         <v>2818700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2602600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1229200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3028400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1001900</v>
+        <v>-738300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1017300</v>
+        <v>-915000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1045400</v>
+        <v>-929100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1527100</v>
+        <v>-954700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1354200</v>
+        <v>-1394600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2064400</v>
+        <v>-1236700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1885300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2017400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1840500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2476500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2637300</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-909900</v>
+        <v>-970000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1045000</v>
+        <v>-831000</v>
       </c>
       <c r="F94" s="3">
-        <v>11135400</v>
+        <v>-954400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1251500</v>
+        <v>10169300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1526300</v>
+        <v>-1142900</v>
       </c>
       <c r="I94" s="3">
-        <v>5573900</v>
+        <v>-1393900</v>
       </c>
       <c r="J94" s="3">
+        <v>5090300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1621800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2236000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1824100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3410100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,44 +3758,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-181600</v>
+        <v>-852500</v>
       </c>
       <c r="E96" s="3">
-        <v>-198900</v>
+        <v>-165900</v>
       </c>
       <c r="F96" s="3">
-        <v>-189800</v>
+        <v>-181700</v>
       </c>
       <c r="G96" s="3">
-        <v>-93300</v>
+        <v>-173300</v>
       </c>
       <c r="H96" s="3">
-        <v>-108800</v>
+        <v>-85200</v>
       </c>
       <c r="I96" s="3">
-        <v>-271700</v>
+        <v>-99400</v>
       </c>
       <c r="J96" s="3">
+        <v>-248100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-358800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-356800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-395300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-334500</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>834300</v>
+        <v>-1689100</v>
       </c>
       <c r="E100" s="3">
-        <v>-5862200</v>
+        <v>761900</v>
       </c>
       <c r="F100" s="3">
-        <v>-5502000</v>
+        <v>-5353600</v>
       </c>
       <c r="G100" s="3">
-        <v>-542600</v>
+        <v>-5024700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1874500</v>
+        <v>-495500</v>
       </c>
       <c r="I100" s="3">
-        <v>1157900</v>
+        <v>-1711900</v>
       </c>
       <c r="J100" s="3">
+        <v>1057500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1073000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-818100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>388100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>104000</v>
+        <v>74400</v>
       </c>
       <c r="E101" s="3">
-        <v>-56600</v>
+        <v>95000</v>
       </c>
       <c r="F101" s="3">
-        <v>13600</v>
+        <v>-51700</v>
       </c>
       <c r="G101" s="3">
-        <v>-13800</v>
+        <v>12400</v>
       </c>
       <c r="H101" s="3">
-        <v>-28300</v>
+        <v>-12600</v>
       </c>
       <c r="I101" s="3">
-        <v>-100600</v>
+        <v>-25800</v>
       </c>
       <c r="J101" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="K101" s="3">
         <v>115200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>104900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>159100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-18700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1266600</v>
+        <v>-643100</v>
       </c>
       <c r="E102" s="3">
-        <v>-8176400</v>
+        <v>1156700</v>
       </c>
       <c r="F102" s="3">
-        <v>6711900</v>
+        <v>-7467100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1489100</v>
+        <v>6129700</v>
       </c>
       <c r="H102" s="3">
-        <v>-2284600</v>
+        <v>-1359900</v>
       </c>
       <c r="I102" s="3">
-        <v>6620700</v>
+        <v>-2086400</v>
       </c>
       <c r="J102" s="3">
+        <v>6046300</v>
+      </c>
+      <c r="K102" s="3">
         <v>239100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-346500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-47700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-402600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>TOSYY</t>
   </si>
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25995000</v>
+        <v>24460000</v>
       </c>
       <c r="E8" s="3">
-        <v>23793600</v>
+        <v>22388600</v>
       </c>
       <c r="F8" s="3">
-        <v>26407100</v>
+        <v>24847800</v>
       </c>
       <c r="G8" s="3">
-        <v>28772700</v>
+        <v>27073600</v>
       </c>
       <c r="H8" s="3">
-        <v>30751800</v>
+        <v>28935900</v>
       </c>
       <c r="I8" s="3">
-        <v>31500700</v>
+        <v>29640600</v>
       </c>
       <c r="J8" s="3">
-        <v>40156200</v>
+        <v>37785000</v>
       </c>
       <c r="K8" s="3">
         <v>52158200</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19083600</v>
+        <v>17956700</v>
       </c>
       <c r="E9" s="3">
-        <v>17378100</v>
+        <v>16328000</v>
       </c>
       <c r="F9" s="3">
-        <v>19256900</v>
+        <v>18091600</v>
       </c>
       <c r="G9" s="3">
-        <v>21684000</v>
+        <v>20355400</v>
       </c>
       <c r="H9" s="3">
-        <v>23267500</v>
+        <v>21790100</v>
       </c>
       <c r="I9" s="3">
-        <v>23488400</v>
+        <v>21848300</v>
       </c>
       <c r="J9" s="3">
-        <v>34301900</v>
+        <v>32276400</v>
       </c>
       <c r="K9" s="3">
         <v>40118400</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6911400</v>
+        <v>6503200</v>
       </c>
       <c r="E10" s="3">
-        <v>6415500</v>
+        <v>6060500</v>
       </c>
       <c r="F10" s="3">
-        <v>7150200</v>
+        <v>6756100</v>
       </c>
       <c r="G10" s="3">
-        <v>7088700</v>
+        <v>6718300</v>
       </c>
       <c r="H10" s="3">
-        <v>7484300</v>
+        <v>7145700</v>
       </c>
       <c r="I10" s="3">
-        <v>8012300</v>
+        <v>7792300</v>
       </c>
       <c r="J10" s="3">
-        <v>5854300</v>
+        <v>5508600</v>
       </c>
       <c r="K10" s="3">
         <v>12039900</v>
@@ -938,23 +938,23 @@
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>28100</v>
       </c>
       <c r="G14" s="3">
-        <v>76600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>201100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>103400</v>
       </c>
       <c r="I14" s="3">
-        <v>131800</v>
+        <v>377100</v>
       </c>
       <c r="J14" s="3">
-        <v>369000</v>
+        <v>347200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24756800</v>
+        <v>23118100</v>
       </c>
       <c r="E17" s="3">
-        <v>22980300</v>
+        <v>21566300</v>
       </c>
       <c r="F17" s="3">
-        <v>25390800</v>
+        <v>24102000</v>
       </c>
       <c r="G17" s="3">
-        <v>28496500</v>
+        <v>27173000</v>
       </c>
       <c r="H17" s="3">
-        <v>30252700</v>
+        <v>28858400</v>
       </c>
       <c r="I17" s="3">
-        <v>30861800</v>
+        <v>29630100</v>
       </c>
       <c r="J17" s="3">
-        <v>43918800</v>
+        <v>41325400</v>
       </c>
       <c r="K17" s="3">
         <v>50551100</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1238200</v>
+        <v>1341900</v>
       </c>
       <c r="E18" s="3">
-        <v>813300</v>
+        <v>822300</v>
       </c>
       <c r="F18" s="3">
-        <v>1016300</v>
+        <v>745700</v>
       </c>
       <c r="G18" s="3">
-        <v>276100</v>
+        <v>-99400</v>
       </c>
       <c r="H18" s="3">
-        <v>499100</v>
+        <v>77500</v>
       </c>
       <c r="I18" s="3">
-        <v>638900</v>
+        <v>10500</v>
       </c>
       <c r="J18" s="3">
-        <v>-3762600</v>
+        <v>-3540500</v>
       </c>
       <c r="K18" s="3">
         <v>1607100</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>658500</v>
+        <v>442800</v>
       </c>
       <c r="E20" s="3">
-        <v>417800</v>
+        <v>336200</v>
       </c>
       <c r="F20" s="3">
-        <v>-1344500</v>
+        <v>-1054500</v>
       </c>
       <c r="G20" s="3">
-        <v>-108900</v>
+        <v>256800</v>
       </c>
       <c r="H20" s="3">
-        <v>371400</v>
+        <v>741600</v>
       </c>
       <c r="I20" s="3">
-        <v>-144400</v>
+        <v>454800</v>
       </c>
       <c r="J20" s="3">
-        <v>790900</v>
+        <v>744200</v>
       </c>
       <c r="K20" s="3">
         <v>-73200</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2551900</v>
+        <v>2405400</v>
       </c>
       <c r="E21" s="3">
-        <v>1843300</v>
+        <v>1779600</v>
       </c>
       <c r="F21" s="3">
-        <v>275600</v>
+        <v>271600</v>
       </c>
       <c r="G21" s="3">
-        <v>1075200</v>
+        <v>729800</v>
       </c>
       <c r="H21" s="3">
-        <v>2123700</v>
+        <v>1679800</v>
       </c>
       <c r="I21" s="3">
-        <v>2139200</v>
+        <v>1653400</v>
       </c>
       <c r="J21" s="3">
-        <v>-1511200</v>
+        <v>-1237200</v>
       </c>
       <c r="K21" s="3">
         <v>3173100</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="E22" s="3">
-        <v>35400</v>
+        <v>33300</v>
       </c>
       <c r="F22" s="3">
-        <v>42100</v>
+        <v>39600</v>
       </c>
       <c r="G22" s="3">
-        <v>82300</v>
+        <v>77400</v>
       </c>
       <c r="H22" s="3">
-        <v>228700</v>
+        <v>215200</v>
       </c>
       <c r="I22" s="3">
-        <v>144400</v>
+        <v>135900</v>
       </c>
       <c r="J22" s="3">
-        <v>139200</v>
+        <v>131000</v>
       </c>
       <c r="K22" s="3">
         <v>198000</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1862600</v>
+        <v>1752600</v>
       </c>
       <c r="E23" s="3">
-        <v>1195700</v>
+        <v>1125100</v>
       </c>
       <c r="F23" s="3">
-        <v>-370300</v>
+        <v>-348500</v>
       </c>
       <c r="G23" s="3">
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="H23" s="3">
-        <v>641700</v>
+        <v>603800</v>
       </c>
       <c r="I23" s="3">
-        <v>350100</v>
+        <v>329400</v>
       </c>
       <c r="J23" s="3">
-        <v>-3111000</v>
+        <v>-2927300</v>
       </c>
       <c r="K23" s="3">
         <v>1335900</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>193500</v>
+        <v>182100</v>
       </c>
       <c r="E24" s="3">
-        <v>107200</v>
+        <v>100900</v>
       </c>
       <c r="F24" s="3">
-        <v>273600</v>
+        <v>257400</v>
       </c>
       <c r="G24" s="3">
-        <v>121200</v>
+        <v>114000</v>
       </c>
       <c r="H24" s="3">
-        <v>-482500</v>
+        <v>-454000</v>
       </c>
       <c r="I24" s="3">
-        <v>451600</v>
+        <v>424900</v>
       </c>
       <c r="J24" s="3">
-        <v>1919500</v>
+        <v>1806200</v>
       </c>
       <c r="K24" s="3">
         <v>1219900</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1669100</v>
+        <v>1570500</v>
       </c>
       <c r="E26" s="3">
-        <v>1088500</v>
+        <v>1024200</v>
       </c>
       <c r="F26" s="3">
-        <v>-643900</v>
+        <v>-605900</v>
       </c>
       <c r="G26" s="3">
-        <v>-36200</v>
+        <v>-34000</v>
       </c>
       <c r="H26" s="3">
-        <v>1124200</v>
+        <v>1057800</v>
       </c>
       <c r="I26" s="3">
-        <v>-101400</v>
+        <v>-95400</v>
       </c>
       <c r="J26" s="3">
-        <v>-5030600</v>
+        <v>-4733500</v>
       </c>
       <c r="K26" s="3">
         <v>116000</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1516300</v>
+        <v>1426800</v>
       </c>
       <c r="E27" s="3">
-        <v>948100</v>
+        <v>892100</v>
       </c>
       <c r="F27" s="3">
-        <v>-785500</v>
+        <v>-739100</v>
       </c>
       <c r="G27" s="3">
-        <v>-210200</v>
+        <v>-197800</v>
       </c>
       <c r="H27" s="3">
-        <v>840900</v>
+        <v>791200</v>
       </c>
       <c r="I27" s="3">
-        <v>1414000</v>
+        <v>1330500</v>
       </c>
       <c r="J27" s="3">
-        <v>-4594200</v>
+        <v>-4322900</v>
       </c>
       <c r="K27" s="3">
         <v>-44400</v>
@@ -1477,22 +1477,22 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>-60200</v>
+        <v>-56600</v>
       </c>
       <c r="F29" s="3">
-        <v>-107500</v>
+        <v>-101100</v>
       </c>
       <c r="G29" s="3">
-        <v>8103500</v>
+        <v>7625000</v>
       </c>
       <c r="H29" s="3">
-        <v>5422400</v>
+        <v>5102200</v>
       </c>
       <c r="I29" s="3">
-        <v>-8936500</v>
+        <v>-8408800</v>
       </c>
       <c r="J29" s="3">
-        <v>1010700</v>
+        <v>951000</v>
       </c>
       <c r="K29" s="3">
         <v>-278200</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-658500</v>
+        <v>-442800</v>
       </c>
       <c r="E32" s="3">
-        <v>-417800</v>
+        <v>-336200</v>
       </c>
       <c r="F32" s="3">
-        <v>1344500</v>
+        <v>1054500</v>
       </c>
       <c r="G32" s="3">
-        <v>108900</v>
+        <v>-256800</v>
       </c>
       <c r="H32" s="3">
-        <v>-371400</v>
+        <v>-741600</v>
       </c>
       <c r="I32" s="3">
-        <v>144400</v>
+        <v>-454800</v>
       </c>
       <c r="J32" s="3">
-        <v>-790900</v>
+        <v>-744200</v>
       </c>
       <c r="K32" s="3">
         <v>73200</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1516300</v>
+        <v>1426800</v>
       </c>
       <c r="E33" s="3">
-        <v>887900</v>
+        <v>835500</v>
       </c>
       <c r="F33" s="3">
-        <v>-893000</v>
+        <v>-840300</v>
       </c>
       <c r="G33" s="3">
-        <v>7893300</v>
+        <v>7427200</v>
       </c>
       <c r="H33" s="3">
-        <v>6263200</v>
+        <v>5893400</v>
       </c>
       <c r="I33" s="3">
-        <v>-7522500</v>
+        <v>-7078300</v>
       </c>
       <c r="J33" s="3">
-        <v>-3583500</v>
+        <v>-3371900</v>
       </c>
       <c r="K33" s="3">
         <v>-322600</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1516300</v>
+        <v>1426800</v>
       </c>
       <c r="E35" s="3">
-        <v>887900</v>
+        <v>835500</v>
       </c>
       <c r="F35" s="3">
-        <v>-893000</v>
+        <v>-840300</v>
       </c>
       <c r="G35" s="3">
-        <v>7893300</v>
+        <v>7427200</v>
       </c>
       <c r="H35" s="3">
-        <v>6263200</v>
+        <v>5893400</v>
       </c>
       <c r="I35" s="3">
-        <v>-7522500</v>
+        <v>-7078300</v>
       </c>
       <c r="J35" s="3">
-        <v>-3583500</v>
+        <v>-3371900</v>
       </c>
       <c r="K35" s="3">
         <v>-322600</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3281300</v>
+        <v>3087500</v>
       </c>
       <c r="E41" s="3">
-        <v>4093300</v>
+        <v>3851600</v>
       </c>
       <c r="F41" s="3">
-        <v>2936600</v>
+        <v>2763200</v>
       </c>
       <c r="G41" s="3">
-        <v>10403700</v>
+        <v>9789400</v>
       </c>
       <c r="H41" s="3">
-        <v>3901400</v>
+        <v>3671000</v>
       </c>
       <c r="I41" s="3">
-        <v>4059300</v>
+        <v>3819600</v>
       </c>
       <c r="J41" s="3">
-        <v>7554100</v>
+        <v>7108000</v>
       </c>
       <c r="K41" s="3">
         <v>1622300</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6693100</v>
+        <v>6747900</v>
       </c>
       <c r="E43" s="3">
-        <v>7677000</v>
+        <v>7223700</v>
       </c>
       <c r="F43" s="3">
-        <v>8113000</v>
+        <v>7633900</v>
       </c>
       <c r="G43" s="3">
-        <v>8555000</v>
+        <v>8049800</v>
       </c>
       <c r="H43" s="3">
-        <v>8817100</v>
+        <v>8296500</v>
       </c>
       <c r="I43" s="3">
-        <v>8237900</v>
+        <v>7751400</v>
       </c>
       <c r="J43" s="3">
-        <v>9872600</v>
+        <v>9289600</v>
       </c>
       <c r="K43" s="3">
         <v>12915500</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4142600</v>
+        <v>3898000</v>
       </c>
       <c r="E44" s="3">
-        <v>3706200</v>
+        <v>3487400</v>
       </c>
       <c r="F44" s="3">
-        <v>3757300</v>
+        <v>3535500</v>
       </c>
       <c r="G44" s="3">
-        <v>3652600</v>
+        <v>3436900</v>
       </c>
       <c r="H44" s="3">
-        <v>3659500</v>
+        <v>3443400</v>
       </c>
       <c r="I44" s="3">
-        <v>3900300</v>
+        <v>3670000</v>
       </c>
       <c r="J44" s="3">
-        <v>5679900</v>
+        <v>5344500</v>
       </c>
       <c r="K44" s="3">
         <v>11449900</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3535500</v>
+        <v>2876700</v>
       </c>
       <c r="E45" s="3">
-        <v>1123200</v>
+        <v>1056900</v>
       </c>
       <c r="F45" s="3">
-        <v>1069900</v>
+        <v>1006700</v>
       </c>
       <c r="G45" s="3">
-        <v>1022500</v>
+        <v>962100</v>
       </c>
       <c r="H45" s="3">
-        <v>11503200</v>
+        <v>10823900</v>
       </c>
       <c r="I45" s="3">
-        <v>8647700</v>
+        <v>8137000</v>
       </c>
       <c r="J45" s="3">
-        <v>3835900</v>
+        <v>3609400</v>
       </c>
       <c r="K45" s="3">
         <v>6168000</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17652500</v>
+        <v>16610100</v>
       </c>
       <c r="E46" s="3">
-        <v>16599800</v>
+        <v>15619600</v>
       </c>
       <c r="F46" s="3">
-        <v>15876800</v>
+        <v>14939300</v>
       </c>
       <c r="G46" s="3">
-        <v>23633800</v>
+        <v>22238200</v>
       </c>
       <c r="H46" s="3">
-        <v>27881200</v>
+        <v>26234800</v>
       </c>
       <c r="I46" s="3">
-        <v>24845200</v>
+        <v>23378100</v>
       </c>
       <c r="J46" s="3">
-        <v>26942400</v>
+        <v>25351400</v>
       </c>
       <c r="K46" s="3">
         <v>28476600</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>40200</v>
+        <v>4131200</v>
       </c>
       <c r="E47" s="3">
-        <v>4160100</v>
+        <v>3914400</v>
       </c>
       <c r="F47" s="3">
-        <v>3993900</v>
+        <v>3758100</v>
       </c>
       <c r="G47" s="3">
-        <v>4639900</v>
+        <v>4365900</v>
       </c>
       <c r="H47" s="3">
-        <v>1915100</v>
+        <v>1802000</v>
       </c>
       <c r="I47" s="3">
-        <v>1759200</v>
+        <v>1655400</v>
       </c>
       <c r="J47" s="3">
-        <v>2832000</v>
+        <v>2664800</v>
       </c>
       <c r="K47" s="3">
         <v>5386200</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4404100</v>
+        <v>4144000</v>
       </c>
       <c r="E48" s="3">
-        <v>4482700</v>
+        <v>4218000</v>
       </c>
       <c r="F48" s="3">
-        <v>4485600</v>
+        <v>4220700</v>
       </c>
       <c r="G48" s="3">
-        <v>3004800</v>
+        <v>2827300</v>
       </c>
       <c r="H48" s="3">
-        <v>2848300</v>
+        <v>2680100</v>
       </c>
       <c r="I48" s="3">
-        <v>3145100</v>
+        <v>2959400</v>
       </c>
       <c r="J48" s="3">
-        <v>6187600</v>
+        <v>5822200</v>
       </c>
       <c r="K48" s="3">
         <v>7280700</v>
@@ -2136,26 +2136,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>1160800</v>
       </c>
       <c r="E49" s="3">
-        <v>1003000</v>
+        <v>943800</v>
       </c>
       <c r="F49" s="3">
-        <v>932300</v>
+        <v>877200</v>
       </c>
       <c r="G49" s="3">
-        <v>908300</v>
+        <v>854600</v>
       </c>
       <c r="H49" s="3">
-        <v>985500</v>
+        <v>927300</v>
       </c>
       <c r="I49" s="3">
-        <v>5510600</v>
+        <v>5185200</v>
       </c>
       <c r="J49" s="3">
-        <v>4984700</v>
+        <v>4690400</v>
       </c>
       <c r="K49" s="3">
         <v>9340100</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6995100</v>
+        <v>1327900</v>
       </c>
       <c r="E52" s="3">
-        <v>1024400</v>
+        <v>963900</v>
       </c>
       <c r="F52" s="3">
-        <v>1068400</v>
+        <v>1005300</v>
       </c>
       <c r="G52" s="3">
-        <v>1289600</v>
+        <v>1213500</v>
       </c>
       <c r="H52" s="3">
-        <v>1099400</v>
+        <v>1034500</v>
       </c>
       <c r="I52" s="3">
-        <v>816000</v>
+        <v>767800</v>
       </c>
       <c r="J52" s="3">
-        <v>1379000</v>
+        <v>1297500</v>
       </c>
       <c r="K52" s="3">
         <v>3552100</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29091900</v>
+        <v>27374000</v>
       </c>
       <c r="E54" s="3">
-        <v>27270000</v>
+        <v>25659700</v>
       </c>
       <c r="F54" s="3">
-        <v>26356900</v>
+        <v>24800600</v>
       </c>
       <c r="G54" s="3">
-        <v>33476300</v>
+        <v>31499500</v>
       </c>
       <c r="H54" s="3">
-        <v>34729500</v>
+        <v>32678700</v>
       </c>
       <c r="I54" s="3">
-        <v>33259500</v>
+        <v>31295500</v>
       </c>
       <c r="J54" s="3">
-        <v>42325700</v>
+        <v>39826400</v>
       </c>
       <c r="K54" s="3">
         <v>54035700</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3756900</v>
+        <v>5550500</v>
       </c>
       <c r="E57" s="3">
-        <v>5700900</v>
+        <v>5364300</v>
       </c>
       <c r="F57" s="3">
-        <v>6139000</v>
+        <v>5776500</v>
       </c>
       <c r="G57" s="3">
-        <v>7463800</v>
+        <v>7023100</v>
       </c>
       <c r="H57" s="3">
-        <v>7698500</v>
+        <v>7243900</v>
       </c>
       <c r="I57" s="3">
-        <v>7329700</v>
+        <v>6896900</v>
       </c>
       <c r="J57" s="3">
-        <v>10883300</v>
+        <v>10240700</v>
       </c>
       <c r="K57" s="3">
         <v>14081600</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>589500</v>
+        <v>554700</v>
       </c>
       <c r="E58" s="3">
-        <v>124500</v>
+        <v>117200</v>
       </c>
       <c r="F58" s="3">
-        <v>488000</v>
+        <v>459200</v>
       </c>
       <c r="G58" s="3">
-        <v>2786800</v>
+        <v>2622300</v>
       </c>
       <c r="H58" s="3">
-        <v>2349100</v>
+        <v>2210400</v>
       </c>
       <c r="I58" s="3">
-        <v>7898100</v>
+        <v>7431700</v>
       </c>
       <c r="J58" s="3">
-        <v>4826800</v>
+        <v>4541800</v>
       </c>
       <c r="K58" s="3">
         <v>2285800</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7415500</v>
+        <v>4962100</v>
       </c>
       <c r="E59" s="3">
-        <v>3950100</v>
+        <v>3716800</v>
       </c>
       <c r="F59" s="3">
-        <v>4262700</v>
+        <v>4011000</v>
       </c>
       <c r="G59" s="3">
-        <v>4382300</v>
+        <v>4123500</v>
       </c>
       <c r="H59" s="3">
-        <v>8889400</v>
+        <v>8364500</v>
       </c>
       <c r="I59" s="3">
-        <v>9020900</v>
+        <v>8488200</v>
       </c>
       <c r="J59" s="3">
-        <v>8220800</v>
+        <v>7735400</v>
       </c>
       <c r="K59" s="3">
         <v>8462200</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11761900</v>
+        <v>11067300</v>
       </c>
       <c r="E60" s="3">
-        <v>9775500</v>
+        <v>9198300</v>
       </c>
       <c r="F60" s="3">
-        <v>10889800</v>
+        <v>10246700</v>
       </c>
       <c r="G60" s="3">
-        <v>14632900</v>
+        <v>13768800</v>
       </c>
       <c r="H60" s="3">
-        <v>18937000</v>
+        <v>17818800</v>
       </c>
       <c r="I60" s="3">
-        <v>21693000</v>
+        <v>20412000</v>
       </c>
       <c r="J60" s="3">
-        <v>23931000</v>
+        <v>22517800</v>
       </c>
       <c r="K60" s="3">
         <v>24829700</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3960100</v>
+        <v>2328400</v>
       </c>
       <c r="E61" s="3">
-        <v>2948000</v>
+        <v>2774000</v>
       </c>
       <c r="F61" s="3">
-        <v>1353500</v>
+        <v>1273600</v>
       </c>
       <c r="G61" s="3">
-        <v>599300</v>
+        <v>563900</v>
       </c>
       <c r="H61" s="3">
-        <v>3044800</v>
+        <v>2865000</v>
       </c>
       <c r="I61" s="3">
-        <v>4036600</v>
+        <v>3798200</v>
       </c>
       <c r="J61" s="3">
-        <v>6475800</v>
+        <v>6093400</v>
       </c>
       <c r="K61" s="3">
         <v>8897000</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2723600</v>
+        <v>3960600</v>
       </c>
       <c r="E62" s="3">
-        <v>4384100</v>
+        <v>4125200</v>
       </c>
       <c r="F62" s="3">
-        <v>5728300</v>
+        <v>5390000</v>
       </c>
       <c r="G62" s="3">
-        <v>5008500</v>
+        <v>4712800</v>
       </c>
       <c r="H62" s="3">
-        <v>4874000</v>
+        <v>4586200</v>
       </c>
       <c r="I62" s="3">
-        <v>9677700</v>
+        <v>9106200</v>
       </c>
       <c r="J62" s="3">
-        <v>6682100</v>
+        <v>6287500</v>
       </c>
       <c r="K62" s="3">
         <v>6956500</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19692200</v>
+        <v>18529400</v>
       </c>
       <c r="E66" s="3">
-        <v>18198200</v>
+        <v>17123600</v>
       </c>
       <c r="F66" s="3">
-        <v>19035900</v>
+        <v>17911800</v>
       </c>
       <c r="G66" s="3">
-        <v>22128900</v>
+        <v>20822200</v>
       </c>
       <c r="H66" s="3">
-        <v>28628800</v>
+        <v>26938300</v>
       </c>
       <c r="I66" s="3">
-        <v>37567000</v>
+        <v>35348600</v>
       </c>
       <c r="J66" s="3">
-        <v>39763800</v>
+        <v>37415700</v>
       </c>
       <c r="K66" s="3">
         <v>44789200</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8709500</v>
+        <v>8195200</v>
       </c>
       <c r="E72" s="3">
-        <v>8780300</v>
+        <v>8261900</v>
       </c>
       <c r="F72" s="3">
-        <v>8033300</v>
+        <v>7558900</v>
       </c>
       <c r="G72" s="3">
-        <v>11906700</v>
+        <v>11203600</v>
       </c>
       <c r="H72" s="3">
-        <v>1742000</v>
+        <v>1639100</v>
       </c>
       <c r="I72" s="3">
-        <v>-4521300</v>
+        <v>-4254300</v>
       </c>
       <c r="J72" s="3">
-        <v>-598100</v>
+        <v>-562800</v>
       </c>
       <c r="K72" s="3">
         <v>3269000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9399700</v>
+        <v>8844600</v>
       </c>
       <c r="E76" s="3">
-        <v>9071700</v>
+        <v>8536000</v>
       </c>
       <c r="F76" s="3">
-        <v>7321100</v>
+        <v>6888800</v>
       </c>
       <c r="G76" s="3">
-        <v>11347400</v>
+        <v>10677300</v>
       </c>
       <c r="H76" s="3">
-        <v>6100600</v>
+        <v>5740400</v>
       </c>
       <c r="I76" s="3">
-        <v>-4307500</v>
+        <v>-4053100</v>
       </c>
       <c r="J76" s="3">
-        <v>2561900</v>
+        <v>2410600</v>
       </c>
       <c r="K76" s="3">
         <v>9246500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1516300</v>
+        <v>1426800</v>
       </c>
       <c r="E81" s="3">
-        <v>887900</v>
+        <v>835500</v>
       </c>
       <c r="F81" s="3">
-        <v>-893000</v>
+        <v>-840300</v>
       </c>
       <c r="G81" s="3">
-        <v>7893300</v>
+        <v>7427200</v>
       </c>
       <c r="H81" s="3">
-        <v>6263200</v>
+        <v>5893400</v>
       </c>
       <c r="I81" s="3">
-        <v>-7522500</v>
+        <v>-7078300</v>
       </c>
       <c r="J81" s="3">
-        <v>-3583500</v>
+        <v>-3371900</v>
       </c>
       <c r="K81" s="3">
         <v>-322600</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>663400</v>
+        <v>624200</v>
       </c>
       <c r="E83" s="3">
-        <v>663800</v>
+        <v>624600</v>
       </c>
       <c r="F83" s="3">
-        <v>620200</v>
+        <v>583600</v>
       </c>
       <c r="G83" s="3">
-        <v>611700</v>
+        <v>575500</v>
       </c>
       <c r="H83" s="3">
-        <v>919800</v>
+        <v>865500</v>
       </c>
       <c r="I83" s="3">
-        <v>1269600</v>
+        <v>1194600</v>
       </c>
       <c r="J83" s="3">
-        <v>1666000</v>
+        <v>1567700</v>
       </c>
       <c r="K83" s="3">
         <v>1620200</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1941600</v>
+        <v>1668100</v>
       </c>
       <c r="E89" s="3">
-        <v>1130700</v>
+        <v>1063900</v>
       </c>
       <c r="F89" s="3">
-        <v>-1107300</v>
+        <v>-1041900</v>
       </c>
       <c r="G89" s="3">
-        <v>972600</v>
+        <v>915200</v>
       </c>
       <c r="H89" s="3">
-        <v>291100</v>
+        <v>273900</v>
       </c>
       <c r="I89" s="3">
-        <v>1045100</v>
+        <v>983400</v>
       </c>
       <c r="J89" s="3">
-        <v>-9600</v>
+        <v>-9000</v>
       </c>
       <c r="K89" s="3">
         <v>2818700</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-738300</v>
+        <v>-694700</v>
       </c>
       <c r="E91" s="3">
-        <v>-915000</v>
+        <v>-861000</v>
       </c>
       <c r="F91" s="3">
-        <v>-929100</v>
+        <v>-874200</v>
       </c>
       <c r="G91" s="3">
-        <v>-954700</v>
+        <v>-898300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1394600</v>
+        <v>-1312300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1236700</v>
+        <v>-1163700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1885300</v>
+        <v>-1774000</v>
       </c>
       <c r="K91" s="3">
         <v>-2017400</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-970000</v>
+        <v>-912700</v>
       </c>
       <c r="E94" s="3">
-        <v>-831000</v>
+        <v>-781900</v>
       </c>
       <c r="F94" s="3">
-        <v>-954400</v>
+        <v>-898000</v>
       </c>
       <c r="G94" s="3">
-        <v>10169300</v>
+        <v>9568800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1142900</v>
+        <v>-1075400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1393900</v>
+        <v>-1311500</v>
       </c>
       <c r="J94" s="3">
-        <v>5090300</v>
+        <v>4789700</v>
       </c>
       <c r="K94" s="3">
         <v>-1621800</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-852500</v>
+        <v>-802100</v>
       </c>
       <c r="E96" s="3">
-        <v>-165900</v>
+        <v>-156100</v>
       </c>
       <c r="F96" s="3">
-        <v>-181700</v>
+        <v>-170900</v>
       </c>
       <c r="G96" s="3">
-        <v>-173300</v>
+        <v>-163100</v>
       </c>
       <c r="H96" s="3">
-        <v>-85200</v>
+        <v>-80200</v>
       </c>
       <c r="I96" s="3">
-        <v>-99400</v>
+        <v>-93500</v>
       </c>
       <c r="J96" s="3">
-        <v>-248100</v>
+        <v>-233400</v>
       </c>
       <c r="K96" s="3">
         <v>-358800</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1689100</v>
+        <v>-1589400</v>
       </c>
       <c r="E100" s="3">
-        <v>761900</v>
+        <v>717000</v>
       </c>
       <c r="F100" s="3">
-        <v>-5353600</v>
+        <v>-5037500</v>
       </c>
       <c r="G100" s="3">
-        <v>-5024700</v>
+        <v>-4728000</v>
       </c>
       <c r="H100" s="3">
-        <v>-495500</v>
+        <v>-466300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1711900</v>
+        <v>-1610800</v>
       </c>
       <c r="J100" s="3">
-        <v>1057500</v>
+        <v>995000</v>
       </c>
       <c r="K100" s="3">
         <v>-1073000</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>74400</v>
+        <v>70000</v>
       </c>
       <c r="E101" s="3">
-        <v>95000</v>
+        <v>89400</v>
       </c>
       <c r="F101" s="3">
-        <v>-51700</v>
+        <v>-48700</v>
       </c>
       <c r="G101" s="3">
-        <v>12400</v>
+        <v>11700</v>
       </c>
       <c r="H101" s="3">
-        <v>-12600</v>
+        <v>-11800</v>
       </c>
       <c r="I101" s="3">
-        <v>-25800</v>
+        <v>-24300</v>
       </c>
       <c r="J101" s="3">
-        <v>-91900</v>
+        <v>-86500</v>
       </c>
       <c r="K101" s="3">
         <v>115200</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-643100</v>
+        <v>-764100</v>
       </c>
       <c r="E102" s="3">
-        <v>1156700</v>
+        <v>1088400</v>
       </c>
       <c r="F102" s="3">
-        <v>-7467100</v>
+        <v>-7026100</v>
       </c>
       <c r="G102" s="3">
-        <v>6129700</v>
+        <v>5767700</v>
       </c>
       <c r="H102" s="3">
-        <v>-1359900</v>
+        <v>-1279600</v>
       </c>
       <c r="I102" s="3">
-        <v>-2086400</v>
+        <v>-1963200</v>
       </c>
       <c r="J102" s="3">
-        <v>6046300</v>
+        <v>5689300</v>
       </c>
       <c r="K102" s="3">
         <v>239100</v>

--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24460000</v>
+        <v>23659100</v>
       </c>
       <c r="E8" s="3">
-        <v>22388600</v>
+        <v>21655500</v>
       </c>
       <c r="F8" s="3">
-        <v>24847800</v>
+        <v>24034200</v>
       </c>
       <c r="G8" s="3">
-        <v>27073600</v>
+        <v>26187200</v>
       </c>
       <c r="H8" s="3">
-        <v>28935900</v>
+        <v>27988500</v>
       </c>
       <c r="I8" s="3">
-        <v>29640600</v>
+        <v>28670100</v>
       </c>
       <c r="J8" s="3">
-        <v>37785000</v>
+        <v>36547800</v>
       </c>
       <c r="K8" s="3">
         <v>52158200</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17956700</v>
+        <v>17368800</v>
       </c>
       <c r="E9" s="3">
-        <v>16328000</v>
+        <v>15793400</v>
       </c>
       <c r="F9" s="3">
-        <v>18091600</v>
+        <v>17499300</v>
       </c>
       <c r="G9" s="3">
-        <v>20355400</v>
+        <v>19688900</v>
       </c>
       <c r="H9" s="3">
-        <v>21790100</v>
+        <v>21076700</v>
       </c>
       <c r="I9" s="3">
-        <v>21848300</v>
+        <v>21132900</v>
       </c>
       <c r="J9" s="3">
-        <v>32276400</v>
+        <v>31219600</v>
       </c>
       <c r="K9" s="3">
         <v>40118400</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6503200</v>
+        <v>6290300</v>
       </c>
       <c r="E10" s="3">
-        <v>6060500</v>
+        <v>5862100</v>
       </c>
       <c r="F10" s="3">
-        <v>6756100</v>
+        <v>6534900</v>
       </c>
       <c r="G10" s="3">
-        <v>6718300</v>
+        <v>6498300</v>
       </c>
       <c r="H10" s="3">
-        <v>7145700</v>
+        <v>6911800</v>
       </c>
       <c r="I10" s="3">
-        <v>7792300</v>
+        <v>7537200</v>
       </c>
       <c r="J10" s="3">
-        <v>5508600</v>
+        <v>5328200</v>
       </c>
       <c r="K10" s="3">
         <v>12039900</v>
@@ -939,22 +939,22 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>23800</v>
+        <v>23100</v>
       </c>
       <c r="F14" s="3">
-        <v>28100</v>
+        <v>27200</v>
       </c>
       <c r="G14" s="3">
-        <v>201100</v>
+        <v>194500</v>
       </c>
       <c r="H14" s="3">
-        <v>103400</v>
+        <v>100000</v>
       </c>
       <c r="I14" s="3">
-        <v>377100</v>
+        <v>364700</v>
       </c>
       <c r="J14" s="3">
-        <v>347200</v>
+        <v>335900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23118100</v>
+        <v>22361200</v>
       </c>
       <c r="E17" s="3">
-        <v>21566300</v>
+        <v>20860200</v>
       </c>
       <c r="F17" s="3">
-        <v>24102000</v>
+        <v>23312900</v>
       </c>
       <c r="G17" s="3">
-        <v>27173000</v>
+        <v>26283300</v>
       </c>
       <c r="H17" s="3">
-        <v>28858400</v>
+        <v>27913500</v>
       </c>
       <c r="I17" s="3">
-        <v>29630100</v>
+        <v>28659900</v>
       </c>
       <c r="J17" s="3">
-        <v>41325400</v>
+        <v>39972300</v>
       </c>
       <c r="K17" s="3">
         <v>50551100</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1341900</v>
+        <v>1297900</v>
       </c>
       <c r="E18" s="3">
-        <v>822300</v>
+        <v>795300</v>
       </c>
       <c r="F18" s="3">
-        <v>745700</v>
+        <v>721300</v>
       </c>
       <c r="G18" s="3">
-        <v>-99400</v>
+        <v>-96100</v>
       </c>
       <c r="H18" s="3">
-        <v>77500</v>
+        <v>74900</v>
       </c>
       <c r="I18" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="J18" s="3">
-        <v>-3540500</v>
+        <v>-3424500</v>
       </c>
       <c r="K18" s="3">
         <v>1607100</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>442800</v>
+        <v>428300</v>
       </c>
       <c r="E20" s="3">
-        <v>336200</v>
+        <v>325100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1054500</v>
+        <v>-1020000</v>
       </c>
       <c r="G20" s="3">
-        <v>256800</v>
+        <v>248400</v>
       </c>
       <c r="H20" s="3">
-        <v>741600</v>
+        <v>717300</v>
       </c>
       <c r="I20" s="3">
-        <v>454800</v>
+        <v>439900</v>
       </c>
       <c r="J20" s="3">
-        <v>744200</v>
+        <v>719800</v>
       </c>
       <c r="K20" s="3">
         <v>-73200</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2405400</v>
+        <v>2307800</v>
       </c>
       <c r="E21" s="3">
-        <v>1779600</v>
+        <v>1702500</v>
       </c>
       <c r="F21" s="3">
-        <v>271600</v>
+        <v>245100</v>
       </c>
       <c r="G21" s="3">
-        <v>729800</v>
+        <v>688500</v>
       </c>
       <c r="H21" s="3">
-        <v>1679800</v>
+        <v>1598700</v>
       </c>
       <c r="I21" s="3">
-        <v>1653400</v>
+        <v>1563200</v>
       </c>
       <c r="J21" s="3">
-        <v>-1237200</v>
+        <v>-1244000</v>
       </c>
       <c r="K21" s="3">
         <v>3173100</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="E22" s="3">
-        <v>33300</v>
+        <v>32300</v>
       </c>
       <c r="F22" s="3">
-        <v>39600</v>
+        <v>38300</v>
       </c>
       <c r="G22" s="3">
-        <v>77400</v>
+        <v>74900</v>
       </c>
       <c r="H22" s="3">
-        <v>215200</v>
+        <v>208200</v>
       </c>
       <c r="I22" s="3">
-        <v>135900</v>
+        <v>131400</v>
       </c>
       <c r="J22" s="3">
-        <v>131000</v>
+        <v>126700</v>
       </c>
       <c r="K22" s="3">
         <v>198000</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1752600</v>
+        <v>1695300</v>
       </c>
       <c r="E23" s="3">
-        <v>1125100</v>
+        <v>1088200</v>
       </c>
       <c r="F23" s="3">
-        <v>-348500</v>
+        <v>-337100</v>
       </c>
       <c r="G23" s="3">
-        <v>80000</v>
+        <v>77300</v>
       </c>
       <c r="H23" s="3">
-        <v>603800</v>
+        <v>584100</v>
       </c>
       <c r="I23" s="3">
-        <v>329400</v>
+        <v>318700</v>
       </c>
       <c r="J23" s="3">
-        <v>-2927300</v>
+        <v>-2831500</v>
       </c>
       <c r="K23" s="3">
         <v>1335900</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>182100</v>
+        <v>176200</v>
       </c>
       <c r="E24" s="3">
-        <v>100900</v>
+        <v>97600</v>
       </c>
       <c r="F24" s="3">
-        <v>257400</v>
+        <v>249000</v>
       </c>
       <c r="G24" s="3">
-        <v>114000</v>
+        <v>110300</v>
       </c>
       <c r="H24" s="3">
-        <v>-454000</v>
+        <v>-439100</v>
       </c>
       <c r="I24" s="3">
-        <v>424900</v>
+        <v>411000</v>
       </c>
       <c r="J24" s="3">
-        <v>1806200</v>
+        <v>1747100</v>
       </c>
       <c r="K24" s="3">
         <v>1219900</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1570500</v>
+        <v>1519100</v>
       </c>
       <c r="E26" s="3">
-        <v>1024200</v>
+        <v>990700</v>
       </c>
       <c r="F26" s="3">
-        <v>-605900</v>
+        <v>-586100</v>
       </c>
       <c r="G26" s="3">
-        <v>-34000</v>
+        <v>-32900</v>
       </c>
       <c r="H26" s="3">
-        <v>1057800</v>
+        <v>1023200</v>
       </c>
       <c r="I26" s="3">
-        <v>-95400</v>
+        <v>-92300</v>
       </c>
       <c r="J26" s="3">
-        <v>-4733500</v>
+        <v>-4578500</v>
       </c>
       <c r="K26" s="3">
         <v>116000</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1426800</v>
+        <v>1380100</v>
       </c>
       <c r="E27" s="3">
-        <v>892100</v>
+        <v>862900</v>
       </c>
       <c r="F27" s="3">
-        <v>-739100</v>
+        <v>-714900</v>
       </c>
       <c r="G27" s="3">
-        <v>-197800</v>
+        <v>-191300</v>
       </c>
       <c r="H27" s="3">
-        <v>791200</v>
+        <v>765300</v>
       </c>
       <c r="I27" s="3">
-        <v>1330500</v>
+        <v>1287000</v>
       </c>
       <c r="J27" s="3">
-        <v>-4322900</v>
+        <v>-4181300</v>
       </c>
       <c r="K27" s="3">
         <v>-44400</v>
@@ -1477,22 +1477,22 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>-56600</v>
+        <v>-54800</v>
       </c>
       <c r="F29" s="3">
-        <v>-101100</v>
+        <v>-97800</v>
       </c>
       <c r="G29" s="3">
-        <v>7625000</v>
+        <v>7375300</v>
       </c>
       <c r="H29" s="3">
-        <v>5102200</v>
+        <v>4935100</v>
       </c>
       <c r="I29" s="3">
-        <v>-8408800</v>
+        <v>-8133500</v>
       </c>
       <c r="J29" s="3">
-        <v>951000</v>
+        <v>919800</v>
       </c>
       <c r="K29" s="3">
         <v>-278200</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-442800</v>
+        <v>-428300</v>
       </c>
       <c r="E32" s="3">
-        <v>-336200</v>
+        <v>-325100</v>
       </c>
       <c r="F32" s="3">
-        <v>1054500</v>
+        <v>1020000</v>
       </c>
       <c r="G32" s="3">
-        <v>-256800</v>
+        <v>-248400</v>
       </c>
       <c r="H32" s="3">
-        <v>-741600</v>
+        <v>-717300</v>
       </c>
       <c r="I32" s="3">
-        <v>-454800</v>
+        <v>-439900</v>
       </c>
       <c r="J32" s="3">
-        <v>-744200</v>
+        <v>-719800</v>
       </c>
       <c r="K32" s="3">
         <v>73200</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1426800</v>
+        <v>1380100</v>
       </c>
       <c r="E33" s="3">
-        <v>835500</v>
+        <v>808100</v>
       </c>
       <c r="F33" s="3">
-        <v>-840300</v>
+        <v>-812700</v>
       </c>
       <c r="G33" s="3">
-        <v>7427200</v>
+        <v>7184000</v>
       </c>
       <c r="H33" s="3">
-        <v>5893400</v>
+        <v>5700400</v>
       </c>
       <c r="I33" s="3">
-        <v>-7078300</v>
+        <v>-6846600</v>
       </c>
       <c r="J33" s="3">
-        <v>-3371900</v>
+        <v>-3261500</v>
       </c>
       <c r="K33" s="3">
         <v>-322600</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1426800</v>
+        <v>1380100</v>
       </c>
       <c r="E35" s="3">
-        <v>835500</v>
+        <v>808100</v>
       </c>
       <c r="F35" s="3">
-        <v>-840300</v>
+        <v>-812700</v>
       </c>
       <c r="G35" s="3">
-        <v>7427200</v>
+        <v>7184000</v>
       </c>
       <c r="H35" s="3">
-        <v>5893400</v>
+        <v>5700400</v>
       </c>
       <c r="I35" s="3">
-        <v>-7078300</v>
+        <v>-6846600</v>
       </c>
       <c r="J35" s="3">
-        <v>-3371900</v>
+        <v>-3261500</v>
       </c>
       <c r="K35" s="3">
         <v>-322600</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3087500</v>
+        <v>2986400</v>
       </c>
       <c r="E41" s="3">
-        <v>3851600</v>
+        <v>3725500</v>
       </c>
       <c r="F41" s="3">
-        <v>2763200</v>
+        <v>2672700</v>
       </c>
       <c r="G41" s="3">
-        <v>9789400</v>
+        <v>9468800</v>
       </c>
       <c r="H41" s="3">
-        <v>3671000</v>
+        <v>3550800</v>
       </c>
       <c r="I41" s="3">
-        <v>3819600</v>
+        <v>3694600</v>
       </c>
       <c r="J41" s="3">
-        <v>7108000</v>
+        <v>6875300</v>
       </c>
       <c r="K41" s="3">
         <v>1622300</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6747900</v>
+        <v>6526900</v>
       </c>
       <c r="E43" s="3">
-        <v>7223700</v>
+        <v>6987200</v>
       </c>
       <c r="F43" s="3">
-        <v>7633900</v>
+        <v>7383900</v>
       </c>
       <c r="G43" s="3">
-        <v>8049800</v>
+        <v>7786200</v>
       </c>
       <c r="H43" s="3">
-        <v>8296500</v>
+        <v>8024800</v>
       </c>
       <c r="I43" s="3">
-        <v>7751400</v>
+        <v>7497600</v>
       </c>
       <c r="J43" s="3">
-        <v>9289600</v>
+        <v>8985400</v>
       </c>
       <c r="K43" s="3">
         <v>12915500</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3898000</v>
+        <v>3770400</v>
       </c>
       <c r="E44" s="3">
-        <v>3487400</v>
+        <v>3373200</v>
       </c>
       <c r="F44" s="3">
-        <v>3535500</v>
+        <v>3419700</v>
       </c>
       <c r="G44" s="3">
-        <v>3436900</v>
+        <v>3324300</v>
       </c>
       <c r="H44" s="3">
-        <v>3443400</v>
+        <v>3330600</v>
       </c>
       <c r="I44" s="3">
-        <v>3670000</v>
+        <v>3549900</v>
       </c>
       <c r="J44" s="3">
-        <v>5344500</v>
+        <v>5169500</v>
       </c>
       <c r="K44" s="3">
         <v>11449900</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2876700</v>
+        <v>2782500</v>
       </c>
       <c r="E45" s="3">
-        <v>1056900</v>
+        <v>1022300</v>
       </c>
       <c r="F45" s="3">
-        <v>1006700</v>
+        <v>973700</v>
       </c>
       <c r="G45" s="3">
-        <v>962100</v>
+        <v>930600</v>
       </c>
       <c r="H45" s="3">
-        <v>10823900</v>
+        <v>10469500</v>
       </c>
       <c r="I45" s="3">
-        <v>8137000</v>
+        <v>7870600</v>
       </c>
       <c r="J45" s="3">
-        <v>3609400</v>
+        <v>3491200</v>
       </c>
       <c r="K45" s="3">
         <v>6168000</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16610100</v>
+        <v>16066200</v>
       </c>
       <c r="E46" s="3">
-        <v>15619600</v>
+        <v>15108100</v>
       </c>
       <c r="F46" s="3">
-        <v>14939300</v>
+        <v>14450100</v>
       </c>
       <c r="G46" s="3">
-        <v>22238200</v>
+        <v>21510100</v>
       </c>
       <c r="H46" s="3">
-        <v>26234800</v>
+        <v>25375800</v>
       </c>
       <c r="I46" s="3">
-        <v>23378100</v>
+        <v>22612700</v>
       </c>
       <c r="J46" s="3">
-        <v>25351400</v>
+        <v>24521400</v>
       </c>
       <c r="K46" s="3">
         <v>28476600</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4131200</v>
+        <v>3996000</v>
       </c>
       <c r="E47" s="3">
-        <v>3914400</v>
+        <v>3786300</v>
       </c>
       <c r="F47" s="3">
-        <v>3758100</v>
+        <v>3635100</v>
       </c>
       <c r="G47" s="3">
-        <v>4365900</v>
+        <v>4222900</v>
       </c>
       <c r="H47" s="3">
-        <v>1802000</v>
+        <v>1743000</v>
       </c>
       <c r="I47" s="3">
-        <v>1655400</v>
+        <v>1601200</v>
       </c>
       <c r="J47" s="3">
-        <v>2664800</v>
+        <v>2577500</v>
       </c>
       <c r="K47" s="3">
         <v>5386200</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4144000</v>
+        <v>4008400</v>
       </c>
       <c r="E48" s="3">
-        <v>4218000</v>
+        <v>4079900</v>
       </c>
       <c r="F48" s="3">
-        <v>4220700</v>
+        <v>4082500</v>
       </c>
       <c r="G48" s="3">
-        <v>2827300</v>
+        <v>2734800</v>
       </c>
       <c r="H48" s="3">
-        <v>2680100</v>
+        <v>2592400</v>
       </c>
       <c r="I48" s="3">
-        <v>2959400</v>
+        <v>2862500</v>
       </c>
       <c r="J48" s="3">
-        <v>5822200</v>
+        <v>5631600</v>
       </c>
       <c r="K48" s="3">
         <v>7280700</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1160800</v>
+        <v>1122800</v>
       </c>
       <c r="E49" s="3">
-        <v>943800</v>
+        <v>912900</v>
       </c>
       <c r="F49" s="3">
-        <v>877200</v>
+        <v>848500</v>
       </c>
       <c r="G49" s="3">
-        <v>854600</v>
+        <v>826700</v>
       </c>
       <c r="H49" s="3">
-        <v>927300</v>
+        <v>897000</v>
       </c>
       <c r="I49" s="3">
-        <v>5185200</v>
+        <v>5015400</v>
       </c>
       <c r="J49" s="3">
-        <v>4690400</v>
+        <v>4536800</v>
       </c>
       <c r="K49" s="3">
         <v>9340100</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1327900</v>
+        <v>1284400</v>
       </c>
       <c r="E52" s="3">
-        <v>963900</v>
+        <v>932300</v>
       </c>
       <c r="F52" s="3">
-        <v>1005300</v>
+        <v>972400</v>
       </c>
       <c r="G52" s="3">
-        <v>1213500</v>
+        <v>1173800</v>
       </c>
       <c r="H52" s="3">
-        <v>1034500</v>
+        <v>1000600</v>
       </c>
       <c r="I52" s="3">
-        <v>767800</v>
+        <v>742700</v>
       </c>
       <c r="J52" s="3">
-        <v>1297500</v>
+        <v>1255100</v>
       </c>
       <c r="K52" s="3">
         <v>3552100</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27374000</v>
+        <v>26477700</v>
       </c>
       <c r="E54" s="3">
-        <v>25659700</v>
+        <v>24819500</v>
       </c>
       <c r="F54" s="3">
-        <v>24800600</v>
+        <v>23988500</v>
       </c>
       <c r="G54" s="3">
-        <v>31499500</v>
+        <v>30468200</v>
       </c>
       <c r="H54" s="3">
-        <v>32678700</v>
+        <v>31608700</v>
       </c>
       <c r="I54" s="3">
-        <v>31295500</v>
+        <v>30270800</v>
       </c>
       <c r="J54" s="3">
-        <v>39826400</v>
+        <v>38522400</v>
       </c>
       <c r="K54" s="3">
         <v>54035700</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5550500</v>
+        <v>5368800</v>
       </c>
       <c r="E57" s="3">
-        <v>5364300</v>
+        <v>5188600</v>
       </c>
       <c r="F57" s="3">
-        <v>5776500</v>
+        <v>5587400</v>
       </c>
       <c r="G57" s="3">
-        <v>7023100</v>
+        <v>6793100</v>
       </c>
       <c r="H57" s="3">
-        <v>7243900</v>
+        <v>7006700</v>
       </c>
       <c r="I57" s="3">
-        <v>6896900</v>
+        <v>6671100</v>
       </c>
       <c r="J57" s="3">
-        <v>10240700</v>
+        <v>9905400</v>
       </c>
       <c r="K57" s="3">
         <v>14081600</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>554700</v>
+        <v>536600</v>
       </c>
       <c r="E58" s="3">
-        <v>117200</v>
+        <v>113400</v>
       </c>
       <c r="F58" s="3">
-        <v>459200</v>
+        <v>444200</v>
       </c>
       <c r="G58" s="3">
-        <v>2622300</v>
+        <v>2536400</v>
       </c>
       <c r="H58" s="3">
-        <v>2210400</v>
+        <v>2138000</v>
       </c>
       <c r="I58" s="3">
-        <v>7431700</v>
+        <v>7188400</v>
       </c>
       <c r="J58" s="3">
-        <v>4541800</v>
+        <v>4393000</v>
       </c>
       <c r="K58" s="3">
         <v>2285800</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4962100</v>
+        <v>4799600</v>
       </c>
       <c r="E59" s="3">
-        <v>3716800</v>
+        <v>3595100</v>
       </c>
       <c r="F59" s="3">
-        <v>4011000</v>
+        <v>3879700</v>
       </c>
       <c r="G59" s="3">
-        <v>4123500</v>
+        <v>3988500</v>
       </c>
       <c r="H59" s="3">
-        <v>8364500</v>
+        <v>8090600</v>
       </c>
       <c r="I59" s="3">
-        <v>8488200</v>
+        <v>8210300</v>
       </c>
       <c r="J59" s="3">
-        <v>7735400</v>
+        <v>7482100</v>
       </c>
       <c r="K59" s="3">
         <v>8462200</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11067300</v>
+        <v>10705000</v>
       </c>
       <c r="E60" s="3">
-        <v>9198300</v>
+        <v>8897100</v>
       </c>
       <c r="F60" s="3">
-        <v>10246700</v>
+        <v>9911200</v>
       </c>
       <c r="G60" s="3">
-        <v>13768800</v>
+        <v>13318000</v>
       </c>
       <c r="H60" s="3">
-        <v>17818800</v>
+        <v>17235400</v>
       </c>
       <c r="I60" s="3">
-        <v>20412000</v>
+        <v>19743700</v>
       </c>
       <c r="J60" s="3">
-        <v>22517800</v>
+        <v>21780500</v>
       </c>
       <c r="K60" s="3">
         <v>24829700</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2328400</v>
+        <v>2252200</v>
       </c>
       <c r="E61" s="3">
-        <v>2774000</v>
+        <v>2683100</v>
       </c>
       <c r="F61" s="3">
-        <v>1273600</v>
+        <v>1231900</v>
       </c>
       <c r="G61" s="3">
-        <v>563900</v>
+        <v>545500</v>
       </c>
       <c r="H61" s="3">
-        <v>2865000</v>
+        <v>2771200</v>
       </c>
       <c r="I61" s="3">
-        <v>3798200</v>
+        <v>3673800</v>
       </c>
       <c r="J61" s="3">
-        <v>6093400</v>
+        <v>5893900</v>
       </c>
       <c r="K61" s="3">
         <v>8897000</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3960600</v>
+        <v>3830900</v>
       </c>
       <c r="E62" s="3">
-        <v>4125200</v>
+        <v>3990100</v>
       </c>
       <c r="F62" s="3">
-        <v>5390000</v>
+        <v>5213500</v>
       </c>
       <c r="G62" s="3">
-        <v>4712800</v>
+        <v>4558500</v>
       </c>
       <c r="H62" s="3">
-        <v>4586200</v>
+        <v>4436000</v>
       </c>
       <c r="I62" s="3">
-        <v>9106200</v>
+        <v>8808000</v>
       </c>
       <c r="J62" s="3">
-        <v>6287500</v>
+        <v>6081600</v>
       </c>
       <c r="K62" s="3">
         <v>6956500</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18529400</v>
+        <v>17922700</v>
       </c>
       <c r="E66" s="3">
-        <v>17123600</v>
+        <v>16563000</v>
       </c>
       <c r="F66" s="3">
-        <v>17911800</v>
+        <v>17325300</v>
       </c>
       <c r="G66" s="3">
-        <v>20822200</v>
+        <v>20140500</v>
       </c>
       <c r="H66" s="3">
-        <v>26938300</v>
+        <v>26056300</v>
       </c>
       <c r="I66" s="3">
-        <v>35348600</v>
+        <v>34191200</v>
       </c>
       <c r="J66" s="3">
-        <v>37415700</v>
+        <v>36190700</v>
       </c>
       <c r="K66" s="3">
         <v>44789200</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8195200</v>
+        <v>7926900</v>
       </c>
       <c r="E72" s="3">
-        <v>8261900</v>
+        <v>7991400</v>
       </c>
       <c r="F72" s="3">
-        <v>7558900</v>
+        <v>7311400</v>
       </c>
       <c r="G72" s="3">
-        <v>11203600</v>
+        <v>10836800</v>
       </c>
       <c r="H72" s="3">
-        <v>1639100</v>
+        <v>1585400</v>
       </c>
       <c r="I72" s="3">
-        <v>-4254300</v>
+        <v>-4115000</v>
       </c>
       <c r="J72" s="3">
-        <v>-562800</v>
+        <v>-544400</v>
       </c>
       <c r="K72" s="3">
         <v>3269000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8844600</v>
+        <v>8555000</v>
       </c>
       <c r="E76" s="3">
-        <v>8536000</v>
+        <v>8256500</v>
       </c>
       <c r="F76" s="3">
-        <v>6888800</v>
+        <v>6663200</v>
       </c>
       <c r="G76" s="3">
-        <v>10677300</v>
+        <v>10327700</v>
       </c>
       <c r="H76" s="3">
-        <v>5740400</v>
+        <v>5552400</v>
       </c>
       <c r="I76" s="3">
-        <v>-4053100</v>
+        <v>-3920400</v>
       </c>
       <c r="J76" s="3">
-        <v>2410600</v>
+        <v>2331700</v>
       </c>
       <c r="K76" s="3">
         <v>9246500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1426800</v>
+        <v>1380100</v>
       </c>
       <c r="E81" s="3">
-        <v>835500</v>
+        <v>808100</v>
       </c>
       <c r="F81" s="3">
-        <v>-840300</v>
+        <v>-812700</v>
       </c>
       <c r="G81" s="3">
-        <v>7427200</v>
+        <v>7184000</v>
       </c>
       <c r="H81" s="3">
-        <v>5893400</v>
+        <v>5700400</v>
       </c>
       <c r="I81" s="3">
-        <v>-7078300</v>
+        <v>-6846600</v>
       </c>
       <c r="J81" s="3">
-        <v>-3371900</v>
+        <v>-3261500</v>
       </c>
       <c r="K81" s="3">
         <v>-322600</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>624200</v>
+        <v>603800</v>
       </c>
       <c r="E83" s="3">
-        <v>624600</v>
+        <v>604100</v>
       </c>
       <c r="F83" s="3">
-        <v>583600</v>
+        <v>564500</v>
       </c>
       <c r="G83" s="3">
-        <v>575500</v>
+        <v>556700</v>
       </c>
       <c r="H83" s="3">
-        <v>865500</v>
+        <v>837100</v>
       </c>
       <c r="I83" s="3">
-        <v>1194600</v>
+        <v>1155500</v>
       </c>
       <c r="J83" s="3">
-        <v>1567700</v>
+        <v>1516300</v>
       </c>
       <c r="K83" s="3">
         <v>1620200</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1668100</v>
+        <v>1613400</v>
       </c>
       <c r="E89" s="3">
-        <v>1063900</v>
+        <v>1029100</v>
       </c>
       <c r="F89" s="3">
-        <v>-1041900</v>
+        <v>-1007800</v>
       </c>
       <c r="G89" s="3">
-        <v>915200</v>
+        <v>885200</v>
       </c>
       <c r="H89" s="3">
-        <v>273900</v>
+        <v>264900</v>
       </c>
       <c r="I89" s="3">
-        <v>983400</v>
+        <v>951200</v>
       </c>
       <c r="J89" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="K89" s="3">
         <v>2818700</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-694700</v>
+        <v>-672000</v>
       </c>
       <c r="E91" s="3">
-        <v>-861000</v>
+        <v>-832800</v>
       </c>
       <c r="F91" s="3">
-        <v>-874200</v>
+        <v>-845600</v>
       </c>
       <c r="G91" s="3">
-        <v>-898300</v>
+        <v>-868900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1312300</v>
+        <v>-1269300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1163700</v>
+        <v>-1125600</v>
       </c>
       <c r="J91" s="3">
-        <v>-1774000</v>
+        <v>-1715900</v>
       </c>
       <c r="K91" s="3">
         <v>-2017400</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-912700</v>
+        <v>-882900</v>
       </c>
       <c r="E94" s="3">
-        <v>-781900</v>
+        <v>-756300</v>
       </c>
       <c r="F94" s="3">
-        <v>-898000</v>
+        <v>-868600</v>
       </c>
       <c r="G94" s="3">
-        <v>9568800</v>
+        <v>9255500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1075400</v>
+        <v>-1040200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1311500</v>
+        <v>-1268600</v>
       </c>
       <c r="J94" s="3">
-        <v>4789700</v>
+        <v>4632900</v>
       </c>
       <c r="K94" s="3">
         <v>-1621800</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-802100</v>
+        <v>-775900</v>
       </c>
       <c r="E96" s="3">
-        <v>-156100</v>
+        <v>-151000</v>
       </c>
       <c r="F96" s="3">
-        <v>-170900</v>
+        <v>-165300</v>
       </c>
       <c r="G96" s="3">
-        <v>-163100</v>
+        <v>-157700</v>
       </c>
       <c r="H96" s="3">
-        <v>-80200</v>
+        <v>-77600</v>
       </c>
       <c r="I96" s="3">
-        <v>-93500</v>
+        <v>-90400</v>
       </c>
       <c r="J96" s="3">
-        <v>-233400</v>
+        <v>-225800</v>
       </c>
       <c r="K96" s="3">
         <v>-358800</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1589400</v>
+        <v>-1537300</v>
       </c>
       <c r="E100" s="3">
-        <v>717000</v>
+        <v>693500</v>
       </c>
       <c r="F100" s="3">
-        <v>-5037500</v>
+        <v>-4872600</v>
       </c>
       <c r="G100" s="3">
-        <v>-4728000</v>
+        <v>-4573200</v>
       </c>
       <c r="H100" s="3">
-        <v>-466300</v>
+        <v>-451000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1610800</v>
+        <v>-1558100</v>
       </c>
       <c r="J100" s="3">
-        <v>995000</v>
+        <v>962400</v>
       </c>
       <c r="K100" s="3">
         <v>-1073000</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>70000</v>
+        <v>67700</v>
       </c>
       <c r="E101" s="3">
-        <v>89400</v>
+        <v>86500</v>
       </c>
       <c r="F101" s="3">
-        <v>-48700</v>
+        <v>-47100</v>
       </c>
       <c r="G101" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="H101" s="3">
-        <v>-11800</v>
+        <v>-11500</v>
       </c>
       <c r="I101" s="3">
-        <v>-24300</v>
+        <v>-23500</v>
       </c>
       <c r="J101" s="3">
-        <v>-86500</v>
+        <v>-83600</v>
       </c>
       <c r="K101" s="3">
         <v>115200</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-764100</v>
+        <v>-739000</v>
       </c>
       <c r="E102" s="3">
-        <v>1088400</v>
+        <v>1052700</v>
       </c>
       <c r="F102" s="3">
-        <v>-7026100</v>
+        <v>-6796100</v>
       </c>
       <c r="G102" s="3">
-        <v>5767700</v>
+        <v>5578900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1279600</v>
+        <v>-1237700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1963200</v>
+        <v>-1899000</v>
       </c>
       <c r="J102" s="3">
-        <v>5689300</v>
+        <v>5503000</v>
       </c>
       <c r="K102" s="3">
         <v>239100</v>

--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23659100</v>
+        <v>24526700</v>
       </c>
       <c r="E8" s="3">
-        <v>21655500</v>
+        <v>22449700</v>
       </c>
       <c r="F8" s="3">
-        <v>24034200</v>
+        <v>24915600</v>
       </c>
       <c r="G8" s="3">
-        <v>26187200</v>
+        <v>27147500</v>
       </c>
       <c r="H8" s="3">
-        <v>27988500</v>
+        <v>29014800</v>
       </c>
       <c r="I8" s="3">
-        <v>28670100</v>
+        <v>29721500</v>
       </c>
       <c r="J8" s="3">
-        <v>36547800</v>
+        <v>37888100</v>
       </c>
       <c r="K8" s="3">
         <v>52158200</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17368800</v>
+        <v>18005700</v>
       </c>
       <c r="E9" s="3">
-        <v>15793400</v>
+        <v>16372600</v>
       </c>
       <c r="F9" s="3">
-        <v>17499300</v>
+        <v>18141000</v>
       </c>
       <c r="G9" s="3">
-        <v>19688900</v>
+        <v>20410900</v>
       </c>
       <c r="H9" s="3">
-        <v>21076700</v>
+        <v>21849600</v>
       </c>
       <c r="I9" s="3">
-        <v>21132900</v>
+        <v>21907900</v>
       </c>
       <c r="J9" s="3">
-        <v>31219600</v>
+        <v>32364400</v>
       </c>
       <c r="K9" s="3">
         <v>40118400</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6290300</v>
+        <v>6521000</v>
       </c>
       <c r="E10" s="3">
-        <v>5862100</v>
+        <v>6077100</v>
       </c>
       <c r="F10" s="3">
-        <v>6534900</v>
+        <v>6774500</v>
       </c>
       <c r="G10" s="3">
-        <v>6498300</v>
+        <v>6736600</v>
       </c>
       <c r="H10" s="3">
-        <v>6911800</v>
+        <v>7165200</v>
       </c>
       <c r="I10" s="3">
-        <v>7537200</v>
+        <v>7813600</v>
       </c>
       <c r="J10" s="3">
-        <v>5328200</v>
+        <v>5523600</v>
       </c>
       <c r="K10" s="3">
         <v>12039900</v>
@@ -939,22 +939,22 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>23100</v>
+        <v>23900</v>
       </c>
       <c r="F14" s="3">
-        <v>27200</v>
+        <v>28200</v>
       </c>
       <c r="G14" s="3">
-        <v>194500</v>
+        <v>201700</v>
       </c>
       <c r="H14" s="3">
-        <v>100000</v>
+        <v>103700</v>
       </c>
       <c r="I14" s="3">
-        <v>364700</v>
+        <v>378100</v>
       </c>
       <c r="J14" s="3">
-        <v>335900</v>
+        <v>348200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22361200</v>
+        <v>23181200</v>
       </c>
       <c r="E17" s="3">
-        <v>20860200</v>
+        <v>21625200</v>
       </c>
       <c r="F17" s="3">
-        <v>23312900</v>
+        <v>24167800</v>
       </c>
       <c r="G17" s="3">
-        <v>26283300</v>
+        <v>27247200</v>
       </c>
       <c r="H17" s="3">
-        <v>27913500</v>
+        <v>28937100</v>
       </c>
       <c r="I17" s="3">
-        <v>28659900</v>
+        <v>29710900</v>
       </c>
       <c r="J17" s="3">
-        <v>39972300</v>
+        <v>41438200</v>
       </c>
       <c r="K17" s="3">
         <v>50551100</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1297900</v>
+        <v>1345500</v>
       </c>
       <c r="E18" s="3">
-        <v>795300</v>
+        <v>824500</v>
       </c>
       <c r="F18" s="3">
-        <v>721300</v>
+        <v>747800</v>
       </c>
       <c r="G18" s="3">
-        <v>-96100</v>
+        <v>-99700</v>
       </c>
       <c r="H18" s="3">
-        <v>74900</v>
+        <v>77700</v>
       </c>
       <c r="I18" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="J18" s="3">
-        <v>-3424500</v>
+        <v>-3550100</v>
       </c>
       <c r="K18" s="3">
         <v>1607100</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>428300</v>
+        <v>444000</v>
       </c>
       <c r="E20" s="3">
-        <v>325100</v>
+        <v>337100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1020000</v>
+        <v>-1057400</v>
       </c>
       <c r="G20" s="3">
-        <v>248400</v>
+        <v>257500</v>
       </c>
       <c r="H20" s="3">
-        <v>717300</v>
+        <v>743600</v>
       </c>
       <c r="I20" s="3">
-        <v>439900</v>
+        <v>456100</v>
       </c>
       <c r="J20" s="3">
-        <v>719800</v>
+        <v>746200</v>
       </c>
       <c r="K20" s="3">
         <v>-73200</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2307800</v>
+        <v>2409500</v>
       </c>
       <c r="E21" s="3">
-        <v>1702500</v>
+        <v>1781900</v>
       </c>
       <c r="F21" s="3">
-        <v>245100</v>
+        <v>269900</v>
       </c>
       <c r="G21" s="3">
-        <v>688500</v>
+        <v>729400</v>
       </c>
       <c r="H21" s="3">
-        <v>1598700</v>
+        <v>1680900</v>
       </c>
       <c r="I21" s="3">
-        <v>1563200</v>
+        <v>1653100</v>
       </c>
       <c r="J21" s="3">
-        <v>-1244000</v>
+        <v>-1247000</v>
       </c>
       <c r="K21" s="3">
         <v>3173100</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31000</v>
+        <v>32100</v>
       </c>
       <c r="E22" s="3">
-        <v>32300</v>
+        <v>33400</v>
       </c>
       <c r="F22" s="3">
-        <v>38300</v>
+        <v>39800</v>
       </c>
       <c r="G22" s="3">
-        <v>74900</v>
+        <v>77600</v>
       </c>
       <c r="H22" s="3">
-        <v>208200</v>
+        <v>215800</v>
       </c>
       <c r="I22" s="3">
+        <v>136300</v>
+      </c>
+      <c r="J22" s="3">
         <v>131400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>126700</v>
       </c>
       <c r="K22" s="3">
         <v>198000</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1695300</v>
+        <v>1757400</v>
       </c>
       <c r="E23" s="3">
-        <v>1088200</v>
+        <v>1128100</v>
       </c>
       <c r="F23" s="3">
-        <v>-337100</v>
+        <v>-349400</v>
       </c>
       <c r="G23" s="3">
-        <v>77300</v>
+        <v>80200</v>
       </c>
       <c r="H23" s="3">
-        <v>584100</v>
+        <v>605500</v>
       </c>
       <c r="I23" s="3">
-        <v>318700</v>
+        <v>330300</v>
       </c>
       <c r="J23" s="3">
-        <v>-2831500</v>
+        <v>-2935300</v>
       </c>
       <c r="K23" s="3">
         <v>1335900</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>176200</v>
+        <v>182600</v>
       </c>
       <c r="E24" s="3">
-        <v>97600</v>
+        <v>101100</v>
       </c>
       <c r="F24" s="3">
-        <v>249000</v>
+        <v>258100</v>
       </c>
       <c r="G24" s="3">
-        <v>110300</v>
+        <v>114300</v>
       </c>
       <c r="H24" s="3">
-        <v>-439100</v>
+        <v>-455200</v>
       </c>
       <c r="I24" s="3">
-        <v>411000</v>
+        <v>426100</v>
       </c>
       <c r="J24" s="3">
-        <v>1747100</v>
+        <v>1811100</v>
       </c>
       <c r="K24" s="3">
         <v>1219900</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1519100</v>
+        <v>1574800</v>
       </c>
       <c r="E26" s="3">
-        <v>990700</v>
+        <v>1027000</v>
       </c>
       <c r="F26" s="3">
-        <v>-586100</v>
+        <v>-607500</v>
       </c>
       <c r="G26" s="3">
-        <v>-32900</v>
+        <v>-34100</v>
       </c>
       <c r="H26" s="3">
-        <v>1023200</v>
+        <v>1060700</v>
       </c>
       <c r="I26" s="3">
-        <v>-92300</v>
+        <v>-95700</v>
       </c>
       <c r="J26" s="3">
-        <v>-4578500</v>
+        <v>-4746400</v>
       </c>
       <c r="K26" s="3">
         <v>116000</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1380100</v>
+        <v>1430700</v>
       </c>
       <c r="E27" s="3">
-        <v>862900</v>
+        <v>894600</v>
       </c>
       <c r="F27" s="3">
-        <v>-714900</v>
+        <v>-741200</v>
       </c>
       <c r="G27" s="3">
-        <v>-191300</v>
+        <v>-198300</v>
       </c>
       <c r="H27" s="3">
-        <v>765300</v>
+        <v>793400</v>
       </c>
       <c r="I27" s="3">
-        <v>1287000</v>
+        <v>1334100</v>
       </c>
       <c r="J27" s="3">
-        <v>-4181300</v>
+        <v>-4334700</v>
       </c>
       <c r="K27" s="3">
         <v>-44400</v>
@@ -1477,22 +1477,22 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>-54800</v>
+        <v>-56800</v>
       </c>
       <c r="F29" s="3">
-        <v>-97800</v>
+        <v>-101400</v>
       </c>
       <c r="G29" s="3">
-        <v>7375300</v>
+        <v>7645800</v>
       </c>
       <c r="H29" s="3">
-        <v>4935100</v>
+        <v>5116100</v>
       </c>
       <c r="I29" s="3">
-        <v>-8133500</v>
+        <v>-8431800</v>
       </c>
       <c r="J29" s="3">
-        <v>919800</v>
+        <v>953600</v>
       </c>
       <c r="K29" s="3">
         <v>-278200</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-428300</v>
+        <v>-444000</v>
       </c>
       <c r="E32" s="3">
-        <v>-325100</v>
+        <v>-337100</v>
       </c>
       <c r="F32" s="3">
-        <v>1020000</v>
+        <v>1057400</v>
       </c>
       <c r="G32" s="3">
-        <v>-248400</v>
+        <v>-257500</v>
       </c>
       <c r="H32" s="3">
-        <v>-717300</v>
+        <v>-743600</v>
       </c>
       <c r="I32" s="3">
-        <v>-439900</v>
+        <v>-456100</v>
       </c>
       <c r="J32" s="3">
-        <v>-719800</v>
+        <v>-746200</v>
       </c>
       <c r="K32" s="3">
         <v>73200</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1380100</v>
+        <v>1430700</v>
       </c>
       <c r="E33" s="3">
-        <v>808100</v>
+        <v>837800</v>
       </c>
       <c r="F33" s="3">
-        <v>-812700</v>
+        <v>-842600</v>
       </c>
       <c r="G33" s="3">
-        <v>7184000</v>
+        <v>7447400</v>
       </c>
       <c r="H33" s="3">
-        <v>5700400</v>
+        <v>5909500</v>
       </c>
       <c r="I33" s="3">
-        <v>-6846600</v>
+        <v>-7097600</v>
       </c>
       <c r="J33" s="3">
-        <v>-3261500</v>
+        <v>-3381100</v>
       </c>
       <c r="K33" s="3">
         <v>-322600</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1380100</v>
+        <v>1430700</v>
       </c>
       <c r="E35" s="3">
-        <v>808100</v>
+        <v>837800</v>
       </c>
       <c r="F35" s="3">
-        <v>-812700</v>
+        <v>-842600</v>
       </c>
       <c r="G35" s="3">
-        <v>7184000</v>
+        <v>7447400</v>
       </c>
       <c r="H35" s="3">
-        <v>5700400</v>
+        <v>5909500</v>
       </c>
       <c r="I35" s="3">
-        <v>-6846600</v>
+        <v>-7097600</v>
       </c>
       <c r="J35" s="3">
-        <v>-3261500</v>
+        <v>-3381100</v>
       </c>
       <c r="K35" s="3">
         <v>-322600</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2986400</v>
+        <v>3096000</v>
       </c>
       <c r="E41" s="3">
-        <v>3725500</v>
+        <v>3862100</v>
       </c>
       <c r="F41" s="3">
-        <v>2672700</v>
+        <v>2770800</v>
       </c>
       <c r="G41" s="3">
-        <v>9468800</v>
+        <v>9816100</v>
       </c>
       <c r="H41" s="3">
-        <v>3550800</v>
+        <v>3681000</v>
       </c>
       <c r="I41" s="3">
-        <v>3694600</v>
+        <v>3830100</v>
       </c>
       <c r="J41" s="3">
-        <v>6875300</v>
+        <v>7127400</v>
       </c>
       <c r="K41" s="3">
         <v>1622300</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6526900</v>
+        <v>6766300</v>
       </c>
       <c r="E43" s="3">
-        <v>6987200</v>
+        <v>7243400</v>
       </c>
       <c r="F43" s="3">
-        <v>7383900</v>
+        <v>7654700</v>
       </c>
       <c r="G43" s="3">
-        <v>7786200</v>
+        <v>8071800</v>
       </c>
       <c r="H43" s="3">
-        <v>8024800</v>
+        <v>8319100</v>
       </c>
       <c r="I43" s="3">
-        <v>7497600</v>
+        <v>7772600</v>
       </c>
       <c r="J43" s="3">
-        <v>8985400</v>
+        <v>9314900</v>
       </c>
       <c r="K43" s="3">
         <v>12915500</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3770400</v>
+        <v>3908600</v>
       </c>
       <c r="E44" s="3">
-        <v>3373200</v>
+        <v>3496900</v>
       </c>
       <c r="F44" s="3">
-        <v>3419700</v>
+        <v>3545100</v>
       </c>
       <c r="G44" s="3">
-        <v>3324300</v>
+        <v>3446300</v>
       </c>
       <c r="H44" s="3">
-        <v>3330600</v>
+        <v>3452800</v>
       </c>
       <c r="I44" s="3">
-        <v>3549900</v>
+        <v>3680000</v>
       </c>
       <c r="J44" s="3">
-        <v>5169500</v>
+        <v>5359100</v>
       </c>
       <c r="K44" s="3">
         <v>11449900</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2782500</v>
+        <v>2884500</v>
       </c>
       <c r="E45" s="3">
-        <v>1022300</v>
+        <v>1059800</v>
       </c>
       <c r="F45" s="3">
-        <v>973700</v>
+        <v>1009500</v>
       </c>
       <c r="G45" s="3">
-        <v>930600</v>
+        <v>964800</v>
       </c>
       <c r="H45" s="3">
-        <v>10469500</v>
+        <v>10853400</v>
       </c>
       <c r="I45" s="3">
-        <v>7870600</v>
+        <v>8159200</v>
       </c>
       <c r="J45" s="3">
-        <v>3491200</v>
+        <v>3619200</v>
       </c>
       <c r="K45" s="3">
         <v>6168000</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16066200</v>
+        <v>16655400</v>
       </c>
       <c r="E46" s="3">
-        <v>15108100</v>
+        <v>15662200</v>
       </c>
       <c r="F46" s="3">
-        <v>14450100</v>
+        <v>14980000</v>
       </c>
       <c r="G46" s="3">
-        <v>21510100</v>
+        <v>22298900</v>
       </c>
       <c r="H46" s="3">
-        <v>25375800</v>
+        <v>26306400</v>
       </c>
       <c r="I46" s="3">
-        <v>22612700</v>
+        <v>23441900</v>
       </c>
       <c r="J46" s="3">
-        <v>24521400</v>
+        <v>25420600</v>
       </c>
       <c r="K46" s="3">
         <v>28476600</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3996000</v>
+        <v>4142500</v>
       </c>
       <c r="E47" s="3">
-        <v>3786300</v>
+        <v>3925100</v>
       </c>
       <c r="F47" s="3">
-        <v>3635100</v>
+        <v>3768400</v>
       </c>
       <c r="G47" s="3">
-        <v>4222900</v>
+        <v>4377800</v>
       </c>
       <c r="H47" s="3">
-        <v>1743000</v>
+        <v>1806900</v>
       </c>
       <c r="I47" s="3">
-        <v>1601200</v>
+        <v>1659900</v>
       </c>
       <c r="J47" s="3">
-        <v>2577500</v>
+        <v>2672100</v>
       </c>
       <c r="K47" s="3">
         <v>5386200</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4008400</v>
+        <v>4155300</v>
       </c>
       <c r="E48" s="3">
-        <v>4079900</v>
+        <v>4229500</v>
       </c>
       <c r="F48" s="3">
-        <v>4082500</v>
+        <v>4232200</v>
       </c>
       <c r="G48" s="3">
-        <v>2734800</v>
+        <v>2835000</v>
       </c>
       <c r="H48" s="3">
-        <v>2592400</v>
+        <v>2687400</v>
       </c>
       <c r="I48" s="3">
-        <v>2862500</v>
+        <v>2967400</v>
       </c>
       <c r="J48" s="3">
-        <v>5631600</v>
+        <v>5838100</v>
       </c>
       <c r="K48" s="3">
         <v>7280700</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1122800</v>
+        <v>1163900</v>
       </c>
       <c r="E49" s="3">
-        <v>912900</v>
+        <v>946400</v>
       </c>
       <c r="F49" s="3">
-        <v>848500</v>
+        <v>879600</v>
       </c>
       <c r="G49" s="3">
-        <v>826700</v>
+        <v>857000</v>
       </c>
       <c r="H49" s="3">
-        <v>897000</v>
+        <v>929800</v>
       </c>
       <c r="I49" s="3">
-        <v>5015400</v>
+        <v>5199300</v>
       </c>
       <c r="J49" s="3">
-        <v>4536800</v>
+        <v>4703200</v>
       </c>
       <c r="K49" s="3">
         <v>9340100</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1284400</v>
+        <v>1331500</v>
       </c>
       <c r="E52" s="3">
-        <v>932300</v>
+        <v>966500</v>
       </c>
       <c r="F52" s="3">
-        <v>972400</v>
+        <v>1008000</v>
       </c>
       <c r="G52" s="3">
-        <v>1173800</v>
+        <v>1216800</v>
       </c>
       <c r="H52" s="3">
-        <v>1000600</v>
+        <v>1037300</v>
       </c>
       <c r="I52" s="3">
-        <v>742700</v>
+        <v>769900</v>
       </c>
       <c r="J52" s="3">
-        <v>1255100</v>
+        <v>1301100</v>
       </c>
       <c r="K52" s="3">
         <v>3552100</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26477700</v>
+        <v>27448700</v>
       </c>
       <c r="E54" s="3">
-        <v>24819500</v>
+        <v>25729700</v>
       </c>
       <c r="F54" s="3">
-        <v>23988500</v>
+        <v>24868200</v>
       </c>
       <c r="G54" s="3">
-        <v>30468200</v>
+        <v>31585500</v>
       </c>
       <c r="H54" s="3">
-        <v>31608700</v>
+        <v>32767900</v>
       </c>
       <c r="I54" s="3">
-        <v>30270800</v>
+        <v>31380900</v>
       </c>
       <c r="J54" s="3">
-        <v>38522400</v>
+        <v>39935100</v>
       </c>
       <c r="K54" s="3">
         <v>54035700</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5368800</v>
+        <v>5565600</v>
       </c>
       <c r="E57" s="3">
-        <v>5188600</v>
+        <v>5378900</v>
       </c>
       <c r="F57" s="3">
-        <v>5587400</v>
+        <v>5792300</v>
       </c>
       <c r="G57" s="3">
-        <v>6793100</v>
+        <v>7042200</v>
       </c>
       <c r="H57" s="3">
-        <v>7006700</v>
+        <v>7263700</v>
       </c>
       <c r="I57" s="3">
-        <v>6671100</v>
+        <v>6915700</v>
       </c>
       <c r="J57" s="3">
-        <v>9905400</v>
+        <v>10268600</v>
       </c>
       <c r="K57" s="3">
         <v>14081600</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>536600</v>
+        <v>556200</v>
       </c>
       <c r="E58" s="3">
-        <v>113400</v>
+        <v>117500</v>
       </c>
       <c r="F58" s="3">
-        <v>444200</v>
+        <v>460500</v>
       </c>
       <c r="G58" s="3">
-        <v>2536400</v>
+        <v>2629400</v>
       </c>
       <c r="H58" s="3">
-        <v>2138000</v>
+        <v>2216500</v>
       </c>
       <c r="I58" s="3">
-        <v>7188400</v>
+        <v>7452000</v>
       </c>
       <c r="J58" s="3">
-        <v>4393000</v>
+        <v>4554100</v>
       </c>
       <c r="K58" s="3">
         <v>2285800</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4799600</v>
+        <v>4975600</v>
       </c>
       <c r="E59" s="3">
-        <v>3595100</v>
+        <v>3727000</v>
       </c>
       <c r="F59" s="3">
-        <v>3879700</v>
+        <v>4021900</v>
       </c>
       <c r="G59" s="3">
-        <v>3988500</v>
+        <v>4134700</v>
       </c>
       <c r="H59" s="3">
-        <v>8090600</v>
+        <v>8387300</v>
       </c>
       <c r="I59" s="3">
-        <v>8210300</v>
+        <v>8511400</v>
       </c>
       <c r="J59" s="3">
-        <v>7482100</v>
+        <v>7756500</v>
       </c>
       <c r="K59" s="3">
         <v>8462200</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10705000</v>
+        <v>11097500</v>
       </c>
       <c r="E60" s="3">
-        <v>8897100</v>
+        <v>9223400</v>
       </c>
       <c r="F60" s="3">
-        <v>9911200</v>
+        <v>10274700</v>
       </c>
       <c r="G60" s="3">
-        <v>13318000</v>
+        <v>13806400</v>
       </c>
       <c r="H60" s="3">
-        <v>17235400</v>
+        <v>17867400</v>
       </c>
       <c r="I60" s="3">
-        <v>19743700</v>
+        <v>20467700</v>
       </c>
       <c r="J60" s="3">
-        <v>21780500</v>
+        <v>22579300</v>
       </c>
       <c r="K60" s="3">
         <v>24829700</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2252200</v>
+        <v>2334800</v>
       </c>
       <c r="E61" s="3">
-        <v>2683100</v>
+        <v>2781500</v>
       </c>
       <c r="F61" s="3">
-        <v>1231900</v>
+        <v>1277100</v>
       </c>
       <c r="G61" s="3">
-        <v>545500</v>
+        <v>565500</v>
       </c>
       <c r="H61" s="3">
-        <v>2771200</v>
+        <v>2872800</v>
       </c>
       <c r="I61" s="3">
-        <v>3673800</v>
+        <v>3808600</v>
       </c>
       <c r="J61" s="3">
-        <v>5893900</v>
+        <v>6110100</v>
       </c>
       <c r="K61" s="3">
         <v>8897000</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3830900</v>
+        <v>3971400</v>
       </c>
       <c r="E62" s="3">
-        <v>3990100</v>
+        <v>4136500</v>
       </c>
       <c r="F62" s="3">
-        <v>5213500</v>
+        <v>5404700</v>
       </c>
       <c r="G62" s="3">
-        <v>4558500</v>
+        <v>4725600</v>
       </c>
       <c r="H62" s="3">
-        <v>4436000</v>
+        <v>4598700</v>
       </c>
       <c r="I62" s="3">
-        <v>8808000</v>
+        <v>9131100</v>
       </c>
       <c r="J62" s="3">
-        <v>6081600</v>
+        <v>6304600</v>
       </c>
       <c r="K62" s="3">
         <v>6956500</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17922700</v>
+        <v>18580000</v>
       </c>
       <c r="E66" s="3">
-        <v>16563000</v>
+        <v>17170300</v>
       </c>
       <c r="F66" s="3">
-        <v>17325300</v>
+        <v>17960700</v>
       </c>
       <c r="G66" s="3">
-        <v>20140500</v>
+        <v>20879000</v>
       </c>
       <c r="H66" s="3">
-        <v>26056300</v>
+        <v>27011800</v>
       </c>
       <c r="I66" s="3">
-        <v>34191200</v>
+        <v>35445100</v>
       </c>
       <c r="J66" s="3">
-        <v>36190700</v>
+        <v>37517800</v>
       </c>
       <c r="K66" s="3">
         <v>44789200</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7926900</v>
+        <v>8217600</v>
       </c>
       <c r="E72" s="3">
-        <v>7991400</v>
+        <v>8284400</v>
       </c>
       <c r="F72" s="3">
-        <v>7311400</v>
+        <v>7579500</v>
       </c>
       <c r="G72" s="3">
-        <v>10836800</v>
+        <v>11234200</v>
       </c>
       <c r="H72" s="3">
-        <v>1585400</v>
+        <v>1643600</v>
       </c>
       <c r="I72" s="3">
-        <v>-4115000</v>
+        <v>-4265900</v>
       </c>
       <c r="J72" s="3">
-        <v>-544400</v>
+        <v>-564300</v>
       </c>
       <c r="K72" s="3">
         <v>3269000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8555000</v>
+        <v>8868800</v>
       </c>
       <c r="E76" s="3">
-        <v>8256500</v>
+        <v>8559300</v>
       </c>
       <c r="F76" s="3">
-        <v>6663200</v>
+        <v>6907600</v>
       </c>
       <c r="G76" s="3">
-        <v>10327700</v>
+        <v>10706400</v>
       </c>
       <c r="H76" s="3">
-        <v>5552400</v>
+        <v>5756000</v>
       </c>
       <c r="I76" s="3">
-        <v>-3920400</v>
+        <v>-4064200</v>
       </c>
       <c r="J76" s="3">
-        <v>2331700</v>
+        <v>2417200</v>
       </c>
       <c r="K76" s="3">
         <v>9246500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1380100</v>
+        <v>1430700</v>
       </c>
       <c r="E81" s="3">
-        <v>808100</v>
+        <v>837800</v>
       </c>
       <c r="F81" s="3">
-        <v>-812700</v>
+        <v>-842600</v>
       </c>
       <c r="G81" s="3">
-        <v>7184000</v>
+        <v>7447400</v>
       </c>
       <c r="H81" s="3">
-        <v>5700400</v>
+        <v>5909500</v>
       </c>
       <c r="I81" s="3">
-        <v>-6846600</v>
+        <v>-7097600</v>
       </c>
       <c r="J81" s="3">
-        <v>-3261500</v>
+        <v>-3381100</v>
       </c>
       <c r="K81" s="3">
         <v>-322600</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>603800</v>
+        <v>625900</v>
       </c>
       <c r="E83" s="3">
-        <v>604100</v>
+        <v>626300</v>
       </c>
       <c r="F83" s="3">
-        <v>564500</v>
+        <v>585200</v>
       </c>
       <c r="G83" s="3">
-        <v>556700</v>
+        <v>577100</v>
       </c>
       <c r="H83" s="3">
-        <v>837100</v>
+        <v>867800</v>
       </c>
       <c r="I83" s="3">
-        <v>1155500</v>
+        <v>1197900</v>
       </c>
       <c r="J83" s="3">
-        <v>1516300</v>
+        <v>1571900</v>
       </c>
       <c r="K83" s="3">
         <v>1620200</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1613400</v>
+        <v>1672600</v>
       </c>
       <c r="E89" s="3">
-        <v>1029100</v>
+        <v>1066800</v>
       </c>
       <c r="F89" s="3">
-        <v>-1007800</v>
+        <v>-1044800</v>
       </c>
       <c r="G89" s="3">
-        <v>885200</v>
+        <v>917700</v>
       </c>
       <c r="H89" s="3">
-        <v>264900</v>
+        <v>274600</v>
       </c>
       <c r="I89" s="3">
-        <v>951200</v>
+        <v>986100</v>
       </c>
       <c r="J89" s="3">
-        <v>-8700</v>
+        <v>-9000</v>
       </c>
       <c r="K89" s="3">
         <v>2818700</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-672000</v>
+        <v>-696600</v>
       </c>
       <c r="E91" s="3">
-        <v>-832800</v>
+        <v>-863300</v>
       </c>
       <c r="F91" s="3">
-        <v>-845600</v>
+        <v>-876600</v>
       </c>
       <c r="G91" s="3">
-        <v>-868900</v>
+        <v>-900800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1269300</v>
+        <v>-1315800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1125600</v>
+        <v>-1166900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1715900</v>
+        <v>-1778800</v>
       </c>
       <c r="K91" s="3">
         <v>-2017400</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-882900</v>
+        <v>-915200</v>
       </c>
       <c r="E94" s="3">
-        <v>-756300</v>
+        <v>-784000</v>
       </c>
       <c r="F94" s="3">
-        <v>-868600</v>
+        <v>-900500</v>
       </c>
       <c r="G94" s="3">
-        <v>9255500</v>
+        <v>9594900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1040200</v>
+        <v>-1078300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1268600</v>
+        <v>-1315100</v>
       </c>
       <c r="J94" s="3">
-        <v>4632900</v>
+        <v>4802800</v>
       </c>
       <c r="K94" s="3">
         <v>-1621800</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-775900</v>
+        <v>-804300</v>
       </c>
       <c r="E96" s="3">
-        <v>-151000</v>
+        <v>-156500</v>
       </c>
       <c r="F96" s="3">
-        <v>-165300</v>
+        <v>-171400</v>
       </c>
       <c r="G96" s="3">
-        <v>-157700</v>
+        <v>-163500</v>
       </c>
       <c r="H96" s="3">
-        <v>-77600</v>
+        <v>-80400</v>
       </c>
       <c r="I96" s="3">
-        <v>-90400</v>
+        <v>-93700</v>
       </c>
       <c r="J96" s="3">
-        <v>-225800</v>
+        <v>-234100</v>
       </c>
       <c r="K96" s="3">
         <v>-358800</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1537300</v>
+        <v>-1593700</v>
       </c>
       <c r="E100" s="3">
-        <v>693500</v>
+        <v>718900</v>
       </c>
       <c r="F100" s="3">
-        <v>-4872600</v>
+        <v>-5051200</v>
       </c>
       <c r="G100" s="3">
-        <v>-4573200</v>
+        <v>-4740900</v>
       </c>
       <c r="H100" s="3">
-        <v>-451000</v>
+        <v>-467600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1558100</v>
+        <v>-1615200</v>
       </c>
       <c r="J100" s="3">
-        <v>962400</v>
+        <v>997700</v>
       </c>
       <c r="K100" s="3">
         <v>-1073000</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>67700</v>
+        <v>70200</v>
       </c>
       <c r="E101" s="3">
-        <v>86500</v>
+        <v>89700</v>
       </c>
       <c r="F101" s="3">
-        <v>-47100</v>
+        <v>-48800</v>
       </c>
       <c r="G101" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="H101" s="3">
-        <v>-11500</v>
+        <v>-11900</v>
       </c>
       <c r="I101" s="3">
-        <v>-23500</v>
+        <v>-24300</v>
       </c>
       <c r="J101" s="3">
-        <v>-83600</v>
+        <v>-86700</v>
       </c>
       <c r="K101" s="3">
         <v>115200</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-739000</v>
+        <v>-766100</v>
       </c>
       <c r="E102" s="3">
-        <v>1052700</v>
+        <v>1091400</v>
       </c>
       <c r="F102" s="3">
-        <v>-6796100</v>
+        <v>-7045300</v>
       </c>
       <c r="G102" s="3">
-        <v>5578900</v>
+        <v>5783400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1237700</v>
+        <v>-1283100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1899000</v>
+        <v>-1968600</v>
       </c>
       <c r="J102" s="3">
-        <v>5503000</v>
+        <v>5704800</v>
       </c>
       <c r="K102" s="3">
         <v>239100</v>

--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>TOSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24526700</v>
+        <v>24237500</v>
       </c>
       <c r="E8" s="3">
-        <v>22449700</v>
+        <v>24059500</v>
       </c>
       <c r="F8" s="3">
-        <v>24915600</v>
+        <v>22022000</v>
       </c>
       <c r="G8" s="3">
-        <v>27147500</v>
+        <v>24441000</v>
       </c>
       <c r="H8" s="3">
-        <v>29014800</v>
+        <v>26630400</v>
       </c>
       <c r="I8" s="3">
-        <v>29721500</v>
+        <v>28462200</v>
       </c>
       <c r="J8" s="3">
+        <v>29155300</v>
+      </c>
+      <c r="K8" s="3">
         <v>37888100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>52158200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>59445700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>53203700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>55146400</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18005700</v>
+        <v>17820800</v>
       </c>
       <c r="E9" s="3">
-        <v>16372600</v>
+        <v>17662700</v>
       </c>
       <c r="F9" s="3">
-        <v>18141000</v>
+        <v>16060700</v>
       </c>
       <c r="G9" s="3">
-        <v>20410900</v>
+        <v>17795500</v>
       </c>
       <c r="H9" s="3">
-        <v>21849600</v>
+        <v>20022100</v>
       </c>
       <c r="I9" s="3">
-        <v>21907900</v>
+        <v>21433400</v>
       </c>
       <c r="J9" s="3">
+        <v>21490600</v>
+      </c>
+      <c r="K9" s="3">
         <v>32364400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40118400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44570600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40076700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>83743400</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6521000</v>
+        <v>6416700</v>
       </c>
       <c r="E10" s="3">
-        <v>6077100</v>
+        <v>6396800</v>
       </c>
       <c r="F10" s="3">
-        <v>6774500</v>
+        <v>5961300</v>
       </c>
       <c r="G10" s="3">
-        <v>6736600</v>
+        <v>6645500</v>
       </c>
       <c r="H10" s="3">
-        <v>7165200</v>
+        <v>6608300</v>
       </c>
       <c r="I10" s="3">
-        <v>7813600</v>
+        <v>7028800</v>
       </c>
       <c r="J10" s="3">
+        <v>7664700</v>
+      </c>
+      <c r="K10" s="3">
         <v>5523600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12039900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14875100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13127000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-28597000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -887,12 +900,15 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3">
         <v>2891600</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,35 +945,38 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>148500</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>23900</v>
-      </c>
       <c r="F14" s="3">
-        <v>28200</v>
+        <v>23500</v>
       </c>
       <c r="G14" s="3">
-        <v>201700</v>
+        <v>27700</v>
       </c>
       <c r="H14" s="3">
-        <v>103700</v>
+        <v>197800</v>
       </c>
       <c r="I14" s="3">
-        <v>378100</v>
+        <v>101700</v>
       </c>
       <c r="J14" s="3">
+        <v>370900</v>
+      </c>
+      <c r="K14" s="3">
         <v>348200</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -968,9 +987,12 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23181200</v>
+        <v>23440500</v>
       </c>
       <c r="E17" s="3">
-        <v>21625200</v>
+        <v>22739600</v>
       </c>
       <c r="F17" s="3">
-        <v>24167800</v>
+        <v>21213200</v>
       </c>
       <c r="G17" s="3">
-        <v>27247200</v>
+        <v>23707400</v>
       </c>
       <c r="H17" s="3">
-        <v>28937100</v>
+        <v>26728200</v>
       </c>
       <c r="I17" s="3">
-        <v>29710900</v>
+        <v>28386000</v>
       </c>
       <c r="J17" s="3">
+        <v>29145000</v>
+      </c>
+      <c r="K17" s="3">
         <v>41438200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>50551100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>57090400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>51366700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>53314300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1345500</v>
+        <v>797100</v>
       </c>
       <c r="E18" s="3">
-        <v>824500</v>
+        <v>1319900</v>
       </c>
       <c r="F18" s="3">
-        <v>747800</v>
+        <v>808800</v>
       </c>
       <c r="G18" s="3">
-        <v>-99700</v>
+        <v>733500</v>
       </c>
       <c r="H18" s="3">
-        <v>77700</v>
+        <v>-97800</v>
       </c>
       <c r="I18" s="3">
-        <v>10500</v>
+        <v>76200</v>
       </c>
       <c r="J18" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3550100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1607100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2355300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1837000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1832100</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,203 +1149,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>444000</v>
+        <v>600400</v>
       </c>
       <c r="E20" s="3">
-        <v>337100</v>
+        <v>435500</v>
       </c>
       <c r="F20" s="3">
-        <v>-1057400</v>
+        <v>330700</v>
       </c>
       <c r="G20" s="3">
-        <v>257500</v>
+        <v>-1037300</v>
       </c>
       <c r="H20" s="3">
-        <v>743600</v>
+        <v>252600</v>
       </c>
       <c r="I20" s="3">
-        <v>456100</v>
+        <v>729400</v>
       </c>
       <c r="J20" s="3">
+        <v>447400</v>
+      </c>
+      <c r="K20" s="3">
         <v>746200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-73200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-376400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-50500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-228400</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2409500</v>
+        <v>2089500</v>
       </c>
       <c r="E21" s="3">
-        <v>1781900</v>
+        <v>2373700</v>
       </c>
       <c r="F21" s="3">
-        <v>269900</v>
+        <v>1758100</v>
       </c>
       <c r="G21" s="3">
-        <v>729400</v>
+        <v>274200</v>
       </c>
       <c r="H21" s="3">
-        <v>1680900</v>
+        <v>724900</v>
       </c>
       <c r="I21" s="3">
-        <v>1653100</v>
+        <v>1662800</v>
       </c>
       <c r="J21" s="3">
+        <v>1640900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1247000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3173100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3559400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3815700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3862900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>32100</v>
+        <v>35000</v>
       </c>
       <c r="E22" s="3">
-        <v>33400</v>
+        <v>31500</v>
       </c>
       <c r="F22" s="3">
-        <v>39800</v>
+        <v>32800</v>
       </c>
       <c r="G22" s="3">
-        <v>77600</v>
+        <v>39000</v>
       </c>
       <c r="H22" s="3">
-        <v>215800</v>
+        <v>76200</v>
       </c>
       <c r="I22" s="3">
-        <v>136300</v>
+        <v>211700</v>
       </c>
       <c r="J22" s="3">
+        <v>133700</v>
+      </c>
+      <c r="K22" s="3">
         <v>131400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>198000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>308700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>303600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>287600</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1757400</v>
+        <v>1362400</v>
       </c>
       <c r="E23" s="3">
-        <v>1128100</v>
+        <v>1723900</v>
       </c>
       <c r="F23" s="3">
-        <v>-349400</v>
+        <v>1106600</v>
       </c>
       <c r="G23" s="3">
-        <v>80200</v>
+        <v>-342800</v>
       </c>
       <c r="H23" s="3">
-        <v>605500</v>
+        <v>78700</v>
       </c>
       <c r="I23" s="3">
-        <v>330300</v>
+        <v>593900</v>
       </c>
       <c r="J23" s="3">
+        <v>324100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2935300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1335900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1670200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1483000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1316000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>182600</v>
+        <v>461200</v>
       </c>
       <c r="E24" s="3">
-        <v>101100</v>
+        <v>179100</v>
       </c>
       <c r="F24" s="3">
-        <v>258100</v>
+        <v>99200</v>
       </c>
       <c r="G24" s="3">
-        <v>114300</v>
+        <v>253200</v>
       </c>
       <c r="H24" s="3">
-        <v>-455200</v>
+        <v>112100</v>
       </c>
       <c r="I24" s="3">
-        <v>426100</v>
+        <v>-446600</v>
       </c>
       <c r="J24" s="3">
+        <v>417900</v>
+      </c>
+      <c r="K24" s="3">
         <v>1811100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1219900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>843100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>551000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>580600</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1574800</v>
+        <v>901200</v>
       </c>
       <c r="E26" s="3">
-        <v>1027000</v>
+        <v>1544800</v>
       </c>
       <c r="F26" s="3">
-        <v>-607500</v>
+        <v>1007400</v>
       </c>
       <c r="G26" s="3">
-        <v>-34100</v>
+        <v>-596000</v>
       </c>
       <c r="H26" s="3">
-        <v>1060700</v>
+        <v>-33500</v>
       </c>
       <c r="I26" s="3">
-        <v>-95700</v>
+        <v>1040500</v>
       </c>
       <c r="J26" s="3">
+        <v>-93900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4746400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>116000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>827100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>931900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>735500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1430700</v>
+        <v>912600</v>
       </c>
       <c r="E27" s="3">
-        <v>894600</v>
+        <v>1403400</v>
       </c>
       <c r="F27" s="3">
-        <v>-741200</v>
+        <v>877500</v>
       </c>
       <c r="G27" s="3">
-        <v>-198300</v>
+        <v>-727000</v>
       </c>
       <c r="H27" s="3">
-        <v>793400</v>
+        <v>-194600</v>
       </c>
       <c r="I27" s="3">
-        <v>1334100</v>
+        <v>778300</v>
       </c>
       <c r="J27" s="3">
+        <v>1308700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4334700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-44400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>689400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>765000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>645000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,48 +1524,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>-56800</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-101400</v>
+        <v>-55700</v>
       </c>
       <c r="G29" s="3">
-        <v>7645800</v>
+        <v>-99500</v>
       </c>
       <c r="H29" s="3">
-        <v>5116100</v>
+        <v>7500100</v>
       </c>
       <c r="I29" s="3">
-        <v>-8431800</v>
+        <v>5018700</v>
       </c>
       <c r="J29" s="3">
+        <v>-8271200</v>
+      </c>
+      <c r="K29" s="3">
         <v>953600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-278200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-137600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-46300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-11700</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-444000</v>
+        <v>-600400</v>
       </c>
       <c r="E32" s="3">
-        <v>-337100</v>
+        <v>-435500</v>
       </c>
       <c r="F32" s="3">
-        <v>1057400</v>
+        <v>-330700</v>
       </c>
       <c r="G32" s="3">
-        <v>-257500</v>
+        <v>1037300</v>
       </c>
       <c r="H32" s="3">
-        <v>-743600</v>
+        <v>-252600</v>
       </c>
       <c r="I32" s="3">
-        <v>-456100</v>
+        <v>-729400</v>
       </c>
       <c r="J32" s="3">
+        <v>-447400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-746200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>73200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>376400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>50500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>228400</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1430700</v>
+        <v>912600</v>
       </c>
       <c r="E33" s="3">
-        <v>837800</v>
+        <v>1403400</v>
       </c>
       <c r="F33" s="3">
-        <v>-842600</v>
+        <v>821800</v>
       </c>
       <c r="G33" s="3">
-        <v>7447400</v>
+        <v>-826500</v>
       </c>
       <c r="H33" s="3">
-        <v>5909500</v>
+        <v>7305600</v>
       </c>
       <c r="I33" s="3">
-        <v>-7097600</v>
+        <v>5796900</v>
       </c>
       <c r="J33" s="3">
+        <v>-6962400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3381100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-322600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>551800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>718700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>633300</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1430700</v>
+        <v>912600</v>
       </c>
       <c r="E35" s="3">
-        <v>837800</v>
+        <v>1403400</v>
       </c>
       <c r="F35" s="3">
-        <v>-842600</v>
+        <v>821800</v>
       </c>
       <c r="G35" s="3">
-        <v>7447400</v>
+        <v>-826500</v>
       </c>
       <c r="H35" s="3">
-        <v>5909500</v>
+        <v>7305600</v>
       </c>
       <c r="I35" s="3">
-        <v>-7097600</v>
+        <v>5796900</v>
       </c>
       <c r="J35" s="3">
+        <v>-6962400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3381100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-322600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>551800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>718700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>633300</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,47 +1904,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3096000</v>
+        <v>2355400</v>
       </c>
       <c r="E41" s="3">
-        <v>3862100</v>
+        <v>3037000</v>
       </c>
       <c r="F41" s="3">
-        <v>2770800</v>
+        <v>3788500</v>
       </c>
       <c r="G41" s="3">
-        <v>9816100</v>
+        <v>2718000</v>
       </c>
       <c r="H41" s="3">
-        <v>3681000</v>
+        <v>9629100</v>
       </c>
       <c r="I41" s="3">
-        <v>3830100</v>
+        <v>3610900</v>
       </c>
       <c r="J41" s="3">
+        <v>3757100</v>
+      </c>
+      <c r="K41" s="3">
         <v>7127400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1622300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1569500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1941100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1937300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1896,282 +1985,306 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6766300</v>
+        <v>6070400</v>
       </c>
       <c r="E43" s="3">
-        <v>7243400</v>
+        <v>6637400</v>
       </c>
       <c r="F43" s="3">
-        <v>7654700</v>
+        <v>7105400</v>
       </c>
       <c r="G43" s="3">
-        <v>8071800</v>
+        <v>7508900</v>
       </c>
       <c r="H43" s="3">
-        <v>8319100</v>
+        <v>7918000</v>
       </c>
       <c r="I43" s="3">
-        <v>7772600</v>
+        <v>8160700</v>
       </c>
       <c r="J43" s="3">
+        <v>7624500</v>
+      </c>
+      <c r="K43" s="3">
         <v>9314900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12915500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15020300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14182300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15472100</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3908600</v>
+        <v>4283900</v>
       </c>
       <c r="E44" s="3">
-        <v>3496900</v>
+        <v>3834200</v>
       </c>
       <c r="F44" s="3">
-        <v>3545100</v>
+        <v>3430300</v>
       </c>
       <c r="G44" s="3">
-        <v>3446300</v>
+        <v>3477600</v>
       </c>
       <c r="H44" s="3">
-        <v>3452800</v>
+        <v>3380600</v>
       </c>
       <c r="I44" s="3">
-        <v>3680000</v>
+        <v>3387000</v>
       </c>
       <c r="J44" s="3">
+        <v>3609900</v>
+      </c>
+      <c r="K44" s="3">
         <v>5359100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11449900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8104900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9308800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>14849700</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2884500</v>
+        <v>2156300</v>
       </c>
       <c r="E45" s="3">
-        <v>1059800</v>
+        <v>2829600</v>
       </c>
       <c r="F45" s="3">
-        <v>1009500</v>
+        <v>1039600</v>
       </c>
       <c r="G45" s="3">
-        <v>964800</v>
+        <v>990200</v>
       </c>
       <c r="H45" s="3">
-        <v>10853400</v>
+        <v>946400</v>
       </c>
       <c r="I45" s="3">
-        <v>8159200</v>
+        <v>10646700</v>
       </c>
       <c r="J45" s="3">
+        <v>8003800</v>
+      </c>
+      <c r="K45" s="3">
         <v>3619200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6168000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4238800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3896600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7495100</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16655400</v>
+        <v>14866100</v>
       </c>
       <c r="E46" s="3">
-        <v>15662200</v>
+        <v>16338200</v>
       </c>
       <c r="F46" s="3">
-        <v>14980000</v>
+        <v>15363800</v>
       </c>
       <c r="G46" s="3">
-        <v>22298900</v>
+        <v>14694700</v>
       </c>
       <c r="H46" s="3">
-        <v>26306400</v>
+        <v>21874100</v>
       </c>
       <c r="I46" s="3">
-        <v>23441900</v>
+        <v>25805300</v>
       </c>
       <c r="J46" s="3">
+        <v>22995400</v>
+      </c>
+      <c r="K46" s="3">
         <v>25420600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28476600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28933400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29328900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>27206000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4142500</v>
+        <v>43200</v>
       </c>
       <c r="E47" s="3">
-        <v>3925100</v>
+        <v>4063600</v>
       </c>
       <c r="F47" s="3">
-        <v>3768400</v>
+        <v>3850300</v>
       </c>
       <c r="G47" s="3">
-        <v>4377800</v>
+        <v>3696600</v>
       </c>
       <c r="H47" s="3">
-        <v>1806900</v>
+        <v>4294400</v>
       </c>
       <c r="I47" s="3">
-        <v>1659900</v>
+        <v>1772500</v>
       </c>
       <c r="J47" s="3">
+        <v>1628300</v>
+      </c>
+      <c r="K47" s="3">
         <v>2672100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5386200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6069000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6553400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10077200</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4155300</v>
+        <v>4206500</v>
       </c>
       <c r="E48" s="3">
-        <v>4229500</v>
+        <v>4076200</v>
       </c>
       <c r="F48" s="3">
-        <v>4232200</v>
+        <v>4148900</v>
       </c>
       <c r="G48" s="3">
-        <v>2835000</v>
+        <v>4151600</v>
       </c>
       <c r="H48" s="3">
-        <v>2687400</v>
+        <v>2781000</v>
       </c>
       <c r="I48" s="3">
-        <v>2967400</v>
+        <v>2636200</v>
       </c>
       <c r="J48" s="3">
+        <v>2910900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5838100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7280700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8336700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8209800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36286100</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>1163900</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>946400</v>
+        <v>1141800</v>
       </c>
       <c r="F49" s="3">
-        <v>879600</v>
+        <v>928300</v>
       </c>
       <c r="G49" s="3">
-        <v>857000</v>
+        <v>862900</v>
       </c>
       <c r="H49" s="3">
-        <v>929800</v>
+        <v>840600</v>
       </c>
       <c r="I49" s="3">
-        <v>5199300</v>
+        <v>912100</v>
       </c>
       <c r="J49" s="3">
+        <v>5100300</v>
+      </c>
+      <c r="K49" s="3">
         <v>4703200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9340100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9113200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8464500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12956000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1331500</v>
+        <v>6402400</v>
       </c>
       <c r="E52" s="3">
-        <v>966500</v>
+        <v>1306100</v>
       </c>
       <c r="F52" s="3">
-        <v>1008000</v>
+        <v>948100</v>
       </c>
       <c r="G52" s="3">
-        <v>1216800</v>
+        <v>988800</v>
       </c>
       <c r="H52" s="3">
-        <v>1037300</v>
+        <v>1193600</v>
       </c>
       <c r="I52" s="3">
-        <v>769900</v>
+        <v>1017500</v>
       </c>
       <c r="J52" s="3">
+        <v>755200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1301100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3552100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4088000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4051300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8620500</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27448700</v>
+        <v>25518100</v>
       </c>
       <c r="E54" s="3">
-        <v>25729700</v>
+        <v>26925900</v>
       </c>
       <c r="F54" s="3">
-        <v>24868200</v>
+        <v>25239600</v>
       </c>
       <c r="G54" s="3">
-        <v>31585500</v>
+        <v>24394600</v>
       </c>
       <c r="H54" s="3">
-        <v>32767900</v>
+        <v>30983900</v>
       </c>
       <c r="I54" s="3">
-        <v>31380900</v>
+        <v>32143700</v>
       </c>
       <c r="J54" s="3">
+        <v>30783200</v>
+      </c>
+      <c r="K54" s="3">
         <v>39935100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>54035700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>56540300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>56608000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>52004700</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,242 +2528,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5565600</v>
+        <v>3231000</v>
       </c>
       <c r="E57" s="3">
-        <v>5378900</v>
+        <v>5459600</v>
       </c>
       <c r="F57" s="3">
-        <v>5792300</v>
+        <v>5276400</v>
       </c>
       <c r="G57" s="3">
-        <v>7042200</v>
+        <v>5682000</v>
       </c>
       <c r="H57" s="3">
-        <v>7263700</v>
+        <v>6908100</v>
       </c>
       <c r="I57" s="3">
-        <v>6915700</v>
+        <v>7125300</v>
       </c>
       <c r="J57" s="3">
+        <v>6784000</v>
+      </c>
+      <c r="K57" s="3">
         <v>10268600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14081600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11036700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11045100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11689000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>556200</v>
+        <v>432200</v>
       </c>
       <c r="E58" s="3">
-        <v>117500</v>
+        <v>545700</v>
       </c>
       <c r="F58" s="3">
-        <v>460500</v>
+        <v>115300</v>
       </c>
       <c r="G58" s="3">
-        <v>2629400</v>
+        <v>451700</v>
       </c>
       <c r="H58" s="3">
-        <v>2216500</v>
+        <v>2579300</v>
       </c>
       <c r="I58" s="3">
-        <v>7452000</v>
+        <v>2174200</v>
       </c>
       <c r="J58" s="3">
+        <v>7310000</v>
+      </c>
+      <c r="K58" s="3">
         <v>4554100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2285800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3728500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4019400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4816200</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4975600</v>
+        <v>6206100</v>
       </c>
       <c r="E59" s="3">
-        <v>3727000</v>
+        <v>4880900</v>
       </c>
       <c r="F59" s="3">
-        <v>4021900</v>
+        <v>3656000</v>
       </c>
       <c r="G59" s="3">
-        <v>4134700</v>
+        <v>3945300</v>
       </c>
       <c r="H59" s="3">
-        <v>8387300</v>
+        <v>4056000</v>
       </c>
       <c r="I59" s="3">
-        <v>8511400</v>
+        <v>8227500</v>
       </c>
       <c r="J59" s="3">
+        <v>8349300</v>
+      </c>
+      <c r="K59" s="3">
         <v>7756500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8462200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12138000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10338900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13509200</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11097500</v>
+        <v>9869300</v>
       </c>
       <c r="E60" s="3">
-        <v>9223400</v>
+        <v>10886100</v>
       </c>
       <c r="F60" s="3">
-        <v>10274700</v>
+        <v>9047700</v>
       </c>
       <c r="G60" s="3">
-        <v>13806400</v>
+        <v>10079000</v>
       </c>
       <c r="H60" s="3">
-        <v>17867400</v>
+        <v>13543400</v>
       </c>
       <c r="I60" s="3">
-        <v>20467700</v>
+        <v>17527100</v>
       </c>
       <c r="J60" s="3">
+        <v>20077900</v>
+      </c>
+      <c r="K60" s="3">
         <v>22579300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24829700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25039000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25403400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24132800</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2334800</v>
+        <v>3692700</v>
       </c>
       <c r="E61" s="3">
-        <v>2781500</v>
+        <v>2290300</v>
       </c>
       <c r="F61" s="3">
-        <v>1277100</v>
+        <v>2728600</v>
       </c>
       <c r="G61" s="3">
-        <v>565500</v>
+        <v>1252800</v>
       </c>
       <c r="H61" s="3">
-        <v>2872800</v>
+        <v>554700</v>
       </c>
       <c r="I61" s="3">
-        <v>3808600</v>
+        <v>2818100</v>
       </c>
       <c r="J61" s="3">
+        <v>3736000</v>
+      </c>
+      <c r="K61" s="3">
         <v>6110100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8897000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10853400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9636800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8223000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3971400</v>
+        <v>2315900</v>
       </c>
       <c r="E62" s="3">
-        <v>4136500</v>
+        <v>3895800</v>
       </c>
       <c r="F62" s="3">
-        <v>5404700</v>
+        <v>4057700</v>
       </c>
       <c r="G62" s="3">
-        <v>4725600</v>
+        <v>5301800</v>
       </c>
       <c r="H62" s="3">
-        <v>4598700</v>
+        <v>4635600</v>
       </c>
       <c r="I62" s="3">
-        <v>9131100</v>
+        <v>4511100</v>
       </c>
       <c r="J62" s="3">
+        <v>8957100</v>
+      </c>
+      <c r="K62" s="3">
         <v>6304600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6956500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7402700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8426600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17035800</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18580000</v>
+        <v>16524500</v>
       </c>
       <c r="E66" s="3">
-        <v>17170300</v>
+        <v>18226100</v>
       </c>
       <c r="F66" s="3">
-        <v>17960700</v>
+        <v>16843300</v>
       </c>
       <c r="G66" s="3">
-        <v>20879000</v>
+        <v>17618600</v>
       </c>
       <c r="H66" s="3">
-        <v>27011800</v>
+        <v>20481300</v>
       </c>
       <c r="I66" s="3">
-        <v>35445100</v>
+        <v>26497300</v>
       </c>
       <c r="J66" s="3">
+        <v>34769900</v>
+      </c>
+      <c r="K66" s="3">
         <v>37517800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44789200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47131200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>47010000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44198900</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8217600</v>
+        <v>8066300</v>
       </c>
       <c r="E72" s="3">
-        <v>8284400</v>
+        <v>8061100</v>
       </c>
       <c r="F72" s="3">
-        <v>7579500</v>
+        <v>8126600</v>
       </c>
       <c r="G72" s="3">
-        <v>11234200</v>
+        <v>7435200</v>
       </c>
       <c r="H72" s="3">
-        <v>1643600</v>
+        <v>11020200</v>
       </c>
       <c r="I72" s="3">
-        <v>-4265900</v>
+        <v>1612300</v>
       </c>
       <c r="J72" s="3">
+        <v>-4184700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-564300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3269000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4167200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5896700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5351100</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8868800</v>
+        <v>8993600</v>
       </c>
       <c r="E76" s="3">
-        <v>8559300</v>
+        <v>8699800</v>
       </c>
       <c r="F76" s="3">
-        <v>6907600</v>
+        <v>8396300</v>
       </c>
       <c r="G76" s="3">
-        <v>10706400</v>
+        <v>6776000</v>
       </c>
       <c r="H76" s="3">
-        <v>5756000</v>
+        <v>10502500</v>
       </c>
       <c r="I76" s="3">
-        <v>-4064200</v>
+        <v>5646400</v>
       </c>
       <c r="J76" s="3">
+        <v>-3986700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2417200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9246500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9409100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9598000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7805900</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1430700</v>
+        <v>912600</v>
       </c>
       <c r="E81" s="3">
-        <v>837800</v>
+        <v>1403400</v>
       </c>
       <c r="F81" s="3">
-        <v>-842600</v>
+        <v>821800</v>
       </c>
       <c r="G81" s="3">
-        <v>7447400</v>
+        <v>-826500</v>
       </c>
       <c r="H81" s="3">
-        <v>5909500</v>
+        <v>7305600</v>
       </c>
       <c r="I81" s="3">
-        <v>-7097600</v>
+        <v>5796900</v>
       </c>
       <c r="J81" s="3">
+        <v>-6962400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3381100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-322600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>551800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>718700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>633300</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>625900</v>
+        <v>687300</v>
       </c>
       <c r="E83" s="3">
-        <v>626300</v>
+        <v>614000</v>
       </c>
       <c r="F83" s="3">
-        <v>585200</v>
+        <v>614400</v>
       </c>
       <c r="G83" s="3">
-        <v>577100</v>
+        <v>574000</v>
       </c>
       <c r="H83" s="3">
-        <v>867800</v>
+        <v>566100</v>
       </c>
       <c r="I83" s="3">
-        <v>1197900</v>
+        <v>851300</v>
       </c>
       <c r="J83" s="3">
+        <v>1175000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1571900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1620200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1573700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2031300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2256800</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1672600</v>
+        <v>245400</v>
       </c>
       <c r="E89" s="3">
-        <v>1066800</v>
+        <v>1640700</v>
       </c>
       <c r="F89" s="3">
-        <v>-1044800</v>
+        <v>1046500</v>
       </c>
       <c r="G89" s="3">
-        <v>917700</v>
+        <v>-1024900</v>
       </c>
       <c r="H89" s="3">
-        <v>274600</v>
+        <v>900200</v>
       </c>
       <c r="I89" s="3">
-        <v>986100</v>
+        <v>269400</v>
       </c>
       <c r="J89" s="3">
+        <v>967300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-9000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2818700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2602600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1229200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3028400</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-696600</v>
+        <v>-855600</v>
       </c>
       <c r="E91" s="3">
-        <v>-863300</v>
+        <v>-683400</v>
       </c>
       <c r="F91" s="3">
-        <v>-876600</v>
+        <v>-846900</v>
       </c>
       <c r="G91" s="3">
-        <v>-900800</v>
+        <v>-859900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1315800</v>
+        <v>-883600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1166900</v>
+        <v>-1290800</v>
       </c>
       <c r="J91" s="3">
+        <v>-1144600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1778800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2017400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1840500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2476500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2637300</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-915200</v>
+        <v>-63500</v>
       </c>
       <c r="E94" s="3">
-        <v>-784000</v>
+        <v>-897800</v>
       </c>
       <c r="F94" s="3">
-        <v>-900500</v>
+        <v>-769100</v>
       </c>
       <c r="G94" s="3">
-        <v>9594900</v>
+        <v>-883300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1078300</v>
+        <v>9412200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1315100</v>
+        <v>-1057800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1290100</v>
+      </c>
+      <c r="K94" s="3">
         <v>4802800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1621800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2236000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1824100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3410100</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,47 +3991,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-804300</v>
+        <v>-971700</v>
       </c>
       <c r="E96" s="3">
-        <v>-156500</v>
+        <v>-789000</v>
       </c>
       <c r="F96" s="3">
-        <v>-171400</v>
+        <v>-153500</v>
       </c>
       <c r="G96" s="3">
-        <v>-163500</v>
+        <v>-168100</v>
       </c>
       <c r="H96" s="3">
-        <v>-80400</v>
+        <v>-160400</v>
       </c>
       <c r="I96" s="3">
-        <v>-93700</v>
+        <v>-78900</v>
       </c>
       <c r="J96" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-234100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-358800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-356800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-395300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-334500</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1593700</v>
+        <v>-1026300</v>
       </c>
       <c r="E100" s="3">
-        <v>718900</v>
+        <v>-1563400</v>
       </c>
       <c r="F100" s="3">
-        <v>-5051200</v>
+        <v>705200</v>
       </c>
       <c r="G100" s="3">
-        <v>-4740900</v>
+        <v>-4955000</v>
       </c>
       <c r="H100" s="3">
-        <v>-467600</v>
+        <v>-4650600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1615200</v>
+        <v>-458600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1584500</v>
+      </c>
+      <c r="K100" s="3">
         <v>997700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1073000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-818100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>388100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>70200</v>
+        <v>6600</v>
       </c>
       <c r="E101" s="3">
-        <v>89700</v>
+        <v>68900</v>
       </c>
       <c r="F101" s="3">
-        <v>-48800</v>
+        <v>87900</v>
       </c>
       <c r="G101" s="3">
-        <v>11700</v>
+        <v>-47900</v>
       </c>
       <c r="H101" s="3">
-        <v>-11900</v>
+        <v>11500</v>
       </c>
       <c r="I101" s="3">
-        <v>-24300</v>
+        <v>-11600</v>
       </c>
       <c r="J101" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-86700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>115200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>104900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>159100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-18700</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-766100</v>
+        <v>-837900</v>
       </c>
       <c r="E102" s="3">
-        <v>1091400</v>
+        <v>-751500</v>
       </c>
       <c r="F102" s="3">
-        <v>-7045300</v>
+        <v>1070600</v>
       </c>
       <c r="G102" s="3">
-        <v>5783400</v>
+        <v>-6911100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1283100</v>
+        <v>5673300</v>
       </c>
       <c r="I102" s="3">
-        <v>-1968600</v>
+        <v>-1258700</v>
       </c>
       <c r="J102" s="3">
+        <v>-1931100</v>
+      </c>
+      <c r="K102" s="3">
         <v>5704800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>239100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-346500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-47700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-402600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>TOSYY</t>
   </si>
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24237500</v>
+        <v>23094600</v>
       </c>
       <c r="E8" s="3">
-        <v>24059500</v>
+        <v>22925000</v>
       </c>
       <c r="F8" s="3">
-        <v>22022000</v>
+        <v>20983600</v>
       </c>
       <c r="G8" s="3">
-        <v>24441000</v>
+        <v>23288400</v>
       </c>
       <c r="H8" s="3">
-        <v>26630400</v>
+        <v>25374600</v>
       </c>
       <c r="I8" s="3">
-        <v>28462200</v>
+        <v>27120000</v>
       </c>
       <c r="J8" s="3">
-        <v>29155300</v>
+        <v>27780500</v>
       </c>
       <c r="K8" s="3">
         <v>37888100</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17820800</v>
+        <v>16980500</v>
       </c>
       <c r="E9" s="3">
-        <v>17662700</v>
+        <v>16829800</v>
       </c>
       <c r="F9" s="3">
-        <v>16060700</v>
+        <v>15303400</v>
       </c>
       <c r="G9" s="3">
-        <v>17795500</v>
+        <v>16956300</v>
       </c>
       <c r="H9" s="3">
-        <v>20022100</v>
+        <v>19077900</v>
       </c>
       <c r="I9" s="3">
-        <v>21433400</v>
+        <v>20422700</v>
       </c>
       <c r="J9" s="3">
-        <v>21490600</v>
+        <v>20477200</v>
       </c>
       <c r="K9" s="3">
         <v>32364400</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6416700</v>
+        <v>6114100</v>
       </c>
       <c r="E10" s="3">
-        <v>6396800</v>
+        <v>6095100</v>
       </c>
       <c r="F10" s="3">
-        <v>5961300</v>
+        <v>5680200</v>
       </c>
       <c r="G10" s="3">
-        <v>6645500</v>
+        <v>6332100</v>
       </c>
       <c r="H10" s="3">
-        <v>6608300</v>
+        <v>6296700</v>
       </c>
       <c r="I10" s="3">
-        <v>7028800</v>
+        <v>6697300</v>
       </c>
       <c r="J10" s="3">
-        <v>7664700</v>
+        <v>7303300</v>
       </c>
       <c r="K10" s="3">
         <v>5523600</v>
@@ -955,25 +955,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>148500</v>
+        <v>-65100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>23500</v>
+        <v>22300</v>
       </c>
       <c r="G14" s="3">
-        <v>27700</v>
+        <v>26400</v>
       </c>
       <c r="H14" s="3">
-        <v>197800</v>
+        <v>188500</v>
       </c>
       <c r="I14" s="3">
-        <v>101700</v>
+        <v>96900</v>
       </c>
       <c r="J14" s="3">
-        <v>370900</v>
+        <v>353400</v>
       </c>
       <c r="K14" s="3">
         <v>348200</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23440500</v>
+        <v>22118800</v>
       </c>
       <c r="E17" s="3">
-        <v>22739600</v>
+        <v>21667300</v>
       </c>
       <c r="F17" s="3">
-        <v>21213200</v>
+        <v>20212900</v>
       </c>
       <c r="G17" s="3">
-        <v>23707400</v>
+        <v>22589500</v>
       </c>
       <c r="H17" s="3">
-        <v>26728200</v>
+        <v>25467800</v>
       </c>
       <c r="I17" s="3">
-        <v>28386000</v>
+        <v>27047400</v>
       </c>
       <c r="J17" s="3">
-        <v>29145000</v>
+        <v>27770600</v>
       </c>
       <c r="K17" s="3">
         <v>41438200</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>797100</v>
+        <v>975800</v>
       </c>
       <c r="E18" s="3">
-        <v>1319900</v>
+        <v>1257600</v>
       </c>
       <c r="F18" s="3">
-        <v>808800</v>
+        <v>770700</v>
       </c>
       <c r="G18" s="3">
-        <v>733500</v>
+        <v>698900</v>
       </c>
       <c r="H18" s="3">
-        <v>-97800</v>
+        <v>-93200</v>
       </c>
       <c r="I18" s="3">
-        <v>76200</v>
+        <v>72600</v>
       </c>
       <c r="J18" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="K18" s="3">
         <v>-3550100</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>600400</v>
+        <v>355700</v>
       </c>
       <c r="E20" s="3">
-        <v>435500</v>
+        <v>415000</v>
       </c>
       <c r="F20" s="3">
-        <v>330700</v>
+        <v>315100</v>
       </c>
       <c r="G20" s="3">
-        <v>-1037300</v>
+        <v>-988400</v>
       </c>
       <c r="H20" s="3">
-        <v>252600</v>
+        <v>240700</v>
       </c>
       <c r="I20" s="3">
-        <v>729400</v>
+        <v>695000</v>
       </c>
       <c r="J20" s="3">
-        <v>447400</v>
+        <v>426300</v>
       </c>
       <c r="K20" s="3">
         <v>746200</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2089500</v>
+        <v>1986400</v>
       </c>
       <c r="E21" s="3">
-        <v>2373700</v>
+        <v>2257700</v>
       </c>
       <c r="F21" s="3">
-        <v>1758100</v>
+        <v>1671100</v>
       </c>
       <c r="G21" s="3">
-        <v>274200</v>
+        <v>257500</v>
       </c>
       <c r="H21" s="3">
-        <v>724900</v>
+        <v>686900</v>
       </c>
       <c r="I21" s="3">
-        <v>1662800</v>
+        <v>1578800</v>
       </c>
       <c r="J21" s="3">
-        <v>1640900</v>
+        <v>1555800</v>
       </c>
       <c r="K21" s="3">
         <v>-1247000</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35000</v>
+        <v>33300</v>
       </c>
       <c r="E22" s="3">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="F22" s="3">
-        <v>32800</v>
+        <v>31300</v>
       </c>
       <c r="G22" s="3">
-        <v>39000</v>
+        <v>37200</v>
       </c>
       <c r="H22" s="3">
-        <v>76200</v>
+        <v>72600</v>
       </c>
       <c r="I22" s="3">
-        <v>211700</v>
+        <v>201700</v>
       </c>
       <c r="J22" s="3">
-        <v>133700</v>
+        <v>127400</v>
       </c>
       <c r="K22" s="3">
         <v>131400</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1362400</v>
+        <v>1298200</v>
       </c>
       <c r="E23" s="3">
-        <v>1723900</v>
+        <v>1642700</v>
       </c>
       <c r="F23" s="3">
-        <v>1106600</v>
+        <v>1054500</v>
       </c>
       <c r="G23" s="3">
-        <v>-342800</v>
+        <v>-326600</v>
       </c>
       <c r="H23" s="3">
-        <v>78700</v>
+        <v>74900</v>
       </c>
       <c r="I23" s="3">
-        <v>593900</v>
+        <v>565900</v>
       </c>
       <c r="J23" s="3">
-        <v>324100</v>
+        <v>308800</v>
       </c>
       <c r="K23" s="3">
         <v>-2935300</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>461200</v>
+        <v>439500</v>
       </c>
       <c r="E24" s="3">
-        <v>179100</v>
+        <v>170700</v>
       </c>
       <c r="F24" s="3">
-        <v>99200</v>
+        <v>94500</v>
       </c>
       <c r="G24" s="3">
-        <v>253200</v>
+        <v>241300</v>
       </c>
       <c r="H24" s="3">
-        <v>112100</v>
+        <v>106800</v>
       </c>
       <c r="I24" s="3">
-        <v>-446600</v>
+        <v>-425500</v>
       </c>
       <c r="J24" s="3">
-        <v>417900</v>
+        <v>398200</v>
       </c>
       <c r="K24" s="3">
         <v>1811100</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>901200</v>
+        <v>858700</v>
       </c>
       <c r="E26" s="3">
-        <v>1544800</v>
+        <v>1472000</v>
       </c>
       <c r="F26" s="3">
-        <v>1007400</v>
+        <v>959900</v>
       </c>
       <c r="G26" s="3">
-        <v>-596000</v>
+        <v>-567900</v>
       </c>
       <c r="H26" s="3">
-        <v>-33500</v>
+        <v>-31900</v>
       </c>
       <c r="I26" s="3">
-        <v>1040500</v>
+        <v>991500</v>
       </c>
       <c r="J26" s="3">
-        <v>-93900</v>
+        <v>-89500</v>
       </c>
       <c r="K26" s="3">
         <v>-4746400</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>912600</v>
+        <v>869600</v>
       </c>
       <c r="E27" s="3">
-        <v>1403400</v>
+        <v>1337300</v>
       </c>
       <c r="F27" s="3">
-        <v>877500</v>
+        <v>836100</v>
       </c>
       <c r="G27" s="3">
-        <v>-727000</v>
+        <v>-692800</v>
       </c>
       <c r="H27" s="3">
-        <v>-194600</v>
+        <v>-185400</v>
       </c>
       <c r="I27" s="3">
-        <v>778300</v>
+        <v>741600</v>
       </c>
       <c r="J27" s="3">
-        <v>1308700</v>
+        <v>1247000</v>
       </c>
       <c r="K27" s="3">
         <v>-4334700</v>
@@ -1540,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-55700</v>
+        <v>-53100</v>
       </c>
       <c r="G29" s="3">
-        <v>-99500</v>
+        <v>-94800</v>
       </c>
       <c r="H29" s="3">
-        <v>7500100</v>
+        <v>7146400</v>
       </c>
       <c r="I29" s="3">
-        <v>5018700</v>
+        <v>4782000</v>
       </c>
       <c r="J29" s="3">
-        <v>-8271200</v>
+        <v>-7881100</v>
       </c>
       <c r="K29" s="3">
         <v>953600</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-600400</v>
+        <v>-355700</v>
       </c>
       <c r="E32" s="3">
-        <v>-435500</v>
+        <v>-415000</v>
       </c>
       <c r="F32" s="3">
-        <v>-330700</v>
+        <v>-315100</v>
       </c>
       <c r="G32" s="3">
-        <v>1037300</v>
+        <v>988400</v>
       </c>
       <c r="H32" s="3">
-        <v>-252600</v>
+        <v>-240700</v>
       </c>
       <c r="I32" s="3">
-        <v>-729400</v>
+        <v>-695000</v>
       </c>
       <c r="J32" s="3">
-        <v>-447400</v>
+        <v>-426300</v>
       </c>
       <c r="K32" s="3">
         <v>-746200</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>912600</v>
+        <v>869600</v>
       </c>
       <c r="E33" s="3">
-        <v>1403400</v>
+        <v>1337300</v>
       </c>
       <c r="F33" s="3">
-        <v>821800</v>
+        <v>783000</v>
       </c>
       <c r="G33" s="3">
-        <v>-826500</v>
+        <v>-787500</v>
       </c>
       <c r="H33" s="3">
-        <v>7305600</v>
+        <v>6961100</v>
       </c>
       <c r="I33" s="3">
-        <v>5796900</v>
+        <v>5523600</v>
       </c>
       <c r="J33" s="3">
-        <v>-6962400</v>
+        <v>-6634100</v>
       </c>
       <c r="K33" s="3">
         <v>-3381100</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>912600</v>
+        <v>869600</v>
       </c>
       <c r="E35" s="3">
-        <v>1403400</v>
+        <v>1337300</v>
       </c>
       <c r="F35" s="3">
-        <v>821800</v>
+        <v>783000</v>
       </c>
       <c r="G35" s="3">
-        <v>-826500</v>
+        <v>-787500</v>
       </c>
       <c r="H35" s="3">
-        <v>7305600</v>
+        <v>6961100</v>
       </c>
       <c r="I35" s="3">
-        <v>5796900</v>
+        <v>5523600</v>
       </c>
       <c r="J35" s="3">
-        <v>-6962400</v>
+        <v>-6634100</v>
       </c>
       <c r="K35" s="3">
         <v>-3381100</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2355400</v>
+        <v>2244400</v>
       </c>
       <c r="E41" s="3">
-        <v>3037000</v>
+        <v>2893800</v>
       </c>
       <c r="F41" s="3">
-        <v>3788500</v>
+        <v>3609900</v>
       </c>
       <c r="G41" s="3">
-        <v>2718000</v>
+        <v>2589800</v>
       </c>
       <c r="H41" s="3">
-        <v>9629100</v>
+        <v>9175000</v>
       </c>
       <c r="I41" s="3">
-        <v>3610900</v>
+        <v>3440600</v>
       </c>
       <c r="J41" s="3">
-        <v>3757100</v>
+        <v>3579900</v>
       </c>
       <c r="K41" s="3">
         <v>7127400</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6070400</v>
+        <v>6444300</v>
       </c>
       <c r="E43" s="3">
-        <v>6637400</v>
+        <v>6324400</v>
       </c>
       <c r="F43" s="3">
-        <v>7105400</v>
+        <v>6770400</v>
       </c>
       <c r="G43" s="3">
-        <v>7508900</v>
+        <v>7154800</v>
       </c>
       <c r="H43" s="3">
-        <v>7918000</v>
+        <v>7544600</v>
       </c>
       <c r="I43" s="3">
-        <v>8160700</v>
+        <v>7775800</v>
       </c>
       <c r="J43" s="3">
-        <v>7624500</v>
+        <v>7265000</v>
       </c>
       <c r="K43" s="3">
         <v>9314900</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4283900</v>
+        <v>4081900</v>
       </c>
       <c r="E44" s="3">
-        <v>3834200</v>
+        <v>3653400</v>
       </c>
       <c r="F44" s="3">
-        <v>3430300</v>
+        <v>3268500</v>
       </c>
       <c r="G44" s="3">
-        <v>3477600</v>
+        <v>3313600</v>
       </c>
       <c r="H44" s="3">
-        <v>3380600</v>
+        <v>3221200</v>
       </c>
       <c r="I44" s="3">
-        <v>3387000</v>
+        <v>3227300</v>
       </c>
       <c r="J44" s="3">
-        <v>3609900</v>
+        <v>3439700</v>
       </c>
       <c r="K44" s="3">
         <v>5359100</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2156300</v>
+        <v>1394500</v>
       </c>
       <c r="E45" s="3">
-        <v>2829600</v>
+        <v>2696100</v>
       </c>
       <c r="F45" s="3">
-        <v>1039600</v>
+        <v>990600</v>
       </c>
       <c r="G45" s="3">
-        <v>990200</v>
+        <v>943500</v>
       </c>
       <c r="H45" s="3">
-        <v>946400</v>
+        <v>901800</v>
       </c>
       <c r="I45" s="3">
-        <v>10646700</v>
+        <v>10144600</v>
       </c>
       <c r="J45" s="3">
-        <v>8003800</v>
+        <v>7626400</v>
       </c>
       <c r="K45" s="3">
         <v>3619200</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14866100</v>
+        <v>14165000</v>
       </c>
       <c r="E46" s="3">
-        <v>16338200</v>
+        <v>15567700</v>
       </c>
       <c r="F46" s="3">
-        <v>15363800</v>
+        <v>14639300</v>
       </c>
       <c r="G46" s="3">
-        <v>14694700</v>
+        <v>14001700</v>
       </c>
       <c r="H46" s="3">
-        <v>21874100</v>
+        <v>20842600</v>
       </c>
       <c r="I46" s="3">
-        <v>25805300</v>
+        <v>24588400</v>
       </c>
       <c r="J46" s="3">
-        <v>22995400</v>
+        <v>21911000</v>
       </c>
       <c r="K46" s="3">
         <v>25420600</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>43200</v>
+        <v>3683300</v>
       </c>
       <c r="E47" s="3">
-        <v>4063600</v>
+        <v>3872000</v>
       </c>
       <c r="F47" s="3">
-        <v>3850300</v>
+        <v>3668800</v>
       </c>
       <c r="G47" s="3">
-        <v>3696600</v>
+        <v>3522300</v>
       </c>
       <c r="H47" s="3">
-        <v>4294400</v>
+        <v>4091900</v>
       </c>
       <c r="I47" s="3">
-        <v>1772500</v>
+        <v>1688900</v>
       </c>
       <c r="J47" s="3">
-        <v>1628300</v>
+        <v>1551500</v>
       </c>
       <c r="K47" s="3">
         <v>2672100</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4206500</v>
+        <v>4008100</v>
       </c>
       <c r="E48" s="3">
-        <v>4076200</v>
+        <v>3884000</v>
       </c>
       <c r="F48" s="3">
-        <v>4148900</v>
+        <v>3953300</v>
       </c>
       <c r="G48" s="3">
-        <v>4151600</v>
+        <v>3955800</v>
       </c>
       <c r="H48" s="3">
-        <v>2781000</v>
+        <v>2649900</v>
       </c>
       <c r="I48" s="3">
-        <v>2636200</v>
+        <v>2511900</v>
       </c>
       <c r="J48" s="3">
-        <v>2910900</v>
+        <v>2773600</v>
       </c>
       <c r="K48" s="3">
         <v>5838100</v>
@@ -2246,26 +2246,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>1082400</v>
       </c>
       <c r="E49" s="3">
-        <v>1141800</v>
+        <v>1087900</v>
       </c>
       <c r="F49" s="3">
-        <v>928300</v>
+        <v>884600</v>
       </c>
       <c r="G49" s="3">
-        <v>862900</v>
+        <v>822200</v>
       </c>
       <c r="H49" s="3">
-        <v>840600</v>
+        <v>801000</v>
       </c>
       <c r="I49" s="3">
-        <v>912100</v>
+        <v>869100</v>
       </c>
       <c r="J49" s="3">
-        <v>5100300</v>
+        <v>4859800</v>
       </c>
       <c r="K49" s="3">
         <v>4703200</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6402400</v>
+        <v>1376000</v>
       </c>
       <c r="E52" s="3">
-        <v>1306100</v>
+        <v>1244600</v>
       </c>
       <c r="F52" s="3">
-        <v>948100</v>
+        <v>903400</v>
       </c>
       <c r="G52" s="3">
-        <v>988800</v>
+        <v>942200</v>
       </c>
       <c r="H52" s="3">
-        <v>1193600</v>
+        <v>1137300</v>
       </c>
       <c r="I52" s="3">
-        <v>1017500</v>
+        <v>969600</v>
       </c>
       <c r="J52" s="3">
-        <v>755200</v>
+        <v>719600</v>
       </c>
       <c r="K52" s="3">
         <v>1301100</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25518100</v>
+        <v>24314800</v>
       </c>
       <c r="E54" s="3">
-        <v>26925900</v>
+        <v>25656100</v>
       </c>
       <c r="F54" s="3">
-        <v>25239600</v>
+        <v>24049400</v>
       </c>
       <c r="G54" s="3">
-        <v>24394600</v>
+        <v>23244200</v>
       </c>
       <c r="H54" s="3">
-        <v>30983900</v>
+        <v>29522800</v>
       </c>
       <c r="I54" s="3">
-        <v>32143700</v>
+        <v>30627900</v>
       </c>
       <c r="J54" s="3">
-        <v>30783200</v>
+        <v>29331600</v>
       </c>
       <c r="K54" s="3">
         <v>39935100</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3231000</v>
+        <v>4877500</v>
       </c>
       <c r="E57" s="3">
-        <v>5459600</v>
+        <v>5202200</v>
       </c>
       <c r="F57" s="3">
-        <v>5276400</v>
+        <v>5027600</v>
       </c>
       <c r="G57" s="3">
-        <v>5682000</v>
+        <v>5414000</v>
       </c>
       <c r="H57" s="3">
-        <v>6908100</v>
+        <v>6582300</v>
       </c>
       <c r="I57" s="3">
-        <v>7125300</v>
+        <v>6789300</v>
       </c>
       <c r="J57" s="3">
-        <v>6784000</v>
+        <v>6464100</v>
       </c>
       <c r="K57" s="3">
         <v>10268600</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>432200</v>
+        <v>411900</v>
       </c>
       <c r="E58" s="3">
-        <v>545700</v>
+        <v>519900</v>
       </c>
       <c r="F58" s="3">
-        <v>115300</v>
+        <v>109800</v>
       </c>
       <c r="G58" s="3">
-        <v>451700</v>
+        <v>430400</v>
       </c>
       <c r="H58" s="3">
-        <v>2579300</v>
+        <v>2457700</v>
       </c>
       <c r="I58" s="3">
-        <v>2174200</v>
+        <v>2071700</v>
       </c>
       <c r="J58" s="3">
-        <v>7310000</v>
+        <v>6965300</v>
       </c>
       <c r="K58" s="3">
         <v>4554100</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6206100</v>
+        <v>4114500</v>
       </c>
       <c r="E59" s="3">
-        <v>4880900</v>
+        <v>4650700</v>
       </c>
       <c r="F59" s="3">
-        <v>3656000</v>
+        <v>3483600</v>
       </c>
       <c r="G59" s="3">
-        <v>3945300</v>
+        <v>3759300</v>
       </c>
       <c r="H59" s="3">
-        <v>4056000</v>
+        <v>3864700</v>
       </c>
       <c r="I59" s="3">
-        <v>8227500</v>
+        <v>7839500</v>
       </c>
       <c r="J59" s="3">
-        <v>8349300</v>
+        <v>7955500</v>
       </c>
       <c r="K59" s="3">
         <v>7756500</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9869300</v>
+        <v>9403900</v>
       </c>
       <c r="E60" s="3">
-        <v>10886100</v>
+        <v>10372800</v>
       </c>
       <c r="F60" s="3">
-        <v>9047700</v>
+        <v>8621000</v>
       </c>
       <c r="G60" s="3">
-        <v>10079000</v>
+        <v>9603700</v>
       </c>
       <c r="H60" s="3">
-        <v>13543400</v>
+        <v>12904700</v>
       </c>
       <c r="I60" s="3">
-        <v>17527100</v>
+        <v>16700600</v>
       </c>
       <c r="J60" s="3">
-        <v>20077900</v>
+        <v>19131100</v>
       </c>
       <c r="K60" s="3">
         <v>22579300</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3692700</v>
+        <v>2283700</v>
       </c>
       <c r="E61" s="3">
-        <v>2290300</v>
+        <v>2182300</v>
       </c>
       <c r="F61" s="3">
-        <v>2728600</v>
+        <v>2599900</v>
       </c>
       <c r="G61" s="3">
-        <v>1252800</v>
+        <v>1193700</v>
       </c>
       <c r="H61" s="3">
-        <v>554700</v>
+        <v>528500</v>
       </c>
       <c r="I61" s="3">
-        <v>2818100</v>
+        <v>2685200</v>
       </c>
       <c r="J61" s="3">
-        <v>3736000</v>
+        <v>3559800</v>
       </c>
       <c r="K61" s="3">
         <v>6110100</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2315900</v>
+        <v>3441500</v>
       </c>
       <c r="E62" s="3">
-        <v>3895800</v>
+        <v>3712100</v>
       </c>
       <c r="F62" s="3">
-        <v>4057700</v>
+        <v>3866300</v>
       </c>
       <c r="G62" s="3">
-        <v>5301800</v>
+        <v>5051800</v>
       </c>
       <c r="H62" s="3">
-        <v>4635600</v>
+        <v>4417000</v>
       </c>
       <c r="I62" s="3">
-        <v>4511100</v>
+        <v>4298400</v>
       </c>
       <c r="J62" s="3">
-        <v>8957100</v>
+        <v>8534700</v>
       </c>
       <c r="K62" s="3">
         <v>6304600</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16524500</v>
+        <v>15745300</v>
       </c>
       <c r="E66" s="3">
-        <v>18226100</v>
+        <v>17366600</v>
       </c>
       <c r="F66" s="3">
-        <v>16843300</v>
+        <v>16049000</v>
       </c>
       <c r="G66" s="3">
-        <v>17618600</v>
+        <v>16787700</v>
       </c>
       <c r="H66" s="3">
-        <v>20481300</v>
+        <v>19515500</v>
       </c>
       <c r="I66" s="3">
-        <v>26497300</v>
+        <v>25247800</v>
       </c>
       <c r="J66" s="3">
-        <v>34769900</v>
+        <v>33130300</v>
       </c>
       <c r="K66" s="3">
         <v>37517800</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8066300</v>
+        <v>7685900</v>
       </c>
       <c r="E72" s="3">
-        <v>8061100</v>
+        <v>7680900</v>
       </c>
       <c r="F72" s="3">
-        <v>8126600</v>
+        <v>7743400</v>
       </c>
       <c r="G72" s="3">
-        <v>7435200</v>
+        <v>7084600</v>
       </c>
       <c r="H72" s="3">
-        <v>11020200</v>
+        <v>10500500</v>
       </c>
       <c r="I72" s="3">
-        <v>1612300</v>
+        <v>1536200</v>
       </c>
       <c r="J72" s="3">
-        <v>-4184700</v>
+        <v>-3987300</v>
       </c>
       <c r="K72" s="3">
         <v>-564300</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8993600</v>
+        <v>8569500</v>
       </c>
       <c r="E76" s="3">
-        <v>8699800</v>
+        <v>8289600</v>
       </c>
       <c r="F76" s="3">
-        <v>8396300</v>
+        <v>8000300</v>
       </c>
       <c r="G76" s="3">
-        <v>6776000</v>
+        <v>6456500</v>
       </c>
       <c r="H76" s="3">
-        <v>10502500</v>
+        <v>10007200</v>
       </c>
       <c r="I76" s="3">
-        <v>5646400</v>
+        <v>5380100</v>
       </c>
       <c r="J76" s="3">
-        <v>-3986700</v>
+        <v>-3798700</v>
       </c>
       <c r="K76" s="3">
         <v>2417200</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>912600</v>
+        <v>869600</v>
       </c>
       <c r="E81" s="3">
-        <v>1403400</v>
+        <v>1337300</v>
       </c>
       <c r="F81" s="3">
-        <v>821800</v>
+        <v>783000</v>
       </c>
       <c r="G81" s="3">
-        <v>-826500</v>
+        <v>-787500</v>
       </c>
       <c r="H81" s="3">
-        <v>7305600</v>
+        <v>6961100</v>
       </c>
       <c r="I81" s="3">
-        <v>5796900</v>
+        <v>5523600</v>
       </c>
       <c r="J81" s="3">
-        <v>-6962400</v>
+        <v>-6634100</v>
       </c>
       <c r="K81" s="3">
         <v>-3381100</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>687300</v>
+        <v>654900</v>
       </c>
       <c r="E83" s="3">
-        <v>614000</v>
+        <v>585000</v>
       </c>
       <c r="F83" s="3">
-        <v>614400</v>
+        <v>585400</v>
       </c>
       <c r="G83" s="3">
-        <v>574000</v>
+        <v>547000</v>
       </c>
       <c r="H83" s="3">
-        <v>566100</v>
+        <v>539400</v>
       </c>
       <c r="I83" s="3">
-        <v>851300</v>
+        <v>811100</v>
       </c>
       <c r="J83" s="3">
-        <v>1175000</v>
+        <v>1119600</v>
       </c>
       <c r="K83" s="3">
         <v>1571900</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>245400</v>
+        <v>233900</v>
       </c>
       <c r="E89" s="3">
-        <v>1640700</v>
+        <v>1563400</v>
       </c>
       <c r="F89" s="3">
-        <v>1046500</v>
+        <v>997100</v>
       </c>
       <c r="G89" s="3">
-        <v>-1024900</v>
+        <v>-976600</v>
       </c>
       <c r="H89" s="3">
-        <v>900200</v>
+        <v>857800</v>
       </c>
       <c r="I89" s="3">
-        <v>269400</v>
+        <v>256700</v>
       </c>
       <c r="J89" s="3">
-        <v>967300</v>
+        <v>921700</v>
       </c>
       <c r="K89" s="3">
         <v>-9000</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-855600</v>
+        <v>-815300</v>
       </c>
       <c r="E91" s="3">
-        <v>-683400</v>
+        <v>-651100</v>
       </c>
       <c r="F91" s="3">
-        <v>-846900</v>
+        <v>-807000</v>
       </c>
       <c r="G91" s="3">
-        <v>-859900</v>
+        <v>-819400</v>
       </c>
       <c r="H91" s="3">
-        <v>-883600</v>
+        <v>-842000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1290800</v>
+        <v>-1229900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1144600</v>
+        <v>-1090700</v>
       </c>
       <c r="K91" s="3">
         <v>-1778800</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-63500</v>
+        <v>-60500</v>
       </c>
       <c r="E94" s="3">
-        <v>-897800</v>
+        <v>-855500</v>
       </c>
       <c r="F94" s="3">
-        <v>-769100</v>
+        <v>-732800</v>
       </c>
       <c r="G94" s="3">
-        <v>-883300</v>
+        <v>-841700</v>
       </c>
       <c r="H94" s="3">
-        <v>9412200</v>
+        <v>8968300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1057800</v>
+        <v>-1007900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1290100</v>
+        <v>-1229200</v>
       </c>
       <c r="K94" s="3">
         <v>4802800</v>
@@ -3998,25 +3998,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-971700</v>
+        <v>-925900</v>
       </c>
       <c r="E96" s="3">
-        <v>-789000</v>
+        <v>-751800</v>
       </c>
       <c r="F96" s="3">
-        <v>-153500</v>
+        <v>-146300</v>
       </c>
       <c r="G96" s="3">
-        <v>-168100</v>
+        <v>-160200</v>
       </c>
       <c r="H96" s="3">
-        <v>-160400</v>
+        <v>-152900</v>
       </c>
       <c r="I96" s="3">
-        <v>-78900</v>
+        <v>-75200</v>
       </c>
       <c r="J96" s="3">
-        <v>-92000</v>
+        <v>-87600</v>
       </c>
       <c r="K96" s="3">
         <v>-234100</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1026300</v>
+        <v>-977900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1563400</v>
+        <v>-1489600</v>
       </c>
       <c r="F100" s="3">
-        <v>705200</v>
+        <v>672000</v>
       </c>
       <c r="G100" s="3">
-        <v>-4955000</v>
+        <v>-4721400</v>
       </c>
       <c r="H100" s="3">
-        <v>-4650600</v>
+        <v>-4431300</v>
       </c>
       <c r="I100" s="3">
-        <v>-458600</v>
+        <v>-437000</v>
       </c>
       <c r="J100" s="3">
-        <v>-1584500</v>
+        <v>-1509700</v>
       </c>
       <c r="K100" s="3">
         <v>997700</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="E101" s="3">
-        <v>68900</v>
+        <v>65600</v>
       </c>
       <c r="F101" s="3">
-        <v>87900</v>
+        <v>83800</v>
       </c>
       <c r="G101" s="3">
-        <v>-47900</v>
+        <v>-45600</v>
       </c>
       <c r="H101" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="I101" s="3">
-        <v>-11600</v>
+        <v>-11100</v>
       </c>
       <c r="J101" s="3">
-        <v>-23900</v>
+        <v>-22800</v>
       </c>
       <c r="K101" s="3">
         <v>-86700</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-837900</v>
+        <v>-798300</v>
       </c>
       <c r="E102" s="3">
-        <v>-751500</v>
+        <v>-716100</v>
       </c>
       <c r="F102" s="3">
-        <v>1070600</v>
+        <v>1020100</v>
       </c>
       <c r="G102" s="3">
-        <v>-6911100</v>
+        <v>-6585200</v>
       </c>
       <c r="H102" s="3">
-        <v>5673300</v>
+        <v>5405700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1258700</v>
+        <v>-1199300</v>
       </c>
       <c r="J102" s="3">
-        <v>-1931100</v>
+        <v>-1840000</v>
       </c>
       <c r="K102" s="3">
         <v>5704800</v>

--- a/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23094600</v>
+        <v>22321400</v>
       </c>
       <c r="E8" s="3">
-        <v>22925000</v>
+        <v>22157500</v>
       </c>
       <c r="F8" s="3">
-        <v>20983600</v>
+        <v>20281100</v>
       </c>
       <c r="G8" s="3">
-        <v>23288400</v>
+        <v>22508700</v>
       </c>
       <c r="H8" s="3">
-        <v>25374600</v>
+        <v>24525100</v>
       </c>
       <c r="I8" s="3">
-        <v>27120000</v>
+        <v>26212000</v>
       </c>
       <c r="J8" s="3">
-        <v>27780500</v>
+        <v>26850400</v>
       </c>
       <c r="K8" s="3">
         <v>37888100</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16980500</v>
+        <v>16412000</v>
       </c>
       <c r="E9" s="3">
-        <v>16829800</v>
+        <v>16266400</v>
       </c>
       <c r="F9" s="3">
-        <v>15303400</v>
+        <v>14791000</v>
       </c>
       <c r="G9" s="3">
-        <v>16956300</v>
+        <v>16388600</v>
       </c>
       <c r="H9" s="3">
-        <v>19077900</v>
+        <v>18439200</v>
       </c>
       <c r="I9" s="3">
-        <v>20422700</v>
+        <v>19738900</v>
       </c>
       <c r="J9" s="3">
-        <v>20477200</v>
+        <v>19791600</v>
       </c>
       <c r="K9" s="3">
         <v>32364400</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6114100</v>
+        <v>5909400</v>
       </c>
       <c r="E10" s="3">
-        <v>6095100</v>
+        <v>5891100</v>
       </c>
       <c r="F10" s="3">
-        <v>5680200</v>
+        <v>5490000</v>
       </c>
       <c r="G10" s="3">
-        <v>6332100</v>
+        <v>6120100</v>
       </c>
       <c r="H10" s="3">
-        <v>6296700</v>
+        <v>6085900</v>
       </c>
       <c r="I10" s="3">
-        <v>6697300</v>
+        <v>6473100</v>
       </c>
       <c r="J10" s="3">
-        <v>7303300</v>
+        <v>7058800</v>
       </c>
       <c r="K10" s="3">
         <v>5523600</v>
@@ -955,25 +955,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-65100</v>
+        <v>-63000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>22300</v>
+        <v>21600</v>
       </c>
       <c r="G14" s="3">
-        <v>26400</v>
+        <v>25500</v>
       </c>
       <c r="H14" s="3">
-        <v>188500</v>
+        <v>182200</v>
       </c>
       <c r="I14" s="3">
-        <v>96900</v>
+        <v>93700</v>
       </c>
       <c r="J14" s="3">
-        <v>353400</v>
+        <v>341600</v>
       </c>
       <c r="K14" s="3">
         <v>348200</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22118800</v>
+        <v>21378300</v>
       </c>
       <c r="E17" s="3">
-        <v>21667300</v>
+        <v>20941900</v>
       </c>
       <c r="F17" s="3">
-        <v>20212900</v>
+        <v>19536200</v>
       </c>
       <c r="G17" s="3">
-        <v>22589500</v>
+        <v>21833200</v>
       </c>
       <c r="H17" s="3">
-        <v>25467800</v>
+        <v>24615100</v>
       </c>
       <c r="I17" s="3">
-        <v>27047400</v>
+        <v>26141800</v>
       </c>
       <c r="J17" s="3">
-        <v>27770600</v>
+        <v>26840900</v>
       </c>
       <c r="K17" s="3">
         <v>41438200</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>975800</v>
+        <v>943100</v>
       </c>
       <c r="E18" s="3">
-        <v>1257600</v>
+        <v>1215500</v>
       </c>
       <c r="F18" s="3">
-        <v>770700</v>
+        <v>744900</v>
       </c>
       <c r="G18" s="3">
-        <v>698900</v>
+        <v>675500</v>
       </c>
       <c r="H18" s="3">
-        <v>-93200</v>
+        <v>-90000</v>
       </c>
       <c r="I18" s="3">
-        <v>72600</v>
+        <v>70200</v>
       </c>
       <c r="J18" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="K18" s="3">
         <v>-3550100</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>355700</v>
+        <v>343800</v>
       </c>
       <c r="E20" s="3">
-        <v>415000</v>
+        <v>401100</v>
       </c>
       <c r="F20" s="3">
-        <v>315100</v>
+        <v>304500</v>
       </c>
       <c r="G20" s="3">
-        <v>-988400</v>
+        <v>-955300</v>
       </c>
       <c r="H20" s="3">
-        <v>240700</v>
+        <v>232600</v>
       </c>
       <c r="I20" s="3">
-        <v>695000</v>
+        <v>671800</v>
       </c>
       <c r="J20" s="3">
-        <v>426300</v>
+        <v>412000</v>
       </c>
       <c r="K20" s="3">
         <v>746200</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1986400</v>
+        <v>1917100</v>
       </c>
       <c r="E21" s="3">
-        <v>2257700</v>
+        <v>2179500</v>
       </c>
       <c r="F21" s="3">
-        <v>1671100</v>
+        <v>1612600</v>
       </c>
       <c r="G21" s="3">
-        <v>257500</v>
+        <v>246500</v>
       </c>
       <c r="H21" s="3">
-        <v>686900</v>
+        <v>661600</v>
       </c>
       <c r="I21" s="3">
-        <v>1578800</v>
+        <v>1522400</v>
       </c>
       <c r="J21" s="3">
-        <v>1555800</v>
+        <v>1498800</v>
       </c>
       <c r="K21" s="3">
         <v>-1247000</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33300</v>
+        <v>32200</v>
       </c>
       <c r="E22" s="3">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="F22" s="3">
-        <v>31300</v>
+        <v>30200</v>
       </c>
       <c r="G22" s="3">
-        <v>37200</v>
+        <v>35900</v>
       </c>
       <c r="H22" s="3">
-        <v>72600</v>
+        <v>70100</v>
       </c>
       <c r="I22" s="3">
-        <v>201700</v>
+        <v>195000</v>
       </c>
       <c r="J22" s="3">
-        <v>127400</v>
+        <v>123100</v>
       </c>
       <c r="K22" s="3">
         <v>131400</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1298200</v>
+        <v>1254700</v>
       </c>
       <c r="E23" s="3">
-        <v>1642700</v>
+        <v>1587700</v>
       </c>
       <c r="F23" s="3">
-        <v>1054500</v>
+        <v>1019200</v>
       </c>
       <c r="G23" s="3">
-        <v>-326600</v>
+        <v>-315700</v>
       </c>
       <c r="H23" s="3">
-        <v>74900</v>
+        <v>72400</v>
       </c>
       <c r="I23" s="3">
-        <v>565900</v>
+        <v>547000</v>
       </c>
       <c r="J23" s="3">
-        <v>308800</v>
+        <v>298400</v>
       </c>
       <c r="K23" s="3">
         <v>-2935300</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>439500</v>
+        <v>424800</v>
       </c>
       <c r="E24" s="3">
-        <v>170700</v>
+        <v>165000</v>
       </c>
       <c r="F24" s="3">
-        <v>94500</v>
+        <v>91400</v>
       </c>
       <c r="G24" s="3">
-        <v>241300</v>
+        <v>233200</v>
       </c>
       <c r="H24" s="3">
-        <v>106800</v>
+        <v>103300</v>
       </c>
       <c r="I24" s="3">
-        <v>-425500</v>
+        <v>-411300</v>
       </c>
       <c r="J24" s="3">
-        <v>398200</v>
+        <v>384900</v>
       </c>
       <c r="K24" s="3">
         <v>1811100</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>858700</v>
+        <v>829900</v>
       </c>
       <c r="E26" s="3">
-        <v>1472000</v>
+        <v>1422700</v>
       </c>
       <c r="F26" s="3">
-        <v>959900</v>
+        <v>927800</v>
       </c>
       <c r="G26" s="3">
-        <v>-567900</v>
+        <v>-548900</v>
       </c>
       <c r="H26" s="3">
-        <v>-31900</v>
+        <v>-30800</v>
       </c>
       <c r="I26" s="3">
-        <v>991500</v>
+        <v>958300</v>
       </c>
       <c r="J26" s="3">
-        <v>-89500</v>
+        <v>-86500</v>
       </c>
       <c r="K26" s="3">
         <v>-4746400</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>869600</v>
+        <v>840400</v>
       </c>
       <c r="E27" s="3">
-        <v>1337300</v>
+        <v>1292500</v>
       </c>
       <c r="F27" s="3">
-        <v>836100</v>
+        <v>808100</v>
       </c>
       <c r="G27" s="3">
-        <v>-692800</v>
+        <v>-669600</v>
       </c>
       <c r="H27" s="3">
-        <v>-185400</v>
+        <v>-179200</v>
       </c>
       <c r="I27" s="3">
-        <v>741600</v>
+        <v>716700</v>
       </c>
       <c r="J27" s="3">
-        <v>1247000</v>
+        <v>1205300</v>
       </c>
       <c r="K27" s="3">
         <v>-4334700</v>
@@ -1540,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-53100</v>
+        <v>-51300</v>
       </c>
       <c r="G29" s="3">
-        <v>-94800</v>
+        <v>-91600</v>
       </c>
       <c r="H29" s="3">
-        <v>7146400</v>
+        <v>6907200</v>
       </c>
       <c r="I29" s="3">
-        <v>4782000</v>
+        <v>4621900</v>
       </c>
       <c r="J29" s="3">
-        <v>-7881100</v>
+        <v>-7617300</v>
       </c>
       <c r="K29" s="3">
         <v>953600</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-355700</v>
+        <v>-343800</v>
       </c>
       <c r="E32" s="3">
-        <v>-415000</v>
+        <v>-401100</v>
       </c>
       <c r="F32" s="3">
-        <v>-315100</v>
+        <v>-304500</v>
       </c>
       <c r="G32" s="3">
-        <v>988400</v>
+        <v>955300</v>
       </c>
       <c r="H32" s="3">
-        <v>-240700</v>
+        <v>-232600</v>
       </c>
       <c r="I32" s="3">
-        <v>-695000</v>
+        <v>-671800</v>
       </c>
       <c r="J32" s="3">
-        <v>-426300</v>
+        <v>-412000</v>
       </c>
       <c r="K32" s="3">
         <v>-746200</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>869600</v>
+        <v>840400</v>
       </c>
       <c r="E33" s="3">
-        <v>1337300</v>
+        <v>1292500</v>
       </c>
       <c r="F33" s="3">
-        <v>783000</v>
+        <v>756800</v>
       </c>
       <c r="G33" s="3">
-        <v>-787500</v>
+        <v>-761200</v>
       </c>
       <c r="H33" s="3">
-        <v>6961100</v>
+        <v>6728000</v>
       </c>
       <c r="I33" s="3">
-        <v>5523600</v>
+        <v>5338600</v>
       </c>
       <c r="J33" s="3">
-        <v>-6634100</v>
+        <v>-6412000</v>
       </c>
       <c r="K33" s="3">
         <v>-3381100</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>869600</v>
+        <v>840400</v>
       </c>
       <c r="E35" s="3">
-        <v>1337300</v>
+        <v>1292500</v>
       </c>
       <c r="F35" s="3">
-        <v>783000</v>
+        <v>756800</v>
       </c>
       <c r="G35" s="3">
-        <v>-787500</v>
+        <v>-761200</v>
       </c>
       <c r="H35" s="3">
-        <v>6961100</v>
+        <v>6728000</v>
       </c>
       <c r="I35" s="3">
-        <v>5523600</v>
+        <v>5338600</v>
       </c>
       <c r="J35" s="3">
-        <v>-6634100</v>
+        <v>-6412000</v>
       </c>
       <c r="K35" s="3">
         <v>-3381100</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2244400</v>
+        <v>2169200</v>
       </c>
       <c r="E41" s="3">
-        <v>2893800</v>
+        <v>2796900</v>
       </c>
       <c r="F41" s="3">
-        <v>3609900</v>
+        <v>3489000</v>
       </c>
       <c r="G41" s="3">
-        <v>2589800</v>
+        <v>2503100</v>
       </c>
       <c r="H41" s="3">
-        <v>9175000</v>
+        <v>8867900</v>
       </c>
       <c r="I41" s="3">
-        <v>3440600</v>
+        <v>3325400</v>
       </c>
       <c r="J41" s="3">
-        <v>3579900</v>
+        <v>3460100</v>
       </c>
       <c r="K41" s="3">
         <v>7127400</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6444300</v>
+        <v>6228500</v>
       </c>
       <c r="E43" s="3">
-        <v>6324400</v>
+        <v>6112700</v>
       </c>
       <c r="F43" s="3">
-        <v>6770400</v>
+        <v>6543700</v>
       </c>
       <c r="G43" s="3">
-        <v>7154800</v>
+        <v>6915300</v>
       </c>
       <c r="H43" s="3">
-        <v>7544600</v>
+        <v>7292000</v>
       </c>
       <c r="I43" s="3">
-        <v>7775800</v>
+        <v>7515500</v>
       </c>
       <c r="J43" s="3">
-        <v>7265000</v>
+        <v>7021700</v>
       </c>
       <c r="K43" s="3">
         <v>9314900</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4081900</v>
+        <v>3945200</v>
       </c>
       <c r="E44" s="3">
-        <v>3653400</v>
+        <v>3531100</v>
       </c>
       <c r="F44" s="3">
-        <v>3268500</v>
+        <v>3159100</v>
       </c>
       <c r="G44" s="3">
-        <v>3313600</v>
+        <v>3202700</v>
       </c>
       <c r="H44" s="3">
-        <v>3221200</v>
+        <v>3113300</v>
       </c>
       <c r="I44" s="3">
-        <v>3227300</v>
+        <v>3119300</v>
       </c>
       <c r="J44" s="3">
-        <v>3439700</v>
+        <v>3324600</v>
       </c>
       <c r="K44" s="3">
         <v>5359100</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1394500</v>
+        <v>1347800</v>
       </c>
       <c r="E45" s="3">
-        <v>2696100</v>
+        <v>2605900</v>
       </c>
       <c r="F45" s="3">
-        <v>990600</v>
+        <v>957400</v>
       </c>
       <c r="G45" s="3">
-        <v>943500</v>
+        <v>911900</v>
       </c>
       <c r="H45" s="3">
-        <v>901800</v>
+        <v>871600</v>
       </c>
       <c r="I45" s="3">
-        <v>10144600</v>
+        <v>9805000</v>
       </c>
       <c r="J45" s="3">
-        <v>7626400</v>
+        <v>7371100</v>
       </c>
       <c r="K45" s="3">
         <v>3619200</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14165000</v>
+        <v>13690800</v>
       </c>
       <c r="E46" s="3">
-        <v>15567700</v>
+        <v>15046500</v>
       </c>
       <c r="F46" s="3">
-        <v>14639300</v>
+        <v>14149200</v>
       </c>
       <c r="G46" s="3">
-        <v>14001700</v>
+        <v>13533000</v>
       </c>
       <c r="H46" s="3">
-        <v>20842600</v>
+        <v>20144800</v>
       </c>
       <c r="I46" s="3">
-        <v>24588400</v>
+        <v>23765200</v>
       </c>
       <c r="J46" s="3">
-        <v>21911000</v>
+        <v>21177400</v>
       </c>
       <c r="K46" s="3">
         <v>25420600</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3683300</v>
+        <v>3560000</v>
       </c>
       <c r="E47" s="3">
-        <v>3872000</v>
+        <v>3742400</v>
       </c>
       <c r="F47" s="3">
-        <v>3668800</v>
+        <v>3545900</v>
       </c>
       <c r="G47" s="3">
-        <v>3522300</v>
+        <v>3404300</v>
       </c>
       <c r="H47" s="3">
-        <v>4091900</v>
+        <v>3954900</v>
       </c>
       <c r="I47" s="3">
-        <v>1688900</v>
+        <v>1632400</v>
       </c>
       <c r="J47" s="3">
-        <v>1551500</v>
+        <v>1499500</v>
       </c>
       <c r="K47" s="3">
         <v>2672100</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4008100</v>
+        <v>3873900</v>
       </c>
       <c r="E48" s="3">
-        <v>3884000</v>
+        <v>3753900</v>
       </c>
       <c r="F48" s="3">
-        <v>3953300</v>
+        <v>3820900</v>
       </c>
       <c r="G48" s="3">
-        <v>3955800</v>
+        <v>3823400</v>
       </c>
       <c r="H48" s="3">
-        <v>2649900</v>
+        <v>2561200</v>
       </c>
       <c r="I48" s="3">
-        <v>2511900</v>
+        <v>2427800</v>
       </c>
       <c r="J48" s="3">
-        <v>2773600</v>
+        <v>2680800</v>
       </c>
       <c r="K48" s="3">
         <v>5838100</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1082400</v>
+        <v>1046100</v>
       </c>
       <c r="E49" s="3">
-        <v>1087900</v>
+        <v>1051500</v>
       </c>
       <c r="F49" s="3">
-        <v>884600</v>
+        <v>854900</v>
       </c>
       <c r="G49" s="3">
-        <v>822200</v>
+        <v>794700</v>
       </c>
       <c r="H49" s="3">
-        <v>801000</v>
+        <v>774200</v>
       </c>
       <c r="I49" s="3">
-        <v>869100</v>
+        <v>840000</v>
       </c>
       <c r="J49" s="3">
-        <v>4859800</v>
+        <v>4697100</v>
       </c>
       <c r="K49" s="3">
         <v>4703200</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1376000</v>
+        <v>1329900</v>
       </c>
       <c r="E52" s="3">
-        <v>1244600</v>
+        <v>1202900</v>
       </c>
       <c r="F52" s="3">
-        <v>903400</v>
+        <v>873200</v>
       </c>
       <c r="G52" s="3">
-        <v>942200</v>
+        <v>910600</v>
       </c>
       <c r="H52" s="3">
-        <v>1137300</v>
+        <v>1099300</v>
       </c>
       <c r="I52" s="3">
-        <v>969600</v>
+        <v>937100</v>
       </c>
       <c r="J52" s="3">
-        <v>719600</v>
+        <v>695500</v>
       </c>
       <c r="K52" s="3">
         <v>1301100</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24314800</v>
+        <v>23500700</v>
       </c>
       <c r="E54" s="3">
-        <v>25656100</v>
+        <v>24797200</v>
       </c>
       <c r="F54" s="3">
-        <v>24049400</v>
+        <v>23244200</v>
       </c>
       <c r="G54" s="3">
-        <v>23244200</v>
+        <v>22466000</v>
       </c>
       <c r="H54" s="3">
-        <v>29522800</v>
+        <v>28534400</v>
       </c>
       <c r="I54" s="3">
-        <v>30627900</v>
+        <v>29602500</v>
       </c>
       <c r="J54" s="3">
-        <v>29331600</v>
+        <v>28349600</v>
       </c>
       <c r="K54" s="3">
         <v>39935100</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4877500</v>
+        <v>4714200</v>
       </c>
       <c r="E57" s="3">
-        <v>5202200</v>
+        <v>5028000</v>
       </c>
       <c r="F57" s="3">
-        <v>5027600</v>
+        <v>4859300</v>
       </c>
       <c r="G57" s="3">
-        <v>5414000</v>
+        <v>5232800</v>
       </c>
       <c r="H57" s="3">
-        <v>6582300</v>
+        <v>6362000</v>
       </c>
       <c r="I57" s="3">
-        <v>6789300</v>
+        <v>6562000</v>
       </c>
       <c r="J57" s="3">
-        <v>6464100</v>
+        <v>6247700</v>
       </c>
       <c r="K57" s="3">
         <v>10268600</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>411900</v>
+        <v>398100</v>
       </c>
       <c r="E58" s="3">
-        <v>519900</v>
+        <v>502500</v>
       </c>
       <c r="F58" s="3">
-        <v>109800</v>
+        <v>106200</v>
       </c>
       <c r="G58" s="3">
-        <v>430400</v>
+        <v>416000</v>
       </c>
       <c r="H58" s="3">
-        <v>2457700</v>
+        <v>2375400</v>
       </c>
       <c r="I58" s="3">
-        <v>2071700</v>
+        <v>2002300</v>
       </c>
       <c r="J58" s="3">
-        <v>6965300</v>
+        <v>6732100</v>
       </c>
       <c r="K58" s="3">
         <v>4554100</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4114500</v>
+        <v>3976800</v>
       </c>
       <c r="E59" s="3">
-        <v>4650700</v>
+        <v>4495000</v>
       </c>
       <c r="F59" s="3">
-        <v>3483600</v>
+        <v>3367000</v>
       </c>
       <c r="G59" s="3">
-        <v>3759300</v>
+        <v>3633400</v>
       </c>
       <c r="H59" s="3">
-        <v>3864700</v>
+        <v>3735300</v>
       </c>
       <c r="I59" s="3">
-        <v>7839500</v>
+        <v>7577100</v>
       </c>
       <c r="J59" s="3">
-        <v>7955500</v>
+        <v>7689200</v>
       </c>
       <c r="K59" s="3">
         <v>7756500</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9403900</v>
+        <v>9089100</v>
       </c>
       <c r="E60" s="3">
-        <v>10372800</v>
+        <v>10025500</v>
       </c>
       <c r="F60" s="3">
-        <v>8621000</v>
+        <v>8332400</v>
       </c>
       <c r="G60" s="3">
-        <v>9603700</v>
+        <v>9282200</v>
       </c>
       <c r="H60" s="3">
-        <v>12904700</v>
+        <v>12472700</v>
       </c>
       <c r="I60" s="3">
-        <v>16700600</v>
+        <v>16141400</v>
       </c>
       <c r="J60" s="3">
-        <v>19131100</v>
+        <v>18490600</v>
       </c>
       <c r="K60" s="3">
         <v>22579300</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2283700</v>
+        <v>2207300</v>
       </c>
       <c r="E61" s="3">
-        <v>2182300</v>
+        <v>2109300</v>
       </c>
       <c r="F61" s="3">
-        <v>2599900</v>
+        <v>2512800</v>
       </c>
       <c r="G61" s="3">
-        <v>1193700</v>
+        <v>1153700</v>
       </c>
       <c r="H61" s="3">
-        <v>528500</v>
+        <v>510800</v>
       </c>
       <c r="I61" s="3">
-        <v>2685200</v>
+        <v>2595300</v>
       </c>
       <c r="J61" s="3">
-        <v>3559800</v>
+        <v>3440700</v>
       </c>
       <c r="K61" s="3">
         <v>6110100</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3441500</v>
+        <v>3326300</v>
       </c>
       <c r="E62" s="3">
-        <v>3712100</v>
+        <v>3587800</v>
       </c>
       <c r="F62" s="3">
-        <v>3866300</v>
+        <v>3736900</v>
       </c>
       <c r="G62" s="3">
-        <v>5051800</v>
+        <v>4882600</v>
       </c>
       <c r="H62" s="3">
-        <v>4417000</v>
+        <v>4269200</v>
       </c>
       <c r="I62" s="3">
-        <v>4298400</v>
+        <v>4154500</v>
       </c>
       <c r="J62" s="3">
-        <v>8534700</v>
+        <v>8249000</v>
       </c>
       <c r="K62" s="3">
         <v>6304600</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15745300</v>
+        <v>15218100</v>
       </c>
       <c r="E66" s="3">
-        <v>17366600</v>
+        <v>16785200</v>
       </c>
       <c r="F66" s="3">
-        <v>16049000</v>
+        <v>15511700</v>
       </c>
       <c r="G66" s="3">
-        <v>16787700</v>
+        <v>16225700</v>
       </c>
       <c r="H66" s="3">
-        <v>19515500</v>
+        <v>18862100</v>
       </c>
       <c r="I66" s="3">
-        <v>25247800</v>
+        <v>24402500</v>
       </c>
       <c r="J66" s="3">
-        <v>33130300</v>
+        <v>32021100</v>
       </c>
       <c r="K66" s="3">
         <v>37517800</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7685900</v>
+        <v>7428600</v>
       </c>
       <c r="E72" s="3">
-        <v>7680900</v>
+        <v>7423800</v>
       </c>
       <c r="F72" s="3">
-        <v>7743400</v>
+        <v>7484100</v>
       </c>
       <c r="G72" s="3">
-        <v>7084600</v>
+        <v>6847400</v>
       </c>
       <c r="H72" s="3">
-        <v>10500500</v>
+        <v>10149000</v>
       </c>
       <c r="I72" s="3">
-        <v>1536200</v>
+        <v>1484800</v>
       </c>
       <c r="J72" s="3">
-        <v>-3987300</v>
+        <v>-3853800</v>
       </c>
       <c r="K72" s="3">
         <v>-564300</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8569500</v>
+        <v>8282600</v>
       </c>
       <c r="E76" s="3">
-        <v>8289600</v>
+        <v>8012000</v>
       </c>
       <c r="F76" s="3">
-        <v>8000300</v>
+        <v>7732500</v>
       </c>
       <c r="G76" s="3">
-        <v>6456500</v>
+        <v>6240300</v>
       </c>
       <c r="H76" s="3">
-        <v>10007200</v>
+        <v>9672200</v>
       </c>
       <c r="I76" s="3">
-        <v>5380100</v>
+        <v>5200000</v>
       </c>
       <c r="J76" s="3">
-        <v>-3798700</v>
+        <v>-3671600</v>
       </c>
       <c r="K76" s="3">
         <v>2417200</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>869600</v>
+        <v>840400</v>
       </c>
       <c r="E81" s="3">
-        <v>1337300</v>
+        <v>1292500</v>
       </c>
       <c r="F81" s="3">
-        <v>783000</v>
+        <v>756800</v>
       </c>
       <c r="G81" s="3">
-        <v>-787500</v>
+        <v>-761200</v>
       </c>
       <c r="H81" s="3">
-        <v>6961100</v>
+        <v>6728000</v>
       </c>
       <c r="I81" s="3">
-        <v>5523600</v>
+        <v>5338600</v>
       </c>
       <c r="J81" s="3">
-        <v>-6634100</v>
+        <v>-6412000</v>
       </c>
       <c r="K81" s="3">
         <v>-3381100</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>654900</v>
+        <v>633000</v>
       </c>
       <c r="E83" s="3">
-        <v>585000</v>
+        <v>565400</v>
       </c>
       <c r="F83" s="3">
-        <v>585400</v>
+        <v>565800</v>
       </c>
       <c r="G83" s="3">
-        <v>547000</v>
+        <v>528600</v>
       </c>
       <c r="H83" s="3">
-        <v>539400</v>
+        <v>521400</v>
       </c>
       <c r="I83" s="3">
-        <v>811100</v>
+        <v>784000</v>
       </c>
       <c r="J83" s="3">
-        <v>1119600</v>
+        <v>1082200</v>
       </c>
       <c r="K83" s="3">
         <v>1571900</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>233900</v>
+        <v>226000</v>
       </c>
       <c r="E89" s="3">
-        <v>1563400</v>
+        <v>1511000</v>
       </c>
       <c r="F89" s="3">
-        <v>997100</v>
+        <v>963800</v>
       </c>
       <c r="G89" s="3">
-        <v>-976600</v>
+        <v>-943900</v>
       </c>
       <c r="H89" s="3">
-        <v>857800</v>
+        <v>829000</v>
       </c>
       <c r="I89" s="3">
-        <v>256700</v>
+        <v>248100</v>
       </c>
       <c r="J89" s="3">
-        <v>921700</v>
+        <v>890800</v>
       </c>
       <c r="K89" s="3">
         <v>-9000</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-815300</v>
+        <v>-788000</v>
       </c>
       <c r="E91" s="3">
-        <v>-651100</v>
+        <v>-629300</v>
       </c>
       <c r="F91" s="3">
-        <v>-807000</v>
+        <v>-779900</v>
       </c>
       <c r="G91" s="3">
-        <v>-819400</v>
+        <v>-791900</v>
       </c>
       <c r="H91" s="3">
-        <v>-842000</v>
+        <v>-813800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1229900</v>
+        <v>-1188700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1090700</v>
+        <v>-1054100</v>
       </c>
       <c r="K91" s="3">
         <v>-1778800</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-60500</v>
+        <v>-58500</v>
       </c>
       <c r="E94" s="3">
-        <v>-855500</v>
+        <v>-826800</v>
       </c>
       <c r="F94" s="3">
-        <v>-732800</v>
+        <v>-708300</v>
       </c>
       <c r="G94" s="3">
-        <v>-841700</v>
+        <v>-813500</v>
       </c>
       <c r="H94" s="3">
-        <v>8968300</v>
+        <v>8668100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1007900</v>
+        <v>-974200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1229200</v>
+        <v>-1188100</v>
       </c>
       <c r="K94" s="3">
         <v>4802800</v>
@@ -3998,25 +3998,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-925900</v>
+        <v>-894900</v>
       </c>
       <c r="E96" s="3">
-        <v>-751800</v>
+        <v>-726600</v>
       </c>
       <c r="F96" s="3">
-        <v>-146300</v>
+        <v>-141400</v>
       </c>
       <c r="G96" s="3">
-        <v>-160200</v>
+        <v>-154800</v>
       </c>
       <c r="H96" s="3">
-        <v>-152900</v>
+        <v>-147700</v>
       </c>
       <c r="I96" s="3">
-        <v>-75200</v>
+        <v>-72600</v>
       </c>
       <c r="J96" s="3">
-        <v>-87600</v>
+        <v>-84700</v>
       </c>
       <c r="K96" s="3">
         <v>-234100</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-977900</v>
+        <v>-945200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1489600</v>
+        <v>-1439800</v>
       </c>
       <c r="F100" s="3">
-        <v>672000</v>
+        <v>649500</v>
       </c>
       <c r="G100" s="3">
-        <v>-4721400</v>
+        <v>-4563300</v>
       </c>
       <c r="H100" s="3">
-        <v>-4431300</v>
+        <v>-4282900</v>
       </c>
       <c r="I100" s="3">
-        <v>-437000</v>
+        <v>-422400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1509700</v>
+        <v>-1459200</v>
       </c>
       <c r="K100" s="3">
         <v>997700</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="E101" s="3">
-        <v>65600</v>
+        <v>63400</v>
       </c>
       <c r="F101" s="3">
-        <v>83800</v>
+        <v>81000</v>
       </c>
       <c r="G101" s="3">
-        <v>-45600</v>
+        <v>-44100</v>
       </c>
       <c r="H101" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="I101" s="3">
-        <v>-11100</v>
+        <v>-10700</v>
       </c>
       <c r="J101" s="3">
-        <v>-22800</v>
+        <v>-22000</v>
       </c>
       <c r="K101" s="3">
         <v>-86700</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-798300</v>
+        <v>-771600</v>
       </c>
       <c r="E102" s="3">
-        <v>-716100</v>
+        <v>-692100</v>
       </c>
       <c r="F102" s="3">
-        <v>1020100</v>
+        <v>985900</v>
       </c>
       <c r="G102" s="3">
-        <v>-6585200</v>
+        <v>-6364800</v>
       </c>
       <c r="H102" s="3">
-        <v>5405700</v>
+        <v>5224800</v>
       </c>
       <c r="I102" s="3">
-        <v>-1199300</v>
+        <v>-1159200</v>
       </c>
       <c r="J102" s="3">
-        <v>-1840000</v>
+        <v>-1778400</v>
       </c>
       <c r="K102" s="3">
         <v>5704800</v>
